--- a/DB.xlsx
+++ b/DB.xlsx
@@ -5,14 +5,16 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daita\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\thezo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="100" windowWidth="23900" windowHeight="14540" tabRatio="728"/>
+    <workbookView xWindow="120" yWindow="100" windowWidth="23900" windowHeight="14540" tabRatio="728" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="member(sample)" sheetId="2" r:id="rId1"/>
+    <sheet name="approval" sheetId="3" r:id="rId2"/>
+    <sheet name="mail" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'member(sample)'!$A$1:$Q$491</definedName>
@@ -9299,8 +9301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q491"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -33436,4 +33438,33 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DB.xlsx
+++ b/DB.xlsx
@@ -1,16 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\thezo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="23895" windowHeight="13740" tabRatio="728"/>
+    <workbookView xWindow="120" yWindow="108" windowWidth="23892" windowHeight="13740" tabRatio="728" firstSheet="4" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="member(sample)" sheetId="2" r:id="rId1"/>
     <sheet name="approval" sheetId="3" r:id="rId2"/>
     <sheet name="mail" sheetId="4" r:id="rId3"/>
     <sheet name="department" sheetId="5" r:id="rId4"/>
+    <sheet name="Jaewon_colleague" sheetId="6" r:id="rId5"/>
+    <sheet name="Jaewon_chatroom" sheetId="7" r:id="rId6"/>
+    <sheet name="Jaewon_chat_connect" sheetId="8" r:id="rId7"/>
+    <sheet name="Jaewon_chatlog" sheetId="9" r:id="rId8"/>
+    <sheet name="Jaewon_notification" sheetId="10" r:id="rId9"/>
+    <sheet name="Jaewon_nf_check" sheetId="11" r:id="rId10"/>
+    <sheet name="Jaewon_message" sheetId="12" r:id="rId11"/>
+    <sheet name="Jaewon_msg_report" sheetId="13" r:id="rId12"/>
+    <sheet name="Jaewon_admin_log" sheetId="14" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'member(sample)'!$A$1:$Q$491</definedName>
@@ -21,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="638">
   <si>
     <t xml:space="preserve">	서울특별시송파구올림픽로 99(잠실동, 잠실엘스)</t>
   </si>
@@ -1764,13 +1778,435 @@
   </si>
   <si>
     <t>user42@thezo.com</t>
+  </si>
+  <si>
+    <t>MYMEM_NO</t>
+  </si>
+  <si>
+    <t>COMEM_NO</t>
+  </si>
+  <si>
+    <t>DEL_STATUS</t>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOM_NO</t>
+  </si>
+  <si>
+    <t>ROOM_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROUP_STATUS</t>
+  </si>
+  <si>
+    <t>5,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발팀 단톡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름수정 단톡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOM_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHATLOG_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNREAD_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>START_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>END_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONN_STATUS</t>
+  </si>
+  <si>
+    <t>MEM_NO</t>
+  </si>
+  <si>
+    <t>CHAT_CONTENT</t>
+  </si>
+  <si>
+    <t>CHAT_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAT_TYPE</t>
+  </si>
+  <si>
+    <t>ORIGIN_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHANGE_NAME</t>
+  </si>
+  <si>
+    <t>FILE_PATH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST입니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨일이죠?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">채팅하셨으면 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말씀을 하셔야죠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저기요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저기요???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요 반가워요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">학생들 반가워요 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEPT_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>END_DATE</t>
+  </si>
+  <si>
+    <t>NF_CONTENT</t>
+  </si>
+  <si>
+    <t>ENROLL_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전사원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전사원 알림 테스트입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인사팀 알림 테스트입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총무팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총무팀 알림 테스트입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회계팀 알림 테스트입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발본부 알림 테스트입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발1팀 알림 테스트입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발2팀 알림 테스트입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>READ_STATUS</t>
+  </si>
+  <si>
+    <t>MSG_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECIPIENT_NO</t>
+  </si>
+  <si>
+    <t>SENDER_NO</t>
+  </si>
+  <si>
+    <t>MSG_STATUS</t>
+  </si>
+  <si>
+    <t>CONTENT_STATUS</t>
+  </si>
+  <si>
+    <t>MSG_CONTENT</t>
+  </si>
+  <si>
+    <t>TO_RECYCLE_BIN</t>
+  </si>
+  <si>
+    <t>FROM_RECYCLE_BIN</t>
+  </si>
+  <si>
+    <t>TO_DEL_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FROM_DEL_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요 신재원입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요 관리자입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받은 쪽지 휴지통으로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보낸 쪽지 휴지통으로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받은 쪽지 완전 삭제 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보낸 쪽지 완전 삭제 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고처리로 넘어간것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고처리 완료된것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSG__REPORT_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPORTER_NO</t>
+  </si>
+  <si>
+    <t>REPORTED_NO</t>
+  </si>
+  <si>
+    <t>REPORT_TYPE</t>
+  </si>
+  <si>
+    <t>REPORT_CONTENT</t>
+  </si>
+  <si>
+    <t>REPORT_DATE</t>
+  </si>
+  <si>
+    <t>DEL_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HANDLE_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HANDLE_DATE</t>
+  </si>
+  <si>
+    <t>HANDLE_CONTENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESULT_STATUS</t>
+  </si>
+  <si>
+    <t>스팸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트용 신고넘김</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처리중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트용 신고처리완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처리완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장난치지마세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반려</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOG_NO</t>
+  </si>
+  <si>
+    <t>DEVELOPER_NAME</t>
+  </si>
+  <si>
+    <t>MODIFICATION_CONTENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENROLL_DATE</t>
+  </si>
+  <si>
+    <t>관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기초적인 모든 세팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">안알려줌 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몰래온 온 손님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더조 개발팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기초적인 모든 세팅과 회사 설정 등등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1816,6 +2252,59 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1834,13 +2323,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1880,9 +2370,47 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="2"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1941,7 +2469,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1976,7 +2504,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2187,40 +2715,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8" style="4" customWidth="1"/>
     <col min="2" max="2" width="9" style="4"/>
     <col min="3" max="3" width="10" style="4" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="4" customWidth="1"/>
     <col min="5" max="5" width="9" style="4"/>
-    <col min="6" max="6" width="17.25" style="4" customWidth="1"/>
-    <col min="7" max="7" width="17.625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="11.125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="60.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.19921875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="17.59765625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.09765625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="11.09765625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="60.8984375" style="4" customWidth="1"/>
     <col min="11" max="11" width="9" style="4"/>
     <col min="12" max="12" width="11.5" style="4" customWidth="1"/>
     <col min="13" max="14" width="9" style="4"/>
-    <col min="15" max="15" width="13.125" style="4" customWidth="1"/>
-    <col min="16" max="16" width="12.375" style="4" customWidth="1"/>
-    <col min="17" max="17" width="15.25" style="4" customWidth="1"/>
-    <col min="18" max="18" width="16.625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="13.375" style="4" customWidth="1"/>
-    <col min="20" max="20" width="15.25" style="4" customWidth="1"/>
-    <col min="21" max="21" width="15.875" style="4" customWidth="1"/>
-    <col min="22" max="22" width="16.375" style="4" customWidth="1"/>
-    <col min="23" max="23" width="13.375" style="4" customWidth="1"/>
-    <col min="24" max="24" width="12.125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="13.09765625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="12.3984375" style="4" customWidth="1"/>
+    <col min="17" max="17" width="15.19921875" style="4" customWidth="1"/>
+    <col min="18" max="18" width="16.59765625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="13.3984375" style="4" customWidth="1"/>
+    <col min="20" max="20" width="15.19921875" style="4" customWidth="1"/>
+    <col min="21" max="21" width="15.8984375" style="4" customWidth="1"/>
+    <col min="22" max="22" width="16.3984375" style="4" customWidth="1"/>
+    <col min="23" max="23" width="13.3984375" style="4" customWidth="1"/>
+    <col min="24" max="24" width="12.09765625" style="4" customWidth="1"/>
     <col min="25" max="25" width="9" style="4"/>
     <col min="26" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>211</v>
       </c>
@@ -2297,7 +2825,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2353,7 +2881,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2412,7 +2940,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2471,7 +2999,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2530,7 +3058,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2562,10 +3090,10 @@
         <v>0</v>
       </c>
       <c r="K6" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>240</v>
+        <v>312</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>266</v>
@@ -2586,7 +3114,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2642,7 +3170,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2698,7 +3226,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2757,7 +3285,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2813,7 +3341,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2869,7 +3397,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2925,7 +3453,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2984,7 +3512,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3040,7 +3568,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -3096,7 +3624,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -3152,7 +3680,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -3211,7 +3739,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3270,7 +3798,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -3326,7 +3854,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -3382,7 +3910,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -3438,7 +3966,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -3497,7 +4025,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -3553,7 +4081,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -3609,7 +4137,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -3665,7 +4193,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3724,7 +4252,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -3780,7 +4308,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -3836,7 +4364,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -3892,7 +4420,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -3951,7 +4479,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -4010,7 +4538,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -4066,7 +4594,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -4122,7 +4650,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -4178,7 +4706,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -4237,7 +4765,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -4293,7 +4821,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -4349,7 +4877,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -4405,7 +4933,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -4464,7 +4992,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -4520,7 +5048,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -4576,7 +5104,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -4632,7 +5160,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -4688,7 +5216,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -4744,7 +5272,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -4800,7 +5328,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -4856,7 +5384,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -4912,7 +5440,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -4968,7 +5496,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -5024,7 +5552,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -5083,7 +5611,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -5139,7 +5667,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -5195,7 +5723,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -5251,7 +5779,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -5310,7 +5838,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -5366,7 +5894,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -5422,7 +5950,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -5478,7 +6006,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -5534,7 +6062,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -5590,7 +6118,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -5646,7 +6174,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -5702,7 +6230,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -5758,7 +6286,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -5814,7 +6342,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -5870,7 +6398,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -5926,7 +6454,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -5982,7 +6510,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -6038,7 +6566,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -6094,7 +6622,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -6150,7 +6678,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -6206,7 +6734,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -6262,7 +6790,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -6318,7 +6846,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -6374,7 +6902,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
       <c r="D74" s="2"/>
@@ -6387,7 +6915,7 @@
       <c r="P74" s="8"/>
       <c r="Q74" s="8"/>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="2"/>
@@ -6400,7 +6928,7 @@
       <c r="P75" s="8"/>
       <c r="Q75" s="8"/>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="2"/>
@@ -6413,7 +6941,7 @@
       <c r="P76" s="8"/>
       <c r="Q76" s="8"/>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
       <c r="D77" s="2"/>
@@ -6426,7 +6954,7 @@
       <c r="P77" s="8"/>
       <c r="Q77" s="8"/>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="2"/>
@@ -6439,7 +6967,7 @@
       <c r="P78" s="8"/>
       <c r="Q78" s="8"/>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="2"/>
@@ -6452,7 +6980,7 @@
       <c r="P79" s="8"/>
       <c r="Q79" s="8"/>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -6466,7 +6994,7 @@
       <c r="P80" s="8"/>
       <c r="Q80" s="8"/>
     </row>
-    <row r="81" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -6485,7 +7013,7 @@
       <c r="P81" s="8"/>
       <c r="Q81" s="8"/>
     </row>
-    <row r="82" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -6504,7 +7032,7 @@
       <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
     </row>
-    <row r="83" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -6523,7 +7051,7 @@
       <c r="P83" s="4"/>
       <c r="Q83" s="4"/>
     </row>
-    <row r="84" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
@@ -6542,7 +7070,7 @@
       <c r="P84" s="4"/>
       <c r="Q84" s="4"/>
     </row>
-    <row r="85" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
@@ -6561,7 +7089,7 @@
       <c r="P85" s="4"/>
       <c r="Q85" s="4"/>
     </row>
-    <row r="86" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
@@ -6580,7 +7108,7 @@
       <c r="P86" s="4"/>
       <c r="Q86" s="4"/>
     </row>
-    <row r="87" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
@@ -6599,7 +7127,7 @@
       <c r="P87" s="4"/>
       <c r="Q87" s="4"/>
     </row>
-    <row r="88" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -6618,7 +7146,7 @@
       <c r="P88" s="4"/>
       <c r="Q88" s="4"/>
     </row>
-    <row r="89" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -6637,7 +7165,7 @@
       <c r="P89" s="4"/>
       <c r="Q89" s="4"/>
     </row>
-    <row r="90" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -6656,7 +7184,7 @@
       <c r="P90" s="4"/>
       <c r="Q90" s="4"/>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -6675,7 +7203,7 @@
       <c r="P97" s="6"/>
       <c r="Q97" s="6"/>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -6694,7 +7222,7 @@
       <c r="P98" s="6"/>
       <c r="Q98" s="6"/>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -6713,7 +7241,7 @@
       <c r="P99" s="6"/>
       <c r="Q99" s="6"/>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -6732,7 +7260,7 @@
       <c r="P100" s="6"/>
       <c r="Q100" s="6"/>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -6751,7 +7279,7 @@
       <c r="P101" s="6"/>
       <c r="Q101" s="6"/>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -6770,7 +7298,7 @@
       <c r="P102" s="6"/>
       <c r="Q102" s="6"/>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -6789,7 +7317,7 @@
       <c r="P103" s="6"/>
       <c r="Q103" s="6"/>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -6808,7 +7336,7 @@
       <c r="P104" s="6"/>
       <c r="Q104" s="6"/>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
@@ -6827,7 +7355,7 @@
       <c r="P105" s="6"/>
       <c r="Q105" s="6"/>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -6846,7 +7374,7 @@
       <c r="P106" s="6"/>
       <c r="Q106" s="6"/>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -6865,7 +7393,7 @@
       <c r="P107" s="6"/>
       <c r="Q107" s="6"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
@@ -6884,7 +7412,7 @@
       <c r="P108" s="6"/>
       <c r="Q108" s="6"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -6903,7 +7431,7 @@
       <c r="P109" s="6"/>
       <c r="Q109" s="6"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
@@ -6922,7 +7450,7 @@
       <c r="P110" s="6"/>
       <c r="Q110" s="6"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
@@ -6941,7 +7469,7 @@
       <c r="P111" s="6"/>
       <c r="Q111" s="6"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
@@ -6960,7 +7488,7 @@
       <c r="P112" s="6"/>
       <c r="Q112" s="6"/>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
@@ -6979,7 +7507,7 @@
       <c r="P113" s="6"/>
       <c r="Q113" s="6"/>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
@@ -6998,7 +7526,7 @@
       <c r="P114" s="6"/>
       <c r="Q114" s="6"/>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
@@ -7017,7 +7545,7 @@
       <c r="P115" s="6"/>
       <c r="Q115" s="6"/>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
@@ -7036,7 +7564,7 @@
       <c r="P116" s="6"/>
       <c r="Q116" s="6"/>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
@@ -7055,7 +7583,7 @@
       <c r="P117" s="6"/>
       <c r="Q117" s="6"/>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
@@ -7074,7 +7602,7 @@
       <c r="P118" s="6"/>
       <c r="Q118" s="6"/>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
@@ -7093,7 +7621,7 @@
       <c r="P119" s="6"/>
       <c r="Q119" s="6"/>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
@@ -7112,7 +7640,7 @@
       <c r="P120" s="6"/>
       <c r="Q120" s="6"/>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
@@ -7131,7 +7659,7 @@
       <c r="P121" s="6"/>
       <c r="Q121" s="6"/>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
@@ -7150,7 +7678,7 @@
       <c r="P122" s="6"/>
       <c r="Q122" s="6"/>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
@@ -7169,7 +7697,7 @@
       <c r="P123" s="6"/>
       <c r="Q123" s="6"/>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
@@ -7188,7 +7716,7 @@
       <c r="P124" s="6"/>
       <c r="Q124" s="6"/>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
@@ -7207,7 +7735,7 @@
       <c r="P125" s="6"/>
       <c r="Q125" s="6"/>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
@@ -7226,7 +7754,7 @@
       <c r="P126" s="6"/>
       <c r="Q126" s="6"/>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
@@ -7245,7 +7773,7 @@
       <c r="P127" s="6"/>
       <c r="Q127" s="6"/>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
@@ -7264,7 +7792,7 @@
       <c r="P128" s="6"/>
       <c r="Q128" s="6"/>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
@@ -7283,7 +7811,7 @@
       <c r="P129" s="6"/>
       <c r="Q129" s="6"/>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
@@ -7302,7 +7830,7 @@
       <c r="P130" s="6"/>
       <c r="Q130" s="6"/>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
@@ -7321,7 +7849,7 @@
       <c r="P131" s="6"/>
       <c r="Q131" s="6"/>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
@@ -7340,7 +7868,7 @@
       <c r="P132" s="6"/>
       <c r="Q132" s="6"/>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
@@ -7359,7 +7887,7 @@
       <c r="P133" s="6"/>
       <c r="Q133" s="6"/>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
@@ -7378,7 +7906,7 @@
       <c r="P134" s="6"/>
       <c r="Q134" s="6"/>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
@@ -7397,7 +7925,7 @@
       <c r="P135" s="6"/>
       <c r="Q135" s="6"/>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
@@ -7416,7 +7944,7 @@
       <c r="P136" s="6"/>
       <c r="Q136" s="6"/>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
@@ -7435,7 +7963,7 @@
       <c r="P137" s="6"/>
       <c r="Q137" s="6"/>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
@@ -7454,7 +7982,7 @@
       <c r="P138" s="6"/>
       <c r="Q138" s="6"/>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
@@ -7473,7 +8001,7 @@
       <c r="P139" s="6"/>
       <c r="Q139" s="6"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
@@ -7492,7 +8020,7 @@
       <c r="P140" s="6"/>
       <c r="Q140" s="6"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
@@ -7511,7 +8039,7 @@
       <c r="P141" s="6"/>
       <c r="Q141" s="6"/>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
@@ -7530,7 +8058,7 @@
       <c r="P142" s="6"/>
       <c r="Q142" s="6"/>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
@@ -7549,7 +8077,7 @@
       <c r="P143" s="6"/>
       <c r="Q143" s="6"/>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
@@ -7568,7 +8096,7 @@
       <c r="P144" s="6"/>
       <c r="Q144" s="6"/>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
@@ -7587,7 +8115,7 @@
       <c r="P145" s="6"/>
       <c r="Q145" s="6"/>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
@@ -7606,7 +8134,7 @@
       <c r="P146" s="6"/>
       <c r="Q146" s="6"/>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
@@ -7625,7 +8153,7 @@
       <c r="P147" s="6"/>
       <c r="Q147" s="6"/>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
@@ -7644,7 +8172,7 @@
       <c r="P148" s="6"/>
       <c r="Q148" s="6"/>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
@@ -7663,7 +8191,7 @@
       <c r="P149" s="6"/>
       <c r="Q149" s="6"/>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
@@ -7682,7 +8210,7 @@
       <c r="P150" s="6"/>
       <c r="Q150" s="6"/>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
@@ -7701,7 +8229,7 @@
       <c r="P151" s="6"/>
       <c r="Q151" s="6"/>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
@@ -7720,7 +8248,7 @@
       <c r="P152" s="6"/>
       <c r="Q152" s="6"/>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
@@ -7739,7 +8267,7 @@
       <c r="P153" s="6"/>
       <c r="Q153" s="6"/>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
@@ -7758,7 +8286,7 @@
       <c r="P154" s="6"/>
       <c r="Q154" s="6"/>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
@@ -7777,7 +8305,7 @@
       <c r="P155" s="6"/>
       <c r="Q155" s="6"/>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
@@ -7796,7 +8324,7 @@
       <c r="P156" s="6"/>
       <c r="Q156" s="6"/>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
@@ -7815,7 +8343,7 @@
       <c r="P157" s="6"/>
       <c r="Q157" s="6"/>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
@@ -7834,7 +8362,7 @@
       <c r="P158" s="6"/>
       <c r="Q158" s="6"/>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
@@ -7853,7 +8381,7 @@
       <c r="P159" s="6"/>
       <c r="Q159" s="6"/>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
@@ -7872,7 +8400,7 @@
       <c r="P160" s="6"/>
       <c r="Q160" s="6"/>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
@@ -7891,7 +8419,7 @@
       <c r="P161" s="6"/>
       <c r="Q161" s="6"/>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
@@ -7910,7 +8438,7 @@
       <c r="P162" s="6"/>
       <c r="Q162" s="6"/>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
@@ -7929,7 +8457,7 @@
       <c r="P163" s="6"/>
       <c r="Q163" s="6"/>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
@@ -7948,7 +8476,7 @@
       <c r="P164" s="6"/>
       <c r="Q164" s="6"/>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
@@ -7967,7 +8495,7 @@
       <c r="P165" s="6"/>
       <c r="Q165" s="6"/>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
@@ -7986,7 +8514,7 @@
       <c r="P166" s="6"/>
       <c r="Q166" s="6"/>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
@@ -8005,7 +8533,7 @@
       <c r="P167" s="6"/>
       <c r="Q167" s="6"/>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
@@ -8024,7 +8552,7 @@
       <c r="P168" s="6"/>
       <c r="Q168" s="6"/>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
@@ -8043,7 +8571,7 @@
       <c r="P169" s="6"/>
       <c r="Q169" s="6"/>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
@@ -8062,7 +8590,7 @@
       <c r="P170" s="6"/>
       <c r="Q170" s="6"/>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
@@ -8081,7 +8609,7 @@
       <c r="P171" s="6"/>
       <c r="Q171" s="6"/>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
@@ -8100,7 +8628,7 @@
       <c r="P172" s="6"/>
       <c r="Q172" s="6"/>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
@@ -8119,7 +8647,7 @@
       <c r="P173" s="6"/>
       <c r="Q173" s="6"/>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
@@ -8138,7 +8666,7 @@
       <c r="P174" s="6"/>
       <c r="Q174" s="6"/>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
@@ -8157,7 +8685,7 @@
       <c r="P175" s="6"/>
       <c r="Q175" s="6"/>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
@@ -8176,7 +8704,7 @@
       <c r="P176" s="6"/>
       <c r="Q176" s="6"/>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
@@ -8195,7 +8723,7 @@
       <c r="P177" s="6"/>
       <c r="Q177" s="6"/>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
@@ -8214,7 +8742,7 @@
       <c r="P178" s="6"/>
       <c r="Q178" s="6"/>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
@@ -8233,7 +8761,7 @@
       <c r="P179" s="6"/>
       <c r="Q179" s="6"/>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
@@ -8252,7 +8780,7 @@
       <c r="P180" s="6"/>
       <c r="Q180" s="6"/>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
@@ -8271,7 +8799,7 @@
       <c r="P181" s="6"/>
       <c r="Q181" s="6"/>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
@@ -8290,7 +8818,7 @@
       <c r="P182" s="6"/>
       <c r="Q182" s="6"/>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
@@ -8309,7 +8837,7 @@
       <c r="P183" s="6"/>
       <c r="Q183" s="6"/>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
@@ -8328,7 +8856,7 @@
       <c r="P184" s="6"/>
       <c r="Q184" s="6"/>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
@@ -8347,7 +8875,7 @@
       <c r="P185" s="6"/>
       <c r="Q185" s="6"/>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
@@ -8366,7 +8894,7 @@
       <c r="P186" s="6"/>
       <c r="Q186" s="6"/>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
@@ -8385,7 +8913,7 @@
       <c r="P187" s="6"/>
       <c r="Q187" s="6"/>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
@@ -8404,7 +8932,7 @@
       <c r="P188" s="6"/>
       <c r="Q188" s="6"/>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
@@ -8423,7 +8951,7 @@
       <c r="P189" s="6"/>
       <c r="Q189" s="6"/>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
@@ -8442,7 +8970,7 @@
       <c r="P190" s="6"/>
       <c r="Q190" s="6"/>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
@@ -8461,7 +8989,7 @@
       <c r="P191" s="6"/>
       <c r="Q191" s="6"/>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
@@ -8480,7 +9008,7 @@
       <c r="P192" s="6"/>
       <c r="Q192" s="6"/>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
@@ -8499,7 +9027,7 @@
       <c r="P193" s="6"/>
       <c r="Q193" s="6"/>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
@@ -8518,7 +9046,7 @@
       <c r="P194" s="6"/>
       <c r="Q194" s="6"/>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
@@ -8537,7 +9065,7 @@
       <c r="P195" s="6"/>
       <c r="Q195" s="6"/>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
@@ -8556,7 +9084,7 @@
       <c r="P196" s="6"/>
       <c r="Q196" s="6"/>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
@@ -8575,7 +9103,7 @@
       <c r="P197" s="6"/>
       <c r="Q197" s="6"/>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
@@ -8594,7 +9122,7 @@
       <c r="P198" s="6"/>
       <c r="Q198" s="6"/>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
@@ -8613,7 +9141,7 @@
       <c r="P199" s="6"/>
       <c r="Q199" s="6"/>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
@@ -8632,7 +9160,7 @@
       <c r="P200" s="6"/>
       <c r="Q200" s="6"/>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
@@ -8651,7 +9179,7 @@
       <c r="P201" s="6"/>
       <c r="Q201" s="6"/>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
@@ -8670,7 +9198,7 @@
       <c r="P202" s="6"/>
       <c r="Q202" s="6"/>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
@@ -8689,7 +9217,7 @@
       <c r="P203" s="6"/>
       <c r="Q203" s="6"/>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
@@ -8708,7 +9236,7 @@
       <c r="P204" s="6"/>
       <c r="Q204" s="6"/>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
@@ -8727,7 +9255,7 @@
       <c r="P205" s="6"/>
       <c r="Q205" s="6"/>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
@@ -8746,7 +9274,7 @@
       <c r="P206" s="6"/>
       <c r="Q206" s="6"/>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
@@ -8765,7 +9293,7 @@
       <c r="P207" s="6"/>
       <c r="Q207" s="6"/>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
@@ -8784,7 +9312,7 @@
       <c r="P208" s="6"/>
       <c r="Q208" s="6"/>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
@@ -8803,7 +9331,7 @@
       <c r="P209" s="6"/>
       <c r="Q209" s="6"/>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
@@ -8822,7 +9350,7 @@
       <c r="P210" s="6"/>
       <c r="Q210" s="6"/>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
@@ -8841,7 +9369,7 @@
       <c r="P211" s="6"/>
       <c r="Q211" s="6"/>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
@@ -8860,7 +9388,7 @@
       <c r="P212" s="6"/>
       <c r="Q212" s="6"/>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
@@ -8879,7 +9407,7 @@
       <c r="P213" s="6"/>
       <c r="Q213" s="6"/>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
@@ -8898,7 +9426,7 @@
       <c r="P214" s="6"/>
       <c r="Q214" s="6"/>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
@@ -8917,7 +9445,7 @@
       <c r="P215" s="6"/>
       <c r="Q215" s="6"/>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
@@ -8936,7 +9464,7 @@
       <c r="P216" s="6"/>
       <c r="Q216" s="6"/>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
@@ -8955,7 +9483,7 @@
       <c r="P217" s="6"/>
       <c r="Q217" s="6"/>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
@@ -8974,7 +9502,7 @@
       <c r="P218" s="6"/>
       <c r="Q218" s="6"/>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
@@ -8993,7 +9521,7 @@
       <c r="P219" s="6"/>
       <c r="Q219" s="6"/>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
@@ -9012,7 +9540,7 @@
       <c r="P220" s="6"/>
       <c r="Q220" s="6"/>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
@@ -9031,7 +9559,7 @@
       <c r="P221" s="6"/>
       <c r="Q221" s="6"/>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A222" s="6"/>
       <c r="B222" s="6"/>
       <c r="C222" s="6"/>
@@ -9050,7 +9578,7 @@
       <c r="P222" s="6"/>
       <c r="Q222" s="6"/>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="C223" s="6"/>
@@ -9069,7 +9597,7 @@
       <c r="P223" s="6"/>
       <c r="Q223" s="6"/>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
@@ -9088,7 +9616,7 @@
       <c r="P224" s="6"/>
       <c r="Q224" s="6"/>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
@@ -9107,7 +9635,7 @@
       <c r="P225" s="6"/>
       <c r="Q225" s="6"/>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
@@ -9126,7 +9654,7 @@
       <c r="P226" s="6"/>
       <c r="Q226" s="6"/>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
@@ -9145,7 +9673,7 @@
       <c r="P227" s="6"/>
       <c r="Q227" s="6"/>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
@@ -9164,7 +9692,7 @@
       <c r="P228" s="6"/>
       <c r="Q228" s="6"/>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
@@ -9183,7 +9711,7 @@
       <c r="P229" s="6"/>
       <c r="Q229" s="6"/>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="6"/>
@@ -9202,7 +9730,7 @@
       <c r="P230" s="6"/>
       <c r="Q230" s="6"/>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
@@ -9221,7 +9749,7 @@
       <c r="P231" s="6"/>
       <c r="Q231" s="6"/>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
@@ -9240,7 +9768,7 @@
       <c r="P232" s="6"/>
       <c r="Q232" s="6"/>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A233" s="6"/>
       <c r="B233" s="6"/>
       <c r="C233" s="6"/>
@@ -9259,7 +9787,7 @@
       <c r="P233" s="6"/>
       <c r="Q233" s="6"/>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A234" s="6"/>
       <c r="B234" s="6"/>
       <c r="C234" s="6"/>
@@ -9278,7 +9806,7 @@
       <c r="P234" s="6"/>
       <c r="Q234" s="6"/>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A235" s="6"/>
       <c r="B235" s="6"/>
       <c r="C235" s="6"/>
@@ -9297,7 +9825,7 @@
       <c r="P235" s="6"/>
       <c r="Q235" s="6"/>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A236" s="6"/>
       <c r="B236" s="6"/>
       <c r="C236" s="6"/>
@@ -9316,7 +9844,7 @@
       <c r="P236" s="6"/>
       <c r="Q236" s="6"/>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A237" s="6"/>
       <c r="B237" s="6"/>
       <c r="C237" s="6"/>
@@ -9335,7 +9863,7 @@
       <c r="P237" s="6"/>
       <c r="Q237" s="6"/>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A238" s="6"/>
       <c r="B238" s="6"/>
       <c r="C238" s="6"/>
@@ -9354,7 +9882,7 @@
       <c r="P238" s="6"/>
       <c r="Q238" s="6"/>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A239" s="6"/>
       <c r="B239" s="6"/>
       <c r="C239" s="6"/>
@@ -9373,7 +9901,7 @@
       <c r="P239" s="6"/>
       <c r="Q239" s="6"/>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A240" s="6"/>
       <c r="B240" s="6"/>
       <c r="C240" s="6"/>
@@ -9392,7 +9920,7 @@
       <c r="P240" s="6"/>
       <c r="Q240" s="6"/>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A241" s="6"/>
       <c r="B241" s="6"/>
       <c r="C241" s="6"/>
@@ -9411,7 +9939,7 @@
       <c r="P241" s="6"/>
       <c r="Q241" s="6"/>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A242" s="6"/>
       <c r="B242" s="6"/>
       <c r="C242" s="6"/>
@@ -9430,7 +9958,7 @@
       <c r="P242" s="6"/>
       <c r="Q242" s="6"/>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A243" s="6"/>
       <c r="B243" s="6"/>
       <c r="C243" s="6"/>
@@ -9449,7 +9977,7 @@
       <c r="P243" s="6"/>
       <c r="Q243" s="6"/>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A244" s="6"/>
       <c r="B244" s="6"/>
       <c r="C244" s="6"/>
@@ -9468,7 +9996,7 @@
       <c r="P244" s="6"/>
       <c r="Q244" s="6"/>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A245" s="6"/>
       <c r="B245" s="6"/>
       <c r="C245" s="6"/>
@@ -9487,7 +10015,7 @@
       <c r="P245" s="6"/>
       <c r="Q245" s="6"/>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A246" s="6"/>
       <c r="B246" s="6"/>
       <c r="C246" s="6"/>
@@ -9506,7 +10034,7 @@
       <c r="P246" s="6"/>
       <c r="Q246" s="6"/>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A247" s="6"/>
       <c r="B247" s="6"/>
       <c r="C247" s="6"/>
@@ -9525,7 +10053,7 @@
       <c r="P247" s="6"/>
       <c r="Q247" s="6"/>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A248" s="6"/>
       <c r="B248" s="6"/>
       <c r="C248" s="6"/>
@@ -9544,7 +10072,7 @@
       <c r="P248" s="6"/>
       <c r="Q248" s="6"/>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A249" s="6"/>
       <c r="B249" s="6"/>
       <c r="C249" s="6"/>
@@ -9563,7 +10091,7 @@
       <c r="P249" s="6"/>
       <c r="Q249" s="6"/>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A250" s="6"/>
       <c r="B250" s="6"/>
       <c r="C250" s="6"/>
@@ -9582,7 +10110,7 @@
       <c r="P250" s="6"/>
       <c r="Q250" s="6"/>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A251" s="6"/>
       <c r="B251" s="6"/>
       <c r="C251" s="6"/>
@@ -9601,7 +10129,7 @@
       <c r="P251" s="6"/>
       <c r="Q251" s="6"/>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A252" s="6"/>
       <c r="B252" s="6"/>
       <c r="C252" s="6"/>
@@ -9620,7 +10148,7 @@
       <c r="P252" s="6"/>
       <c r="Q252" s="6"/>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A253" s="6"/>
       <c r="B253" s="6"/>
       <c r="C253" s="6"/>
@@ -9639,7 +10167,7 @@
       <c r="P253" s="6"/>
       <c r="Q253" s="6"/>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A254" s="6"/>
       <c r="B254" s="6"/>
       <c r="C254" s="6"/>
@@ -9658,7 +10186,7 @@
       <c r="P254" s="6"/>
       <c r="Q254" s="6"/>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A255" s="6"/>
       <c r="B255" s="6"/>
       <c r="C255" s="6"/>
@@ -9677,7 +10205,7 @@
       <c r="P255" s="6"/>
       <c r="Q255" s="6"/>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A256" s="6"/>
       <c r="B256" s="6"/>
       <c r="C256" s="6"/>
@@ -9696,7 +10224,7 @@
       <c r="P256" s="6"/>
       <c r="Q256" s="6"/>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A257" s="6"/>
       <c r="B257" s="6"/>
       <c r="C257" s="6"/>
@@ -9715,7 +10243,7 @@
       <c r="P257" s="6"/>
       <c r="Q257" s="6"/>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A258" s="6"/>
       <c r="B258" s="6"/>
       <c r="C258" s="6"/>
@@ -9734,7 +10262,7 @@
       <c r="P258" s="6"/>
       <c r="Q258" s="6"/>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A259" s="6"/>
       <c r="B259" s="6"/>
       <c r="C259" s="6"/>
@@ -9753,7 +10281,7 @@
       <c r="P259" s="6"/>
       <c r="Q259" s="6"/>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A260" s="6"/>
       <c r="B260" s="6"/>
       <c r="C260" s="6"/>
@@ -9772,7 +10300,7 @@
       <c r="P260" s="6"/>
       <c r="Q260" s="6"/>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A261" s="6"/>
       <c r="B261" s="6"/>
       <c r="C261" s="6"/>
@@ -9791,7 +10319,7 @@
       <c r="P261" s="6"/>
       <c r="Q261" s="6"/>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A262" s="6"/>
       <c r="B262" s="6"/>
       <c r="C262" s="6"/>
@@ -9810,7 +10338,7 @@
       <c r="P262" s="6"/>
       <c r="Q262" s="6"/>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A263" s="6"/>
       <c r="B263" s="6"/>
       <c r="C263" s="6"/>
@@ -9829,7 +10357,7 @@
       <c r="P263" s="6"/>
       <c r="Q263" s="6"/>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A264" s="6"/>
       <c r="B264" s="6"/>
       <c r="C264" s="6"/>
@@ -9848,7 +10376,7 @@
       <c r="P264" s="6"/>
       <c r="Q264" s="6"/>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
       <c r="C265" s="6"/>
@@ -9867,7 +10395,7 @@
       <c r="P265" s="6"/>
       <c r="Q265" s="6"/>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A266" s="6"/>
       <c r="B266" s="6"/>
       <c r="C266" s="6"/>
@@ -9886,7 +10414,7 @@
       <c r="P266" s="6"/>
       <c r="Q266" s="6"/>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A267" s="6"/>
       <c r="B267" s="6"/>
       <c r="C267" s="6"/>
@@ -9905,7 +10433,7 @@
       <c r="P267" s="6"/>
       <c r="Q267" s="6"/>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A268" s="6"/>
       <c r="B268" s="6"/>
       <c r="C268" s="6"/>
@@ -9924,7 +10452,7 @@
       <c r="P268" s="6"/>
       <c r="Q268" s="6"/>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A269" s="6"/>
       <c r="B269" s="6"/>
       <c r="C269" s="6"/>
@@ -9943,7 +10471,7 @@
       <c r="P269" s="6"/>
       <c r="Q269" s="6"/>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A270" s="6"/>
       <c r="B270" s="6"/>
       <c r="C270" s="6"/>
@@ -9962,7 +10490,7 @@
       <c r="P270" s="6"/>
       <c r="Q270" s="6"/>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A271" s="6"/>
       <c r="B271" s="6"/>
       <c r="C271" s="6"/>
@@ -9981,7 +10509,7 @@
       <c r="P271" s="6"/>
       <c r="Q271" s="6"/>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A272" s="6"/>
       <c r="B272" s="6"/>
       <c r="C272" s="6"/>
@@ -10000,7 +10528,7 @@
       <c r="P272" s="6"/>
       <c r="Q272" s="6"/>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A273" s="6"/>
       <c r="B273" s="6"/>
       <c r="C273" s="6"/>
@@ -10019,7 +10547,7 @@
       <c r="P273" s="6"/>
       <c r="Q273" s="6"/>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A274" s="6"/>
       <c r="B274" s="6"/>
       <c r="C274" s="6"/>
@@ -10038,7 +10566,7 @@
       <c r="P274" s="6"/>
       <c r="Q274" s="6"/>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A275" s="6"/>
       <c r="B275" s="6"/>
       <c r="C275" s="6"/>
@@ -10057,7 +10585,7 @@
       <c r="P275" s="6"/>
       <c r="Q275" s="6"/>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A276" s="6"/>
       <c r="B276" s="6"/>
       <c r="C276" s="6"/>
@@ -10076,7 +10604,7 @@
       <c r="P276" s="6"/>
       <c r="Q276" s="6"/>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A277" s="6"/>
       <c r="B277" s="6"/>
       <c r="C277" s="6"/>
@@ -10095,7 +10623,7 @@
       <c r="P277" s="6"/>
       <c r="Q277" s="6"/>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A278" s="6"/>
       <c r="B278" s="6"/>
       <c r="C278" s="6"/>
@@ -10114,7 +10642,7 @@
       <c r="P278" s="6"/>
       <c r="Q278" s="6"/>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A279" s="6"/>
       <c r="B279" s="6"/>
       <c r="C279" s="6"/>
@@ -10133,7 +10661,7 @@
       <c r="P279" s="6"/>
       <c r="Q279" s="6"/>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A280" s="6"/>
       <c r="B280" s="6"/>
       <c r="C280" s="6"/>
@@ -10152,7 +10680,7 @@
       <c r="P280" s="6"/>
       <c r="Q280" s="6"/>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A281" s="6"/>
       <c r="B281" s="6"/>
       <c r="C281" s="6"/>
@@ -10171,7 +10699,7 @@
       <c r="P281" s="6"/>
       <c r="Q281" s="6"/>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A282" s="6"/>
       <c r="B282" s="6"/>
       <c r="C282" s="6"/>
@@ -10190,7 +10718,7 @@
       <c r="P282" s="6"/>
       <c r="Q282" s="6"/>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A283" s="6"/>
       <c r="B283" s="6"/>
       <c r="C283" s="6"/>
@@ -10209,7 +10737,7 @@
       <c r="P283" s="6"/>
       <c r="Q283" s="6"/>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A284" s="6"/>
       <c r="B284" s="6"/>
       <c r="C284" s="6"/>
@@ -10228,7 +10756,7 @@
       <c r="P284" s="6"/>
       <c r="Q284" s="6"/>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A285" s="6"/>
       <c r="B285" s="6"/>
       <c r="C285" s="6"/>
@@ -10247,7 +10775,7 @@
       <c r="P285" s="6"/>
       <c r="Q285" s="6"/>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A286" s="6"/>
       <c r="B286" s="6"/>
       <c r="C286" s="6"/>
@@ -10266,7 +10794,7 @@
       <c r="P286" s="6"/>
       <c r="Q286" s="6"/>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A287" s="6"/>
       <c r="B287" s="6"/>
       <c r="C287" s="6"/>
@@ -10285,7 +10813,7 @@
       <c r="P287" s="6"/>
       <c r="Q287" s="6"/>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A288" s="6"/>
       <c r="B288" s="6"/>
       <c r="C288" s="6"/>
@@ -10304,7 +10832,7 @@
       <c r="P288" s="6"/>
       <c r="Q288" s="6"/>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A289" s="6"/>
       <c r="B289" s="6"/>
       <c r="C289" s="6"/>
@@ -10323,7 +10851,7 @@
       <c r="P289" s="6"/>
       <c r="Q289" s="6"/>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A290" s="6"/>
       <c r="B290" s="6"/>
       <c r="C290" s="6"/>
@@ -10342,7 +10870,7 @@
       <c r="P290" s="6"/>
       <c r="Q290" s="6"/>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A291" s="6"/>
       <c r="B291" s="6"/>
       <c r="C291" s="6"/>
@@ -10361,7 +10889,7 @@
       <c r="P291" s="6"/>
       <c r="Q291" s="6"/>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A292" s="6"/>
       <c r="B292" s="6"/>
       <c r="C292" s="6"/>
@@ -10380,7 +10908,7 @@
       <c r="P292" s="6"/>
       <c r="Q292" s="6"/>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A293" s="6"/>
       <c r="B293" s="6"/>
       <c r="C293" s="6"/>
@@ -10399,7 +10927,7 @@
       <c r="P293" s="6"/>
       <c r="Q293" s="6"/>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A294" s="6"/>
       <c r="B294" s="6"/>
       <c r="C294" s="6"/>
@@ -10418,7 +10946,7 @@
       <c r="P294" s="6"/>
       <c r="Q294" s="6"/>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A295" s="6"/>
       <c r="B295" s="6"/>
       <c r="C295" s="6"/>
@@ -10437,7 +10965,7 @@
       <c r="P295" s="6"/>
       <c r="Q295" s="6"/>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A296" s="6"/>
       <c r="B296" s="6"/>
       <c r="C296" s="6"/>
@@ -10456,7 +10984,7 @@
       <c r="P296" s="6"/>
       <c r="Q296" s="6"/>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A297" s="6"/>
       <c r="B297" s="6"/>
       <c r="C297" s="6"/>
@@ -10475,7 +11003,7 @@
       <c r="P297" s="6"/>
       <c r="Q297" s="6"/>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A298" s="6"/>
       <c r="B298" s="6"/>
       <c r="C298" s="6"/>
@@ -10494,7 +11022,7 @@
       <c r="P298" s="6"/>
       <c r="Q298" s="6"/>
     </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A299" s="6"/>
       <c r="B299" s="6"/>
       <c r="C299" s="6"/>
@@ -10513,7 +11041,7 @@
       <c r="P299" s="6"/>
       <c r="Q299" s="6"/>
     </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A300" s="6"/>
       <c r="B300" s="6"/>
       <c r="C300" s="6"/>
@@ -10532,7 +11060,7 @@
       <c r="P300" s="6"/>
       <c r="Q300" s="6"/>
     </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A301" s="6"/>
       <c r="B301" s="6"/>
       <c r="C301" s="6"/>
@@ -10551,7 +11079,7 @@
       <c r="P301" s="6"/>
       <c r="Q301" s="6"/>
     </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A302" s="6"/>
       <c r="B302" s="6"/>
       <c r="C302" s="6"/>
@@ -10570,7 +11098,7 @@
       <c r="P302" s="6"/>
       <c r="Q302" s="6"/>
     </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A303" s="6"/>
       <c r="B303" s="6"/>
       <c r="C303" s="6"/>
@@ -10589,7 +11117,7 @@
       <c r="P303" s="6"/>
       <c r="Q303" s="6"/>
     </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A304" s="6"/>
       <c r="B304" s="6"/>
       <c r="C304" s="6"/>
@@ -10608,7 +11136,7 @@
       <c r="P304" s="6"/>
       <c r="Q304" s="6"/>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A305" s="6"/>
       <c r="B305" s="6"/>
       <c r="C305" s="6"/>
@@ -10627,7 +11155,7 @@
       <c r="P305" s="6"/>
       <c r="Q305" s="6"/>
     </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A306" s="6"/>
       <c r="B306" s="6"/>
       <c r="C306" s="6"/>
@@ -10646,7 +11174,7 @@
       <c r="P306" s="6"/>
       <c r="Q306" s="6"/>
     </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A307" s="6"/>
       <c r="B307" s="6"/>
       <c r="C307" s="6"/>
@@ -10665,7 +11193,7 @@
       <c r="P307" s="6"/>
       <c r="Q307" s="6"/>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A308" s="6"/>
       <c r="B308" s="6"/>
       <c r="C308" s="6"/>
@@ -10684,7 +11212,7 @@
       <c r="P308" s="6"/>
       <c r="Q308" s="6"/>
     </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A309" s="6"/>
       <c r="B309" s="6"/>
       <c r="C309" s="6"/>
@@ -10703,7 +11231,7 @@
       <c r="P309" s="6"/>
       <c r="Q309" s="6"/>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A310" s="6"/>
       <c r="B310" s="6"/>
       <c r="C310" s="6"/>
@@ -10722,7 +11250,7 @@
       <c r="P310" s="6"/>
       <c r="Q310" s="6"/>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A311" s="6"/>
       <c r="B311" s="6"/>
       <c r="C311" s="6"/>
@@ -10741,7 +11269,7 @@
       <c r="P311" s="6"/>
       <c r="Q311" s="6"/>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A312" s="6"/>
       <c r="B312" s="6"/>
       <c r="C312" s="6"/>
@@ -10760,7 +11288,7 @@
       <c r="P312" s="6"/>
       <c r="Q312" s="6"/>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A313" s="6"/>
       <c r="B313" s="6"/>
       <c r="C313" s="6"/>
@@ -10779,7 +11307,7 @@
       <c r="P313" s="6"/>
       <c r="Q313" s="6"/>
     </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A314" s="6"/>
       <c r="B314" s="6"/>
       <c r="C314" s="6"/>
@@ -10798,7 +11326,7 @@
       <c r="P314" s="6"/>
       <c r="Q314" s="6"/>
     </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A315" s="6"/>
       <c r="B315" s="6"/>
       <c r="C315" s="6"/>
@@ -10817,7 +11345,7 @@
       <c r="P315" s="6"/>
       <c r="Q315" s="6"/>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A316" s="6"/>
       <c r="B316" s="6"/>
       <c r="C316" s="6"/>
@@ -10836,7 +11364,7 @@
       <c r="P316" s="6"/>
       <c r="Q316" s="6"/>
     </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A317" s="6"/>
       <c r="B317" s="6"/>
       <c r="C317" s="6"/>
@@ -10855,7 +11383,7 @@
       <c r="P317" s="6"/>
       <c r="Q317" s="6"/>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A318" s="6"/>
       <c r="B318" s="6"/>
       <c r="C318" s="6"/>
@@ -10874,7 +11402,7 @@
       <c r="P318" s="6"/>
       <c r="Q318" s="6"/>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A319" s="6"/>
       <c r="B319" s="6"/>
       <c r="C319" s="6"/>
@@ -10893,7 +11421,7 @@
       <c r="P319" s="6"/>
       <c r="Q319" s="6"/>
     </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A320" s="6"/>
       <c r="B320" s="6"/>
       <c r="C320" s="6"/>
@@ -10912,7 +11440,7 @@
       <c r="P320" s="6"/>
       <c r="Q320" s="6"/>
     </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A321" s="6"/>
       <c r="B321" s="6"/>
       <c r="C321" s="6"/>
@@ -10931,7 +11459,7 @@
       <c r="P321" s="6"/>
       <c r="Q321" s="6"/>
     </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A322" s="6"/>
       <c r="B322" s="6"/>
       <c r="C322" s="6"/>
@@ -10950,7 +11478,7 @@
       <c r="P322" s="6"/>
       <c r="Q322" s="6"/>
     </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A323" s="6"/>
       <c r="B323" s="6"/>
       <c r="C323" s="6"/>
@@ -10969,7 +11497,7 @@
       <c r="P323" s="6"/>
       <c r="Q323" s="6"/>
     </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A324" s="6"/>
       <c r="B324" s="6"/>
       <c r="C324" s="6"/>
@@ -10988,7 +11516,7 @@
       <c r="P324" s="6"/>
       <c r="Q324" s="6"/>
     </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A325" s="6"/>
       <c r="B325" s="6"/>
       <c r="C325" s="6"/>
@@ -11007,7 +11535,7 @@
       <c r="P325" s="6"/>
       <c r="Q325" s="6"/>
     </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A326" s="6"/>
       <c r="B326" s="6"/>
       <c r="C326" s="6"/>
@@ -11026,7 +11554,7 @@
       <c r="P326" s="6"/>
       <c r="Q326" s="6"/>
     </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A327" s="6"/>
       <c r="B327" s="6"/>
       <c r="C327" s="6"/>
@@ -11045,7 +11573,7 @@
       <c r="P327" s="6"/>
       <c r="Q327" s="6"/>
     </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A328" s="6"/>
       <c r="B328" s="6"/>
       <c r="C328" s="6"/>
@@ -11064,7 +11592,7 @@
       <c r="P328" s="6"/>
       <c r="Q328" s="6"/>
     </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A329" s="6"/>
       <c r="B329" s="6"/>
       <c r="C329" s="6"/>
@@ -11083,7 +11611,7 @@
       <c r="P329" s="6"/>
       <c r="Q329" s="6"/>
     </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A330" s="6"/>
       <c r="B330" s="6"/>
       <c r="C330" s="6"/>
@@ -11102,7 +11630,7 @@
       <c r="P330" s="6"/>
       <c r="Q330" s="6"/>
     </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A331" s="6"/>
       <c r="B331" s="6"/>
       <c r="C331" s="6"/>
@@ -11121,7 +11649,7 @@
       <c r="P331" s="6"/>
       <c r="Q331" s="6"/>
     </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A332" s="6"/>
       <c r="B332" s="6"/>
       <c r="C332" s="6"/>
@@ -11140,7 +11668,7 @@
       <c r="P332" s="6"/>
       <c r="Q332" s="6"/>
     </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A333" s="6"/>
       <c r="B333" s="6"/>
       <c r="C333" s="6"/>
@@ -11159,7 +11687,7 @@
       <c r="P333" s="6"/>
       <c r="Q333" s="6"/>
     </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A334" s="6"/>
       <c r="B334" s="6"/>
       <c r="C334" s="6"/>
@@ -11178,7 +11706,7 @@
       <c r="P334" s="6"/>
       <c r="Q334" s="6"/>
     </row>
-    <row r="335" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A335" s="6"/>
       <c r="B335" s="6"/>
       <c r="C335" s="6"/>
@@ -11197,7 +11725,7 @@
       <c r="P335" s="6"/>
       <c r="Q335" s="6"/>
     </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A336" s="6"/>
       <c r="B336" s="6"/>
       <c r="C336" s="6"/>
@@ -11216,7 +11744,7 @@
       <c r="P336" s="6"/>
       <c r="Q336" s="6"/>
     </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A337" s="6"/>
       <c r="B337" s="6"/>
       <c r="C337" s="6"/>
@@ -11235,7 +11763,7 @@
       <c r="P337" s="6"/>
       <c r="Q337" s="6"/>
     </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A338" s="6"/>
       <c r="B338" s="6"/>
       <c r="C338" s="6"/>
@@ -11254,7 +11782,7 @@
       <c r="P338" s="6"/>
       <c r="Q338" s="6"/>
     </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A339" s="6"/>
       <c r="B339" s="6"/>
       <c r="C339" s="6"/>
@@ -11273,7 +11801,7 @@
       <c r="P339" s="6"/>
       <c r="Q339" s="6"/>
     </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A340" s="6"/>
       <c r="B340" s="6"/>
       <c r="C340" s="6"/>
@@ -11292,7 +11820,7 @@
       <c r="P340" s="6"/>
       <c r="Q340" s="6"/>
     </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A341" s="6"/>
       <c r="B341" s="6"/>
       <c r="C341" s="6"/>
@@ -11311,7 +11839,7 @@
       <c r="P341" s="6"/>
       <c r="Q341" s="6"/>
     </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A342" s="6"/>
       <c r="B342" s="6"/>
       <c r="C342" s="6"/>
@@ -11330,7 +11858,7 @@
       <c r="P342" s="6"/>
       <c r="Q342" s="6"/>
     </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A343" s="6"/>
       <c r="B343" s="6"/>
       <c r="C343" s="6"/>
@@ -11349,7 +11877,7 @@
       <c r="P343" s="6"/>
       <c r="Q343" s="6"/>
     </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A344" s="6"/>
       <c r="B344" s="6"/>
       <c r="C344" s="6"/>
@@ -11368,7 +11896,7 @@
       <c r="P344" s="6"/>
       <c r="Q344" s="6"/>
     </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A345" s="6"/>
       <c r="B345" s="6"/>
       <c r="C345" s="6"/>
@@ -11387,7 +11915,7 @@
       <c r="P345" s="6"/>
       <c r="Q345" s="6"/>
     </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A346" s="6"/>
       <c r="B346" s="6"/>
       <c r="C346" s="6"/>
@@ -11406,7 +11934,7 @@
       <c r="P346" s="6"/>
       <c r="Q346" s="6"/>
     </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A347" s="6"/>
       <c r="B347" s="6"/>
       <c r="C347" s="6"/>
@@ -11425,7 +11953,7 @@
       <c r="P347" s="6"/>
       <c r="Q347" s="6"/>
     </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A348" s="6"/>
       <c r="B348" s="6"/>
       <c r="C348" s="6"/>
@@ -11444,7 +11972,7 @@
       <c r="P348" s="6"/>
       <c r="Q348" s="6"/>
     </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A349" s="6"/>
       <c r="B349" s="6"/>
       <c r="C349" s="6"/>
@@ -11463,7 +11991,7 @@
       <c r="P349" s="6"/>
       <c r="Q349" s="6"/>
     </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A350" s="6"/>
       <c r="B350" s="6"/>
       <c r="C350" s="6"/>
@@ -11482,7 +12010,7 @@
       <c r="P350" s="6"/>
       <c r="Q350" s="6"/>
     </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A351" s="6"/>
       <c r="B351" s="6"/>
       <c r="C351" s="6"/>
@@ -11501,7 +12029,7 @@
       <c r="P351" s="6"/>
       <c r="Q351" s="6"/>
     </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A352" s="6"/>
       <c r="B352" s="6"/>
       <c r="C352" s="6"/>
@@ -11520,7 +12048,7 @@
       <c r="P352" s="6"/>
       <c r="Q352" s="6"/>
     </row>
-    <row r="353" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A353" s="6"/>
       <c r="B353" s="6"/>
       <c r="C353" s="6"/>
@@ -11539,7 +12067,7 @@
       <c r="P353" s="6"/>
       <c r="Q353" s="6"/>
     </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A354" s="6"/>
       <c r="B354" s="6"/>
       <c r="C354" s="6"/>
@@ -11558,7 +12086,7 @@
       <c r="P354" s="6"/>
       <c r="Q354" s="6"/>
     </row>
-    <row r="355" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A355" s="6"/>
       <c r="B355" s="6"/>
       <c r="C355" s="6"/>
@@ -11577,7 +12105,7 @@
       <c r="P355" s="6"/>
       <c r="Q355" s="6"/>
     </row>
-    <row r="356" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A356" s="6"/>
       <c r="B356" s="6"/>
       <c r="C356" s="6"/>
@@ -11596,7 +12124,7 @@
       <c r="P356" s="6"/>
       <c r="Q356" s="6"/>
     </row>
-    <row r="357" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A357" s="6"/>
       <c r="B357" s="6"/>
       <c r="C357" s="6"/>
@@ -11615,7 +12143,7 @@
       <c r="P357" s="6"/>
       <c r="Q357" s="6"/>
     </row>
-    <row r="358" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A358" s="6"/>
       <c r="B358" s="6"/>
       <c r="C358" s="6"/>
@@ -11634,7 +12162,7 @@
       <c r="P358" s="6"/>
       <c r="Q358" s="6"/>
     </row>
-    <row r="359" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A359" s="6"/>
       <c r="B359" s="6"/>
       <c r="C359" s="6"/>
@@ -11653,7 +12181,7 @@
       <c r="P359" s="6"/>
       <c r="Q359" s="6"/>
     </row>
-    <row r="360" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A360" s="6"/>
       <c r="B360" s="6"/>
       <c r="C360" s="6"/>
@@ -11672,7 +12200,7 @@
       <c r="P360" s="6"/>
       <c r="Q360" s="6"/>
     </row>
-    <row r="361" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A361" s="6"/>
       <c r="B361" s="6"/>
       <c r="C361" s="6"/>
@@ -11691,7 +12219,7 @@
       <c r="P361" s="6"/>
       <c r="Q361" s="6"/>
     </row>
-    <row r="362" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A362" s="6"/>
       <c r="B362" s="6"/>
       <c r="C362" s="6"/>
@@ -11710,7 +12238,7 @@
       <c r="P362" s="6"/>
       <c r="Q362" s="6"/>
     </row>
-    <row r="363" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A363" s="6"/>
       <c r="B363" s="6"/>
       <c r="C363" s="6"/>
@@ -11729,7 +12257,7 @@
       <c r="P363" s="6"/>
       <c r="Q363" s="6"/>
     </row>
-    <row r="364" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A364" s="6"/>
       <c r="B364" s="6"/>
       <c r="C364" s="6"/>
@@ -11748,7 +12276,7 @@
       <c r="P364" s="6"/>
       <c r="Q364" s="6"/>
     </row>
-    <row r="365" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A365" s="6"/>
       <c r="B365" s="6"/>
       <c r="C365" s="6"/>
@@ -11767,7 +12295,7 @@
       <c r="P365" s="6"/>
       <c r="Q365" s="6"/>
     </row>
-    <row r="366" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A366" s="6"/>
       <c r="B366" s="6"/>
       <c r="C366" s="6"/>
@@ -11786,7 +12314,7 @@
       <c r="P366" s="6"/>
       <c r="Q366" s="6"/>
     </row>
-    <row r="367" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A367" s="6"/>
       <c r="B367" s="6"/>
       <c r="C367" s="6"/>
@@ -11805,7 +12333,7 @@
       <c r="P367" s="6"/>
       <c r="Q367" s="6"/>
     </row>
-    <row r="368" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A368" s="6"/>
       <c r="B368" s="6"/>
       <c r="C368" s="6"/>
@@ -11824,7 +12352,7 @@
       <c r="P368" s="6"/>
       <c r="Q368" s="6"/>
     </row>
-    <row r="369" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A369" s="6"/>
       <c r="B369" s="6"/>
       <c r="C369" s="6"/>
@@ -11843,7 +12371,7 @@
       <c r="P369" s="6"/>
       <c r="Q369" s="6"/>
     </row>
-    <row r="370" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A370" s="6"/>
       <c r="B370" s="6"/>
       <c r="C370" s="6"/>
@@ -11862,7 +12390,7 @@
       <c r="P370" s="6"/>
       <c r="Q370" s="6"/>
     </row>
-    <row r="371" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A371" s="6"/>
       <c r="B371" s="6"/>
       <c r="C371" s="6"/>
@@ -11881,7 +12409,7 @@
       <c r="P371" s="6"/>
       <c r="Q371" s="6"/>
     </row>
-    <row r="372" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A372" s="6"/>
       <c r="B372" s="6"/>
       <c r="C372" s="6"/>
@@ -11900,7 +12428,7 @@
       <c r="P372" s="6"/>
       <c r="Q372" s="6"/>
     </row>
-    <row r="373" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A373" s="6"/>
       <c r="B373" s="6"/>
       <c r="C373" s="6"/>
@@ -11919,7 +12447,7 @@
       <c r="P373" s="6"/>
       <c r="Q373" s="6"/>
     </row>
-    <row r="374" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A374" s="6"/>
       <c r="B374" s="6"/>
       <c r="C374" s="6"/>
@@ -11938,7 +12466,7 @@
       <c r="P374" s="6"/>
       <c r="Q374" s="6"/>
     </row>
-    <row r="375" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A375" s="6"/>
       <c r="B375" s="6"/>
       <c r="C375" s="6"/>
@@ -11957,7 +12485,7 @@
       <c r="P375" s="6"/>
       <c r="Q375" s="6"/>
     </row>
-    <row r="376" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A376" s="6"/>
       <c r="B376" s="6"/>
       <c r="C376" s="6"/>
@@ -11976,7 +12504,7 @@
       <c r="P376" s="6"/>
       <c r="Q376" s="6"/>
     </row>
-    <row r="377" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A377" s="6"/>
       <c r="B377" s="6"/>
       <c r="C377" s="6"/>
@@ -11995,7 +12523,7 @@
       <c r="P377" s="6"/>
       <c r="Q377" s="6"/>
     </row>
-    <row r="378" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A378" s="6"/>
       <c r="B378" s="6"/>
       <c r="C378" s="6"/>
@@ -12014,7 +12542,7 @@
       <c r="P378" s="6"/>
       <c r="Q378" s="6"/>
     </row>
-    <row r="379" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A379" s="6"/>
       <c r="B379" s="6"/>
       <c r="C379" s="6"/>
@@ -12033,7 +12561,7 @@
       <c r="P379" s="6"/>
       <c r="Q379" s="6"/>
     </row>
-    <row r="380" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A380" s="6"/>
       <c r="B380" s="6"/>
       <c r="C380" s="6"/>
@@ -12052,7 +12580,7 @@
       <c r="P380" s="6"/>
       <c r="Q380" s="6"/>
     </row>
-    <row r="381" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A381" s="6"/>
       <c r="B381" s="6"/>
       <c r="C381" s="6"/>
@@ -12071,7 +12599,7 @@
       <c r="P381" s="6"/>
       <c r="Q381" s="6"/>
     </row>
-    <row r="382" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A382" s="6"/>
       <c r="B382" s="6"/>
       <c r="C382" s="6"/>
@@ -12090,7 +12618,7 @@
       <c r="P382" s="6"/>
       <c r="Q382" s="6"/>
     </row>
-    <row r="383" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A383" s="6"/>
       <c r="B383" s="6"/>
       <c r="C383" s="6"/>
@@ -12109,7 +12637,7 @@
       <c r="P383" s="6"/>
       <c r="Q383" s="6"/>
     </row>
-    <row r="384" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A384" s="6"/>
       <c r="B384" s="6"/>
       <c r="C384" s="6"/>
@@ -12128,7 +12656,7 @@
       <c r="P384" s="6"/>
       <c r="Q384" s="6"/>
     </row>
-    <row r="385" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A385" s="6"/>
       <c r="B385" s="6"/>
       <c r="C385" s="6"/>
@@ -12147,7 +12675,7 @@
       <c r="P385" s="6"/>
       <c r="Q385" s="6"/>
     </row>
-    <row r="386" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A386" s="6"/>
       <c r="B386" s="6"/>
       <c r="C386" s="6"/>
@@ -12166,7 +12694,7 @@
       <c r="P386" s="6"/>
       <c r="Q386" s="6"/>
     </row>
-    <row r="387" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A387" s="6"/>
       <c r="B387" s="6"/>
       <c r="C387" s="6"/>
@@ -12185,7 +12713,7 @@
       <c r="P387" s="6"/>
       <c r="Q387" s="6"/>
     </row>
-    <row r="388" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A388" s="6"/>
       <c r="B388" s="6"/>
       <c r="C388" s="6"/>
@@ -12204,7 +12732,7 @@
       <c r="P388" s="6"/>
       <c r="Q388" s="6"/>
     </row>
-    <row r="389" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A389" s="6"/>
       <c r="B389" s="6"/>
       <c r="C389" s="6"/>
@@ -12223,7 +12751,7 @@
       <c r="P389" s="6"/>
       <c r="Q389" s="6"/>
     </row>
-    <row r="390" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A390" s="6"/>
       <c r="B390" s="6"/>
       <c r="C390" s="6"/>
@@ -12242,7 +12770,7 @@
       <c r="P390" s="6"/>
       <c r="Q390" s="6"/>
     </row>
-    <row r="391" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A391" s="6"/>
       <c r="B391" s="6"/>
       <c r="C391" s="6"/>
@@ -12261,7 +12789,7 @@
       <c r="P391" s="6"/>
       <c r="Q391" s="6"/>
     </row>
-    <row r="392" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A392" s="6"/>
       <c r="B392" s="6"/>
       <c r="C392" s="6"/>
@@ -12280,7 +12808,7 @@
       <c r="P392" s="6"/>
       <c r="Q392" s="6"/>
     </row>
-    <row r="393" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A393" s="6"/>
       <c r="B393" s="6"/>
       <c r="C393" s="6"/>
@@ -12299,7 +12827,7 @@
       <c r="P393" s="6"/>
       <c r="Q393" s="6"/>
     </row>
-    <row r="394" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A394" s="6"/>
       <c r="B394" s="6"/>
       <c r="C394" s="6"/>
@@ -12318,7 +12846,7 @@
       <c r="P394" s="6"/>
       <c r="Q394" s="6"/>
     </row>
-    <row r="395" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A395" s="6"/>
       <c r="B395" s="6"/>
       <c r="C395" s="6"/>
@@ -12337,7 +12865,7 @@
       <c r="P395" s="6"/>
       <c r="Q395" s="6"/>
     </row>
-    <row r="396" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A396" s="6"/>
       <c r="B396" s="6"/>
       <c r="C396" s="6"/>
@@ -12356,7 +12884,7 @@
       <c r="P396" s="6"/>
       <c r="Q396" s="6"/>
     </row>
-    <row r="397" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A397" s="6"/>
       <c r="B397" s="6"/>
       <c r="C397" s="6"/>
@@ -12375,7 +12903,7 @@
       <c r="P397" s="6"/>
       <c r="Q397" s="6"/>
     </row>
-    <row r="398" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A398" s="6"/>
       <c r="B398" s="6"/>
       <c r="C398" s="6"/>
@@ -12394,7 +12922,7 @@
       <c r="P398" s="6"/>
       <c r="Q398" s="6"/>
     </row>
-    <row r="399" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A399" s="6"/>
       <c r="B399" s="6"/>
       <c r="C399" s="6"/>
@@ -12413,7 +12941,7 @@
       <c r="P399" s="6"/>
       <c r="Q399" s="6"/>
     </row>
-    <row r="400" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A400" s="6"/>
       <c r="B400" s="6"/>
       <c r="C400" s="6"/>
@@ -12432,7 +12960,7 @@
       <c r="P400" s="6"/>
       <c r="Q400" s="6"/>
     </row>
-    <row r="401" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A401" s="6"/>
       <c r="B401" s="6"/>
       <c r="C401" s="6"/>
@@ -12451,7 +12979,7 @@
       <c r="P401" s="6"/>
       <c r="Q401" s="6"/>
     </row>
-    <row r="402" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A402" s="6"/>
       <c r="B402" s="6"/>
       <c r="C402" s="6"/>
@@ -12470,7 +12998,7 @@
       <c r="P402" s="6"/>
       <c r="Q402" s="6"/>
     </row>
-    <row r="403" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A403" s="6"/>
       <c r="B403" s="6"/>
       <c r="C403" s="6"/>
@@ -12489,7 +13017,7 @@
       <c r="P403" s="6"/>
       <c r="Q403" s="6"/>
     </row>
-    <row r="404" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A404" s="6"/>
       <c r="B404" s="6"/>
       <c r="C404" s="6"/>
@@ -12508,7 +13036,7 @@
       <c r="P404" s="6"/>
       <c r="Q404" s="6"/>
     </row>
-    <row r="405" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A405" s="6"/>
       <c r="B405" s="6"/>
       <c r="C405" s="6"/>
@@ -12527,7 +13055,7 @@
       <c r="P405" s="6"/>
       <c r="Q405" s="6"/>
     </row>
-    <row r="406" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A406" s="6"/>
       <c r="B406" s="6"/>
       <c r="C406" s="6"/>
@@ -12546,7 +13074,7 @@
       <c r="P406" s="6"/>
       <c r="Q406" s="6"/>
     </row>
-    <row r="407" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A407" s="6"/>
       <c r="B407" s="6"/>
       <c r="C407" s="6"/>
@@ -12565,7 +13093,7 @@
       <c r="P407" s="6"/>
       <c r="Q407" s="6"/>
     </row>
-    <row r="408" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A408" s="6"/>
       <c r="B408" s="6"/>
       <c r="C408" s="6"/>
@@ -12584,7 +13112,7 @@
       <c r="P408" s="6"/>
       <c r="Q408" s="6"/>
     </row>
-    <row r="409" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A409" s="6"/>
       <c r="B409" s="6"/>
       <c r="C409" s="6"/>
@@ -12603,7 +13131,7 @@
       <c r="P409" s="6"/>
       <c r="Q409" s="6"/>
     </row>
-    <row r="410" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A410" s="6"/>
       <c r="B410" s="6"/>
       <c r="C410" s="6"/>
@@ -12622,7 +13150,7 @@
       <c r="P410" s="6"/>
       <c r="Q410" s="6"/>
     </row>
-    <row r="411" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A411" s="6"/>
       <c r="B411" s="6"/>
       <c r="C411" s="6"/>
@@ -12641,7 +13169,7 @@
       <c r="P411" s="6"/>
       <c r="Q411" s="6"/>
     </row>
-    <row r="412" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A412" s="6"/>
       <c r="B412" s="6"/>
       <c r="C412" s="6"/>
@@ -12660,7 +13188,7 @@
       <c r="P412" s="6"/>
       <c r="Q412" s="6"/>
     </row>
-    <row r="413" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A413" s="6"/>
       <c r="B413" s="6"/>
       <c r="C413" s="6"/>
@@ -12679,7 +13207,7 @@
       <c r="P413" s="6"/>
       <c r="Q413" s="6"/>
     </row>
-    <row r="414" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A414" s="6"/>
       <c r="B414" s="6"/>
       <c r="C414" s="6"/>
@@ -12698,7 +13226,7 @@
       <c r="P414" s="6"/>
       <c r="Q414" s="6"/>
     </row>
-    <row r="415" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A415" s="6"/>
       <c r="B415" s="6"/>
       <c r="C415" s="6"/>
@@ -12717,7 +13245,7 @@
       <c r="P415" s="6"/>
       <c r="Q415" s="6"/>
     </row>
-    <row r="416" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A416" s="6"/>
       <c r="B416" s="6"/>
       <c r="C416" s="6"/>
@@ -12736,7 +13264,7 @@
       <c r="P416" s="6"/>
       <c r="Q416" s="6"/>
     </row>
-    <row r="417" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A417" s="6"/>
       <c r="B417" s="6"/>
       <c r="C417" s="6"/>
@@ -12755,7 +13283,7 @@
       <c r="P417" s="6"/>
       <c r="Q417" s="6"/>
     </row>
-    <row r="418" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A418" s="6"/>
       <c r="B418" s="6"/>
       <c r="C418" s="6"/>
@@ -12774,7 +13302,7 @@
       <c r="P418" s="6"/>
       <c r="Q418" s="6"/>
     </row>
-    <row r="419" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A419" s="6"/>
       <c r="B419" s="6"/>
       <c r="C419" s="6"/>
@@ -12793,7 +13321,7 @@
       <c r="P419" s="6"/>
       <c r="Q419" s="6"/>
     </row>
-    <row r="420" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A420" s="6"/>
       <c r="B420" s="6"/>
       <c r="C420" s="6"/>
@@ -12812,7 +13340,7 @@
       <c r="P420" s="6"/>
       <c r="Q420" s="6"/>
     </row>
-    <row r="421" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A421" s="6"/>
       <c r="B421" s="6"/>
       <c r="C421" s="6"/>
@@ -12831,7 +13359,7 @@
       <c r="P421" s="6"/>
       <c r="Q421" s="6"/>
     </row>
-    <row r="422" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A422" s="6"/>
       <c r="B422" s="6"/>
       <c r="C422" s="6"/>
@@ -12850,7 +13378,7 @@
       <c r="P422" s="6"/>
       <c r="Q422" s="6"/>
     </row>
-    <row r="423" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A423" s="6"/>
       <c r="B423" s="6"/>
       <c r="C423" s="6"/>
@@ -12869,7 +13397,7 @@
       <c r="P423" s="6"/>
       <c r="Q423" s="6"/>
     </row>
-    <row r="424" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A424" s="6"/>
       <c r="B424" s="6"/>
       <c r="C424" s="6"/>
@@ -12888,7 +13416,7 @@
       <c r="P424" s="6"/>
       <c r="Q424" s="6"/>
     </row>
-    <row r="425" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A425" s="6"/>
       <c r="B425" s="6"/>
       <c r="C425" s="6"/>
@@ -12907,7 +13435,7 @@
       <c r="P425" s="6"/>
       <c r="Q425" s="6"/>
     </row>
-    <row r="426" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A426" s="6"/>
       <c r="B426" s="6"/>
       <c r="C426" s="6"/>
@@ -12926,7 +13454,7 @@
       <c r="P426" s="6"/>
       <c r="Q426" s="6"/>
     </row>
-    <row r="427" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A427" s="6"/>
       <c r="B427" s="6"/>
       <c r="C427" s="6"/>
@@ -12945,7 +13473,7 @@
       <c r="P427" s="6"/>
       <c r="Q427" s="6"/>
     </row>
-    <row r="428" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A428" s="6"/>
       <c r="B428" s="6"/>
       <c r="C428" s="6"/>
@@ -12964,7 +13492,7 @@
       <c r="P428" s="6"/>
       <c r="Q428" s="6"/>
     </row>
-    <row r="429" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A429" s="6"/>
       <c r="B429" s="6"/>
       <c r="C429" s="6"/>
@@ -12983,7 +13511,7 @@
       <c r="P429" s="6"/>
       <c r="Q429" s="6"/>
     </row>
-    <row r="430" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A430" s="6"/>
       <c r="B430" s="6"/>
       <c r="C430" s="6"/>
@@ -13002,7 +13530,7 @@
       <c r="P430" s="6"/>
       <c r="Q430" s="6"/>
     </row>
-    <row r="431" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A431" s="6"/>
       <c r="B431" s="6"/>
       <c r="C431" s="6"/>
@@ -13021,7 +13549,7 @@
       <c r="P431" s="6"/>
       <c r="Q431" s="6"/>
     </row>
-    <row r="432" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A432" s="6"/>
       <c r="B432" s="6"/>
       <c r="C432" s="6"/>
@@ -13040,7 +13568,7 @@
       <c r="P432" s="6"/>
       <c r="Q432" s="6"/>
     </row>
-    <row r="433" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A433" s="6"/>
       <c r="B433" s="6"/>
       <c r="C433" s="6"/>
@@ -13059,7 +13587,7 @@
       <c r="P433" s="6"/>
       <c r="Q433" s="6"/>
     </row>
-    <row r="434" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A434" s="6"/>
       <c r="B434" s="6"/>
       <c r="C434" s="6"/>
@@ -13078,7 +13606,7 @@
       <c r="P434" s="6"/>
       <c r="Q434" s="6"/>
     </row>
-    <row r="435" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A435" s="6"/>
       <c r="B435" s="6"/>
       <c r="C435" s="6"/>
@@ -13097,7 +13625,7 @@
       <c r="P435" s="6"/>
       <c r="Q435" s="6"/>
     </row>
-    <row r="436" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A436" s="6"/>
       <c r="B436" s="6"/>
       <c r="C436" s="6"/>
@@ -13116,7 +13644,7 @@
       <c r="P436" s="6"/>
       <c r="Q436" s="6"/>
     </row>
-    <row r="437" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A437" s="6"/>
       <c r="B437" s="6"/>
       <c r="C437" s="6"/>
@@ -13135,7 +13663,7 @@
       <c r="P437" s="6"/>
       <c r="Q437" s="6"/>
     </row>
-    <row r="438" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A438" s="6"/>
       <c r="B438" s="6"/>
       <c r="C438" s="6"/>
@@ -13154,7 +13682,7 @@
       <c r="P438" s="6"/>
       <c r="Q438" s="6"/>
     </row>
-    <row r="439" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A439" s="6"/>
       <c r="B439" s="6"/>
       <c r="C439" s="6"/>
@@ -13173,7 +13701,7 @@
       <c r="P439" s="6"/>
       <c r="Q439" s="6"/>
     </row>
-    <row r="440" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A440" s="6"/>
       <c r="B440" s="6"/>
       <c r="C440" s="6"/>
@@ -13192,7 +13720,7 @@
       <c r="P440" s="6"/>
       <c r="Q440" s="6"/>
     </row>
-    <row r="441" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A441" s="6"/>
       <c r="B441" s="6"/>
       <c r="C441" s="6"/>
@@ -13211,7 +13739,7 @@
       <c r="P441" s="6"/>
       <c r="Q441" s="6"/>
     </row>
-    <row r="442" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A442" s="6"/>
       <c r="B442" s="6"/>
       <c r="C442" s="6"/>
@@ -13230,7 +13758,7 @@
       <c r="P442" s="6"/>
       <c r="Q442" s="6"/>
     </row>
-    <row r="443" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A443" s="6"/>
       <c r="B443" s="6"/>
       <c r="C443" s="6"/>
@@ -13249,7 +13777,7 @@
       <c r="P443" s="6"/>
       <c r="Q443" s="6"/>
     </row>
-    <row r="444" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A444" s="6"/>
       <c r="B444" s="6"/>
       <c r="C444" s="6"/>
@@ -13268,7 +13796,7 @@
       <c r="P444" s="6"/>
       <c r="Q444" s="6"/>
     </row>
-    <row r="445" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A445" s="6"/>
       <c r="B445" s="6"/>
       <c r="C445" s="6"/>
@@ -13287,7 +13815,7 @@
       <c r="P445" s="6"/>
       <c r="Q445" s="6"/>
     </row>
-    <row r="446" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A446" s="6"/>
       <c r="B446" s="6"/>
       <c r="C446" s="6"/>
@@ -13306,7 +13834,7 @@
       <c r="P446" s="6"/>
       <c r="Q446" s="6"/>
     </row>
-    <row r="447" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A447" s="6"/>
       <c r="B447" s="6"/>
       <c r="C447" s="6"/>
@@ -13325,7 +13853,7 @@
       <c r="P447" s="6"/>
       <c r="Q447" s="6"/>
     </row>
-    <row r="448" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A448" s="6"/>
       <c r="B448" s="6"/>
       <c r="C448" s="6"/>
@@ -13344,7 +13872,7 @@
       <c r="P448" s="6"/>
       <c r="Q448" s="6"/>
     </row>
-    <row r="449" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A449" s="6"/>
       <c r="B449" s="6"/>
       <c r="C449" s="6"/>
@@ -13363,7 +13891,7 @@
       <c r="P449" s="6"/>
       <c r="Q449" s="6"/>
     </row>
-    <row r="450" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A450" s="6"/>
       <c r="B450" s="6"/>
       <c r="C450" s="6"/>
@@ -13382,7 +13910,7 @@
       <c r="P450" s="6"/>
       <c r="Q450" s="6"/>
     </row>
-    <row r="451" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A451" s="6"/>
       <c r="B451" s="6"/>
       <c r="C451" s="6"/>
@@ -13401,7 +13929,7 @@
       <c r="P451" s="6"/>
       <c r="Q451" s="6"/>
     </row>
-    <row r="452" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A452" s="6"/>
       <c r="B452" s="6"/>
       <c r="C452" s="6"/>
@@ -13420,7 +13948,7 @@
       <c r="P452" s="6"/>
       <c r="Q452" s="6"/>
     </row>
-    <row r="453" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A453" s="6"/>
       <c r="B453" s="6"/>
       <c r="C453" s="6"/>
@@ -13439,7 +13967,7 @@
       <c r="P453" s="6"/>
       <c r="Q453" s="6"/>
     </row>
-    <row r="454" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A454" s="6"/>
       <c r="B454" s="6"/>
       <c r="C454" s="6"/>
@@ -13458,7 +13986,7 @@
       <c r="P454" s="6"/>
       <c r="Q454" s="6"/>
     </row>
-    <row r="455" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A455" s="6"/>
       <c r="B455" s="6"/>
       <c r="C455" s="6"/>
@@ -13477,7 +14005,7 @@
       <c r="P455" s="6"/>
       <c r="Q455" s="6"/>
     </row>
-    <row r="456" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A456" s="6"/>
       <c r="B456" s="6"/>
       <c r="C456" s="6"/>
@@ -13496,7 +14024,7 @@
       <c r="P456" s="6"/>
       <c r="Q456" s="6"/>
     </row>
-    <row r="457" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A457" s="6"/>
       <c r="B457" s="6"/>
       <c r="C457" s="6"/>
@@ -13515,7 +14043,7 @@
       <c r="P457" s="6"/>
       <c r="Q457" s="6"/>
     </row>
-    <row r="458" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A458" s="6"/>
       <c r="B458" s="6"/>
       <c r="C458" s="6"/>
@@ -13534,7 +14062,7 @@
       <c r="P458" s="6"/>
       <c r="Q458" s="6"/>
     </row>
-    <row r="459" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A459" s="6"/>
       <c r="B459" s="6"/>
       <c r="C459" s="6"/>
@@ -13553,7 +14081,7 @@
       <c r="P459" s="6"/>
       <c r="Q459" s="6"/>
     </row>
-    <row r="460" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A460" s="6"/>
       <c r="B460" s="6"/>
       <c r="C460" s="6"/>
@@ -13572,7 +14100,7 @@
       <c r="P460" s="6"/>
       <c r="Q460" s="6"/>
     </row>
-    <row r="461" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A461" s="6"/>
       <c r="B461" s="6"/>
       <c r="C461" s="6"/>
@@ -13591,7 +14119,7 @@
       <c r="P461" s="6"/>
       <c r="Q461" s="6"/>
     </row>
-    <row r="462" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A462" s="6"/>
       <c r="B462" s="6"/>
       <c r="C462" s="6"/>
@@ -13610,7 +14138,7 @@
       <c r="P462" s="6"/>
       <c r="Q462" s="6"/>
     </row>
-    <row r="463" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A463" s="6"/>
       <c r="B463" s="6"/>
       <c r="C463" s="6"/>
@@ -13629,7 +14157,7 @@
       <c r="P463" s="6"/>
       <c r="Q463" s="6"/>
     </row>
-    <row r="464" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A464" s="6"/>
       <c r="B464" s="6"/>
       <c r="C464" s="6"/>
@@ -13648,7 +14176,7 @@
       <c r="P464" s="6"/>
       <c r="Q464" s="6"/>
     </row>
-    <row r="465" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A465" s="6"/>
       <c r="B465" s="6"/>
       <c r="C465" s="6"/>
@@ -13667,7 +14195,7 @@
       <c r="P465" s="6"/>
       <c r="Q465" s="6"/>
     </row>
-    <row r="466" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A466" s="6"/>
       <c r="B466" s="6"/>
       <c r="C466" s="6"/>
@@ -13686,7 +14214,7 @@
       <c r="P466" s="6"/>
       <c r="Q466" s="6"/>
     </row>
-    <row r="467" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A467" s="6"/>
       <c r="B467" s="6"/>
       <c r="C467" s="6"/>
@@ -13705,7 +14233,7 @@
       <c r="P467" s="6"/>
       <c r="Q467" s="6"/>
     </row>
-    <row r="468" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A468" s="6"/>
       <c r="B468" s="6"/>
       <c r="C468" s="6"/>
@@ -13724,7 +14252,7 @@
       <c r="P468" s="6"/>
       <c r="Q468" s="6"/>
     </row>
-    <row r="469" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A469" s="6"/>
       <c r="B469" s="6"/>
       <c r="C469" s="6"/>
@@ -13743,7 +14271,7 @@
       <c r="P469" s="6"/>
       <c r="Q469" s="6"/>
     </row>
-    <row r="470" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A470" s="6"/>
       <c r="B470" s="6"/>
       <c r="C470" s="6"/>
@@ -13762,7 +14290,7 @@
       <c r="P470" s="6"/>
       <c r="Q470" s="6"/>
     </row>
-    <row r="471" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A471" s="6"/>
       <c r="B471" s="6"/>
       <c r="C471" s="6"/>
@@ -13781,7 +14309,7 @@
       <c r="P471" s="6"/>
       <c r="Q471" s="6"/>
     </row>
-    <row r="472" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A472" s="6"/>
       <c r="B472" s="6"/>
       <c r="C472" s="6"/>
@@ -13800,7 +14328,7 @@
       <c r="P472" s="6"/>
       <c r="Q472" s="6"/>
     </row>
-    <row r="473" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A473" s="6"/>
       <c r="B473" s="6"/>
       <c r="C473" s="6"/>
@@ -13819,7 +14347,7 @@
       <c r="P473" s="6"/>
       <c r="Q473" s="6"/>
     </row>
-    <row r="474" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A474" s="6"/>
       <c r="B474" s="6"/>
       <c r="C474" s="6"/>
@@ -13838,7 +14366,7 @@
       <c r="P474" s="6"/>
       <c r="Q474" s="6"/>
     </row>
-    <row r="475" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A475" s="6"/>
       <c r="B475" s="6"/>
       <c r="C475" s="6"/>
@@ -13857,7 +14385,7 @@
       <c r="P475" s="6"/>
       <c r="Q475" s="6"/>
     </row>
-    <row r="476" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A476" s="6"/>
       <c r="B476" s="6"/>
       <c r="C476" s="6"/>
@@ -13876,7 +14404,7 @@
       <c r="P476" s="6"/>
       <c r="Q476" s="6"/>
     </row>
-    <row r="477" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A477" s="6"/>
       <c r="B477" s="6"/>
       <c r="C477" s="6"/>
@@ -13895,7 +14423,7 @@
       <c r="P477" s="6"/>
       <c r="Q477" s="6"/>
     </row>
-    <row r="478" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A478" s="6"/>
       <c r="B478" s="6"/>
       <c r="C478" s="6"/>
@@ -13914,7 +14442,7 @@
       <c r="P478" s="6"/>
       <c r="Q478" s="6"/>
     </row>
-    <row r="479" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A479" s="6"/>
       <c r="B479" s="6"/>
       <c r="C479" s="6"/>
@@ -13933,7 +14461,7 @@
       <c r="P479" s="6"/>
       <c r="Q479" s="6"/>
     </row>
-    <row r="480" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A480" s="6"/>
       <c r="B480" s="6"/>
       <c r="C480" s="6"/>
@@ -13952,7 +14480,7 @@
       <c r="P480" s="6"/>
       <c r="Q480" s="6"/>
     </row>
-    <row r="481" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A481" s="6"/>
       <c r="B481" s="6"/>
       <c r="C481" s="6"/>
@@ -13971,7 +14499,7 @@
       <c r="P481" s="6"/>
       <c r="Q481" s="6"/>
     </row>
-    <row r="482" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A482" s="6"/>
       <c r="B482" s="6"/>
       <c r="C482" s="6"/>
@@ -13990,7 +14518,7 @@
       <c r="P482" s="6"/>
       <c r="Q482" s="6"/>
     </row>
-    <row r="483" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A483" s="6"/>
       <c r="B483" s="6"/>
       <c r="C483" s="6"/>
@@ -14009,7 +14537,7 @@
       <c r="P483" s="6"/>
       <c r="Q483" s="6"/>
     </row>
-    <row r="484" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A484" s="6"/>
       <c r="B484" s="6"/>
       <c r="C484" s="6"/>
@@ -14028,7 +14556,7 @@
       <c r="P484" s="6"/>
       <c r="Q484" s="6"/>
     </row>
-    <row r="485" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A485" s="6"/>
       <c r="B485" s="6"/>
       <c r="C485" s="6"/>
@@ -14047,7 +14575,7 @@
       <c r="P485" s="6"/>
       <c r="Q485" s="6"/>
     </row>
-    <row r="486" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A486" s="6"/>
       <c r="B486" s="6"/>
       <c r="C486" s="6"/>
@@ -14066,7 +14594,7 @@
       <c r="P486" s="6"/>
       <c r="Q486" s="6"/>
     </row>
-    <row r="487" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A487" s="6"/>
       <c r="B487" s="6"/>
       <c r="C487" s="6"/>
@@ -14085,7 +14613,7 @@
       <c r="P487" s="6"/>
       <c r="Q487" s="6"/>
     </row>
-    <row r="488" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A488" s="6"/>
       <c r="B488" s="6"/>
       <c r="C488" s="6"/>
@@ -14104,7 +14632,7 @@
       <c r="P488" s="6"/>
       <c r="Q488" s="6"/>
     </row>
-    <row r="489" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A489" s="6"/>
       <c r="B489" s="6"/>
       <c r="C489" s="6"/>
@@ -14123,7 +14651,7 @@
       <c r="P489" s="6"/>
       <c r="Q489" s="6"/>
     </row>
-    <row r="490" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A490" s="6"/>
       <c r="B490" s="6"/>
       <c r="C490" s="6"/>
@@ -14142,7 +14670,7 @@
       <c r="P490" s="6"/>
       <c r="Q490" s="6"/>
     </row>
-    <row r="491" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A491" s="6"/>
       <c r="B491" s="6"/>
       <c r="C491" s="6"/>
@@ -14161,7 +14689,7 @@
       <c r="P491" s="6"/>
       <c r="Q491" s="6"/>
     </row>
-    <row r="492" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A492" s="6"/>
       <c r="B492" s="6"/>
       <c r="C492" s="6"/>
@@ -14193,13 +14721,1090 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="7.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
+        <v>576</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="23">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23">
+        <v>5</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="19">
+        <v>5</v>
+      </c>
+      <c r="B3" s="19">
+        <v>5</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="16">
+        <v>2</v>
+      </c>
+      <c r="B4" s="16">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="16">
+        <v>3</v>
+      </c>
+      <c r="B5" s="16">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="16">
+        <v>4</v>
+      </c>
+      <c r="B6" s="16">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="16">
+        <v>6</v>
+      </c>
+      <c r="B7" s="16">
+        <v>1</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="16">
+        <v>7</v>
+      </c>
+      <c r="B8" s="16">
+        <v>1</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>528</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A1" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>592</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>593</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>594</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>595</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>596</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>597</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>598</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>599</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19">
+        <v>5</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="F2" s="20">
+        <v>44405</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>602</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19">
+        <v>2</v>
+      </c>
+      <c r="C3" s="19">
+        <v>5</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="F3" s="20">
+        <v>44405</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>602</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19">
+        <v>3</v>
+      </c>
+      <c r="C4" s="19">
+        <v>5</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="F4" s="20">
+        <v>44405</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>602</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19">
+        <v>4</v>
+      </c>
+      <c r="C5" s="19">
+        <v>5</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="F5" s="20">
+        <v>44405</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>602</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19">
+        <v>6</v>
+      </c>
+      <c r="C6" s="19">
+        <v>5</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="F6" s="20">
+        <v>44405</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>602</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" s="18">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19">
+        <v>7</v>
+      </c>
+      <c r="C7" s="19">
+        <v>5</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="F7" s="20">
+        <v>44405</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>602</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A8" s="18">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19">
+        <v>2</v>
+      </c>
+      <c r="C8" s="19">
+        <v>1</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="F8" s="20">
+        <v>44405</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>603</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19">
+        <v>3</v>
+      </c>
+      <c r="C9" s="19">
+        <v>1</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="F9" s="20">
+        <v>44405</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>603</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10" s="18">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19">
+        <v>4</v>
+      </c>
+      <c r="C10" s="19">
+        <v>1</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="F10" s="20">
+        <v>44405</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>603</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A11" s="18">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19">
+        <v>5</v>
+      </c>
+      <c r="C11" s="19">
+        <v>1</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="F11" s="20">
+        <v>44405</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>603</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12" s="18">
+        <v>11</v>
+      </c>
+      <c r="B12" s="19">
+        <v>6</v>
+      </c>
+      <c r="C12" s="19">
+        <v>1</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="F12" s="20">
+        <v>44405</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>603</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A13" s="18">
+        <v>12</v>
+      </c>
+      <c r="B13" s="19">
+        <v>7</v>
+      </c>
+      <c r="C13" s="19">
+        <v>1</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="F13" s="20">
+        <v>44405</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>603</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A14" s="18">
+        <v>13</v>
+      </c>
+      <c r="B14" s="19">
+        <v>5</v>
+      </c>
+      <c r="C14" s="19">
+        <v>1</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="F14" s="20">
+        <v>44405</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>604</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>528</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>529</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A15" s="18">
+        <v>14</v>
+      </c>
+      <c r="B15" s="19">
+        <v>1</v>
+      </c>
+      <c r="C15" s="19">
+        <v>5</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="F15" s="20">
+        <v>44405</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>605</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>528</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>529</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A16" s="18">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19">
+        <v>5</v>
+      </c>
+      <c r="C16" s="19">
+        <v>1</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="F16" s="20">
+        <v>44405</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>606</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>528</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="K16" s="26" t="s">
+        <v>529</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A17" s="18">
+        <v>16</v>
+      </c>
+      <c r="B17" s="19">
+        <v>1</v>
+      </c>
+      <c r="C17" s="19">
+        <v>5</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="F17" s="20">
+        <v>44405</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>607</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>528</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="L17" s="26" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A18" s="18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="19">
+        <v>5</v>
+      </c>
+      <c r="C18" s="19">
+        <v>1</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="F18" s="20">
+        <v>44405</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>608</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>528</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>529</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>529</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A19" s="18">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19">
+        <v>5</v>
+      </c>
+      <c r="C19" s="19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="F19" s="20">
+        <v>44405</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>609</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>528</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>529</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>529</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>528</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="20.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A1" s="17" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>611</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>613</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>614</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>615</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>617</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>618</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>619</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19">
+        <v>17</v>
+      </c>
+      <c r="C2" s="19">
+        <v>5</v>
+      </c>
+      <c r="D2" s="19">
+        <v>1</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>621</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>622</v>
+      </c>
+      <c r="G2" s="20">
+        <v>44406</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>623</v>
+      </c>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19">
+        <v>18</v>
+      </c>
+      <c r="C3" s="19">
+        <v>5</v>
+      </c>
+      <c r="D3" s="19">
+        <v>1</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>621</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>624</v>
+      </c>
+      <c r="G3" s="20">
+        <v>44406</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="J3" s="20">
+        <v>44407.416666666664</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>626</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>627</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>629</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>630</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>632</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="D2" s="20">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>634</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>635</v>
+      </c>
+      <c r="D3" s="20">
+        <v>44407.541666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>636</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>637</v>
+      </c>
+      <c r="D4" s="20">
+        <v>44408.541666666664</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14215,7 +15820,7 @@
       <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14230,14 +15835,14 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.09765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>503</v>
       </c>
@@ -14248,7 +15853,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14259,7 +15864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -14270,7 +15875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -14281,7 +15886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -14292,7 +15897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -14303,7 +15908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -14314,7 +15919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -14325,7 +15930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -14336,7 +15941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -14347,7 +15952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -14358,7 +15963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -14369,7 +15974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -14380,7 +15985,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -14389,6 +15994,1697 @@
       </c>
       <c r="C14">
         <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="15">
+        <v>5</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="15">
+        <v>5</v>
+      </c>
+      <c r="B3" s="15">
+        <v>2</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="15">
+        <v>5</v>
+      </c>
+      <c r="B4" s="15">
+        <v>3</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="15">
+        <v>5</v>
+      </c>
+      <c r="B5" s="15">
+        <v>4</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15">
+        <v>6</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="15">
+        <v>5</v>
+      </c>
+      <c r="B7" s="15">
+        <v>7</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="15">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15">
+        <v>8</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="15">
+        <v>5</v>
+      </c>
+      <c r="B9" s="15">
+        <v>9</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="16">
+        <v>1</v>
+      </c>
+      <c r="B10" s="16">
+        <v>2</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="16">
+        <v>1</v>
+      </c>
+      <c r="B11" s="16">
+        <v>3</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="16">
+        <v>1</v>
+      </c>
+      <c r="B12" s="16">
+        <v>4</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="16">
+        <v>1</v>
+      </c>
+      <c r="B13" s="16">
+        <v>5</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="16">
+        <v>1</v>
+      </c>
+      <c r="B14" s="16">
+        <v>6</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="16">
+        <v>1</v>
+      </c>
+      <c r="B15" s="16">
+        <v>7</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>528</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="19.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>531</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>533</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>535</v>
+      </c>
+      <c r="C2" s="20">
+        <v>44405</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>537</v>
+      </c>
+      <c r="C3" s="20">
+        <v>44405</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>538</v>
+      </c>
+      <c r="C4" s="20">
+        <v>44405</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="C5" s="20">
+        <v>44405</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>540</v>
+      </c>
+      <c r="C6" s="20">
+        <v>44405</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="18">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="C7" s="20">
+        <v>44405</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="18">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>542</v>
+      </c>
+      <c r="C8" s="20">
+        <v>44405</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>544</v>
+      </c>
+      <c r="C9" s="20">
+        <v>44405</v>
+      </c>
+      <c r="D9" s="20">
+        <v>44406</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="21">
+        <v>9</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>545</v>
+      </c>
+      <c r="C10" s="22">
+        <v>44405</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="21">
+        <v>10</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>546</v>
+      </c>
+      <c r="C11" s="22">
+        <v>44405</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="21">
+        <v>11</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>547</v>
+      </c>
+      <c r="C12" s="22">
+        <v>44405</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="21">
+        <v>12</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>548</v>
+      </c>
+      <c r="C13" s="22">
+        <v>44405</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="21">
+        <v>13</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>549</v>
+      </c>
+      <c r="C14" s="22">
+        <v>44405</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16" t="s">
+        <v>536</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>552</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="23">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23">
+        <v>5</v>
+      </c>
+      <c r="C2" s="23">
+        <v>5</v>
+      </c>
+      <c r="D2" s="23">
+        <v>5</v>
+      </c>
+      <c r="E2" s="24">
+        <v>44405</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="23">
+        <v>1</v>
+      </c>
+      <c r="B3" s="23">
+        <v>1</v>
+      </c>
+      <c r="C3" s="23">
+        <v>10</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="24">
+        <v>44405</v>
+      </c>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="23">
+        <v>2</v>
+      </c>
+      <c r="B4" s="23">
+        <v>5</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24">
+        <v>44405</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="23">
+        <v>2</v>
+      </c>
+      <c r="B5" s="23">
+        <v>2</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24">
+        <v>44405</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="23">
+        <v>3</v>
+      </c>
+      <c r="B6" s="23">
+        <v>5</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24">
+        <v>44405</v>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="23">
+        <v>3</v>
+      </c>
+      <c r="B7" s="23">
+        <v>3</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24">
+        <v>44405</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="23">
+        <v>4</v>
+      </c>
+      <c r="B8" s="23">
+        <v>5</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24">
+        <v>44405</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="23">
+        <v>4</v>
+      </c>
+      <c r="B9" s="23">
+        <v>4</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24">
+        <v>44405</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="23">
+        <v>5</v>
+      </c>
+      <c r="B10" s="23">
+        <v>5</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24">
+        <v>44405</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="23">
+        <v>5</v>
+      </c>
+      <c r="B11" s="23">
+        <v>6</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24">
+        <v>44405</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="23">
+        <v>6</v>
+      </c>
+      <c r="B12" s="23">
+        <v>5</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24">
+        <v>44405</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="23">
+        <v>6</v>
+      </c>
+      <c r="B13" s="23">
+        <v>7</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24">
+        <v>44405</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="23">
+        <v>7</v>
+      </c>
+      <c r="B14" s="23">
+        <v>5</v>
+      </c>
+      <c r="C14" s="23">
+        <v>16</v>
+      </c>
+      <c r="D14" s="23">
+        <v>0</v>
+      </c>
+      <c r="E14" s="24">
+        <v>44405</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="23">
+        <v>7</v>
+      </c>
+      <c r="B15" s="23">
+        <v>2</v>
+      </c>
+      <c r="C15" s="23">
+        <v>16</v>
+      </c>
+      <c r="D15" s="23">
+        <v>0</v>
+      </c>
+      <c r="E15" s="24">
+        <v>44405</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="23">
+        <v>7</v>
+      </c>
+      <c r="B16" s="23">
+        <v>3</v>
+      </c>
+      <c r="C16" s="23">
+        <v>16</v>
+      </c>
+      <c r="D16" s="23">
+        <v>0</v>
+      </c>
+      <c r="E16" s="24">
+        <v>44405</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="23">
+        <v>7</v>
+      </c>
+      <c r="B17" s="23">
+        <v>4</v>
+      </c>
+      <c r="C17" s="23">
+        <v>16</v>
+      </c>
+      <c r="D17" s="23">
+        <v>0</v>
+      </c>
+      <c r="E17" s="24">
+        <v>44405</v>
+      </c>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="23">
+        <v>7</v>
+      </c>
+      <c r="B18" s="23">
+        <v>6</v>
+      </c>
+      <c r="C18" s="23">
+        <v>16</v>
+      </c>
+      <c r="D18" s="23">
+        <v>0</v>
+      </c>
+      <c r="E18" s="24">
+        <v>44405</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="23">
+        <v>7</v>
+      </c>
+      <c r="B19" s="23">
+        <v>7</v>
+      </c>
+      <c r="C19" s="23">
+        <v>16</v>
+      </c>
+      <c r="D19" s="23">
+        <v>0</v>
+      </c>
+      <c r="E19" s="24">
+        <v>44405</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="23">
+        <v>8</v>
+      </c>
+      <c r="B20" s="23">
+        <v>5</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24">
+        <v>44405</v>
+      </c>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="23">
+        <v>8</v>
+      </c>
+      <c r="B21" s="23">
+        <v>1</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24">
+        <v>44405</v>
+      </c>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="23">
+        <v>8</v>
+      </c>
+      <c r="B22" s="23">
+        <v>2</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="24">
+        <v>44405</v>
+      </c>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="16">
+        <v>9</v>
+      </c>
+      <c r="B23" s="16">
+        <v>1</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="22">
+        <v>44405</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" s="16">
+        <v>9</v>
+      </c>
+      <c r="B24" s="16">
+        <v>3</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="22">
+        <v>44405</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" s="16">
+        <v>10</v>
+      </c>
+      <c r="B25" s="16">
+        <v>1</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="22">
+        <v>44405</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" s="16">
+        <v>10</v>
+      </c>
+      <c r="B26" s="16">
+        <v>4</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="22">
+        <v>44405</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" s="16">
+        <v>11</v>
+      </c>
+      <c r="B27" s="16">
+        <v>1</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="22">
+        <v>44405</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" s="16">
+        <v>11</v>
+      </c>
+      <c r="B28" s="16">
+        <v>5</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="22">
+        <v>44405</v>
+      </c>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29" s="16">
+        <v>12</v>
+      </c>
+      <c r="B29" s="16">
+        <v>1</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="22">
+        <v>44405</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" s="16">
+        <v>12</v>
+      </c>
+      <c r="B30" s="16">
+        <v>6</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="22">
+        <v>44405</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31" s="16">
+        <v>13</v>
+      </c>
+      <c r="B31" s="16">
+        <v>1</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="22">
+        <v>44405</v>
+      </c>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32" s="16">
+        <v>13</v>
+      </c>
+      <c r="B32" s="16">
+        <v>7</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="22">
+        <v>44405</v>
+      </c>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16" t="s">
+        <v>528</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="17" t="s">
+        <v>552</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>559</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>561</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>562</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19">
+        <v>5</v>
+      </c>
+      <c r="C2" s="19">
+        <v>1</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>564</v>
+      </c>
+      <c r="E2" s="20">
+        <v>44378</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>565</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19">
+        <v>1</v>
+      </c>
+      <c r="C3" s="19">
+        <v>1</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>566</v>
+      </c>
+      <c r="E3" s="20">
+        <v>44379</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>565</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19">
+        <v>5</v>
+      </c>
+      <c r="C4" s="19">
+        <v>1</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>566</v>
+      </c>
+      <c r="E4" s="20">
+        <v>44380</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>565</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19">
+        <v>1</v>
+      </c>
+      <c r="C5" s="19">
+        <v>1</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>567</v>
+      </c>
+      <c r="E5" s="20">
+        <v>44381</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>565</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19">
+        <v>5</v>
+      </c>
+      <c r="C6" s="19">
+        <v>1</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>568</v>
+      </c>
+      <c r="E6" s="20">
+        <v>44382</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>565</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="18">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19">
+        <v>1</v>
+      </c>
+      <c r="C7" s="19">
+        <v>1</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>569</v>
+      </c>
+      <c r="E7" s="20">
+        <v>44383</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>565</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="18">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19">
+        <v>1</v>
+      </c>
+      <c r="C8" s="19">
+        <v>1</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>570</v>
+      </c>
+      <c r="E8" s="20">
+        <v>44384</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>565</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19">
+        <v>1</v>
+      </c>
+      <c r="C9" s="19">
+        <v>1</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>571</v>
+      </c>
+      <c r="E9" s="20">
+        <v>44385</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>565</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="18">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19">
+        <v>1</v>
+      </c>
+      <c r="C10" s="19">
+        <v>1</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>572</v>
+      </c>
+      <c r="E10" s="20">
+        <v>44386</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>565</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="18">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19">
+        <v>1</v>
+      </c>
+      <c r="C11" s="19">
+        <v>1</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>573</v>
+      </c>
+      <c r="E11" s="20">
+        <v>44387</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>565</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="18">
+        <v>11</v>
+      </c>
+      <c r="B12" s="19">
+        <v>5</v>
+      </c>
+      <c r="C12" s="19">
+        <v>7</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>574</v>
+      </c>
+      <c r="E12" s="20">
+        <v>44388</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>565</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="18">
+        <v>12</v>
+      </c>
+      <c r="B13" s="19">
+        <v>2</v>
+      </c>
+      <c r="C13" s="19">
+        <v>7</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="E13" s="20">
+        <v>44389</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>565</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="18">
+        <v>13</v>
+      </c>
+      <c r="B14" s="19">
+        <v>3</v>
+      </c>
+      <c r="C14" s="19">
+        <v>7</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>574</v>
+      </c>
+      <c r="E14" s="20">
+        <v>44390</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>565</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" s="18">
+        <v>14</v>
+      </c>
+      <c r="B15" s="19">
+        <v>4</v>
+      </c>
+      <c r="C15" s="19">
+        <v>7</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>574</v>
+      </c>
+      <c r="E15" s="20">
+        <v>44391</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>565</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" s="18">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19">
+        <v>6</v>
+      </c>
+      <c r="C16" s="19">
+        <v>7</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>574</v>
+      </c>
+      <c r="E16" s="20">
+        <v>44392</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>565</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="18">
+        <v>16</v>
+      </c>
+      <c r="B17" s="19">
+        <v>7</v>
+      </c>
+      <c r="C17" s="19">
+        <v>7</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>574</v>
+      </c>
+      <c r="E17" s="20">
+        <v>44393</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>565</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>577</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>578</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>579</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>580</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>533</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>581</v>
+      </c>
+      <c r="C2" s="20">
+        <v>44378</v>
+      </c>
+      <c r="D2" s="20">
+        <v>44431</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>582</v>
+      </c>
+      <c r="F2" s="20">
+        <v>44378</v>
+      </c>
+      <c r="G2" s="20">
+        <v>44378</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>508</v>
+      </c>
+      <c r="C3" s="20">
+        <v>44378</v>
+      </c>
+      <c r="D3" s="20">
+        <v>44431</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>583</v>
+      </c>
+      <c r="F3" s="20">
+        <v>44378</v>
+      </c>
+      <c r="G3" s="20">
+        <v>44378</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>584</v>
+      </c>
+      <c r="C4" s="20">
+        <v>44378</v>
+      </c>
+      <c r="D4" s="20">
+        <v>44431</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>585</v>
+      </c>
+      <c r="F4" s="20">
+        <v>44378</v>
+      </c>
+      <c r="G4" s="20">
+        <v>44378</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="C5" s="20">
+        <v>44378</v>
+      </c>
+      <c r="D5" s="20">
+        <v>44431</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>586</v>
+      </c>
+      <c r="F5" s="20">
+        <v>44378</v>
+      </c>
+      <c r="G5" s="20">
+        <v>44378</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="C6" s="20">
+        <v>44378</v>
+      </c>
+      <c r="D6" s="20">
+        <v>44431</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>587</v>
+      </c>
+      <c r="F6" s="20">
+        <v>44378</v>
+      </c>
+      <c r="G6" s="20">
+        <v>44378</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="18">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="C7" s="20">
+        <v>44378</v>
+      </c>
+      <c r="D7" s="20">
+        <v>44431</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>588</v>
+      </c>
+      <c r="F7" s="20">
+        <v>44378</v>
+      </c>
+      <c r="G7" s="20">
+        <v>44378</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="18">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="C8" s="20">
+        <v>44378</v>
+      </c>
+      <c r="D8" s="20">
+        <v>44431</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>589</v>
+      </c>
+      <c r="F8" s="20">
+        <v>44378</v>
+      </c>
+      <c r="G8" s="20">
+        <v>44378</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>528</v>
       </c>
     </row>
   </sheetData>

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\thezo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\finalproject-workspace\thezo\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E09F05-6862-4166-A9AF-1DF9C97DCD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="100" windowWidth="23900" windowHeight="14540" tabRatio="728" activeTab="2"/>
+    <workbookView xWindow="-27510" yWindow="6510" windowWidth="37170" windowHeight="21600" tabRatio="728" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="member(sample)" sheetId="2" r:id="rId1"/>
     <sheet name="approval" sheetId="3" r:id="rId2"/>
     <sheet name="mail" sheetId="4" r:id="rId3"/>
+    <sheet name="company" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'member(sample)'!$A$1:$Q$491</definedName>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4927" uniqueCount="2951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4957" uniqueCount="2981">
   <si>
     <t xml:space="preserve">	서울특별시노원구동일로208길 19(중계동, 중계무지개아파트)</t>
   </si>
@@ -8892,14 +8894,134 @@
   </si>
   <si>
     <t>jaxu6304</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP_CEO_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP_REG_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP_EMAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP_BUSS_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP_BUSS_KIND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP_PHONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP_HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP_COR_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP_FAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP_EST_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP_ADDRESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP_CEO_ENG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP_NAME_ENG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP_ADDRESS_ENG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TheKang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강보람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TheZo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thezopjt@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123-81-99233</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-123-4567</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.thezo.co.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-123-4569</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 강남구 테헤란로 14길 6 남도빌딩 2~6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boram. Kang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2~6F, 6, Teheran-ro 14-gil, Gangnam-gu, Seoul, Republic of Korea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP_IMG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8935,6 +9057,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -8968,10 +9098,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8995,9 +9126,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -9088,6 +9226,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -9123,6 +9278,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -9298,34 +9470,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q491"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="19.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
-    <col min="2" max="3" width="19.6640625" style="1"/>
-    <col min="4" max="4" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" style="1"/>
+    <col min="2" max="3" width="19.625" style="1"/>
+    <col min="4" max="4" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.625" style="1"/>
     <col min="6" max="6" width="28" style="1" customWidth="1"/>
     <col min="7" max="7" width="51" style="1" customWidth="1"/>
     <col min="8" max="8" width="29.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="24" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.4140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.1640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.6640625" style="1"/>
-    <col min="14" max="14" width="24.08203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="19.6640625" style="1"/>
-    <col min="16" max="17" width="17.08203125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="19.6640625" style="1"/>
+    <col min="11" max="11" width="25.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.625" style="1"/>
+    <col min="14" max="14" width="24.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="19.625" style="1"/>
+    <col min="16" max="17" width="17.125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="19.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1947</v>
       </c>
@@ -9378,7 +9550,7 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -9427,7 +9599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -9476,7 +9648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -9525,7 +9697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -9574,7 +9746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -9627,7 +9799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -9676,7 +9848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -9725,7 +9897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -9774,7 +9946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -9823,7 +9995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -9872,7 +10044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -9921,7 +10093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -9970,7 +10142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -10019,7 +10191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -10068,7 +10240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -10117,7 +10289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -10166,7 +10338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -10215,7 +10387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -10264,7 +10436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -10313,7 +10485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -10362,7 +10534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -10411,7 +10583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -10460,7 +10632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -10509,7 +10681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -10558,7 +10730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -10607,7 +10779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -10656,7 +10828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -10705,7 +10877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -10754,7 +10926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -10803,7 +10975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -10852,7 +11024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -10901,7 +11073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -10950,7 +11122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -10999,7 +11171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -11048,7 +11220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -11097,7 +11269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -11146,7 +11318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -11195,7 +11367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -11244,7 +11416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -11293,7 +11465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -11342,7 +11514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -11391,7 +11563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -11440,7 +11612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -11489,7 +11661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -11538,7 +11710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -11587,7 +11759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -11636,7 +11808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -11685,7 +11857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -11734,7 +11906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -11787,7 +11959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -11836,7 +12008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -11885,7 +12057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -11934,7 +12106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -11983,7 +12155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -12032,7 +12204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -12081,7 +12253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -12130,7 +12302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -12179,7 +12351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -12228,7 +12400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -12277,7 +12449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -12326,7 +12498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -12375,7 +12547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -12424,7 +12596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -12473,7 +12645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -12522,7 +12694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -12571,7 +12743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -12620,7 +12792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -12669,7 +12841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -12718,7 +12890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -12767,7 +12939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -12816,7 +12988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -12865,7 +13037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -12914,7 +13086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -12963,7 +13135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -13012,7 +13184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -13061,7 +13233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -13110,7 +13282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -13159,7 +13331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -13212,7 +13384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -13261,7 +13433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -13310,7 +13482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -13359,7 +13531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -13408,7 +13580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -13457,7 +13629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -13506,7 +13678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -13555,7 +13727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -13604,7 +13776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -13653,7 +13825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -13702,7 +13874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -13751,7 +13923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -13800,7 +13972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -13849,7 +14021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -13898,7 +14070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -13947,7 +14119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -13996,7 +14168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -14045,7 +14217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -14094,7 +14266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -14143,7 +14315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -14192,7 +14364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -14241,7 +14413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -14290,7 +14462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -14339,7 +14511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -14388,7 +14560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -14437,7 +14609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -14486,7 +14658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -14535,7 +14707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -14584,7 +14756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -14633,7 +14805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -14682,7 +14854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -14731,7 +14903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -14780,7 +14952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -14829,7 +15001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -14882,7 +15054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -14931,7 +15103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -14980,7 +15152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -15029,7 +15201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -15078,7 +15250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -15127,7 +15299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -15176,7 +15348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -15225,7 +15397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -15274,7 +15446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -15323,7 +15495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -15372,7 +15544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -15421,7 +15593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -15470,7 +15642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -15519,7 +15691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -15568,7 +15740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -15617,7 +15789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -15666,7 +15838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -15715,7 +15887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -15764,7 +15936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -15813,7 +15985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -15862,7 +16034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -15911,7 +16083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -15960,7 +16132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -16009,7 +16181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -16058,7 +16230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -16107,7 +16279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -16156,7 +16328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -16205,7 +16377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -16254,7 +16426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -16303,7 +16475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -16352,7 +16524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -16401,7 +16573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -16450,7 +16622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -16499,7 +16671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -16548,7 +16720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -16597,7 +16769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -16646,7 +16818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -16695,7 +16867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -16744,7 +16916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -16793,7 +16965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -16846,7 +17018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -16895,7 +17067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -16944,7 +17116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -16993,7 +17165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -17042,7 +17214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -17091,7 +17263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -17140,7 +17312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>159</v>
       </c>
@@ -17189,7 +17361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -17238,7 +17410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>161</v>
       </c>
@@ -17287,7 +17459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>162</v>
       </c>
@@ -17336,7 +17508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>163</v>
       </c>
@@ -17389,7 +17561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>164</v>
       </c>
@@ -17438,7 +17610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>165</v>
       </c>
@@ -17487,7 +17659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>166</v>
       </c>
@@ -17536,7 +17708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>167</v>
       </c>
@@ -17585,7 +17757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -17638,7 +17810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>169</v>
       </c>
@@ -17687,7 +17859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>170</v>
       </c>
@@ -17740,7 +17912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>171</v>
       </c>
@@ -17789,7 +17961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>172</v>
       </c>
@@ -17838,7 +18010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>173</v>
       </c>
@@ -17887,7 +18059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>174</v>
       </c>
@@ -17940,7 +18112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>175</v>
       </c>
@@ -17989,7 +18161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>176</v>
       </c>
@@ -18038,7 +18210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>177</v>
       </c>
@@ -18087,7 +18259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>178</v>
       </c>
@@ -18136,7 +18308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>179</v>
       </c>
@@ -18185,7 +18357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>180</v>
       </c>
@@ -18234,7 +18406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>181</v>
       </c>
@@ -18283,7 +18455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>182</v>
       </c>
@@ -18332,7 +18504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>183</v>
       </c>
@@ -18381,7 +18553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>184</v>
       </c>
@@ -18430,7 +18602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>185</v>
       </c>
@@ -18479,7 +18651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>186</v>
       </c>
@@ -18528,7 +18700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>187</v>
       </c>
@@ -18577,7 +18749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>188</v>
       </c>
@@ -18626,7 +18798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>189</v>
       </c>
@@ -18675,7 +18847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>190</v>
       </c>
@@ -18724,7 +18896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>191</v>
       </c>
@@ -18773,7 +18945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>192</v>
       </c>
@@ -18822,7 +18994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>193</v>
       </c>
@@ -18871,7 +19043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>194</v>
       </c>
@@ -18920,7 +19092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>195</v>
       </c>
@@ -18969,7 +19141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>196</v>
       </c>
@@ -19018,7 +19190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>197</v>
       </c>
@@ -19067,7 +19239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>198</v>
       </c>
@@ -19116,7 +19288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>199</v>
       </c>
@@ -19165,7 +19337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>200</v>
       </c>
@@ -19214,7 +19386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>201</v>
       </c>
@@ -19263,7 +19435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>202</v>
       </c>
@@ -19312,7 +19484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>203</v>
       </c>
@@ -19361,7 +19533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>204</v>
       </c>
@@ -19410,7 +19582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>205</v>
       </c>
@@ -19459,7 +19631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>206</v>
       </c>
@@ -19508,7 +19680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>207</v>
       </c>
@@ -19561,7 +19733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>208</v>
       </c>
@@ -19610,7 +19782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>209</v>
       </c>
@@ -19659,7 +19831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>210</v>
       </c>
@@ -19708,7 +19880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>211</v>
       </c>
@@ -19757,7 +19929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>212</v>
       </c>
@@ -19806,7 +19978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>213</v>
       </c>
@@ -19855,7 +20027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>214</v>
       </c>
@@ -19904,7 +20076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>215</v>
       </c>
@@ -19953,7 +20125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>216</v>
       </c>
@@ -20002,7 +20174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>217</v>
       </c>
@@ -20051,7 +20223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>218</v>
       </c>
@@ -20100,7 +20272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>219</v>
       </c>
@@ -20149,7 +20321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>220</v>
       </c>
@@ -20198,7 +20370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>221</v>
       </c>
@@ -20247,7 +20419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>222</v>
       </c>
@@ -20296,7 +20468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>223</v>
       </c>
@@ -20345,7 +20517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>224</v>
       </c>
@@ -20394,7 +20566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>225</v>
       </c>
@@ -20443,7 +20615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>226</v>
       </c>
@@ -20492,7 +20664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>227</v>
       </c>
@@ -20541,7 +20713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <v>228</v>
       </c>
@@ -20590,7 +20762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>229</v>
       </c>
@@ -20639,7 +20811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
         <v>230</v>
       </c>
@@ -20688,7 +20860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>231</v>
       </c>
@@ -20737,7 +20909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
         <v>232</v>
       </c>
@@ -20786,7 +20958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>233</v>
       </c>
@@ -20835,7 +21007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
         <v>234</v>
       </c>
@@ -20884,7 +21056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
         <v>235</v>
       </c>
@@ -20933,7 +21105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
         <v>236</v>
       </c>
@@ -20982,7 +21154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
         <v>237</v>
       </c>
@@ -21031,7 +21203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>238</v>
       </c>
@@ -21080,7 +21252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>239</v>
       </c>
@@ -21129,7 +21301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>240</v>
       </c>
@@ -21178,7 +21350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>241</v>
       </c>
@@ -21227,7 +21399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>242</v>
       </c>
@@ -21276,7 +21448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
         <v>243</v>
       </c>
@@ -21325,7 +21497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
         <v>244</v>
       </c>
@@ -21374,7 +21546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
         <v>245</v>
       </c>
@@ -21423,7 +21595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>246</v>
       </c>
@@ -21472,7 +21644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>247</v>
       </c>
@@ -21521,7 +21693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>248</v>
       </c>
@@ -21570,7 +21742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>249</v>
       </c>
@@ -21619,7 +21791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <v>250</v>
       </c>
@@ -21668,7 +21840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>251</v>
       </c>
@@ -21717,7 +21889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <v>252</v>
       </c>
@@ -21766,7 +21938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>253</v>
       </c>
@@ -21815,7 +21987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
         <v>254</v>
       </c>
@@ -21864,7 +22036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
         <v>255</v>
       </c>
@@ -21913,7 +22085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
         <v>256</v>
       </c>
@@ -21962,7 +22134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>257</v>
       </c>
@@ -22011,7 +22183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>258</v>
       </c>
@@ -22060,7 +22232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>259</v>
       </c>
@@ -22109,7 +22281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
         <v>260</v>
       </c>
@@ -22158,7 +22330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
         <v>261</v>
       </c>
@@ -22207,7 +22379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <v>262</v>
       </c>
@@ -22256,7 +22428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
         <v>263</v>
       </c>
@@ -22305,7 +22477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
         <v>264</v>
       </c>
@@ -22354,7 +22526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
         <v>265</v>
       </c>
@@ -22403,7 +22575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
         <v>266</v>
       </c>
@@ -22452,7 +22624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
         <v>267</v>
       </c>
@@ -22501,7 +22673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
         <v>268</v>
       </c>
@@ -22550,7 +22722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
         <v>269</v>
       </c>
@@ -22599,7 +22771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
         <v>270</v>
       </c>
@@ -22648,7 +22820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
         <v>271</v>
       </c>
@@ -22697,7 +22869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
         <v>272</v>
       </c>
@@ -22746,7 +22918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
         <v>273</v>
       </c>
@@ -22795,7 +22967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
         <v>274</v>
       </c>
@@ -22844,7 +23016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
         <v>275</v>
       </c>
@@ -22893,7 +23065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
         <v>276</v>
       </c>
@@ -22942,7 +23114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A278" s="3">
         <v>277</v>
       </c>
@@ -22991,7 +23163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
         <v>278</v>
       </c>
@@ -23040,7 +23212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A280" s="3">
         <v>279</v>
       </c>
@@ -23089,7 +23261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A281" s="3">
         <v>280</v>
       </c>
@@ -23138,7 +23310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
         <v>281</v>
       </c>
@@ -23187,7 +23359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A283" s="3">
         <v>282</v>
       </c>
@@ -23236,7 +23408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A284" s="3">
         <v>283</v>
       </c>
@@ -23285,7 +23457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
         <v>284</v>
       </c>
@@ -23334,7 +23506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A286" s="3">
         <v>285</v>
       </c>
@@ -23383,7 +23555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
         <v>286</v>
       </c>
@@ -23432,7 +23604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
         <v>287</v>
       </c>
@@ -23481,7 +23653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A289" s="3">
         <v>288</v>
       </c>
@@ -23530,7 +23702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A290" s="3">
         <v>289</v>
       </c>
@@ -23579,7 +23751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A291" s="3">
         <v>290</v>
       </c>
@@ -23628,7 +23800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
         <v>291</v>
       </c>
@@ -23677,7 +23849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A293" s="3">
         <v>292</v>
       </c>
@@ -23726,7 +23898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
         <v>293</v>
       </c>
@@ -23775,7 +23947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A295" s="3">
         <v>294</v>
       </c>
@@ -23824,7 +23996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
         <v>295</v>
       </c>
@@ -23873,7 +24045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
         <v>296</v>
       </c>
@@ -23922,7 +24094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A298" s="3">
         <v>297</v>
       </c>
@@ -23971,7 +24143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A299" s="3">
         <v>298</v>
       </c>
@@ -24020,7 +24192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A300" s="3">
         <v>299</v>
       </c>
@@ -24069,7 +24241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A301" s="3">
         <v>300</v>
       </c>
@@ -24118,7 +24290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A302" s="3">
         <v>301</v>
       </c>
@@ -24167,7 +24339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A303" s="3">
         <v>302</v>
       </c>
@@ -24216,7 +24388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A304" s="3">
         <v>303</v>
       </c>
@@ -24265,7 +24437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A305" s="3">
         <v>304</v>
       </c>
@@ -24314,7 +24486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A306" s="3">
         <v>305</v>
       </c>
@@ -24363,7 +24535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A307" s="3">
         <v>306</v>
       </c>
@@ -24412,7 +24584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A308" s="3">
         <v>307</v>
       </c>
@@ -24461,7 +24633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A309" s="3">
         <v>308</v>
       </c>
@@ -24510,7 +24682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A310" s="3">
         <v>309</v>
       </c>
@@ -24559,7 +24731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A311" s="3">
         <v>310</v>
       </c>
@@ -24608,7 +24780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A312" s="3">
         <v>311</v>
       </c>
@@ -24657,7 +24829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A313" s="3">
         <v>312</v>
       </c>
@@ -24706,7 +24878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A314" s="3">
         <v>313</v>
       </c>
@@ -24755,7 +24927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A315" s="3">
         <v>314</v>
       </c>
@@ -24804,7 +24976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A316" s="3">
         <v>315</v>
       </c>
@@ -24853,7 +25025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A317" s="3">
         <v>316</v>
       </c>
@@ -24902,7 +25074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A318" s="3">
         <v>317</v>
       </c>
@@ -24951,7 +25123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A319" s="3">
         <v>318</v>
       </c>
@@ -25000,7 +25172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A320" s="3">
         <v>319</v>
       </c>
@@ -25049,7 +25221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A321" s="3">
         <v>320</v>
       </c>
@@ -25098,7 +25270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A322" s="3">
         <v>321</v>
       </c>
@@ -25147,7 +25319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A323" s="3">
         <v>322</v>
       </c>
@@ -25196,7 +25368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A324" s="3">
         <v>323</v>
       </c>
@@ -25245,7 +25417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A325" s="3">
         <v>324</v>
       </c>
@@ -25294,7 +25466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
         <v>325</v>
       </c>
@@ -25343,7 +25515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A327" s="3">
         <v>326</v>
       </c>
@@ -25392,7 +25564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A328" s="3">
         <v>327</v>
       </c>
@@ -25441,7 +25613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A329" s="3">
         <v>328</v>
       </c>
@@ -25490,7 +25662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A330" s="3">
         <v>329</v>
       </c>
@@ -25539,7 +25711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A331" s="3">
         <v>330</v>
       </c>
@@ -25588,7 +25760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A332" s="3">
         <v>331</v>
       </c>
@@ -25637,7 +25809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A333" s="3">
         <v>332</v>
       </c>
@@ -25686,7 +25858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A334" s="3">
         <v>333</v>
       </c>
@@ -25735,7 +25907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A335" s="3">
         <v>334</v>
       </c>
@@ -25784,7 +25956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A336" s="3">
         <v>335</v>
       </c>
@@ -25833,7 +26005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A337" s="3">
         <v>336</v>
       </c>
@@ -25882,7 +26054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A338" s="3">
         <v>337</v>
       </c>
@@ -25931,7 +26103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A339" s="3">
         <v>338</v>
       </c>
@@ -25980,7 +26152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A340" s="3">
         <v>339</v>
       </c>
@@ -26029,7 +26201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A341" s="3">
         <v>340</v>
       </c>
@@ -26078,7 +26250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A342" s="3">
         <v>341</v>
       </c>
@@ -26127,7 +26299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A343" s="3">
         <v>342</v>
       </c>
@@ -26176,7 +26348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A344" s="3">
         <v>343</v>
       </c>
@@ -26225,7 +26397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A345" s="3">
         <v>344</v>
       </c>
@@ -26274,7 +26446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A346" s="3">
         <v>345</v>
       </c>
@@ -26323,7 +26495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A347" s="3">
         <v>346</v>
       </c>
@@ -26372,7 +26544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A348" s="3">
         <v>347</v>
       </c>
@@ -26421,7 +26593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A349" s="3">
         <v>348</v>
       </c>
@@ -26470,7 +26642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A350" s="3">
         <v>349</v>
       </c>
@@ -26519,7 +26691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A351" s="3">
         <v>350</v>
       </c>
@@ -26568,7 +26740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A352" s="3">
         <v>351</v>
       </c>
@@ -26617,7 +26789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A353" s="3">
         <v>352</v>
       </c>
@@ -26666,7 +26838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A354" s="3">
         <v>353</v>
       </c>
@@ -26715,7 +26887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A355" s="3">
         <v>354</v>
       </c>
@@ -26764,7 +26936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A356" s="3">
         <v>355</v>
       </c>
@@ -26813,7 +26985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A357" s="3">
         <v>356</v>
       </c>
@@ -26862,7 +27034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A358" s="3">
         <v>357</v>
       </c>
@@ -26911,7 +27083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A359" s="3">
         <v>358</v>
       </c>
@@ -26960,7 +27132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A360" s="3">
         <v>359</v>
       </c>
@@ -27009,7 +27181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A361" s="3">
         <v>360</v>
       </c>
@@ -27058,7 +27230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A362" s="3">
         <v>361</v>
       </c>
@@ -27107,7 +27279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A363" s="3">
         <v>362</v>
       </c>
@@ -27156,7 +27328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A364" s="3">
         <v>363</v>
       </c>
@@ -27205,7 +27377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A365" s="3">
         <v>364</v>
       </c>
@@ -27254,7 +27426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A366" s="3">
         <v>365</v>
       </c>
@@ -27303,7 +27475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A367" s="3">
         <v>366</v>
       </c>
@@ -27352,7 +27524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A368" s="3">
         <v>367</v>
       </c>
@@ -27401,7 +27573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A369" s="3">
         <v>368</v>
       </c>
@@ -27450,7 +27622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A370" s="3">
         <v>369</v>
       </c>
@@ -27499,7 +27671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A371" s="3">
         <v>370</v>
       </c>
@@ -27548,7 +27720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A372" s="3">
         <v>371</v>
       </c>
@@ -27597,7 +27769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A373" s="3">
         <v>372</v>
       </c>
@@ -27646,7 +27818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A374" s="3">
         <v>373</v>
       </c>
@@ -27695,7 +27867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A375" s="3">
         <v>374</v>
       </c>
@@ -27744,7 +27916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A376" s="3">
         <v>375</v>
       </c>
@@ -27793,7 +27965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A377" s="3">
         <v>376</v>
       </c>
@@ -27842,7 +28014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A378" s="3">
         <v>377</v>
       </c>
@@ -27891,7 +28063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A379" s="3">
         <v>378</v>
       </c>
@@ -27940,7 +28112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A380" s="3">
         <v>379</v>
       </c>
@@ -27989,7 +28161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A381" s="3">
         <v>380</v>
       </c>
@@ -28038,7 +28210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A382" s="3">
         <v>381</v>
       </c>
@@ -28087,7 +28259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A383" s="3">
         <v>382</v>
       </c>
@@ -28136,7 +28308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A384" s="3">
         <v>383</v>
       </c>
@@ -28185,7 +28357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A385" s="3">
         <v>384</v>
       </c>
@@ -28234,7 +28406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A386" s="3">
         <v>385</v>
       </c>
@@ -28283,7 +28455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A387" s="3">
         <v>386</v>
       </c>
@@ -28332,7 +28504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A388" s="3">
         <v>387</v>
       </c>
@@ -28381,7 +28553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A389" s="3">
         <v>388</v>
       </c>
@@ -28430,7 +28602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A390" s="3">
         <v>389</v>
       </c>
@@ -28479,7 +28651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A391" s="3">
         <v>390</v>
       </c>
@@ -28528,7 +28700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A392" s="3">
         <v>391</v>
       </c>
@@ -28577,7 +28749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A393" s="3">
         <v>392</v>
       </c>
@@ -28626,7 +28798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A394" s="3">
         <v>393</v>
       </c>
@@ -28675,7 +28847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A395" s="3">
         <v>394</v>
       </c>
@@ -28724,7 +28896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A396" s="3">
         <v>395</v>
       </c>
@@ -28773,7 +28945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A397" s="3">
         <v>396</v>
       </c>
@@ -28822,7 +28994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A398" s="3">
         <v>397</v>
       </c>
@@ -28871,7 +29043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A399" s="3">
         <v>398</v>
       </c>
@@ -28920,7 +29092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A400" s="3">
         <v>399</v>
       </c>
@@ -28969,7 +29141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A401" s="3">
         <v>400</v>
       </c>
@@ -29018,7 +29190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A402" s="3">
         <v>401</v>
       </c>
@@ -29067,7 +29239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A403" s="3">
         <v>402</v>
       </c>
@@ -29116,7 +29288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A404" s="3">
         <v>403</v>
       </c>
@@ -29165,7 +29337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A405" s="3">
         <v>404</v>
       </c>
@@ -29214,7 +29386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A406" s="3">
         <v>405</v>
       </c>
@@ -29263,7 +29435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A407" s="3">
         <v>406</v>
       </c>
@@ -29312,7 +29484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A408" s="3">
         <v>407</v>
       </c>
@@ -29361,7 +29533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A409" s="3">
         <v>408</v>
       </c>
@@ -29410,7 +29582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A410" s="3">
         <v>409</v>
       </c>
@@ -29459,7 +29631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A411" s="3">
         <v>410</v>
       </c>
@@ -29508,7 +29680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A412" s="3">
         <v>411</v>
       </c>
@@ -29557,7 +29729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A413" s="3">
         <v>412</v>
       </c>
@@ -29606,7 +29778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A414" s="3">
         <v>413</v>
       </c>
@@ -29655,7 +29827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A415" s="3">
         <v>414</v>
       </c>
@@ -29704,7 +29876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A416" s="3">
         <v>415</v>
       </c>
@@ -29753,7 +29925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A417" s="3">
         <v>416</v>
       </c>
@@ -29802,7 +29974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A418" s="3">
         <v>417</v>
       </c>
@@ -29851,7 +30023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A419" s="3">
         <v>418</v>
       </c>
@@ -29900,7 +30072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A420" s="3">
         <v>419</v>
       </c>
@@ -29949,7 +30121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A421" s="3">
         <v>420</v>
       </c>
@@ -29998,7 +30170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A422" s="3">
         <v>421</v>
       </c>
@@ -30047,7 +30219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A423" s="3">
         <v>422</v>
       </c>
@@ -30096,7 +30268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A424" s="3">
         <v>423</v>
       </c>
@@ -30145,7 +30317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A425" s="3">
         <v>424</v>
       </c>
@@ -30194,7 +30366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A426" s="3">
         <v>425</v>
       </c>
@@ -30243,7 +30415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A427" s="3">
         <v>426</v>
       </c>
@@ -30292,7 +30464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A428" s="3">
         <v>427</v>
       </c>
@@ -30341,7 +30513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A429" s="3">
         <v>428</v>
       </c>
@@ -30390,7 +30562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A430" s="3">
         <v>429</v>
       </c>
@@ -30439,7 +30611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A431" s="3">
         <v>430</v>
       </c>
@@ -30488,7 +30660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A432" s="3">
         <v>431</v>
       </c>
@@ -30537,7 +30709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A433" s="3">
         <v>432</v>
       </c>
@@ -30586,7 +30758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A434" s="3">
         <v>433</v>
       </c>
@@ -30635,7 +30807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A435" s="3">
         <v>434</v>
       </c>
@@ -30684,7 +30856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A436" s="3">
         <v>435</v>
       </c>
@@ -30733,7 +30905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A437" s="3">
         <v>436</v>
       </c>
@@ -30782,7 +30954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A438" s="3">
         <v>437</v>
       </c>
@@ -30831,7 +31003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A439" s="3">
         <v>438</v>
       </c>
@@ -30880,7 +31052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A440" s="3">
         <v>439</v>
       </c>
@@ -30929,7 +31101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A441" s="3">
         <v>440</v>
       </c>
@@ -30978,7 +31150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A442" s="3">
         <v>441</v>
       </c>
@@ -31027,7 +31199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A443" s="3">
         <v>442</v>
       </c>
@@ -31076,7 +31248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A444" s="3">
         <v>443</v>
       </c>
@@ -31125,7 +31297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A445" s="3">
         <v>444</v>
       </c>
@@ -31174,7 +31346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A446" s="3">
         <v>445</v>
       </c>
@@ -31223,7 +31395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A447" s="3">
         <v>446</v>
       </c>
@@ -31272,7 +31444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A448" s="3">
         <v>447</v>
       </c>
@@ -31321,7 +31493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A449" s="3">
         <v>448</v>
       </c>
@@ -31370,7 +31542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A450" s="3">
         <v>449</v>
       </c>
@@ -31419,7 +31591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A451" s="3">
         <v>450</v>
       </c>
@@ -31468,7 +31640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A452" s="3">
         <v>451</v>
       </c>
@@ -31517,7 +31689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A453" s="3">
         <v>452</v>
       </c>
@@ -31566,7 +31738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A454" s="3">
         <v>453</v>
       </c>
@@ -31615,7 +31787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A455" s="3">
         <v>454</v>
       </c>
@@ -31664,7 +31836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A456" s="3">
         <v>455</v>
       </c>
@@ -31713,7 +31885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A457" s="3">
         <v>456</v>
       </c>
@@ -31762,7 +31934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A458" s="3">
         <v>457</v>
       </c>
@@ -31811,7 +31983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A459" s="3">
         <v>458</v>
       </c>
@@ -31860,7 +32032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A460" s="3">
         <v>459</v>
       </c>
@@ -31909,7 +32081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A461" s="3">
         <v>460</v>
       </c>
@@ -31958,7 +32130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A462" s="3">
         <v>461</v>
       </c>
@@ -32007,7 +32179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A463" s="3">
         <v>462</v>
       </c>
@@ -32056,7 +32228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A464" s="3">
         <v>463</v>
       </c>
@@ -32105,7 +32277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A465" s="3">
         <v>464</v>
       </c>
@@ -32154,7 +32326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A466" s="3">
         <v>465</v>
       </c>
@@ -32203,7 +32375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A467" s="3">
         <v>466</v>
       </c>
@@ -32252,7 +32424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A468" s="3">
         <v>467</v>
       </c>
@@ -32301,7 +32473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A469" s="3">
         <v>468</v>
       </c>
@@ -32350,7 +32522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A470" s="3">
         <v>469</v>
       </c>
@@ -32399,7 +32571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A471" s="3">
         <v>470</v>
       </c>
@@ -32448,7 +32620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A472" s="3">
         <v>471</v>
       </c>
@@ -32497,7 +32669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A473" s="3">
         <v>472</v>
       </c>
@@ -32546,7 +32718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A474" s="3">
         <v>473</v>
       </c>
@@ -32595,7 +32767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A475" s="3">
         <v>474</v>
       </c>
@@ -32644,7 +32816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A476" s="3">
         <v>475</v>
       </c>
@@ -32693,7 +32865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A477" s="3">
         <v>476</v>
       </c>
@@ -32742,7 +32914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A478" s="3">
         <v>477</v>
       </c>
@@ -32791,7 +32963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A479" s="3">
         <v>478</v>
       </c>
@@ -32840,7 +33012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A480" s="3">
         <v>479</v>
       </c>
@@ -32889,7 +33061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A481" s="3">
         <v>480</v>
       </c>
@@ -32938,7 +33110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A482" s="3">
         <v>481</v>
       </c>
@@ -32987,7 +33159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A483" s="3">
         <v>482</v>
       </c>
@@ -33036,7 +33208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A484" s="3">
         <v>483</v>
       </c>
@@ -33085,7 +33257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A485" s="3">
         <v>484</v>
       </c>
@@ -33134,7 +33306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A486" s="3">
         <v>485</v>
       </c>
@@ -33183,7 +33355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A487" s="3">
         <v>486</v>
       </c>
@@ -33232,7 +33404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A488" s="3">
         <v>487</v>
       </c>
@@ -33281,7 +33453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A489" s="3">
         <v>488</v>
       </c>
@@ -33330,7 +33502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A490" s="3">
         <v>489</v>
       </c>
@@ -33379,7 +33551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A491" s="3">
         <v>490</v>
       </c>
@@ -33429,8 +33601,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q491">
-    <sortState ref="A2:Q500">
+  <autoFilter ref="A1:Q491" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q500">
       <sortCondition ref="A1:A500"/>
     </sortState>
   </autoFilter>
@@ -33441,12 +33613,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33455,16 +33627,158 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB71305-9CDE-4F91-BE7E-605FB084544D}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="20.875" customWidth="1"/>
+    <col min="6" max="6" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="62.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5" customWidth="1"/>
+    <col min="13" max="13" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.75" customWidth="1"/>
+    <col min="16" max="16" width="56.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>2951</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2952</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2953</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2954</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2955</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2956</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2957</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2958</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>2959</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>2960</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>2961</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>2962</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>2963</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>2964</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>2965</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>2966</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2969</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2968</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2971</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>2970</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>2979</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>2980</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>2972</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>2973</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="6" t="s">
+        <v>2974</v>
+      </c>
+      <c r="L2" s="6">
+        <v>44431</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>2975</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>2976</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>2967</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>2977</v>
+      </c>
+      <c r="Q2" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{9E3D4C25-D864-4760-B94D-5F82D8042139}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{220405F6-00A0-4153-BD6C-08AB50606B72}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>
--- a/DB.xlsx
+++ b/DB.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\thezo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\finalProject\thezo\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502909F4-A3AA-4017-A5C7-52014D1065DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="108" windowWidth="23892" windowHeight="13740" tabRatio="728" firstSheet="4" activeTab="11"/>
+    <workbookView xWindow="5712" yWindow="348" windowWidth="17004" windowHeight="10404" tabRatio="728" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="member(sample)" sheetId="2" r:id="rId1"/>
@@ -25,6 +26,7 @@
     <sheet name="Jaewon_message" sheetId="12" r:id="rId11"/>
     <sheet name="Jaewon_msg_report" sheetId="13" r:id="rId12"/>
     <sheet name="Jaewon_admin_log" sheetId="14" r:id="rId13"/>
+    <sheet name="Sunyoung_document" sheetId="15" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'member(sample)'!$A$1:$Q$491</definedName>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="666">
   <si>
     <t xml:space="preserve">	서울특별시송파구올림픽로 99(잠실동, 잠실엘스)</t>
   </si>
@@ -2200,12 +2202,124 @@
   <si>
     <t>기초적인 모든 세팅과 회사 설정 등등</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOC_NO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOC_WRITER</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOC_CONTENT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOC_CATEGORY</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHANGE_NAME</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATUS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>공문 발송 양식입니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>공용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의록 양식 입니다. 업무에 참고바랍니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>시말서 입니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021년 프로젝트 보고서 양식 입니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>발주서</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 계약서</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 계약서(내용 추가)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>출장 보고서 양식</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>사유서 양식</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무일지 양식입니다. 참고하여 작성 바랍니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사소개서 양식</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육보고서 양식</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>근로계약서</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>품의서</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서 발송 대장</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 보고서 양식 입니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>저희 회사 마크입니다~~~</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업자 등록증</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>수습사원 평가서 입니다 !!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>개정된 회의록 양식입니다. 업무에 참고바랍니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2410,7 +2524,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="2"/>
+    <cellStyle name="표준 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2502,6 +2616,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2537,6 +2668,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2712,7 +2860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y492"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -14711,10 +14859,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G46:G86" r:id="rId3" display="user01@thezo.com"/>
-    <hyperlink ref="G4:G73" r:id="rId4" display="user01@thezo.com"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G46:G86" r:id="rId3" display="user01@thezo.com" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G4:G73" r:id="rId4" display="user01@thezo.com" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId5"/>
@@ -14722,11 +14870,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -14831,7 +14979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15583,10 +15731,10 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -15721,7 +15869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15798,8 +15946,501 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E9B575-B50C-404F-BDA9-D0FC06A60F26}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="E2" s="8">
+        <v>44256</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="E3" s="8">
+        <v>44257</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="E4" s="8">
+        <v>44258</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="E5" s="8">
+        <v>44259</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="E6" s="8">
+        <v>44260</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="E7" s="8">
+        <v>44261</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="E8" s="8">
+        <v>44262</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="E9" s="8">
+        <v>44263</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="E10" s="8">
+        <v>44264</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="E11" s="8">
+        <v>44265</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="E12" s="8">
+        <v>44266</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="E13" s="8">
+        <v>44267</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="E14" s="8">
+        <v>44268</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="E15" s="8">
+        <v>44269</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>5</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="E16" s="8">
+        <v>44270</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>10</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="E17" s="8">
+        <v>44271</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>5</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="E18" s="8">
+        <v>44272</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4">
+        <v>5</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="E19" s="8">
+        <v>44273</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4">
+        <v>5</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="E20" s="8">
+        <v>44274</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4">
+        <v>4</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="E21" s="8">
+        <v>44275</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15813,7 +16454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15828,7 +16469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16004,7 +16645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16190,7 +16831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16428,7 +17069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17035,7 +17676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17460,7 +18101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\finalProject\thezo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502909F4-A3AA-4017-A5C7-52014D1065DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5712" yWindow="348" windowWidth="17004" windowHeight="10404" tabRatio="728" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5715" yWindow="345" windowWidth="17010" windowHeight="10410" tabRatio="728" firstSheet="9" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="member(sample)" sheetId="2" r:id="rId1"/>
@@ -27,6 +21,9 @@
     <sheet name="Jaewon_msg_report" sheetId="13" r:id="rId12"/>
     <sheet name="Jaewon_admin_log" sheetId="14" r:id="rId13"/>
     <sheet name="Sunyoung_document" sheetId="15" r:id="rId14"/>
+    <sheet name="Lsk_board" sheetId="16" r:id="rId15"/>
+    <sheet name="Lsk_market" sheetId="17" r:id="rId16"/>
+    <sheet name="Lsk_reply" sheetId="18" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'member(sample)'!$A$1:$Q$491</definedName>
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="816">
   <si>
     <t xml:space="preserve">	서울특별시송파구올림픽로 99(잠실동, 잠실엘스)</t>
   </si>
@@ -2313,13 +2310,540 @@
   </si>
   <si>
     <t>개정된 회의록 양식입니다. 업무에 참고바랍니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOARD_NO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM_NO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOARD_WRITER</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOARD_TYPE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOARD_TITLE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOARD_CONTENT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOARD_DATE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>COUNT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATUS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user02</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항입니다.1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 내용입니다.1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항입니다.2</t>
+  </si>
+  <si>
+    <t>공지사항 내용입니다.2</t>
+  </si>
+  <si>
+    <t>공지사항입니다.3</t>
+  </si>
+  <si>
+    <t>공지사항 내용입니다.3</t>
+  </si>
+  <si>
+    <t>user01</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항입니다.4</t>
+  </si>
+  <si>
+    <t>공지사항 내용입니다.4</t>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항입니다.5</t>
+  </si>
+  <si>
+    <t>공지사항 내용입니다.5</t>
+  </si>
+  <si>
+    <t>공지사항입니다.6</t>
+  </si>
+  <si>
+    <t>공지사항 내용입니다.6</t>
+  </si>
+  <si>
+    <t>user02</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항입니다.7</t>
+  </si>
+  <si>
+    <t>공지사항 내용입니다.7</t>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user02</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항입니다.8</t>
+  </si>
+  <si>
+    <t>공지사항 내용입니다.8</t>
+  </si>
+  <si>
+    <t>공지사항입니다.9</t>
+  </si>
+  <si>
+    <t>공지사항 내용입니다.9</t>
+  </si>
+  <si>
+    <t>user01</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항입니다.10</t>
+  </si>
+  <si>
+    <t>공지사항 내용입니다.10</t>
+  </si>
+  <si>
+    <t>공지사항입니다.11</t>
+  </si>
+  <si>
+    <t>공지사항 내용입니다.11</t>
+  </si>
+  <si>
+    <t>공지사항입니다.12</t>
+  </si>
+  <si>
+    <t>공지사항 내용입니다.12</t>
+  </si>
+  <si>
+    <t>공지사항입니다.13</t>
+  </si>
+  <si>
+    <t>공지사항 내용입니다.13</t>
+  </si>
+  <si>
+    <t>공지사항입니다.14</t>
+  </si>
+  <si>
+    <t>공지사항 내용입니다.14</t>
+  </si>
+  <si>
+    <t>공지사항입니다.15</t>
+  </si>
+  <si>
+    <t>공지사항 내용입니다.15</t>
+  </si>
+  <si>
+    <t>공지사항입니다.16</t>
+  </si>
+  <si>
+    <t>공지사항 내용입니다.16</t>
+  </si>
+  <si>
+    <t>공지사항입니다.17</t>
+  </si>
+  <si>
+    <t>공지사항 내용입니다.17</t>
+  </si>
+  <si>
+    <t>공지사항입니다.18</t>
+  </si>
+  <si>
+    <t>공지사항 내용입니다.18</t>
+  </si>
+  <si>
+    <t>공지사항입니다.19</t>
+  </si>
+  <si>
+    <t>공지사항 내용입니다.19</t>
+  </si>
+  <si>
+    <t>공지사항입니다.20</t>
+  </si>
+  <si>
+    <t>공지사항 내용입니다.20</t>
+  </si>
+  <si>
+    <t>공지사항입니다.21</t>
+  </si>
+  <si>
+    <t>공지사항 내용입니다.21</t>
+  </si>
+  <si>
+    <t>공지사항입니다.22</t>
+  </si>
+  <si>
+    <t>공지사항 내용입니다.22</t>
+  </si>
+  <si>
+    <t>공지사항입니다.23</t>
+  </si>
+  <si>
+    <t>공지사항 내용입니다.23</t>
+  </si>
+  <si>
+    <t>공지사항입니다.24</t>
+  </si>
+  <si>
+    <t>공지사항 내용입니다.24</t>
+  </si>
+  <si>
+    <t>공지사항입니다.25</t>
+  </si>
+  <si>
+    <t>공지사항 내용입니다.25</t>
+  </si>
+  <si>
+    <t>공지사항입니다.26</t>
+  </si>
+  <si>
+    <t>공지사항 내용입니다.26</t>
+  </si>
+  <si>
+    <t>공지사항입니다.27</t>
+  </si>
+  <si>
+    <t>공지사항 내용입니다.27</t>
+  </si>
+  <si>
+    <t>공지사항입니다.28</t>
+  </si>
+  <si>
+    <t>공지사항 내용입니다.28</t>
+  </si>
+  <si>
+    <t>공지사항입니다.29</t>
+  </si>
+  <si>
+    <t>공지사항 내용입니다.29</t>
+  </si>
+  <si>
+    <t>공지사항입니다.30</t>
+  </si>
+  <si>
+    <t>공지사항 내용입니다.30</t>
+  </si>
+  <si>
+    <t>user19</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 부장님 최고</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 대표이사님 최고</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">우리 대표이사님 최고 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼펜이 사라지네요</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 소중한 볼펜</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user16</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>머그컵 누가 훔쳐갔나요</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 소중한 머그컵</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>내일 퇴사합니다</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕히 계세요~~~</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user06</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨가 좋네요</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>33도 딱 좋아요</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 싫은 상사 유형은?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 싫은 상사 유형은 무엇일까요?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴가만 기다립니다</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>살려주세요</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>멋진 하루 되세요^^</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋은 하루^^</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 대리님 최고</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>매일 다니고 싶다</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>매일 실수만 하네요…</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>활기찬 하루 되세요^^</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 회사 최고</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user04</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋은 하루 되세요^^</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>매일 다니고 싶네요~~~</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MARKET_NO</t>
+  </si>
+  <si>
+    <t>MARKET_WRITER</t>
+  </si>
+  <si>
+    <t>MARKET_TITLE</t>
+  </si>
+  <si>
+    <t>MARKET_CONTENT</t>
+  </si>
+  <si>
+    <t>MARKET_DATE</t>
+  </si>
+  <si>
+    <t>MARKET_SECTION</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>P_IMG</t>
+  </si>
+  <si>
+    <t>P_LIKE</t>
+  </si>
+  <si>
+    <t>COUNT</t>
+  </si>
+  <si>
+    <t>user05</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>머그컵</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>한번도 사용하지 않은 새 제품입니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매완료</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources/uploadFiles/cup.jpg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>인형</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>아기들이 좋아해요</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources/uploadFiles/doll.jpg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>텀블러</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>한번만 사용했습니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources/uploadFiles/tumbler.jpg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>방석</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>푹신푹신 마약 방석</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래중</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources/uploadFiles/cushion.jpg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>무선키보드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>키감 좋아요</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources/uploadFiles/keyboard.jpg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬리퍼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭신 폭신 편해요</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources/uploadFiles/slippers.jpg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPLY_NO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>REF_SECTION</t>
+  </si>
+  <si>
+    <t>REF_NO</t>
+  </si>
+  <si>
+    <t>REPLY_CONTENT</t>
+  </si>
+  <si>
+    <t>REPLY_WRITER</t>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+  </si>
+  <si>
+    <t>사내</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>장난하세요?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user05</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>저두요~~ㅎㅎ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user12</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>마켓</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>컵 깨진 곳은 없나요?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인 별론데 양심없음?</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2444,7 +2968,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2521,10 +3045,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="표준 2" xfId="2"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2583,7 +3113,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2616,26 +3146,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2668,23 +3181,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2860,43 +3356,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y492"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" style="4" customWidth="1"/>
     <col min="2" max="2" width="9" style="4"/>
     <col min="3" max="3" width="10" style="4" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="4" customWidth="1"/>
     <col min="5" max="5" width="9" style="4"/>
-    <col min="6" max="6" width="17.19921875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="17.59765625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="12.09765625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="11.09765625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="60.8984375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.25" style="4" customWidth="1"/>
+    <col min="7" max="7" width="17.625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="11.125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="60.875" style="4" customWidth="1"/>
     <col min="11" max="11" width="9" style="4"/>
     <col min="12" max="12" width="11.5" style="4" customWidth="1"/>
     <col min="13" max="14" width="9" style="4"/>
-    <col min="15" max="15" width="13.09765625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="12.3984375" style="4" customWidth="1"/>
-    <col min="17" max="17" width="15.19921875" style="4" customWidth="1"/>
-    <col min="18" max="18" width="16.59765625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="13.3984375" style="4" customWidth="1"/>
-    <col min="20" max="20" width="15.19921875" style="4" customWidth="1"/>
-    <col min="21" max="21" width="15.8984375" style="4" customWidth="1"/>
-    <col min="22" max="22" width="16.3984375" style="4" customWidth="1"/>
-    <col min="23" max="23" width="13.3984375" style="4" customWidth="1"/>
-    <col min="24" max="24" width="12.09765625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="13.125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="12.375" style="4" customWidth="1"/>
+    <col min="17" max="17" width="15.25" style="4" customWidth="1"/>
+    <col min="18" max="18" width="16.625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="13.375" style="4" customWidth="1"/>
+    <col min="20" max="20" width="15.25" style="4" customWidth="1"/>
+    <col min="21" max="21" width="15.875" style="4" customWidth="1"/>
+    <col min="22" max="22" width="16.375" style="4" customWidth="1"/>
+    <col min="23" max="23" width="13.375" style="4" customWidth="1"/>
+    <col min="24" max="24" width="12.125" style="4" customWidth="1"/>
     <col min="25" max="25" width="9" style="4"/>
     <col min="26" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>211</v>
       </c>
@@ -2973,7 +3469,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3029,7 +3525,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3088,7 +3584,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3147,7 +3643,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3206,7 +3702,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3262,7 +3758,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3318,7 +3814,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3374,7 +3870,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3433,7 +3929,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3489,7 +3985,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3545,7 +4041,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3601,7 +4097,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3660,7 +4156,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3716,7 +4212,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -3772,7 +4268,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -3828,7 +4324,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -3887,7 +4383,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3946,7 +4442,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -4002,7 +4498,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -4058,7 +4554,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -4114,7 +4610,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -4173,7 +4669,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -4229,7 +4725,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -4285,7 +4781,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -4341,7 +4837,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -4400,7 +4896,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -4456,7 +4952,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -4512,7 +5008,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -4568,7 +5064,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -4627,7 +5123,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -4686,7 +5182,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -4742,7 +5238,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -4798,7 +5294,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -4854,7 +5350,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -4913,7 +5409,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -4969,7 +5465,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -5025,7 +5521,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -5081,7 +5577,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -5140,7 +5636,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -5196,7 +5692,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -5252,7 +5748,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -5308,7 +5804,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -5364,7 +5860,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -5420,7 +5916,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -5476,7 +5972,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -5532,7 +6028,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -5588,7 +6084,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -5644,7 +6140,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -5700,7 +6196,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -5759,7 +6255,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -5815,7 +6311,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -5871,7 +6367,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -5927,7 +6423,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -5986,7 +6482,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -6042,7 +6538,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -6098,7 +6594,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -6154,7 +6650,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -6210,7 +6706,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -6266,7 +6762,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -6322,7 +6818,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -6378,7 +6874,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -6434,7 +6930,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -6490,7 +6986,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -6546,7 +7042,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -6602,7 +7098,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -6658,7 +7154,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -6714,7 +7210,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -6770,7 +7266,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -6826,7 +7322,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -6882,7 +7378,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -6938,7 +7434,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -6994,7 +7490,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -7050,7 +7546,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
       <c r="D74" s="2"/>
@@ -7063,7 +7559,7 @@
       <c r="P74" s="8"/>
       <c r="Q74" s="8"/>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="2"/>
@@ -7076,7 +7572,7 @@
       <c r="P75" s="8"/>
       <c r="Q75" s="8"/>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="2"/>
@@ -7089,7 +7585,7 @@
       <c r="P76" s="8"/>
       <c r="Q76" s="8"/>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
       <c r="D77" s="2"/>
@@ -7102,7 +7598,7 @@
       <c r="P77" s="8"/>
       <c r="Q77" s="8"/>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="2"/>
@@ -7115,7 +7611,7 @@
       <c r="P78" s="8"/>
       <c r="Q78" s="8"/>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="2"/>
@@ -7128,7 +7624,7 @@
       <c r="P79" s="8"/>
       <c r="Q79" s="8"/>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -7142,7 +7638,7 @@
       <c r="P80" s="8"/>
       <c r="Q80" s="8"/>
     </row>
-    <row r="81" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -7161,7 +7657,7 @@
       <c r="P81" s="8"/>
       <c r="Q81" s="8"/>
     </row>
-    <row r="82" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -7180,7 +7676,7 @@
       <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
     </row>
-    <row r="83" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -7199,7 +7695,7 @@
       <c r="P83" s="4"/>
       <c r="Q83" s="4"/>
     </row>
-    <row r="84" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
@@ -7218,7 +7714,7 @@
       <c r="P84" s="4"/>
       <c r="Q84" s="4"/>
     </row>
-    <row r="85" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
@@ -7237,7 +7733,7 @@
       <c r="P85" s="4"/>
       <c r="Q85" s="4"/>
     </row>
-    <row r="86" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
@@ -7256,7 +7752,7 @@
       <c r="P86" s="4"/>
       <c r="Q86" s="4"/>
     </row>
-    <row r="87" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
@@ -7275,7 +7771,7 @@
       <c r="P87" s="4"/>
       <c r="Q87" s="4"/>
     </row>
-    <row r="88" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -7294,7 +7790,7 @@
       <c r="P88" s="4"/>
       <c r="Q88" s="4"/>
     </row>
-    <row r="89" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -7313,7 +7809,7 @@
       <c r="P89" s="4"/>
       <c r="Q89" s="4"/>
     </row>
-    <row r="90" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -7332,7 +7828,7 @@
       <c r="P90" s="4"/>
       <c r="Q90" s="4"/>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -7351,7 +7847,7 @@
       <c r="P97" s="6"/>
       <c r="Q97" s="6"/>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -7370,7 +7866,7 @@
       <c r="P98" s="6"/>
       <c r="Q98" s="6"/>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -7389,7 +7885,7 @@
       <c r="P99" s="6"/>
       <c r="Q99" s="6"/>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -7408,7 +7904,7 @@
       <c r="P100" s="6"/>
       <c r="Q100" s="6"/>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -7427,7 +7923,7 @@
       <c r="P101" s="6"/>
       <c r="Q101" s="6"/>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -7446,7 +7942,7 @@
       <c r="P102" s="6"/>
       <c r="Q102" s="6"/>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -7465,7 +7961,7 @@
       <c r="P103" s="6"/>
       <c r="Q103" s="6"/>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -7484,7 +7980,7 @@
       <c r="P104" s="6"/>
       <c r="Q104" s="6"/>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
@@ -7503,7 +7999,7 @@
       <c r="P105" s="6"/>
       <c r="Q105" s="6"/>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -7522,7 +8018,7 @@
       <c r="P106" s="6"/>
       <c r="Q106" s="6"/>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -7541,7 +8037,7 @@
       <c r="P107" s="6"/>
       <c r="Q107" s="6"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
@@ -7560,7 +8056,7 @@
       <c r="P108" s="6"/>
       <c r="Q108" s="6"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -7579,7 +8075,7 @@
       <c r="P109" s="6"/>
       <c r="Q109" s="6"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
@@ -7598,7 +8094,7 @@
       <c r="P110" s="6"/>
       <c r="Q110" s="6"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
@@ -7617,7 +8113,7 @@
       <c r="P111" s="6"/>
       <c r="Q111" s="6"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
@@ -7636,7 +8132,7 @@
       <c r="P112" s="6"/>
       <c r="Q112" s="6"/>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
@@ -7655,7 +8151,7 @@
       <c r="P113" s="6"/>
       <c r="Q113" s="6"/>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
@@ -7674,7 +8170,7 @@
       <c r="P114" s="6"/>
       <c r="Q114" s="6"/>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
@@ -7693,7 +8189,7 @@
       <c r="P115" s="6"/>
       <c r="Q115" s="6"/>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
@@ -7712,7 +8208,7 @@
       <c r="P116" s="6"/>
       <c r="Q116" s="6"/>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
@@ -7731,7 +8227,7 @@
       <c r="P117" s="6"/>
       <c r="Q117" s="6"/>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
@@ -7750,7 +8246,7 @@
       <c r="P118" s="6"/>
       <c r="Q118" s="6"/>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
@@ -7769,7 +8265,7 @@
       <c r="P119" s="6"/>
       <c r="Q119" s="6"/>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
@@ -7788,7 +8284,7 @@
       <c r="P120" s="6"/>
       <c r="Q120" s="6"/>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
@@ -7807,7 +8303,7 @@
       <c r="P121" s="6"/>
       <c r="Q121" s="6"/>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
@@ -7826,7 +8322,7 @@
       <c r="P122" s="6"/>
       <c r="Q122" s="6"/>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
@@ -7845,7 +8341,7 @@
       <c r="P123" s="6"/>
       <c r="Q123" s="6"/>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
@@ -7864,7 +8360,7 @@
       <c r="P124" s="6"/>
       <c r="Q124" s="6"/>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
@@ -7883,7 +8379,7 @@
       <c r="P125" s="6"/>
       <c r="Q125" s="6"/>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
@@ -7902,7 +8398,7 @@
       <c r="P126" s="6"/>
       <c r="Q126" s="6"/>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
@@ -7921,7 +8417,7 @@
       <c r="P127" s="6"/>
       <c r="Q127" s="6"/>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
@@ -7940,7 +8436,7 @@
       <c r="P128" s="6"/>
       <c r="Q128" s="6"/>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
@@ -7959,7 +8455,7 @@
       <c r="P129" s="6"/>
       <c r="Q129" s="6"/>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
@@ -7978,7 +8474,7 @@
       <c r="P130" s="6"/>
       <c r="Q130" s="6"/>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
@@ -7997,7 +8493,7 @@
       <c r="P131" s="6"/>
       <c r="Q131" s="6"/>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
@@ -8016,7 +8512,7 @@
       <c r="P132" s="6"/>
       <c r="Q132" s="6"/>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
@@ -8035,7 +8531,7 @@
       <c r="P133" s="6"/>
       <c r="Q133" s="6"/>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
@@ -8054,7 +8550,7 @@
       <c r="P134" s="6"/>
       <c r="Q134" s="6"/>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
@@ -8073,7 +8569,7 @@
       <c r="P135" s="6"/>
       <c r="Q135" s="6"/>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
@@ -8092,7 +8588,7 @@
       <c r="P136" s="6"/>
       <c r="Q136" s="6"/>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
@@ -8111,7 +8607,7 @@
       <c r="P137" s="6"/>
       <c r="Q137" s="6"/>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
@@ -8130,7 +8626,7 @@
       <c r="P138" s="6"/>
       <c r="Q138" s="6"/>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
@@ -8149,7 +8645,7 @@
       <c r="P139" s="6"/>
       <c r="Q139" s="6"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
@@ -8168,7 +8664,7 @@
       <c r="P140" s="6"/>
       <c r="Q140" s="6"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
@@ -8187,7 +8683,7 @@
       <c r="P141" s="6"/>
       <c r="Q141" s="6"/>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
@@ -8206,7 +8702,7 @@
       <c r="P142" s="6"/>
       <c r="Q142" s="6"/>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
@@ -8225,7 +8721,7 @@
       <c r="P143" s="6"/>
       <c r="Q143" s="6"/>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
@@ -8244,7 +8740,7 @@
       <c r="P144" s="6"/>
       <c r="Q144" s="6"/>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
@@ -8263,7 +8759,7 @@
       <c r="P145" s="6"/>
       <c r="Q145" s="6"/>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
@@ -8282,7 +8778,7 @@
       <c r="P146" s="6"/>
       <c r="Q146" s="6"/>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
@@ -8301,7 +8797,7 @@
       <c r="P147" s="6"/>
       <c r="Q147" s="6"/>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
@@ -8320,7 +8816,7 @@
       <c r="P148" s="6"/>
       <c r="Q148" s="6"/>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
@@ -8339,7 +8835,7 @@
       <c r="P149" s="6"/>
       <c r="Q149" s="6"/>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
@@ -8358,7 +8854,7 @@
       <c r="P150" s="6"/>
       <c r="Q150" s="6"/>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
@@ -8377,7 +8873,7 @@
       <c r="P151" s="6"/>
       <c r="Q151" s="6"/>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
@@ -8396,7 +8892,7 @@
       <c r="P152" s="6"/>
       <c r="Q152" s="6"/>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
@@ -8415,7 +8911,7 @@
       <c r="P153" s="6"/>
       <c r="Q153" s="6"/>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
@@ -8434,7 +8930,7 @@
       <c r="P154" s="6"/>
       <c r="Q154" s="6"/>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
@@ -8453,7 +8949,7 @@
       <c r="P155" s="6"/>
       <c r="Q155" s="6"/>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
@@ -8472,7 +8968,7 @@
       <c r="P156" s="6"/>
       <c r="Q156" s="6"/>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
@@ -8491,7 +8987,7 @@
       <c r="P157" s="6"/>
       <c r="Q157" s="6"/>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
@@ -8510,7 +9006,7 @@
       <c r="P158" s="6"/>
       <c r="Q158" s="6"/>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
@@ -8529,7 +9025,7 @@
       <c r="P159" s="6"/>
       <c r="Q159" s="6"/>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
@@ -8548,7 +9044,7 @@
       <c r="P160" s="6"/>
       <c r="Q160" s="6"/>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
@@ -8567,7 +9063,7 @@
       <c r="P161" s="6"/>
       <c r="Q161" s="6"/>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
@@ -8586,7 +9082,7 @@
       <c r="P162" s="6"/>
       <c r="Q162" s="6"/>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
@@ -8605,7 +9101,7 @@
       <c r="P163" s="6"/>
       <c r="Q163" s="6"/>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
@@ -8624,7 +9120,7 @@
       <c r="P164" s="6"/>
       <c r="Q164" s="6"/>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
@@ -8643,7 +9139,7 @@
       <c r="P165" s="6"/>
       <c r="Q165" s="6"/>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
@@ -8662,7 +9158,7 @@
       <c r="P166" s="6"/>
       <c r="Q166" s="6"/>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
@@ -8681,7 +9177,7 @@
       <c r="P167" s="6"/>
       <c r="Q167" s="6"/>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
@@ -8700,7 +9196,7 @@
       <c r="P168" s="6"/>
       <c r="Q168" s="6"/>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
@@ -8719,7 +9215,7 @@
       <c r="P169" s="6"/>
       <c r="Q169" s="6"/>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
@@ -8738,7 +9234,7 @@
       <c r="P170" s="6"/>
       <c r="Q170" s="6"/>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
@@ -8757,7 +9253,7 @@
       <c r="P171" s="6"/>
       <c r="Q171" s="6"/>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
@@ -8776,7 +9272,7 @@
       <c r="P172" s="6"/>
       <c r="Q172" s="6"/>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
@@ -8795,7 +9291,7 @@
       <c r="P173" s="6"/>
       <c r="Q173" s="6"/>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
@@ -8814,7 +9310,7 @@
       <c r="P174" s="6"/>
       <c r="Q174" s="6"/>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
@@ -8833,7 +9329,7 @@
       <c r="P175" s="6"/>
       <c r="Q175" s="6"/>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
@@ -8852,7 +9348,7 @@
       <c r="P176" s="6"/>
       <c r="Q176" s="6"/>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
@@ -8871,7 +9367,7 @@
       <c r="P177" s="6"/>
       <c r="Q177" s="6"/>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
@@ -8890,7 +9386,7 @@
       <c r="P178" s="6"/>
       <c r="Q178" s="6"/>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
@@ -8909,7 +9405,7 @@
       <c r="P179" s="6"/>
       <c r="Q179" s="6"/>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
@@ -8928,7 +9424,7 @@
       <c r="P180" s="6"/>
       <c r="Q180" s="6"/>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
@@ -8947,7 +9443,7 @@
       <c r="P181" s="6"/>
       <c r="Q181" s="6"/>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
@@ -8966,7 +9462,7 @@
       <c r="P182" s="6"/>
       <c r="Q182" s="6"/>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
@@ -8985,7 +9481,7 @@
       <c r="P183" s="6"/>
       <c r="Q183" s="6"/>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
@@ -9004,7 +9500,7 @@
       <c r="P184" s="6"/>
       <c r="Q184" s="6"/>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
@@ -9023,7 +9519,7 @@
       <c r="P185" s="6"/>
       <c r="Q185" s="6"/>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
@@ -9042,7 +9538,7 @@
       <c r="P186" s="6"/>
       <c r="Q186" s="6"/>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
@@ -9061,7 +9557,7 @@
       <c r="P187" s="6"/>
       <c r="Q187" s="6"/>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
@@ -9080,7 +9576,7 @@
       <c r="P188" s="6"/>
       <c r="Q188" s="6"/>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
@@ -9099,7 +9595,7 @@
       <c r="P189" s="6"/>
       <c r="Q189" s="6"/>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
@@ -9118,7 +9614,7 @@
       <c r="P190" s="6"/>
       <c r="Q190" s="6"/>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
@@ -9137,7 +9633,7 @@
       <c r="P191" s="6"/>
       <c r="Q191" s="6"/>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
@@ -9156,7 +9652,7 @@
       <c r="P192" s="6"/>
       <c r="Q192" s="6"/>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
@@ -9175,7 +9671,7 @@
       <c r="P193" s="6"/>
       <c r="Q193" s="6"/>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
@@ -9194,7 +9690,7 @@
       <c r="P194" s="6"/>
       <c r="Q194" s="6"/>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
@@ -9213,7 +9709,7 @@
       <c r="P195" s="6"/>
       <c r="Q195" s="6"/>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
@@ -9232,7 +9728,7 @@
       <c r="P196" s="6"/>
       <c r="Q196" s="6"/>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
@@ -9251,7 +9747,7 @@
       <c r="P197" s="6"/>
       <c r="Q197" s="6"/>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
@@ -9270,7 +9766,7 @@
       <c r="P198" s="6"/>
       <c r="Q198" s="6"/>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
@@ -9289,7 +9785,7 @@
       <c r="P199" s="6"/>
       <c r="Q199" s="6"/>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
@@ -9308,7 +9804,7 @@
       <c r="P200" s="6"/>
       <c r="Q200" s="6"/>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
@@ -9327,7 +9823,7 @@
       <c r="P201" s="6"/>
       <c r="Q201" s="6"/>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
@@ -9346,7 +9842,7 @@
       <c r="P202" s="6"/>
       <c r="Q202" s="6"/>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
@@ -9365,7 +9861,7 @@
       <c r="P203" s="6"/>
       <c r="Q203" s="6"/>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
@@ -9384,7 +9880,7 @@
       <c r="P204" s="6"/>
       <c r="Q204" s="6"/>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
@@ -9403,7 +9899,7 @@
       <c r="P205" s="6"/>
       <c r="Q205" s="6"/>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
@@ -9422,7 +9918,7 @@
       <c r="P206" s="6"/>
       <c r="Q206" s="6"/>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
@@ -9441,7 +9937,7 @@
       <c r="P207" s="6"/>
       <c r="Q207" s="6"/>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
@@ -9460,7 +9956,7 @@
       <c r="P208" s="6"/>
       <c r="Q208" s="6"/>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
@@ -9479,7 +9975,7 @@
       <c r="P209" s="6"/>
       <c r="Q209" s="6"/>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
@@ -9498,7 +9994,7 @@
       <c r="P210" s="6"/>
       <c r="Q210" s="6"/>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
@@ -9517,7 +10013,7 @@
       <c r="P211" s="6"/>
       <c r="Q211" s="6"/>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
@@ -9536,7 +10032,7 @@
       <c r="P212" s="6"/>
       <c r="Q212" s="6"/>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
@@ -9555,7 +10051,7 @@
       <c r="P213" s="6"/>
       <c r="Q213" s="6"/>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
@@ -9574,7 +10070,7 @@
       <c r="P214" s="6"/>
       <c r="Q214" s="6"/>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
@@ -9593,7 +10089,7 @@
       <c r="P215" s="6"/>
       <c r="Q215" s="6"/>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
@@ -9612,7 +10108,7 @@
       <c r="P216" s="6"/>
       <c r="Q216" s="6"/>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
@@ -9631,7 +10127,7 @@
       <c r="P217" s="6"/>
       <c r="Q217" s="6"/>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
@@ -9650,7 +10146,7 @@
       <c r="P218" s="6"/>
       <c r="Q218" s="6"/>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
@@ -9669,7 +10165,7 @@
       <c r="P219" s="6"/>
       <c r="Q219" s="6"/>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
@@ -9688,7 +10184,7 @@
       <c r="P220" s="6"/>
       <c r="Q220" s="6"/>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
@@ -9707,7 +10203,7 @@
       <c r="P221" s="6"/>
       <c r="Q221" s="6"/>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A222" s="6"/>
       <c r="B222" s="6"/>
       <c r="C222" s="6"/>
@@ -9726,7 +10222,7 @@
       <c r="P222" s="6"/>
       <c r="Q222" s="6"/>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="C223" s="6"/>
@@ -9745,7 +10241,7 @@
       <c r="P223" s="6"/>
       <c r="Q223" s="6"/>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
@@ -9764,7 +10260,7 @@
       <c r="P224" s="6"/>
       <c r="Q224" s="6"/>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
@@ -9783,7 +10279,7 @@
       <c r="P225" s="6"/>
       <c r="Q225" s="6"/>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
@@ -9802,7 +10298,7 @@
       <c r="P226" s="6"/>
       <c r="Q226" s="6"/>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
@@ -9821,7 +10317,7 @@
       <c r="P227" s="6"/>
       <c r="Q227" s="6"/>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
@@ -9840,7 +10336,7 @@
       <c r="P228" s="6"/>
       <c r="Q228" s="6"/>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
@@ -9859,7 +10355,7 @@
       <c r="P229" s="6"/>
       <c r="Q229" s="6"/>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="6"/>
@@ -9878,7 +10374,7 @@
       <c r="P230" s="6"/>
       <c r="Q230" s="6"/>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
@@ -9897,7 +10393,7 @@
       <c r="P231" s="6"/>
       <c r="Q231" s="6"/>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
@@ -9916,7 +10412,7 @@
       <c r="P232" s="6"/>
       <c r="Q232" s="6"/>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A233" s="6"/>
       <c r="B233" s="6"/>
       <c r="C233" s="6"/>
@@ -9935,7 +10431,7 @@
       <c r="P233" s="6"/>
       <c r="Q233" s="6"/>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A234" s="6"/>
       <c r="B234" s="6"/>
       <c r="C234" s="6"/>
@@ -9954,7 +10450,7 @@
       <c r="P234" s="6"/>
       <c r="Q234" s="6"/>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A235" s="6"/>
       <c r="B235" s="6"/>
       <c r="C235" s="6"/>
@@ -9973,7 +10469,7 @@
       <c r="P235" s="6"/>
       <c r="Q235" s="6"/>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A236" s="6"/>
       <c r="B236" s="6"/>
       <c r="C236" s="6"/>
@@ -9992,7 +10488,7 @@
       <c r="P236" s="6"/>
       <c r="Q236" s="6"/>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A237" s="6"/>
       <c r="B237" s="6"/>
       <c r="C237" s="6"/>
@@ -10011,7 +10507,7 @@
       <c r="P237" s="6"/>
       <c r="Q237" s="6"/>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A238" s="6"/>
       <c r="B238" s="6"/>
       <c r="C238" s="6"/>
@@ -10030,7 +10526,7 @@
       <c r="P238" s="6"/>
       <c r="Q238" s="6"/>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A239" s="6"/>
       <c r="B239" s="6"/>
       <c r="C239" s="6"/>
@@ -10049,7 +10545,7 @@
       <c r="P239" s="6"/>
       <c r="Q239" s="6"/>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A240" s="6"/>
       <c r="B240" s="6"/>
       <c r="C240" s="6"/>
@@ -10068,7 +10564,7 @@
       <c r="P240" s="6"/>
       <c r="Q240" s="6"/>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A241" s="6"/>
       <c r="B241" s="6"/>
       <c r="C241" s="6"/>
@@ -10087,7 +10583,7 @@
       <c r="P241" s="6"/>
       <c r="Q241" s="6"/>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A242" s="6"/>
       <c r="B242" s="6"/>
       <c r="C242" s="6"/>
@@ -10106,7 +10602,7 @@
       <c r="P242" s="6"/>
       <c r="Q242" s="6"/>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A243" s="6"/>
       <c r="B243" s="6"/>
       <c r="C243" s="6"/>
@@ -10125,7 +10621,7 @@
       <c r="P243" s="6"/>
       <c r="Q243" s="6"/>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A244" s="6"/>
       <c r="B244" s="6"/>
       <c r="C244" s="6"/>
@@ -10144,7 +10640,7 @@
       <c r="P244" s="6"/>
       <c r="Q244" s="6"/>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A245" s="6"/>
       <c r="B245" s="6"/>
       <c r="C245" s="6"/>
@@ -10163,7 +10659,7 @@
       <c r="P245" s="6"/>
       <c r="Q245" s="6"/>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A246" s="6"/>
       <c r="B246" s="6"/>
       <c r="C246" s="6"/>
@@ -10182,7 +10678,7 @@
       <c r="P246" s="6"/>
       <c r="Q246" s="6"/>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A247" s="6"/>
       <c r="B247" s="6"/>
       <c r="C247" s="6"/>
@@ -10201,7 +10697,7 @@
       <c r="P247" s="6"/>
       <c r="Q247" s="6"/>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A248" s="6"/>
       <c r="B248" s="6"/>
       <c r="C248" s="6"/>
@@ -10220,7 +10716,7 @@
       <c r="P248" s="6"/>
       <c r="Q248" s="6"/>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A249" s="6"/>
       <c r="B249" s="6"/>
       <c r="C249" s="6"/>
@@ -10239,7 +10735,7 @@
       <c r="P249" s="6"/>
       <c r="Q249" s="6"/>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A250" s="6"/>
       <c r="B250" s="6"/>
       <c r="C250" s="6"/>
@@ -10258,7 +10754,7 @@
       <c r="P250" s="6"/>
       <c r="Q250" s="6"/>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A251" s="6"/>
       <c r="B251" s="6"/>
       <c r="C251" s="6"/>
@@ -10277,7 +10773,7 @@
       <c r="P251" s="6"/>
       <c r="Q251" s="6"/>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A252" s="6"/>
       <c r="B252" s="6"/>
       <c r="C252" s="6"/>
@@ -10296,7 +10792,7 @@
       <c r="P252" s="6"/>
       <c r="Q252" s="6"/>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A253" s="6"/>
       <c r="B253" s="6"/>
       <c r="C253" s="6"/>
@@ -10315,7 +10811,7 @@
       <c r="P253" s="6"/>
       <c r="Q253" s="6"/>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A254" s="6"/>
       <c r="B254" s="6"/>
       <c r="C254" s="6"/>
@@ -10334,7 +10830,7 @@
       <c r="P254" s="6"/>
       <c r="Q254" s="6"/>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A255" s="6"/>
       <c r="B255" s="6"/>
       <c r="C255" s="6"/>
@@ -10353,7 +10849,7 @@
       <c r="P255" s="6"/>
       <c r="Q255" s="6"/>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A256" s="6"/>
       <c r="B256" s="6"/>
       <c r="C256" s="6"/>
@@ -10372,7 +10868,7 @@
       <c r="P256" s="6"/>
       <c r="Q256" s="6"/>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A257" s="6"/>
       <c r="B257" s="6"/>
       <c r="C257" s="6"/>
@@ -10391,7 +10887,7 @@
       <c r="P257" s="6"/>
       <c r="Q257" s="6"/>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A258" s="6"/>
       <c r="B258" s="6"/>
       <c r="C258" s="6"/>
@@ -10410,7 +10906,7 @@
       <c r="P258" s="6"/>
       <c r="Q258" s="6"/>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A259" s="6"/>
       <c r="B259" s="6"/>
       <c r="C259" s="6"/>
@@ -10429,7 +10925,7 @@
       <c r="P259" s="6"/>
       <c r="Q259" s="6"/>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A260" s="6"/>
       <c r="B260" s="6"/>
       <c r="C260" s="6"/>
@@ -10448,7 +10944,7 @@
       <c r="P260" s="6"/>
       <c r="Q260" s="6"/>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A261" s="6"/>
       <c r="B261" s="6"/>
       <c r="C261" s="6"/>
@@ -10467,7 +10963,7 @@
       <c r="P261" s="6"/>
       <c r="Q261" s="6"/>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A262" s="6"/>
       <c r="B262" s="6"/>
       <c r="C262" s="6"/>
@@ -10486,7 +10982,7 @@
       <c r="P262" s="6"/>
       <c r="Q262" s="6"/>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A263" s="6"/>
       <c r="B263" s="6"/>
       <c r="C263" s="6"/>
@@ -10505,7 +11001,7 @@
       <c r="P263" s="6"/>
       <c r="Q263" s="6"/>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A264" s="6"/>
       <c r="B264" s="6"/>
       <c r="C264" s="6"/>
@@ -10524,7 +11020,7 @@
       <c r="P264" s="6"/>
       <c r="Q264" s="6"/>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
       <c r="C265" s="6"/>
@@ -10543,7 +11039,7 @@
       <c r="P265" s="6"/>
       <c r="Q265" s="6"/>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A266" s="6"/>
       <c r="B266" s="6"/>
       <c r="C266" s="6"/>
@@ -10562,7 +11058,7 @@
       <c r="P266" s="6"/>
       <c r="Q266" s="6"/>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A267" s="6"/>
       <c r="B267" s="6"/>
       <c r="C267" s="6"/>
@@ -10581,7 +11077,7 @@
       <c r="P267" s="6"/>
       <c r="Q267" s="6"/>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A268" s="6"/>
       <c r="B268" s="6"/>
       <c r="C268" s="6"/>
@@ -10600,7 +11096,7 @@
       <c r="P268" s="6"/>
       <c r="Q268" s="6"/>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A269" s="6"/>
       <c r="B269" s="6"/>
       <c r="C269" s="6"/>
@@ -10619,7 +11115,7 @@
       <c r="P269" s="6"/>
       <c r="Q269" s="6"/>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A270" s="6"/>
       <c r="B270" s="6"/>
       <c r="C270" s="6"/>
@@ -10638,7 +11134,7 @@
       <c r="P270" s="6"/>
       <c r="Q270" s="6"/>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A271" s="6"/>
       <c r="B271" s="6"/>
       <c r="C271" s="6"/>
@@ -10657,7 +11153,7 @@
       <c r="P271" s="6"/>
       <c r="Q271" s="6"/>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A272" s="6"/>
       <c r="B272" s="6"/>
       <c r="C272" s="6"/>
@@ -10676,7 +11172,7 @@
       <c r="P272" s="6"/>
       <c r="Q272" s="6"/>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A273" s="6"/>
       <c r="B273" s="6"/>
       <c r="C273" s="6"/>
@@ -10695,7 +11191,7 @@
       <c r="P273" s="6"/>
       <c r="Q273" s="6"/>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A274" s="6"/>
       <c r="B274" s="6"/>
       <c r="C274" s="6"/>
@@ -10714,7 +11210,7 @@
       <c r="P274" s="6"/>
       <c r="Q274" s="6"/>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A275" s="6"/>
       <c r="B275" s="6"/>
       <c r="C275" s="6"/>
@@ -10733,7 +11229,7 @@
       <c r="P275" s="6"/>
       <c r="Q275" s="6"/>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A276" s="6"/>
       <c r="B276" s="6"/>
       <c r="C276" s="6"/>
@@ -10752,7 +11248,7 @@
       <c r="P276" s="6"/>
       <c r="Q276" s="6"/>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A277" s="6"/>
       <c r="B277" s="6"/>
       <c r="C277" s="6"/>
@@ -10771,7 +11267,7 @@
       <c r="P277" s="6"/>
       <c r="Q277" s="6"/>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A278" s="6"/>
       <c r="B278" s="6"/>
       <c r="C278" s="6"/>
@@ -10790,7 +11286,7 @@
       <c r="P278" s="6"/>
       <c r="Q278" s="6"/>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A279" s="6"/>
       <c r="B279" s="6"/>
       <c r="C279" s="6"/>
@@ -10809,7 +11305,7 @@
       <c r="P279" s="6"/>
       <c r="Q279" s="6"/>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A280" s="6"/>
       <c r="B280" s="6"/>
       <c r="C280" s="6"/>
@@ -10828,7 +11324,7 @@
       <c r="P280" s="6"/>
       <c r="Q280" s="6"/>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A281" s="6"/>
       <c r="B281" s="6"/>
       <c r="C281" s="6"/>
@@ -10847,7 +11343,7 @@
       <c r="P281" s="6"/>
       <c r="Q281" s="6"/>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A282" s="6"/>
       <c r="B282" s="6"/>
       <c r="C282" s="6"/>
@@ -10866,7 +11362,7 @@
       <c r="P282" s="6"/>
       <c r="Q282" s="6"/>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A283" s="6"/>
       <c r="B283" s="6"/>
       <c r="C283" s="6"/>
@@ -10885,7 +11381,7 @@
       <c r="P283" s="6"/>
       <c r="Q283" s="6"/>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A284" s="6"/>
       <c r="B284" s="6"/>
       <c r="C284" s="6"/>
@@ -10904,7 +11400,7 @@
       <c r="P284" s="6"/>
       <c r="Q284" s="6"/>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A285" s="6"/>
       <c r="B285" s="6"/>
       <c r="C285" s="6"/>
@@ -10923,7 +11419,7 @@
       <c r="P285" s="6"/>
       <c r="Q285" s="6"/>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A286" s="6"/>
       <c r="B286" s="6"/>
       <c r="C286" s="6"/>
@@ -10942,7 +11438,7 @@
       <c r="P286" s="6"/>
       <c r="Q286" s="6"/>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A287" s="6"/>
       <c r="B287" s="6"/>
       <c r="C287" s="6"/>
@@ -10961,7 +11457,7 @@
       <c r="P287" s="6"/>
       <c r="Q287" s="6"/>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A288" s="6"/>
       <c r="B288" s="6"/>
       <c r="C288" s="6"/>
@@ -10980,7 +11476,7 @@
       <c r="P288" s="6"/>
       <c r="Q288" s="6"/>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A289" s="6"/>
       <c r="B289" s="6"/>
       <c r="C289" s="6"/>
@@ -10999,7 +11495,7 @@
       <c r="P289" s="6"/>
       <c r="Q289" s="6"/>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A290" s="6"/>
       <c r="B290" s="6"/>
       <c r="C290" s="6"/>
@@ -11018,7 +11514,7 @@
       <c r="P290" s="6"/>
       <c r="Q290" s="6"/>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A291" s="6"/>
       <c r="B291" s="6"/>
       <c r="C291" s="6"/>
@@ -11037,7 +11533,7 @@
       <c r="P291" s="6"/>
       <c r="Q291" s="6"/>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A292" s="6"/>
       <c r="B292" s="6"/>
       <c r="C292" s="6"/>
@@ -11056,7 +11552,7 @@
       <c r="P292" s="6"/>
       <c r="Q292" s="6"/>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A293" s="6"/>
       <c r="B293" s="6"/>
       <c r="C293" s="6"/>
@@ -11075,7 +11571,7 @@
       <c r="P293" s="6"/>
       <c r="Q293" s="6"/>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A294" s="6"/>
       <c r="B294" s="6"/>
       <c r="C294" s="6"/>
@@ -11094,7 +11590,7 @@
       <c r="P294" s="6"/>
       <c r="Q294" s="6"/>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A295" s="6"/>
       <c r="B295" s="6"/>
       <c r="C295" s="6"/>
@@ -11113,7 +11609,7 @@
       <c r="P295" s="6"/>
       <c r="Q295" s="6"/>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A296" s="6"/>
       <c r="B296" s="6"/>
       <c r="C296" s="6"/>
@@ -11132,7 +11628,7 @@
       <c r="P296" s="6"/>
       <c r="Q296" s="6"/>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A297" s="6"/>
       <c r="B297" s="6"/>
       <c r="C297" s="6"/>
@@ -11151,7 +11647,7 @@
       <c r="P297" s="6"/>
       <c r="Q297" s="6"/>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A298" s="6"/>
       <c r="B298" s="6"/>
       <c r="C298" s="6"/>
@@ -11170,7 +11666,7 @@
       <c r="P298" s="6"/>
       <c r="Q298" s="6"/>
     </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A299" s="6"/>
       <c r="B299" s="6"/>
       <c r="C299" s="6"/>
@@ -11189,7 +11685,7 @@
       <c r="P299" s="6"/>
       <c r="Q299" s="6"/>
     </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A300" s="6"/>
       <c r="B300" s="6"/>
       <c r="C300" s="6"/>
@@ -11208,7 +11704,7 @@
       <c r="P300" s="6"/>
       <c r="Q300" s="6"/>
     </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A301" s="6"/>
       <c r="B301" s="6"/>
       <c r="C301" s="6"/>
@@ -11227,7 +11723,7 @@
       <c r="P301" s="6"/>
       <c r="Q301" s="6"/>
     </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A302" s="6"/>
       <c r="B302" s="6"/>
       <c r="C302" s="6"/>
@@ -11246,7 +11742,7 @@
       <c r="P302" s="6"/>
       <c r="Q302" s="6"/>
     </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A303" s="6"/>
       <c r="B303" s="6"/>
       <c r="C303" s="6"/>
@@ -11265,7 +11761,7 @@
       <c r="P303" s="6"/>
       <c r="Q303" s="6"/>
     </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A304" s="6"/>
       <c r="B304" s="6"/>
       <c r="C304" s="6"/>
@@ -11284,7 +11780,7 @@
       <c r="P304" s="6"/>
       <c r="Q304" s="6"/>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A305" s="6"/>
       <c r="B305" s="6"/>
       <c r="C305" s="6"/>
@@ -11303,7 +11799,7 @@
       <c r="P305" s="6"/>
       <c r="Q305" s="6"/>
     </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A306" s="6"/>
       <c r="B306" s="6"/>
       <c r="C306" s="6"/>
@@ -11322,7 +11818,7 @@
       <c r="P306" s="6"/>
       <c r="Q306" s="6"/>
     </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A307" s="6"/>
       <c r="B307" s="6"/>
       <c r="C307" s="6"/>
@@ -11341,7 +11837,7 @@
       <c r="P307" s="6"/>
       <c r="Q307" s="6"/>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A308" s="6"/>
       <c r="B308" s="6"/>
       <c r="C308" s="6"/>
@@ -11360,7 +11856,7 @@
       <c r="P308" s="6"/>
       <c r="Q308" s="6"/>
     </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A309" s="6"/>
       <c r="B309" s="6"/>
       <c r="C309" s="6"/>
@@ -11379,7 +11875,7 @@
       <c r="P309" s="6"/>
       <c r="Q309" s="6"/>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A310" s="6"/>
       <c r="B310" s="6"/>
       <c r="C310" s="6"/>
@@ -11398,7 +11894,7 @@
       <c r="P310" s="6"/>
       <c r="Q310" s="6"/>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A311" s="6"/>
       <c r="B311" s="6"/>
       <c r="C311" s="6"/>
@@ -11417,7 +11913,7 @@
       <c r="P311" s="6"/>
       <c r="Q311" s="6"/>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A312" s="6"/>
       <c r="B312" s="6"/>
       <c r="C312" s="6"/>
@@ -11436,7 +11932,7 @@
       <c r="P312" s="6"/>
       <c r="Q312" s="6"/>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A313" s="6"/>
       <c r="B313" s="6"/>
       <c r="C313" s="6"/>
@@ -11455,7 +11951,7 @@
       <c r="P313" s="6"/>
       <c r="Q313" s="6"/>
     </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A314" s="6"/>
       <c r="B314" s="6"/>
       <c r="C314" s="6"/>
@@ -11474,7 +11970,7 @@
       <c r="P314" s="6"/>
       <c r="Q314" s="6"/>
     </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A315" s="6"/>
       <c r="B315" s="6"/>
       <c r="C315" s="6"/>
@@ -11493,7 +11989,7 @@
       <c r="P315" s="6"/>
       <c r="Q315" s="6"/>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A316" s="6"/>
       <c r="B316" s="6"/>
       <c r="C316" s="6"/>
@@ -11512,7 +12008,7 @@
       <c r="P316" s="6"/>
       <c r="Q316" s="6"/>
     </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A317" s="6"/>
       <c r="B317" s="6"/>
       <c r="C317" s="6"/>
@@ -11531,7 +12027,7 @@
       <c r="P317" s="6"/>
       <c r="Q317" s="6"/>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A318" s="6"/>
       <c r="B318" s="6"/>
       <c r="C318" s="6"/>
@@ -11550,7 +12046,7 @@
       <c r="P318" s="6"/>
       <c r="Q318" s="6"/>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A319" s="6"/>
       <c r="B319" s="6"/>
       <c r="C319" s="6"/>
@@ -11569,7 +12065,7 @@
       <c r="P319" s="6"/>
       <c r="Q319" s="6"/>
     </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A320" s="6"/>
       <c r="B320" s="6"/>
       <c r="C320" s="6"/>
@@ -11588,7 +12084,7 @@
       <c r="P320" s="6"/>
       <c r="Q320" s="6"/>
     </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A321" s="6"/>
       <c r="B321" s="6"/>
       <c r="C321" s="6"/>
@@ -11607,7 +12103,7 @@
       <c r="P321" s="6"/>
       <c r="Q321" s="6"/>
     </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A322" s="6"/>
       <c r="B322" s="6"/>
       <c r="C322" s="6"/>
@@ -11626,7 +12122,7 @@
       <c r="P322" s="6"/>
       <c r="Q322" s="6"/>
     </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A323" s="6"/>
       <c r="B323" s="6"/>
       <c r="C323" s="6"/>
@@ -11645,7 +12141,7 @@
       <c r="P323" s="6"/>
       <c r="Q323" s="6"/>
     </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A324" s="6"/>
       <c r="B324" s="6"/>
       <c r="C324" s="6"/>
@@ -11664,7 +12160,7 @@
       <c r="P324" s="6"/>
       <c r="Q324" s="6"/>
     </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A325" s="6"/>
       <c r="B325" s="6"/>
       <c r="C325" s="6"/>
@@ -11683,7 +12179,7 @@
       <c r="P325" s="6"/>
       <c r="Q325" s="6"/>
     </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A326" s="6"/>
       <c r="B326" s="6"/>
       <c r="C326" s="6"/>
@@ -11702,7 +12198,7 @@
       <c r="P326" s="6"/>
       <c r="Q326" s="6"/>
     </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A327" s="6"/>
       <c r="B327" s="6"/>
       <c r="C327" s="6"/>
@@ -11721,7 +12217,7 @@
       <c r="P327" s="6"/>
       <c r="Q327" s="6"/>
     </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A328" s="6"/>
       <c r="B328" s="6"/>
       <c r="C328" s="6"/>
@@ -11740,7 +12236,7 @@
       <c r="P328" s="6"/>
       <c r="Q328" s="6"/>
     </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A329" s="6"/>
       <c r="B329" s="6"/>
       <c r="C329" s="6"/>
@@ -11759,7 +12255,7 @@
       <c r="P329" s="6"/>
       <c r="Q329" s="6"/>
     </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A330" s="6"/>
       <c r="B330" s="6"/>
       <c r="C330" s="6"/>
@@ -11778,7 +12274,7 @@
       <c r="P330" s="6"/>
       <c r="Q330" s="6"/>
     </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A331" s="6"/>
       <c r="B331" s="6"/>
       <c r="C331" s="6"/>
@@ -11797,7 +12293,7 @@
       <c r="P331" s="6"/>
       <c r="Q331" s="6"/>
     </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A332" s="6"/>
       <c r="B332" s="6"/>
       <c r="C332" s="6"/>
@@ -11816,7 +12312,7 @@
       <c r="P332" s="6"/>
       <c r="Q332" s="6"/>
     </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A333" s="6"/>
       <c r="B333" s="6"/>
       <c r="C333" s="6"/>
@@ -11835,7 +12331,7 @@
       <c r="P333" s="6"/>
       <c r="Q333" s="6"/>
     </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A334" s="6"/>
       <c r="B334" s="6"/>
       <c r="C334" s="6"/>
@@ -11854,7 +12350,7 @@
       <c r="P334" s="6"/>
       <c r="Q334" s="6"/>
     </row>
-    <row r="335" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A335" s="6"/>
       <c r="B335" s="6"/>
       <c r="C335" s="6"/>
@@ -11873,7 +12369,7 @@
       <c r="P335" s="6"/>
       <c r="Q335" s="6"/>
     </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A336" s="6"/>
       <c r="B336" s="6"/>
       <c r="C336" s="6"/>
@@ -11892,7 +12388,7 @@
       <c r="P336" s="6"/>
       <c r="Q336" s="6"/>
     </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A337" s="6"/>
       <c r="B337" s="6"/>
       <c r="C337" s="6"/>
@@ -11911,7 +12407,7 @@
       <c r="P337" s="6"/>
       <c r="Q337" s="6"/>
     </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A338" s="6"/>
       <c r="B338" s="6"/>
       <c r="C338" s="6"/>
@@ -11930,7 +12426,7 @@
       <c r="P338" s="6"/>
       <c r="Q338" s="6"/>
     </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A339" s="6"/>
       <c r="B339" s="6"/>
       <c r="C339" s="6"/>
@@ -11949,7 +12445,7 @@
       <c r="P339" s="6"/>
       <c r="Q339" s="6"/>
     </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A340" s="6"/>
       <c r="B340" s="6"/>
       <c r="C340" s="6"/>
@@ -11968,7 +12464,7 @@
       <c r="P340" s="6"/>
       <c r="Q340" s="6"/>
     </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A341" s="6"/>
       <c r="B341" s="6"/>
       <c r="C341" s="6"/>
@@ -11987,7 +12483,7 @@
       <c r="P341" s="6"/>
       <c r="Q341" s="6"/>
     </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A342" s="6"/>
       <c r="B342" s="6"/>
       <c r="C342" s="6"/>
@@ -12006,7 +12502,7 @@
       <c r="P342" s="6"/>
       <c r="Q342" s="6"/>
     </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A343" s="6"/>
       <c r="B343" s="6"/>
       <c r="C343" s="6"/>
@@ -12025,7 +12521,7 @@
       <c r="P343" s="6"/>
       <c r="Q343" s="6"/>
     </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A344" s="6"/>
       <c r="B344" s="6"/>
       <c r="C344" s="6"/>
@@ -12044,7 +12540,7 @@
       <c r="P344" s="6"/>
       <c r="Q344" s="6"/>
     </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A345" s="6"/>
       <c r="B345" s="6"/>
       <c r="C345" s="6"/>
@@ -12063,7 +12559,7 @@
       <c r="P345" s="6"/>
       <c r="Q345" s="6"/>
     </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A346" s="6"/>
       <c r="B346" s="6"/>
       <c r="C346" s="6"/>
@@ -12082,7 +12578,7 @@
       <c r="P346" s="6"/>
       <c r="Q346" s="6"/>
     </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A347" s="6"/>
       <c r="B347" s="6"/>
       <c r="C347" s="6"/>
@@ -12101,7 +12597,7 @@
       <c r="P347" s="6"/>
       <c r="Q347" s="6"/>
     </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A348" s="6"/>
       <c r="B348" s="6"/>
       <c r="C348" s="6"/>
@@ -12120,7 +12616,7 @@
       <c r="P348" s="6"/>
       <c r="Q348" s="6"/>
     </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A349" s="6"/>
       <c r="B349" s="6"/>
       <c r="C349" s="6"/>
@@ -12139,7 +12635,7 @@
       <c r="P349" s="6"/>
       <c r="Q349" s="6"/>
     </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A350" s="6"/>
       <c r="B350" s="6"/>
       <c r="C350" s="6"/>
@@ -12158,7 +12654,7 @@
       <c r="P350" s="6"/>
       <c r="Q350" s="6"/>
     </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A351" s="6"/>
       <c r="B351" s="6"/>
       <c r="C351" s="6"/>
@@ -12177,7 +12673,7 @@
       <c r="P351" s="6"/>
       <c r="Q351" s="6"/>
     </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A352" s="6"/>
       <c r="B352" s="6"/>
       <c r="C352" s="6"/>
@@ -12196,7 +12692,7 @@
       <c r="P352" s="6"/>
       <c r="Q352" s="6"/>
     </row>
-    <row r="353" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A353" s="6"/>
       <c r="B353" s="6"/>
       <c r="C353" s="6"/>
@@ -12215,7 +12711,7 @@
       <c r="P353" s="6"/>
       <c r="Q353" s="6"/>
     </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A354" s="6"/>
       <c r="B354" s="6"/>
       <c r="C354" s="6"/>
@@ -12234,7 +12730,7 @@
       <c r="P354" s="6"/>
       <c r="Q354" s="6"/>
     </row>
-    <row r="355" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A355" s="6"/>
       <c r="B355" s="6"/>
       <c r="C355" s="6"/>
@@ -12253,7 +12749,7 @@
       <c r="P355" s="6"/>
       <c r="Q355" s="6"/>
     </row>
-    <row r="356" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A356" s="6"/>
       <c r="B356" s="6"/>
       <c r="C356" s="6"/>
@@ -12272,7 +12768,7 @@
       <c r="P356" s="6"/>
       <c r="Q356" s="6"/>
     </row>
-    <row r="357" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A357" s="6"/>
       <c r="B357" s="6"/>
       <c r="C357" s="6"/>
@@ -12291,7 +12787,7 @@
       <c r="P357" s="6"/>
       <c r="Q357" s="6"/>
     </row>
-    <row r="358" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A358" s="6"/>
       <c r="B358" s="6"/>
       <c r="C358" s="6"/>
@@ -12310,7 +12806,7 @@
       <c r="P358" s="6"/>
       <c r="Q358" s="6"/>
     </row>
-    <row r="359" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A359" s="6"/>
       <c r="B359" s="6"/>
       <c r="C359" s="6"/>
@@ -12329,7 +12825,7 @@
       <c r="P359" s="6"/>
       <c r="Q359" s="6"/>
     </row>
-    <row r="360" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A360" s="6"/>
       <c r="B360" s="6"/>
       <c r="C360" s="6"/>
@@ -12348,7 +12844,7 @@
       <c r="P360" s="6"/>
       <c r="Q360" s="6"/>
     </row>
-    <row r="361" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A361" s="6"/>
       <c r="B361" s="6"/>
       <c r="C361" s="6"/>
@@ -12367,7 +12863,7 @@
       <c r="P361" s="6"/>
       <c r="Q361" s="6"/>
     </row>
-    <row r="362" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A362" s="6"/>
       <c r="B362" s="6"/>
       <c r="C362" s="6"/>
@@ -12386,7 +12882,7 @@
       <c r="P362" s="6"/>
       <c r="Q362" s="6"/>
     </row>
-    <row r="363" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A363" s="6"/>
       <c r="B363" s="6"/>
       <c r="C363" s="6"/>
@@ -12405,7 +12901,7 @@
       <c r="P363" s="6"/>
       <c r="Q363" s="6"/>
     </row>
-    <row r="364" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A364" s="6"/>
       <c r="B364" s="6"/>
       <c r="C364" s="6"/>
@@ -12424,7 +12920,7 @@
       <c r="P364" s="6"/>
       <c r="Q364" s="6"/>
     </row>
-    <row r="365" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A365" s="6"/>
       <c r="B365" s="6"/>
       <c r="C365" s="6"/>
@@ -12443,7 +12939,7 @@
       <c r="P365" s="6"/>
       <c r="Q365" s="6"/>
     </row>
-    <row r="366" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A366" s="6"/>
       <c r="B366" s="6"/>
       <c r="C366" s="6"/>
@@ -12462,7 +12958,7 @@
       <c r="P366" s="6"/>
       <c r="Q366" s="6"/>
     </row>
-    <row r="367" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A367" s="6"/>
       <c r="B367" s="6"/>
       <c r="C367" s="6"/>
@@ -12481,7 +12977,7 @@
       <c r="P367" s="6"/>
       <c r="Q367" s="6"/>
     </row>
-    <row r="368" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A368" s="6"/>
       <c r="B368" s="6"/>
       <c r="C368" s="6"/>
@@ -12500,7 +12996,7 @@
       <c r="P368" s="6"/>
       <c r="Q368" s="6"/>
     </row>
-    <row r="369" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A369" s="6"/>
       <c r="B369" s="6"/>
       <c r="C369" s="6"/>
@@ -12519,7 +13015,7 @@
       <c r="P369" s="6"/>
       <c r="Q369" s="6"/>
     </row>
-    <row r="370" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A370" s="6"/>
       <c r="B370" s="6"/>
       <c r="C370" s="6"/>
@@ -12538,7 +13034,7 @@
       <c r="P370" s="6"/>
       <c r="Q370" s="6"/>
     </row>
-    <row r="371" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A371" s="6"/>
       <c r="B371" s="6"/>
       <c r="C371" s="6"/>
@@ -12557,7 +13053,7 @@
       <c r="P371" s="6"/>
       <c r="Q371" s="6"/>
     </row>
-    <row r="372" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A372" s="6"/>
       <c r="B372" s="6"/>
       <c r="C372" s="6"/>
@@ -12576,7 +13072,7 @@
       <c r="P372" s="6"/>
       <c r="Q372" s="6"/>
     </row>
-    <row r="373" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A373" s="6"/>
       <c r="B373" s="6"/>
       <c r="C373" s="6"/>
@@ -12595,7 +13091,7 @@
       <c r="P373" s="6"/>
       <c r="Q373" s="6"/>
     </row>
-    <row r="374" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A374" s="6"/>
       <c r="B374" s="6"/>
       <c r="C374" s="6"/>
@@ -12614,7 +13110,7 @@
       <c r="P374" s="6"/>
       <c r="Q374" s="6"/>
     </row>
-    <row r="375" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A375" s="6"/>
       <c r="B375" s="6"/>
       <c r="C375" s="6"/>
@@ -12633,7 +13129,7 @@
       <c r="P375" s="6"/>
       <c r="Q375" s="6"/>
     </row>
-    <row r="376" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A376" s="6"/>
       <c r="B376" s="6"/>
       <c r="C376" s="6"/>
@@ -12652,7 +13148,7 @@
       <c r="P376" s="6"/>
       <c r="Q376" s="6"/>
     </row>
-    <row r="377" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A377" s="6"/>
       <c r="B377" s="6"/>
       <c r="C377" s="6"/>
@@ -12671,7 +13167,7 @@
       <c r="P377" s="6"/>
       <c r="Q377" s="6"/>
     </row>
-    <row r="378" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A378" s="6"/>
       <c r="B378" s="6"/>
       <c r="C378" s="6"/>
@@ -12690,7 +13186,7 @@
       <c r="P378" s="6"/>
       <c r="Q378" s="6"/>
     </row>
-    <row r="379" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A379" s="6"/>
       <c r="B379" s="6"/>
       <c r="C379" s="6"/>
@@ -12709,7 +13205,7 @@
       <c r="P379" s="6"/>
       <c r="Q379" s="6"/>
     </row>
-    <row r="380" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A380" s="6"/>
       <c r="B380" s="6"/>
       <c r="C380" s="6"/>
@@ -12728,7 +13224,7 @@
       <c r="P380" s="6"/>
       <c r="Q380" s="6"/>
     </row>
-    <row r="381" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A381" s="6"/>
       <c r="B381" s="6"/>
       <c r="C381" s="6"/>
@@ -12747,7 +13243,7 @@
       <c r="P381" s="6"/>
       <c r="Q381" s="6"/>
     </row>
-    <row r="382" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A382" s="6"/>
       <c r="B382" s="6"/>
       <c r="C382" s="6"/>
@@ -12766,7 +13262,7 @@
       <c r="P382" s="6"/>
       <c r="Q382" s="6"/>
     </row>
-    <row r="383" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A383" s="6"/>
       <c r="B383" s="6"/>
       <c r="C383" s="6"/>
@@ -12785,7 +13281,7 @@
       <c r="P383" s="6"/>
       <c r="Q383" s="6"/>
     </row>
-    <row r="384" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A384" s="6"/>
       <c r="B384" s="6"/>
       <c r="C384" s="6"/>
@@ -12804,7 +13300,7 @@
       <c r="P384" s="6"/>
       <c r="Q384" s="6"/>
     </row>
-    <row r="385" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A385" s="6"/>
       <c r="B385" s="6"/>
       <c r="C385" s="6"/>
@@ -12823,7 +13319,7 @@
       <c r="P385" s="6"/>
       <c r="Q385" s="6"/>
     </row>
-    <row r="386" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A386" s="6"/>
       <c r="B386" s="6"/>
       <c r="C386" s="6"/>
@@ -12842,7 +13338,7 @@
       <c r="P386" s="6"/>
       <c r="Q386" s="6"/>
     </row>
-    <row r="387" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A387" s="6"/>
       <c r="B387" s="6"/>
       <c r="C387" s="6"/>
@@ -12861,7 +13357,7 @@
       <c r="P387" s="6"/>
       <c r="Q387" s="6"/>
     </row>
-    <row r="388" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A388" s="6"/>
       <c r="B388" s="6"/>
       <c r="C388" s="6"/>
@@ -12880,7 +13376,7 @@
       <c r="P388" s="6"/>
       <c r="Q388" s="6"/>
     </row>
-    <row r="389" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A389" s="6"/>
       <c r="B389" s="6"/>
       <c r="C389" s="6"/>
@@ -12899,7 +13395,7 @@
       <c r="P389" s="6"/>
       <c r="Q389" s="6"/>
     </row>
-    <row r="390" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A390" s="6"/>
       <c r="B390" s="6"/>
       <c r="C390" s="6"/>
@@ -12918,7 +13414,7 @@
       <c r="P390" s="6"/>
       <c r="Q390" s="6"/>
     </row>
-    <row r="391" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A391" s="6"/>
       <c r="B391" s="6"/>
       <c r="C391" s="6"/>
@@ -12937,7 +13433,7 @@
       <c r="P391" s="6"/>
       <c r="Q391" s="6"/>
     </row>
-    <row r="392" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A392" s="6"/>
       <c r="B392" s="6"/>
       <c r="C392" s="6"/>
@@ -12956,7 +13452,7 @@
       <c r="P392" s="6"/>
       <c r="Q392" s="6"/>
     </row>
-    <row r="393" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A393" s="6"/>
       <c r="B393" s="6"/>
       <c r="C393" s="6"/>
@@ -12975,7 +13471,7 @@
       <c r="P393" s="6"/>
       <c r="Q393" s="6"/>
     </row>
-    <row r="394" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A394" s="6"/>
       <c r="B394" s="6"/>
       <c r="C394" s="6"/>
@@ -12994,7 +13490,7 @@
       <c r="P394" s="6"/>
       <c r="Q394" s="6"/>
     </row>
-    <row r="395" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A395" s="6"/>
       <c r="B395" s="6"/>
       <c r="C395" s="6"/>
@@ -13013,7 +13509,7 @@
       <c r="P395" s="6"/>
       <c r="Q395" s="6"/>
     </row>
-    <row r="396" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A396" s="6"/>
       <c r="B396" s="6"/>
       <c r="C396" s="6"/>
@@ -13032,7 +13528,7 @@
       <c r="P396" s="6"/>
       <c r="Q396" s="6"/>
     </row>
-    <row r="397" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A397" s="6"/>
       <c r="B397" s="6"/>
       <c r="C397" s="6"/>
@@ -13051,7 +13547,7 @@
       <c r="P397" s="6"/>
       <c r="Q397" s="6"/>
     </row>
-    <row r="398" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A398" s="6"/>
       <c r="B398" s="6"/>
       <c r="C398" s="6"/>
@@ -13070,7 +13566,7 @@
       <c r="P398" s="6"/>
       <c r="Q398" s="6"/>
     </row>
-    <row r="399" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A399" s="6"/>
       <c r="B399" s="6"/>
       <c r="C399" s="6"/>
@@ -13089,7 +13585,7 @@
       <c r="P399" s="6"/>
       <c r="Q399" s="6"/>
     </row>
-    <row r="400" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A400" s="6"/>
       <c r="B400" s="6"/>
       <c r="C400" s="6"/>
@@ -13108,7 +13604,7 @@
       <c r="P400" s="6"/>
       <c r="Q400" s="6"/>
     </row>
-    <row r="401" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A401" s="6"/>
       <c r="B401" s="6"/>
       <c r="C401" s="6"/>
@@ -13127,7 +13623,7 @@
       <c r="P401" s="6"/>
       <c r="Q401" s="6"/>
     </row>
-    <row r="402" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A402" s="6"/>
       <c r="B402" s="6"/>
       <c r="C402" s="6"/>
@@ -13146,7 +13642,7 @@
       <c r="P402" s="6"/>
       <c r="Q402" s="6"/>
     </row>
-    <row r="403" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A403" s="6"/>
       <c r="B403" s="6"/>
       <c r="C403" s="6"/>
@@ -13165,7 +13661,7 @@
       <c r="P403" s="6"/>
       <c r="Q403" s="6"/>
     </row>
-    <row r="404" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A404" s="6"/>
       <c r="B404" s="6"/>
       <c r="C404" s="6"/>
@@ -13184,7 +13680,7 @@
       <c r="P404" s="6"/>
       <c r="Q404" s="6"/>
     </row>
-    <row r="405" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A405" s="6"/>
       <c r="B405" s="6"/>
       <c r="C405" s="6"/>
@@ -13203,7 +13699,7 @@
       <c r="P405" s="6"/>
       <c r="Q405" s="6"/>
     </row>
-    <row r="406" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A406" s="6"/>
       <c r="B406" s="6"/>
       <c r="C406" s="6"/>
@@ -13222,7 +13718,7 @@
       <c r="P406" s="6"/>
       <c r="Q406" s="6"/>
     </row>
-    <row r="407" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A407" s="6"/>
       <c r="B407" s="6"/>
       <c r="C407" s="6"/>
@@ -13241,7 +13737,7 @@
       <c r="P407" s="6"/>
       <c r="Q407" s="6"/>
     </row>
-    <row r="408" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A408" s="6"/>
       <c r="B408" s="6"/>
       <c r="C408" s="6"/>
@@ -13260,7 +13756,7 @@
       <c r="P408" s="6"/>
       <c r="Q408" s="6"/>
     </row>
-    <row r="409" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A409" s="6"/>
       <c r="B409" s="6"/>
       <c r="C409" s="6"/>
@@ -13279,7 +13775,7 @@
       <c r="P409" s="6"/>
       <c r="Q409" s="6"/>
     </row>
-    <row r="410" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A410" s="6"/>
       <c r="B410" s="6"/>
       <c r="C410" s="6"/>
@@ -13298,7 +13794,7 @@
       <c r="P410" s="6"/>
       <c r="Q410" s="6"/>
     </row>
-    <row r="411" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A411" s="6"/>
       <c r="B411" s="6"/>
       <c r="C411" s="6"/>
@@ -13317,7 +13813,7 @@
       <c r="P411" s="6"/>
       <c r="Q411" s="6"/>
     </row>
-    <row r="412" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A412" s="6"/>
       <c r="B412" s="6"/>
       <c r="C412" s="6"/>
@@ -13336,7 +13832,7 @@
       <c r="P412" s="6"/>
       <c r="Q412" s="6"/>
     </row>
-    <row r="413" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A413" s="6"/>
       <c r="B413" s="6"/>
       <c r="C413" s="6"/>
@@ -13355,7 +13851,7 @@
       <c r="P413" s="6"/>
       <c r="Q413" s="6"/>
     </row>
-    <row r="414" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A414" s="6"/>
       <c r="B414" s="6"/>
       <c r="C414" s="6"/>
@@ -13374,7 +13870,7 @@
       <c r="P414" s="6"/>
       <c r="Q414" s="6"/>
     </row>
-    <row r="415" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A415" s="6"/>
       <c r="B415" s="6"/>
       <c r="C415" s="6"/>
@@ -13393,7 +13889,7 @@
       <c r="P415" s="6"/>
       <c r="Q415" s="6"/>
     </row>
-    <row r="416" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A416" s="6"/>
       <c r="B416" s="6"/>
       <c r="C416" s="6"/>
@@ -13412,7 +13908,7 @@
       <c r="P416" s="6"/>
       <c r="Q416" s="6"/>
     </row>
-    <row r="417" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A417" s="6"/>
       <c r="B417" s="6"/>
       <c r="C417" s="6"/>
@@ -13431,7 +13927,7 @@
       <c r="P417" s="6"/>
       <c r="Q417" s="6"/>
     </row>
-    <row r="418" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A418" s="6"/>
       <c r="B418" s="6"/>
       <c r="C418" s="6"/>
@@ -13450,7 +13946,7 @@
       <c r="P418" s="6"/>
       <c r="Q418" s="6"/>
     </row>
-    <row r="419" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A419" s="6"/>
       <c r="B419" s="6"/>
       <c r="C419" s="6"/>
@@ -13469,7 +13965,7 @@
       <c r="P419" s="6"/>
       <c r="Q419" s="6"/>
     </row>
-    <row r="420" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A420" s="6"/>
       <c r="B420" s="6"/>
       <c r="C420" s="6"/>
@@ -13488,7 +13984,7 @@
       <c r="P420" s="6"/>
       <c r="Q420" s="6"/>
     </row>
-    <row r="421" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A421" s="6"/>
       <c r="B421" s="6"/>
       <c r="C421" s="6"/>
@@ -13507,7 +14003,7 @@
       <c r="P421" s="6"/>
       <c r="Q421" s="6"/>
     </row>
-    <row r="422" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A422" s="6"/>
       <c r="B422" s="6"/>
       <c r="C422" s="6"/>
@@ -13526,7 +14022,7 @@
       <c r="P422" s="6"/>
       <c r="Q422" s="6"/>
     </row>
-    <row r="423" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A423" s="6"/>
       <c r="B423" s="6"/>
       <c r="C423" s="6"/>
@@ -13545,7 +14041,7 @@
       <c r="P423" s="6"/>
       <c r="Q423" s="6"/>
     </row>
-    <row r="424" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A424" s="6"/>
       <c r="B424" s="6"/>
       <c r="C424" s="6"/>
@@ -13564,7 +14060,7 @@
       <c r="P424" s="6"/>
       <c r="Q424" s="6"/>
     </row>
-    <row r="425" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A425" s="6"/>
       <c r="B425" s="6"/>
       <c r="C425" s="6"/>
@@ -13583,7 +14079,7 @@
       <c r="P425" s="6"/>
       <c r="Q425" s="6"/>
     </row>
-    <row r="426" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A426" s="6"/>
       <c r="B426" s="6"/>
       <c r="C426" s="6"/>
@@ -13602,7 +14098,7 @@
       <c r="P426" s="6"/>
       <c r="Q426" s="6"/>
     </row>
-    <row r="427" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A427" s="6"/>
       <c r="B427" s="6"/>
       <c r="C427" s="6"/>
@@ -13621,7 +14117,7 @@
       <c r="P427" s="6"/>
       <c r="Q427" s="6"/>
     </row>
-    <row r="428" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A428" s="6"/>
       <c r="B428" s="6"/>
       <c r="C428" s="6"/>
@@ -13640,7 +14136,7 @@
       <c r="P428" s="6"/>
       <c r="Q428" s="6"/>
     </row>
-    <row r="429" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A429" s="6"/>
       <c r="B429" s="6"/>
       <c r="C429" s="6"/>
@@ -13659,7 +14155,7 @@
       <c r="P429" s="6"/>
       <c r="Q429" s="6"/>
     </row>
-    <row r="430" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A430" s="6"/>
       <c r="B430" s="6"/>
       <c r="C430" s="6"/>
@@ -13678,7 +14174,7 @@
       <c r="P430" s="6"/>
       <c r="Q430" s="6"/>
     </row>
-    <row r="431" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A431" s="6"/>
       <c r="B431" s="6"/>
       <c r="C431" s="6"/>
@@ -13697,7 +14193,7 @@
       <c r="P431" s="6"/>
       <c r="Q431" s="6"/>
     </row>
-    <row r="432" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A432" s="6"/>
       <c r="B432" s="6"/>
       <c r="C432" s="6"/>
@@ -13716,7 +14212,7 @@
       <c r="P432" s="6"/>
       <c r="Q432" s="6"/>
     </row>
-    <row r="433" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A433" s="6"/>
       <c r="B433" s="6"/>
       <c r="C433" s="6"/>
@@ -13735,7 +14231,7 @@
       <c r="P433" s="6"/>
       <c r="Q433" s="6"/>
     </row>
-    <row r="434" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A434" s="6"/>
       <c r="B434" s="6"/>
       <c r="C434" s="6"/>
@@ -13754,7 +14250,7 @@
       <c r="P434" s="6"/>
       <c r="Q434" s="6"/>
     </row>
-    <row r="435" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A435" s="6"/>
       <c r="B435" s="6"/>
       <c r="C435" s="6"/>
@@ -13773,7 +14269,7 @@
       <c r="P435" s="6"/>
       <c r="Q435" s="6"/>
     </row>
-    <row r="436" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A436" s="6"/>
       <c r="B436" s="6"/>
       <c r="C436" s="6"/>
@@ -13792,7 +14288,7 @@
       <c r="P436" s="6"/>
       <c r="Q436" s="6"/>
     </row>
-    <row r="437" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A437" s="6"/>
       <c r="B437" s="6"/>
       <c r="C437" s="6"/>
@@ -13811,7 +14307,7 @@
       <c r="P437" s="6"/>
       <c r="Q437" s="6"/>
     </row>
-    <row r="438" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A438" s="6"/>
       <c r="B438" s="6"/>
       <c r="C438" s="6"/>
@@ -13830,7 +14326,7 @@
       <c r="P438" s="6"/>
       <c r="Q438" s="6"/>
     </row>
-    <row r="439" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A439" s="6"/>
       <c r="B439" s="6"/>
       <c r="C439" s="6"/>
@@ -13849,7 +14345,7 @@
       <c r="P439" s="6"/>
       <c r="Q439" s="6"/>
     </row>
-    <row r="440" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A440" s="6"/>
       <c r="B440" s="6"/>
       <c r="C440" s="6"/>
@@ -13868,7 +14364,7 @@
       <c r="P440" s="6"/>
       <c r="Q440" s="6"/>
     </row>
-    <row r="441" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A441" s="6"/>
       <c r="B441" s="6"/>
       <c r="C441" s="6"/>
@@ -13887,7 +14383,7 @@
       <c r="P441" s="6"/>
       <c r="Q441" s="6"/>
     </row>
-    <row r="442" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A442" s="6"/>
       <c r="B442" s="6"/>
       <c r="C442" s="6"/>
@@ -13906,7 +14402,7 @@
       <c r="P442" s="6"/>
       <c r="Q442" s="6"/>
     </row>
-    <row r="443" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A443" s="6"/>
       <c r="B443" s="6"/>
       <c r="C443" s="6"/>
@@ -13925,7 +14421,7 @@
       <c r="P443" s="6"/>
       <c r="Q443" s="6"/>
     </row>
-    <row r="444" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A444" s="6"/>
       <c r="B444" s="6"/>
       <c r="C444" s="6"/>
@@ -13944,7 +14440,7 @@
       <c r="P444" s="6"/>
       <c r="Q444" s="6"/>
     </row>
-    <row r="445" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A445" s="6"/>
       <c r="B445" s="6"/>
       <c r="C445" s="6"/>
@@ -13963,7 +14459,7 @@
       <c r="P445" s="6"/>
       <c r="Q445" s="6"/>
     </row>
-    <row r="446" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A446" s="6"/>
       <c r="B446" s="6"/>
       <c r="C446" s="6"/>
@@ -13982,7 +14478,7 @@
       <c r="P446" s="6"/>
       <c r="Q446" s="6"/>
     </row>
-    <row r="447" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A447" s="6"/>
       <c r="B447" s="6"/>
       <c r="C447" s="6"/>
@@ -14001,7 +14497,7 @@
       <c r="P447" s="6"/>
       <c r="Q447" s="6"/>
     </row>
-    <row r="448" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A448" s="6"/>
       <c r="B448" s="6"/>
       <c r="C448" s="6"/>
@@ -14020,7 +14516,7 @@
       <c r="P448" s="6"/>
       <c r="Q448" s="6"/>
     </row>
-    <row r="449" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A449" s="6"/>
       <c r="B449" s="6"/>
       <c r="C449" s="6"/>
@@ -14039,7 +14535,7 @@
       <c r="P449" s="6"/>
       <c r="Q449" s="6"/>
     </row>
-    <row r="450" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A450" s="6"/>
       <c r="B450" s="6"/>
       <c r="C450" s="6"/>
@@ -14058,7 +14554,7 @@
       <c r="P450" s="6"/>
       <c r="Q450" s="6"/>
     </row>
-    <row r="451" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A451" s="6"/>
       <c r="B451" s="6"/>
       <c r="C451" s="6"/>
@@ -14077,7 +14573,7 @@
       <c r="P451" s="6"/>
       <c r="Q451" s="6"/>
     </row>
-    <row r="452" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A452" s="6"/>
       <c r="B452" s="6"/>
       <c r="C452" s="6"/>
@@ -14096,7 +14592,7 @@
       <c r="P452" s="6"/>
       <c r="Q452" s="6"/>
     </row>
-    <row r="453" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A453" s="6"/>
       <c r="B453" s="6"/>
       <c r="C453" s="6"/>
@@ -14115,7 +14611,7 @@
       <c r="P453" s="6"/>
       <c r="Q453" s="6"/>
     </row>
-    <row r="454" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A454" s="6"/>
       <c r="B454" s="6"/>
       <c r="C454" s="6"/>
@@ -14134,7 +14630,7 @@
       <c r="P454" s="6"/>
       <c r="Q454" s="6"/>
     </row>
-    <row r="455" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A455" s="6"/>
       <c r="B455" s="6"/>
       <c r="C455" s="6"/>
@@ -14153,7 +14649,7 @@
       <c r="P455" s="6"/>
       <c r="Q455" s="6"/>
     </row>
-    <row r="456" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A456" s="6"/>
       <c r="B456" s="6"/>
       <c r="C456" s="6"/>
@@ -14172,7 +14668,7 @@
       <c r="P456" s="6"/>
       <c r="Q456" s="6"/>
     </row>
-    <row r="457" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A457" s="6"/>
       <c r="B457" s="6"/>
       <c r="C457" s="6"/>
@@ -14191,7 +14687,7 @@
       <c r="P457" s="6"/>
       <c r="Q457" s="6"/>
     </row>
-    <row r="458" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A458" s="6"/>
       <c r="B458" s="6"/>
       <c r="C458" s="6"/>
@@ -14210,7 +14706,7 @@
       <c r="P458" s="6"/>
       <c r="Q458" s="6"/>
     </row>
-    <row r="459" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A459" s="6"/>
       <c r="B459" s="6"/>
       <c r="C459" s="6"/>
@@ -14229,7 +14725,7 @@
       <c r="P459" s="6"/>
       <c r="Q459" s="6"/>
     </row>
-    <row r="460" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A460" s="6"/>
       <c r="B460" s="6"/>
       <c r="C460" s="6"/>
@@ -14248,7 +14744,7 @@
       <c r="P460" s="6"/>
       <c r="Q460" s="6"/>
     </row>
-    <row r="461" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A461" s="6"/>
       <c r="B461" s="6"/>
       <c r="C461" s="6"/>
@@ -14267,7 +14763,7 @@
       <c r="P461" s="6"/>
       <c r="Q461" s="6"/>
     </row>
-    <row r="462" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A462" s="6"/>
       <c r="B462" s="6"/>
       <c r="C462" s="6"/>
@@ -14286,7 +14782,7 @@
       <c r="P462" s="6"/>
       <c r="Q462" s="6"/>
     </row>
-    <row r="463" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A463" s="6"/>
       <c r="B463" s="6"/>
       <c r="C463" s="6"/>
@@ -14305,7 +14801,7 @@
       <c r="P463" s="6"/>
       <c r="Q463" s="6"/>
     </row>
-    <row r="464" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A464" s="6"/>
       <c r="B464" s="6"/>
       <c r="C464" s="6"/>
@@ -14324,7 +14820,7 @@
       <c r="P464" s="6"/>
       <c r="Q464" s="6"/>
     </row>
-    <row r="465" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A465" s="6"/>
       <c r="B465" s="6"/>
       <c r="C465" s="6"/>
@@ -14343,7 +14839,7 @@
       <c r="P465" s="6"/>
       <c r="Q465" s="6"/>
     </row>
-    <row r="466" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A466" s="6"/>
       <c r="B466" s="6"/>
       <c r="C466" s="6"/>
@@ -14362,7 +14858,7 @@
       <c r="P466" s="6"/>
       <c r="Q466" s="6"/>
     </row>
-    <row r="467" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A467" s="6"/>
       <c r="B467" s="6"/>
       <c r="C467" s="6"/>
@@ -14381,7 +14877,7 @@
       <c r="P467" s="6"/>
       <c r="Q467" s="6"/>
     </row>
-    <row r="468" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A468" s="6"/>
       <c r="B468" s="6"/>
       <c r="C468" s="6"/>
@@ -14400,7 +14896,7 @@
       <c r="P468" s="6"/>
       <c r="Q468" s="6"/>
     </row>
-    <row r="469" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A469" s="6"/>
       <c r="B469" s="6"/>
       <c r="C469" s="6"/>
@@ -14419,7 +14915,7 @@
       <c r="P469" s="6"/>
       <c r="Q469" s="6"/>
     </row>
-    <row r="470" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A470" s="6"/>
       <c r="B470" s="6"/>
       <c r="C470" s="6"/>
@@ -14438,7 +14934,7 @@
       <c r="P470" s="6"/>
       <c r="Q470" s="6"/>
     </row>
-    <row r="471" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A471" s="6"/>
       <c r="B471" s="6"/>
       <c r="C471" s="6"/>
@@ -14457,7 +14953,7 @@
       <c r="P471" s="6"/>
       <c r="Q471" s="6"/>
     </row>
-    <row r="472" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A472" s="6"/>
       <c r="B472" s="6"/>
       <c r="C472" s="6"/>
@@ -14476,7 +14972,7 @@
       <c r="P472" s="6"/>
       <c r="Q472" s="6"/>
     </row>
-    <row r="473" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A473" s="6"/>
       <c r="B473" s="6"/>
       <c r="C473" s="6"/>
@@ -14495,7 +14991,7 @@
       <c r="P473" s="6"/>
       <c r="Q473" s="6"/>
     </row>
-    <row r="474" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A474" s="6"/>
       <c r="B474" s="6"/>
       <c r="C474" s="6"/>
@@ -14514,7 +15010,7 @@
       <c r="P474" s="6"/>
       <c r="Q474" s="6"/>
     </row>
-    <row r="475" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A475" s="6"/>
       <c r="B475" s="6"/>
       <c r="C475" s="6"/>
@@ -14533,7 +15029,7 @@
       <c r="P475" s="6"/>
       <c r="Q475" s="6"/>
     </row>
-    <row r="476" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A476" s="6"/>
       <c r="B476" s="6"/>
       <c r="C476" s="6"/>
@@ -14552,7 +15048,7 @@
       <c r="P476" s="6"/>
       <c r="Q476" s="6"/>
     </row>
-    <row r="477" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A477" s="6"/>
       <c r="B477" s="6"/>
       <c r="C477" s="6"/>
@@ -14571,7 +15067,7 @@
       <c r="P477" s="6"/>
       <c r="Q477" s="6"/>
     </row>
-    <row r="478" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A478" s="6"/>
       <c r="B478" s="6"/>
       <c r="C478" s="6"/>
@@ -14590,7 +15086,7 @@
       <c r="P478" s="6"/>
       <c r="Q478" s="6"/>
     </row>
-    <row r="479" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A479" s="6"/>
       <c r="B479" s="6"/>
       <c r="C479" s="6"/>
@@ -14609,7 +15105,7 @@
       <c r="P479" s="6"/>
       <c r="Q479" s="6"/>
     </row>
-    <row r="480" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A480" s="6"/>
       <c r="B480" s="6"/>
       <c r="C480" s="6"/>
@@ -14628,7 +15124,7 @@
       <c r="P480" s="6"/>
       <c r="Q480" s="6"/>
     </row>
-    <row r="481" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A481" s="6"/>
       <c r="B481" s="6"/>
       <c r="C481" s="6"/>
@@ -14647,7 +15143,7 @@
       <c r="P481" s="6"/>
       <c r="Q481" s="6"/>
     </row>
-    <row r="482" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A482" s="6"/>
       <c r="B482" s="6"/>
       <c r="C482" s="6"/>
@@ -14666,7 +15162,7 @@
       <c r="P482" s="6"/>
       <c r="Q482" s="6"/>
     </row>
-    <row r="483" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A483" s="6"/>
       <c r="B483" s="6"/>
       <c r="C483" s="6"/>
@@ -14685,7 +15181,7 @@
       <c r="P483" s="6"/>
       <c r="Q483" s="6"/>
     </row>
-    <row r="484" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A484" s="6"/>
       <c r="B484" s="6"/>
       <c r="C484" s="6"/>
@@ -14704,7 +15200,7 @@
       <c r="P484" s="6"/>
       <c r="Q484" s="6"/>
     </row>
-    <row r="485" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A485" s="6"/>
       <c r="B485" s="6"/>
       <c r="C485" s="6"/>
@@ -14723,7 +15219,7 @@
       <c r="P485" s="6"/>
       <c r="Q485" s="6"/>
     </row>
-    <row r="486" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A486" s="6"/>
       <c r="B486" s="6"/>
       <c r="C486" s="6"/>
@@ -14742,7 +15238,7 @@
       <c r="P486" s="6"/>
       <c r="Q486" s="6"/>
     </row>
-    <row r="487" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A487" s="6"/>
       <c r="B487" s="6"/>
       <c r="C487" s="6"/>
@@ -14761,7 +15257,7 @@
       <c r="P487" s="6"/>
       <c r="Q487" s="6"/>
     </row>
-    <row r="488" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A488" s="6"/>
       <c r="B488" s="6"/>
       <c r="C488" s="6"/>
@@ -14780,7 +15276,7 @@
       <c r="P488" s="6"/>
       <c r="Q488" s="6"/>
     </row>
-    <row r="489" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A489" s="6"/>
       <c r="B489" s="6"/>
       <c r="C489" s="6"/>
@@ -14799,7 +15295,7 @@
       <c r="P489" s="6"/>
       <c r="Q489" s="6"/>
     </row>
-    <row r="490" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A490" s="6"/>
       <c r="B490" s="6"/>
       <c r="C490" s="6"/>
@@ -14818,7 +15314,7 @@
       <c r="P490" s="6"/>
       <c r="Q490" s="6"/>
     </row>
-    <row r="491" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A491" s="6"/>
       <c r="B491" s="6"/>
       <c r="C491" s="6"/>
@@ -14837,7 +15333,7 @@
       <c r="P491" s="6"/>
       <c r="Q491" s="6"/>
     </row>
-    <row r="492" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A492" s="6"/>
       <c r="B492" s="6"/>
       <c r="C492" s="6"/>
@@ -14859,10 +15355,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G46:G86" r:id="rId3" display="user01@thezo.com" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G4:G73" r:id="rId4" display="user01@thezo.com" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G46:G86" r:id="rId3" display="user01@thezo.com"/>
+    <hyperlink ref="G4:G73" r:id="rId4" display="user01@thezo.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId5"/>
@@ -14870,21 +15366,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>576</v>
       </c>
@@ -14895,7 +15391,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="23">
         <v>1</v>
       </c>
@@ -14906,7 +15402,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="19">
         <v>5</v>
       </c>
@@ -14917,7 +15413,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>2</v>
       </c>
@@ -14928,7 +15424,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>3</v>
       </c>
@@ -14939,7 +15435,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -14950,7 +15446,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -14961,7 +15457,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -14979,30 +15475,30 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>591</v>
       </c>
@@ -15040,7 +15536,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -15078,7 +15574,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -15116,7 +15612,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -15154,7 +15650,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -15192,7 +15688,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -15230,7 +15726,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -15268,7 +15764,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -15306,7 +15802,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -15344,7 +15840,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -15382,7 +15878,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -15420,7 +15916,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -15458,7 +15954,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -15496,7 +15992,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -15534,7 +16030,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -15572,7 +16068,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <v>15</v>
       </c>
@@ -15610,7 +16106,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -15648,7 +16144,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <v>17</v>
       </c>
@@ -15686,7 +16182,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>18</v>
       </c>
@@ -15731,30 +16227,30 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>610</v>
       </c>
@@ -15792,7 +16288,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -15824,7 +16320,7 @@
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -15869,22 +16365,22 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>628</v>
       </c>
@@ -15898,7 +16394,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -15912,7 +16408,7 @@
         <v>44406</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -15926,7 +16422,7 @@
         <v>44407.541666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -15947,26 +16443,26 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E9B575-B50C-404F-BDA9-D0FC06A60F26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>638</v>
       </c>
@@ -15992,7 +16488,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -16014,7 +16510,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -16036,7 +16532,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -16058,7 +16554,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -16080,7 +16576,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -16102,7 +16598,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -16124,7 +16620,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -16146,7 +16642,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -16168,7 +16664,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -16190,7 +16686,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -16212,7 +16708,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -16234,7 +16730,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -16256,7 +16752,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -16278,7 +16774,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -16300,7 +16796,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -16322,7 +16818,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -16344,7 +16840,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -16366,7 +16862,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -16388,7 +16884,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -16410,7 +16906,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -16439,13 +16935,2721 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I63"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.25" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="23.375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="32.5" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>3</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>675</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="G2" s="28">
+        <v>44197</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>3</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>675</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="G3" s="28">
+        <v>44198</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>675</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="G4" s="28">
+        <v>44199</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>2</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>683</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="G5" s="28">
+        <v>44200</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>683</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="G6" s="28">
+        <v>44201</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>683</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="G7" s="28">
+        <v>44202</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>3</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>691</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="G8" s="28">
+        <v>44203</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>3</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>695</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="G9" s="28">
+        <v>44204</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>3</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>695</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="G10" s="28">
+        <v>44205</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>2</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>700</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="G11" s="28">
+        <v>44206</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6">
+        <v>2</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>700</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="G12" s="28">
+        <v>44207</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>700</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="G13" s="28">
+        <v>44208</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6">
+        <v>3</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>695</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="G14" s="28">
+        <v>44209</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6">
+        <v>3</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>695</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="G15" s="28">
+        <v>44210</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6">
+        <v>3</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>695</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="G16" s="28">
+        <v>44211</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6">
+        <v>2</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>700</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="G17" s="28">
+        <v>44212</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6">
+        <v>2</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>700</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="G18" s="28">
+        <v>44213</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6">
+        <v>2</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>700</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="G19" s="28">
+        <v>44214</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6">
+        <v>3</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>695</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="G20" s="28">
+        <v>44215</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6">
+        <v>3</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>695</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="G21" s="28">
+        <v>44216</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6">
+        <v>3</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>695</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="G22" s="28">
+        <v>44217</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6">
+        <v>2</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>700</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="G23" s="28">
+        <v>44218</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6">
+        <v>2</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>700</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="G24" s="28">
+        <v>44219</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6">
+        <v>2</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>700</v>
+      </c>
+      <c r="D25" s="6">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="G25" s="28">
+        <v>44220</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6">
+        <v>3</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>695</v>
+      </c>
+      <c r="D26" s="6">
+        <v>1</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="G26" s="28">
+        <v>44221</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6">
+        <v>3</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>695</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="G27" s="28">
+        <v>44222</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6">
+        <v>3</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>695</v>
+      </c>
+      <c r="D28" s="6">
+        <v>1</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="G28" s="28">
+        <v>44223</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6">
+        <v>2</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>700</v>
+      </c>
+      <c r="D29" s="6">
+        <v>1</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="G29" s="28">
+        <v>44224</v>
+      </c>
+      <c r="H29" s="6">
+        <v>0</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>700</v>
+      </c>
+      <c r="D30" s="6">
+        <v>1</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="G30" s="28">
+        <v>44225</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6">
+        <v>2</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>700</v>
+      </c>
+      <c r="D31" s="6">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G31" s="28">
+        <v>44226</v>
+      </c>
+      <c r="H31" s="6">
+        <v>0</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6">
+        <v>20</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>743</v>
+      </c>
+      <c r="D32" s="6">
+        <v>2</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="G32" s="28">
+        <v>44256</v>
+      </c>
+      <c r="H32" s="6">
+        <v>0</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6">
+        <v>20</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>743</v>
+      </c>
+      <c r="D33" s="6">
+        <v>2</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="G33" s="28">
+        <v>44257</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6">
+        <v>20</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>743</v>
+      </c>
+      <c r="D34" s="6">
+        <v>2</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="G34" s="28">
+        <v>44258</v>
+      </c>
+      <c r="H34" s="6">
+        <v>0</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6">
+        <v>17</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>749</v>
+      </c>
+      <c r="D35" s="6">
+        <v>2</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="G35" s="28">
+        <v>44259</v>
+      </c>
+      <c r="H35" s="6">
+        <v>0</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6">
+        <v>17</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>749</v>
+      </c>
+      <c r="D36" s="6">
+        <v>2</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="G36" s="28">
+        <v>44260</v>
+      </c>
+      <c r="H36" s="6">
+        <v>0</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6">
+        <v>7</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>754</v>
+      </c>
+      <c r="D37" s="6">
+        <v>2</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="G37" s="28">
+        <v>44261</v>
+      </c>
+      <c r="H37" s="6">
+        <v>0</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
+        <v>37</v>
+      </c>
+      <c r="B38" s="6">
+        <v>7</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>754</v>
+      </c>
+      <c r="D38" s="6">
+        <v>2</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="G38" s="28">
+        <v>44262</v>
+      </c>
+      <c r="H38" s="6">
+        <v>0</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6">
+        <v>7</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>754</v>
+      </c>
+      <c r="D39" s="6">
+        <v>2</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="G39" s="28">
+        <v>44263</v>
+      </c>
+      <c r="H39" s="6">
+        <v>0</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6">
+        <v>20</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>743</v>
+      </c>
+      <c r="D40" s="6">
+        <v>2</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="G40" s="28">
+        <v>44264</v>
+      </c>
+      <c r="H40" s="6">
+        <v>0</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
+        <v>40</v>
+      </c>
+      <c r="B41" s="6">
+        <v>20</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>743</v>
+      </c>
+      <c r="D41" s="6">
+        <v>2</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="G41" s="28">
+        <v>44265</v>
+      </c>
+      <c r="H41" s="6">
+        <v>0</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
+        <v>41</v>
+      </c>
+      <c r="B42" s="6">
+        <v>20</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>743</v>
+      </c>
+      <c r="D42" s="6">
+        <v>2</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="G42" s="28">
+        <v>44266</v>
+      </c>
+      <c r="H42" s="6">
+        <v>0</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
+        <v>42</v>
+      </c>
+      <c r="B43" s="6">
+        <v>17</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>749</v>
+      </c>
+      <c r="D43" s="6">
+        <v>2</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="G43" s="28">
+        <v>44267</v>
+      </c>
+      <c r="H43" s="6">
+        <v>0</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
+        <v>43</v>
+      </c>
+      <c r="B44" s="6">
+        <v>17</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>749</v>
+      </c>
+      <c r="D44" s="6">
+        <v>2</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="G44" s="28">
+        <v>44268</v>
+      </c>
+      <c r="H44" s="6">
+        <v>0</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
+        <v>44</v>
+      </c>
+      <c r="B45" s="6">
+        <v>7</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>754</v>
+      </c>
+      <c r="D45" s="6">
+        <v>2</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="G45" s="28">
+        <v>44269</v>
+      </c>
+      <c r="H45" s="6">
+        <v>0</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="6">
+        <v>45</v>
+      </c>
+      <c r="B46" s="6">
+        <v>7</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>754</v>
+      </c>
+      <c r="D46" s="6">
+        <v>2</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="G46" s="28">
+        <v>44270</v>
+      </c>
+      <c r="H46" s="6">
+        <v>0</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
+        <v>46</v>
+      </c>
+      <c r="B47" s="6">
+        <v>7</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>754</v>
+      </c>
+      <c r="D47" s="6">
+        <v>2</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="G47" s="28">
+        <v>44271</v>
+      </c>
+      <c r="H47" s="6">
+        <v>0</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
+        <v>47</v>
+      </c>
+      <c r="B48" s="6">
+        <v>20</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>743</v>
+      </c>
+      <c r="D48" s="6">
+        <v>2</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="G48" s="28">
+        <v>44272</v>
+      </c>
+      <c r="H48" s="6">
+        <v>0</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
+        <v>48</v>
+      </c>
+      <c r="B49" s="6">
+        <v>20</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>743</v>
+      </c>
+      <c r="D49" s="6">
+        <v>2</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="G49" s="28">
+        <v>44273</v>
+      </c>
+      <c r="H49" s="6">
+        <v>0</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="6">
+        <v>49</v>
+      </c>
+      <c r="B50" s="6">
+        <v>20</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>743</v>
+      </c>
+      <c r="D50" s="6">
+        <v>2</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="G50" s="28">
+        <v>44274</v>
+      </c>
+      <c r="H50" s="6">
+        <v>0</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
+        <v>50</v>
+      </c>
+      <c r="B51" s="6">
+        <v>17</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>749</v>
+      </c>
+      <c r="D51" s="6">
+        <v>2</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="G51" s="28">
+        <v>44275</v>
+      </c>
+      <c r="H51" s="6">
+        <v>0</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="6">
+        <v>51</v>
+      </c>
+      <c r="B52" s="6">
+        <v>17</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>749</v>
+      </c>
+      <c r="D52" s="6">
+        <v>2</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="G52" s="28">
+        <v>44276</v>
+      </c>
+      <c r="H52" s="6">
+        <v>0</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="6">
+        <v>52</v>
+      </c>
+      <c r="B53" s="6">
+        <v>7</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>754</v>
+      </c>
+      <c r="D53" s="6">
+        <v>2</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="G53" s="28">
+        <v>44277</v>
+      </c>
+      <c r="H53" s="6">
+        <v>0</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="6">
+        <v>53</v>
+      </c>
+      <c r="B54" s="6">
+        <v>7</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>754</v>
+      </c>
+      <c r="D54" s="6">
+        <v>2</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="G54" s="28">
+        <v>44278</v>
+      </c>
+      <c r="H54" s="6">
+        <v>0</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="6">
+        <v>54</v>
+      </c>
+      <c r="B55" s="6">
+        <v>7</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>754</v>
+      </c>
+      <c r="D55" s="6">
+        <v>2</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="G55" s="28">
+        <v>44279</v>
+      </c>
+      <c r="H55" s="6">
+        <v>0</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="6">
+        <v>55</v>
+      </c>
+      <c r="B56" s="6">
+        <v>20</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>743</v>
+      </c>
+      <c r="D56" s="6">
+        <v>2</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="G56" s="28">
+        <v>44280</v>
+      </c>
+      <c r="H56" s="6">
+        <v>0</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="6">
+        <v>56</v>
+      </c>
+      <c r="B57" s="6">
+        <v>20</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>743</v>
+      </c>
+      <c r="D57" s="6">
+        <v>2</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="G57" s="28">
+        <v>44281</v>
+      </c>
+      <c r="H57" s="6">
+        <v>0</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="6">
+        <v>57</v>
+      </c>
+      <c r="B58" s="6">
+        <v>20</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>743</v>
+      </c>
+      <c r="D58" s="6">
+        <v>2</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="G58" s="28">
+        <v>44282</v>
+      </c>
+      <c r="H58" s="6">
+        <v>0</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="6">
+        <v>58</v>
+      </c>
+      <c r="B59" s="6">
+        <v>17</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>749</v>
+      </c>
+      <c r="D59" s="6">
+        <v>2</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="G59" s="28">
+        <v>44283</v>
+      </c>
+      <c r="H59" s="6">
+        <v>0</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="6">
+        <v>59</v>
+      </c>
+      <c r="B60" s="6">
+        <v>5</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>768</v>
+      </c>
+      <c r="D60" s="6">
+        <v>2</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="G60" s="28">
+        <v>44284</v>
+      </c>
+      <c r="H60" s="6">
+        <v>0</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="6">
+        <v>60</v>
+      </c>
+      <c r="B61" s="6">
+        <v>7</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>754</v>
+      </c>
+      <c r="D61" s="6">
+        <v>2</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="G61" s="28">
+        <v>44285</v>
+      </c>
+      <c r="H61" s="6">
+        <v>0</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C62" s="27"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C63" s="27"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="34.375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="17.25" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="31.125" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>779</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="F2" s="28">
+        <v>44287</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="H2" s="6">
+        <v>10000</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>787</v>
+      </c>
+      <c r="F3" s="28">
+        <v>44288</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="H3" s="6">
+        <v>12000</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="F4" s="28">
+        <v>44289</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="H4" s="6">
+        <v>13000</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="F5" s="28">
+        <v>44290</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="H5" s="6">
+        <v>14000</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>797</v>
+      </c>
+      <c r="F6" s="28">
+        <v>44291</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="H6" s="6">
+        <v>15000</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="F7" s="28">
+        <v>44292</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="H7" s="6">
+        <v>16000</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="F8" s="28">
+        <v>44293</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="H8" s="6">
+        <v>10000</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>787</v>
+      </c>
+      <c r="F9" s="28">
+        <v>44294</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="H9" s="6">
+        <v>12000</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="F10" s="28">
+        <v>44295</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="H10" s="6">
+        <v>13000</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="F11" s="28">
+        <v>44296</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="H11" s="6">
+        <v>14000</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>797</v>
+      </c>
+      <c r="F12" s="28">
+        <v>44297</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="H12" s="6">
+        <v>15000</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="F13" s="28">
+        <v>44298</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="H13" s="6">
+        <v>16000</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6">
+        <v>4</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="F14" s="28">
+        <v>44299</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="H14" s="6">
+        <v>10000</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6">
+        <v>5</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>787</v>
+      </c>
+      <c r="F15" s="28">
+        <v>44300</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="H15" s="6">
+        <v>12000</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6">
+        <v>6</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="F16" s="28">
+        <v>44301</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="H16" s="6">
+        <v>13000</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6">
+        <v>7</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="F17" s="28">
+        <v>44302</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="H17" s="6">
+        <v>14000</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0</v>
+      </c>
+      <c r="K17" s="6">
+        <v>0</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6">
+        <v>8</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>797</v>
+      </c>
+      <c r="F18" s="28">
+        <v>44303</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="H18" s="6">
+        <v>15000</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6">
+        <v>9</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="F19" s="28">
+        <v>44304</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="H19" s="6">
+        <v>16000</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>686</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.25" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="31.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>803</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="D2" s="6">
+        <v>60</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>809</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="G2" s="28">
+        <v>44280</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>13</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="D3" s="6">
+        <v>60</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="G3" s="28">
+        <v>44280</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="D4" s="6">
+        <v>18</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="G4" s="28">
+        <v>44304</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="D5" s="6">
+        <v>18</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="G5" s="28">
+        <v>44304</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16454,14 +19658,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16469,21 +19673,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>503</v>
       </c>
@@ -16494,7 +19698,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16505,7 +19709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -16516,7 +19720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -16527,7 +19731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -16538,7 +19742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -16549,7 +19753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -16560,7 +19764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -16571,7 +19775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -16582,7 +19786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -16593,7 +19797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -16604,7 +19808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -16615,7 +19819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -16626,7 +19830,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -16645,21 +19849,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>525</v>
       </c>
@@ -16670,7 +19874,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="15">
         <v>5</v>
       </c>
@@ -16681,7 +19885,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>5</v>
       </c>
@@ -16692,7 +19896,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>5</v>
       </c>
@@ -16703,7 +19907,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>5</v>
       </c>
@@ -16714,7 +19918,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -16725,7 +19929,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>5</v>
       </c>
@@ -16736,7 +19940,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>5</v>
       </c>
@@ -16747,7 +19951,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>5</v>
       </c>
@@ -16758,7 +19962,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>1</v>
       </c>
@@ -16769,7 +19973,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>1</v>
       </c>
@@ -16780,7 +19984,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>1</v>
       </c>
@@ -16791,7 +19995,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>1</v>
       </c>
@@ -16802,7 +20006,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>1</v>
       </c>
@@ -16813,7 +20017,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>1</v>
       </c>
@@ -16831,23 +20035,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>530</v>
       </c>
@@ -16864,7 +20068,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -16879,7 +20083,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -16894,7 +20098,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -16909,7 +20113,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -16924,7 +20128,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -16939,7 +20143,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -16954,7 +20158,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -16969,7 +20173,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -16986,7 +20190,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="21">
         <v>9</v>
       </c>
@@ -17001,7 +20205,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="21">
         <v>10</v>
       </c>
@@ -17016,7 +20220,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="21">
         <v>11</v>
       </c>
@@ -17031,7 +20235,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="21">
         <v>12</v>
       </c>
@@ -17046,7 +20250,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="21">
         <v>13</v>
       </c>
@@ -17069,25 +20273,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>550</v>
       </c>
@@ -17110,7 +20314,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="23">
         <v>1</v>
       </c>
@@ -17131,7 +20335,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="23">
         <v>1</v>
       </c>
@@ -17152,7 +20356,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="23">
         <v>2</v>
       </c>
@@ -17169,7 +20373,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="23">
         <v>2</v>
       </c>
@@ -17186,7 +20390,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="23">
         <v>3</v>
       </c>
@@ -17203,7 +20407,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="23">
         <v>3</v>
       </c>
@@ -17220,7 +20424,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
         <v>4</v>
       </c>
@@ -17237,7 +20441,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="23">
         <v>4</v>
       </c>
@@ -17254,7 +20458,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
         <v>5</v>
       </c>
@@ -17271,7 +20475,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>5</v>
       </c>
@@ -17288,7 +20492,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>6</v>
       </c>
@@ -17305,7 +20509,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>6</v>
       </c>
@@ -17322,7 +20526,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>7</v>
       </c>
@@ -17343,7 +20547,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>7</v>
       </c>
@@ -17364,7 +20568,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <v>7</v>
       </c>
@@ -17385,7 +20589,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <v>7</v>
       </c>
@@ -17406,7 +20610,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <v>7</v>
       </c>
@@ -17427,7 +20631,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <v>7</v>
       </c>
@@ -17448,7 +20652,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <v>8</v>
       </c>
@@ -17465,7 +20669,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <v>8</v>
       </c>
@@ -17482,7 +20686,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <v>8</v>
       </c>
@@ -17499,7 +20703,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
         <v>9</v>
       </c>
@@ -17516,7 +20720,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>9</v>
       </c>
@@ -17533,7 +20737,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>10</v>
       </c>
@@ -17550,7 +20754,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
         <v>10</v>
       </c>
@@ -17567,7 +20771,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>11</v>
       </c>
@@ -17584,7 +20788,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
         <v>11</v>
       </c>
@@ -17601,7 +20805,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
         <v>12</v>
       </c>
@@ -17618,7 +20822,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>12</v>
       </c>
@@ -17635,7 +20839,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
         <v>13</v>
       </c>
@@ -17652,7 +20856,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
         <v>13</v>
       </c>
@@ -17676,27 +20880,27 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>552</v>
       </c>
@@ -17725,7 +20929,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -17748,7 +20952,7 @@
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -17771,7 +20975,7 @@
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -17794,7 +20998,7 @@
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -17817,7 +21021,7 @@
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -17840,7 +21044,7 @@
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -17863,7 +21067,7 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -17886,7 +21090,7 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -17909,7 +21113,7 @@
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -17932,7 +21136,7 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -17955,7 +21159,7 @@
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -17978,7 +21182,7 @@
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -18001,7 +21205,7 @@
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -18024,7 +21228,7 @@
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -18047,7 +21251,7 @@
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <v>15</v>
       </c>
@@ -18070,7 +21274,7 @@
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -18101,26 +21305,26 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>576</v>
       </c>
@@ -18146,7 +21350,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -18172,7 +21376,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -18198,7 +21402,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -18224,7 +21428,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -18250,7 +21454,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -18276,7 +21480,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -18302,7 +21506,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>7</v>
       </c>

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5715" yWindow="345" windowWidth="17010" windowHeight="10410" tabRatio="728" firstSheet="9" activeTab="16"/>
+    <workbookView xWindow="5715" yWindow="345" windowWidth="17010" windowHeight="10410" tabRatio="728" firstSheet="9" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="member(sample)" sheetId="2" r:id="rId1"/>
@@ -21,9 +21,10 @@
     <sheet name="Jaewon_msg_report" sheetId="13" r:id="rId12"/>
     <sheet name="Jaewon_admin_log" sheetId="14" r:id="rId13"/>
     <sheet name="Sunyoung_document" sheetId="15" r:id="rId14"/>
-    <sheet name="Lsk_board" sheetId="16" r:id="rId15"/>
-    <sheet name="Lsk_market" sheetId="17" r:id="rId16"/>
-    <sheet name="Lsk_reply" sheetId="18" r:id="rId17"/>
+    <sheet name="SK_board" sheetId="16" r:id="rId15"/>
+    <sheet name="SK_market" sheetId="17" r:id="rId16"/>
+    <sheet name="SK_reply" sheetId="18" r:id="rId17"/>
+    <sheet name="SK_report" sheetId="19" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'member(sample)'!$A$1:$Q$491</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="835">
   <si>
     <t xml:space="preserve">	서울특별시송파구올림픽로 99(잠실동, 잠실엘스)</t>
   </si>
@@ -2837,6 +2838,73 @@
   </si>
   <si>
     <t>디자인 별론데 양심없음?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RP_CODE</t>
+  </si>
+  <si>
+    <t>RP_ID</t>
+  </si>
+  <si>
+    <t>RP_DATE</t>
+  </si>
+  <si>
+    <t>BOARD_TYPE</t>
+  </si>
+  <si>
+    <t>RP_TYPE</t>
+  </si>
+  <si>
+    <t>RP_NO</t>
+  </si>
+  <si>
+    <t>RP_SECTION</t>
+  </si>
+  <si>
+    <t>RP_CONTENT</t>
+  </si>
+  <si>
+    <t>HANDLING_DATE</t>
+  </si>
+  <si>
+    <t>user40</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>욕설/비방</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">욕설 신고 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도배/스팸</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도배 신고</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user40</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>욕설/비방</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">욕설 신고 </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -19491,7 +19559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -19640,6 +19708,1027 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="12.125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="6" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9" style="6"/>
+    <col min="7" max="7" width="13.25" style="6" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="16" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="C2" s="28">
+        <v>44256</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
+        <v>31</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="I2" s="28">
+        <v>44256</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="C3" s="28">
+        <v>44256</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>31</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="I3" s="28">
+        <v>44256</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C4" s="28">
+        <v>44256</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>31</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="I4" s="28">
+        <v>44256</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="C5" s="28">
+        <v>44256</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>31</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="I5" s="28">
+        <v>44256</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C6" s="28">
+        <v>44256</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>31</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="I6" s="28">
+        <v>44256</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C7" s="28">
+        <v>44257</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>31</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="I7" s="28">
+        <v>44257</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="C8" s="28">
+        <v>44257</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>31</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="I8" s="28">
+        <v>44257</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="C9" s="28">
+        <v>44257</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>31</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="I9" s="28">
+        <v>44257</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C10" s="28">
+        <v>44257</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>31</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="I10" s="28">
+        <v>44257</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C11" s="28">
+        <v>44257</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>31</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="I11" s="28">
+        <v>44257</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="C12" s="28">
+        <v>44257</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6">
+        <v>31</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="I12" s="28">
+        <v>44257</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="C13" s="28">
+        <v>44258</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>32</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="I13" s="28">
+        <v>44258</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C14" s="28">
+        <v>44258</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
+        <v>32</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="I14" s="28">
+        <v>44258</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="C15" s="28">
+        <v>44258</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>32</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="I15" s="28">
+        <v>44258</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C16" s="28">
+        <v>44258</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6">
+        <v>32</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="I16" s="28">
+        <v>44258</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C17" s="28">
+        <v>44258</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6">
+        <v>32</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="I17" s="28">
+        <v>44258</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="C18" s="28">
+        <v>44258</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6">
+        <v>32</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="I18" s="28">
+        <v>44258</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="C19" s="28">
+        <v>44258</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6">
+        <v>32</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="I19" s="28">
+        <v>44258</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C20" s="28">
+        <v>44258</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6">
+        <v>32</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="I20" s="28">
+        <v>44258</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C21" s="28">
+        <v>44258</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6">
+        <v>32</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="I21" s="28">
+        <v>44258</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="C22" s="28">
+        <v>44265</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6">
+        <v>40</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="I22" s="28">
+        <v>44265</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="C23" s="28">
+        <v>44266</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
+      <c r="F23" s="6">
+        <v>40</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="I23" s="28">
+        <v>44266</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C24" s="28">
+        <v>44267</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6">
+        <v>40</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="I24" s="28">
+        <v>44267</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="C25" s="28">
+        <v>44268</v>
+      </c>
+      <c r="D25" s="6">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+      <c r="F25" s="6">
+        <v>40</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="I25" s="28">
+        <v>44268</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C26" s="28">
+        <v>44269</v>
+      </c>
+      <c r="D26" s="6">
+        <v>1</v>
+      </c>
+      <c r="E26" s="6">
+        <v>1</v>
+      </c>
+      <c r="F26" s="6">
+        <v>40</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="I26" s="28">
+        <v>44269</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C27" s="28">
+        <v>44270</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1</v>
+      </c>
+      <c r="E27" s="6">
+        <v>1</v>
+      </c>
+      <c r="F27" s="6">
+        <v>40</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="I27" s="28">
+        <v>44270</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="C28" s="28">
+        <v>44271</v>
+      </c>
+      <c r="D28" s="6">
+        <v>1</v>
+      </c>
+      <c r="E28" s="6">
+        <v>1</v>
+      </c>
+      <c r="F28" s="6">
+        <v>40</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="I28" s="28">
+        <v>44271</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="C29" s="28">
+        <v>44272</v>
+      </c>
+      <c r="D29" s="6">
+        <v>1</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+      <c r="F29" s="6">
+        <v>40</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="I29" s="28">
+        <v>44272</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C30" s="28">
+        <v>44273</v>
+      </c>
+      <c r="D30" s="6">
+        <v>1</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1</v>
+      </c>
+      <c r="F30" s="6">
+        <v>40</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="I30" s="28">
+        <v>44273</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C31" s="28">
+        <v>44274</v>
+      </c>
+      <c r="D31" s="6">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6">
+        <v>1</v>
+      </c>
+      <c r="F31" s="6">
+        <v>40</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="I31" s="28">
+        <v>44274</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>831</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\finalproject-workspace\thezo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E09F05-6862-4166-A9AF-1DF9C97DCD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEE6DC8-385A-4086-9B77-12563F43DD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27510" yWindow="6510" windowWidth="37170" windowHeight="21600" tabRatio="728" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="37170" windowHeight="21600" tabRatio="728" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="member(sample)" sheetId="2" r:id="rId1"/>
     <sheet name="approval" sheetId="3" r:id="rId2"/>
     <sheet name="mail" sheetId="4" r:id="rId3"/>
-    <sheet name="company" sheetId="5" r:id="rId4"/>
+    <sheet name="JaeWook_company" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'member(sample)'!$A$1:$Q$491</definedName>
@@ -33646,28 +33646,28 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.125" customWidth="1"/>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="17.25" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="20.875" customWidth="1"/>
-    <col min="6" max="6" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="62.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5" customWidth="1"/>
+    <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="41.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.75" customWidth="1"/>
+    <col min="15" max="15" width="17.125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="56.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\finalproject-workspace\thezo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0D780E-4763-4E22-8BEE-19BEBF8D291D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5715" yWindow="345" windowWidth="17010" windowHeight="10410" tabRatio="728" firstSheet="9" activeTab="17"/>
+    <workbookView xWindow="10350" yWindow="1920" windowWidth="37170" windowHeight="21600" tabRatio="728" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="member(sample)" sheetId="2" r:id="rId1"/>
@@ -25,17 +31,24 @@
     <sheet name="SK_market" sheetId="17" r:id="rId16"/>
     <sheet name="SK_reply" sheetId="18" r:id="rId17"/>
     <sheet name="SK_report" sheetId="19" r:id="rId18"/>
+    <sheet name="JaeWook_COMPANY" sheetId="20" r:id="rId19"/>
+    <sheet name="JaeWook_ATTENDANCE" sheetId="21" r:id="rId20"/>
+    <sheet name="JaeWook_ATT_BOARD" sheetId="22" r:id="rId21"/>
+    <sheet name="JaeWook_LEAVE" sheetId="23" r:id="rId22"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">JaeWook_ATT_BOARD!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">JaeWook_ATTENDANCE!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">JaeWook_LEAVE!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'member(sample)'!$A$1:$Q$491</definedName>
     <definedName name="Apart">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="892">
   <si>
     <t xml:space="preserve">	서울특별시송파구올림픽로 99(잠실동, 잠실엘스)</t>
   </si>
@@ -2906,13 +2919,244 @@
   <si>
     <t xml:space="preserve">욕설 신고 </t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP_CEO_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP_REG_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP_EMAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP_BUSS_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP_BUSS_KIND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP_PHONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP_HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP_COR_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP_FAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP_EST_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP_ADDRESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP_CEO_ENG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP_NAME_ENG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP_ADDRESS_ENG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP_IMG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TheZo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강보람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123-81-99233</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thezopjt@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-123-4567</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.thezo.co.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-123-4569</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 강남구 테헤란로 14길 6 남도빌딩 2~6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boram. Kang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TheKang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2~6F, 6, Teheran-ro 14-gil, Gangnam-gu, Seoul, Republic of Korea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATT_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATT_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATT_STR_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATT_FIN_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATT_TOTAL_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATT_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상출근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATT_BOARD_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATT_STA_CONTENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENR_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATT_BOARD_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출근시간이 잘못 입력되었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출퇴근 버튼을 깜빡했습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조정중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승인완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴근 버튼을 너무 일찍 눌렀어요 집에 빨리 가고 싶은 마음에 힁힁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출근 버튼을 진짜진짜 눌렀는데 시간이 또 잘못 입력되었어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의진행으로 인해 출근 버튼을 누르지 못했습니다. 출근시간은 08:50분입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOC_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEAVE_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEAVE_CATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEAVE_CONTENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEAVE_ENR_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEAVE_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="h:mm;@"/>
+  </numFmts>
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3011,16 +3255,44 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -3028,15 +3300,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3119,11 +3407,53 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="2"/>
+    <cellStyle name="표준 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
+    <cellStyle name="하이퍼링크 2" xfId="3" xr:uid="{842F5DA0-064B-41D6-B1BF-A74CAD0BED1F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3181,7 +3511,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3214,9 +3544,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3249,6 +3596,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3424,11 +3788,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y492"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15423,10 +15787,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G46:G86" r:id="rId3" display="user01@thezo.com"/>
-    <hyperlink ref="G4:G73" r:id="rId4" display="user01@thezo.com"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G46:G86" r:id="rId3" display="user01@thezo.com" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G4:G73" r:id="rId4" display="user01@thezo.com" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId5"/>
@@ -15434,7 +15798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15543,7 +15907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16295,7 +16659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16433,7 +16797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16511,7 +16875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17004,11 +17368,11 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18806,7 +19170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19556,7 +19920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19712,11 +20076,11 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20732,8 +21096,150 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{302622C1-669D-48A4-9D7E-5727646B2462}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="56.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>836</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>838</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>839</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>840</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>841</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>843</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>844</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>845</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>846</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>847</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>848</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>849</v>
+      </c>
+      <c r="P1" s="29" t="s">
+        <v>850</v>
+      </c>
+      <c r="Q1" s="29" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="31">
+        <v>1</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>852</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>853</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>854</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>855</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>856</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>857</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>858</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>859</v>
+      </c>
+      <c r="J2" s="35"/>
+      <c r="K2" s="37" t="s">
+        <v>860</v>
+      </c>
+      <c r="L2" s="37">
+        <v>44431</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>861</v>
+      </c>
+      <c r="N2" s="31" t="s">
+        <v>862</v>
+      </c>
+      <c r="O2" s="31" t="s">
+        <v>863</v>
+      </c>
+      <c r="P2" s="31" t="s">
+        <v>864</v>
+      </c>
+      <c r="Q2" s="31"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{EDF79047-D59D-4D59-B41A-05714CE08571}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{A65D60BB-A7F8-4AB7-A77B-926E08EC0C05}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -20746,8 +21252,556 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028D66E6-1DCC-438C-95B8-2E59F76529B1}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
+        <v>865</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>551</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>866</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>867</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>868</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>869</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31">
+        <v>1</v>
+      </c>
+      <c r="B2" s="31">
+        <v>2</v>
+      </c>
+      <c r="C2" s="38">
+        <v>44378</v>
+      </c>
+      <c r="D2" s="39">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="E2" s="39">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="F2" s="40">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="31">
+        <v>2</v>
+      </c>
+      <c r="B3" s="31">
+        <v>2</v>
+      </c>
+      <c r="C3" s="38">
+        <v>44379</v>
+      </c>
+      <c r="D3" s="39">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="E3" s="39">
+        <v>0.75</v>
+      </c>
+      <c r="F3" s="40">
+        <v>8.9</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31">
+        <v>3</v>
+      </c>
+      <c r="B4" s="31">
+        <v>2</v>
+      </c>
+      <c r="C4" s="38">
+        <v>44382</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="35" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31">
+        <v>4</v>
+      </c>
+      <c r="B5" s="31">
+        <v>2</v>
+      </c>
+      <c r="C5" s="38">
+        <v>44387</v>
+      </c>
+      <c r="D5" s="39">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="E5" s="39">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F5" s="40">
+        <v>3.6</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
+        <v>5</v>
+      </c>
+      <c r="B6" s="31">
+        <v>2</v>
+      </c>
+      <c r="C6" s="38">
+        <v>44392</v>
+      </c>
+      <c r="D6" s="39">
+        <v>0.37013888888888885</v>
+      </c>
+      <c r="E6" s="39">
+        <v>0.75277777777777777</v>
+      </c>
+      <c r="F6" s="40">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31">
+        <v>6</v>
+      </c>
+      <c r="B7" s="31">
+        <v>2</v>
+      </c>
+      <c r="C7" s="38">
+        <v>44395</v>
+      </c>
+      <c r="D7" s="39">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E7" s="39">
+        <v>0.75763888888888886</v>
+      </c>
+      <c r="F7" s="40">
+        <v>9</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31">
+        <v>7</v>
+      </c>
+      <c r="B8" s="31">
+        <v>2</v>
+      </c>
+      <c r="C8" s="38">
+        <v>44398</v>
+      </c>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="35" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
+        <v>8</v>
+      </c>
+      <c r="B9" s="31">
+        <v>2</v>
+      </c>
+      <c r="C9" s="38">
+        <v>44400</v>
+      </c>
+      <c r="D9" s="39">
+        <v>0.37013888888888885</v>
+      </c>
+      <c r="E9" s="39">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F9" s="40">
+        <v>2.6</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>874</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{028D66E6-1DCC-438C-95B8-2E59F76529B1}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B500C116-1D91-410C-BF39-A1D5D66FC1EF}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
+        <v>875</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>865</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>876</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31">
+        <v>1</v>
+      </c>
+      <c r="B2" s="31">
+        <v>2</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>879</v>
+      </c>
+      <c r="D2" s="38">
+        <v>44379</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="31">
+        <v>2</v>
+      </c>
+      <c r="B3" s="31">
+        <v>3</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>880</v>
+      </c>
+      <c r="D3" s="38">
+        <v>44382</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31">
+        <v>3</v>
+      </c>
+      <c r="B4" s="31">
+        <v>4</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>883</v>
+      </c>
+      <c r="D4" s="38">
+        <v>44387</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31">
+        <v>4</v>
+      </c>
+      <c r="B5" s="31">
+        <v>6</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>884</v>
+      </c>
+      <c r="D5" s="38">
+        <v>44395</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
+        <v>5</v>
+      </c>
+      <c r="B6" s="31">
+        <v>7</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>885</v>
+      </c>
+      <c r="D6" s="38">
+        <v>44398</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>882</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{B500C116-1D91-410C-BF39-A1D5D66FC1EF}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F604F93-5A51-47CC-91E3-26431C416026}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.25" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="15.875" customWidth="1"/>
+    <col min="8" max="8" width="18.625" customWidth="1"/>
+    <col min="9" max="9" width="14.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
+        <v>886</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>551</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>555</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>887</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>888</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>889</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>890</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31">
+        <v>1</v>
+      </c>
+      <c r="B2" s="31">
+        <v>2</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>879</v>
+      </c>
+      <c r="D2" s="38">
+        <v>44379</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>882</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>882</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>882</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>882</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="31">
+        <v>2</v>
+      </c>
+      <c r="B3" s="31">
+        <v>3</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>880</v>
+      </c>
+      <c r="D3" s="38">
+        <v>44382</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>881</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>881</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>881</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>881</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31">
+        <v>3</v>
+      </c>
+      <c r="B4" s="31">
+        <v>4</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>883</v>
+      </c>
+      <c r="D4" s="38">
+        <v>44387</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>881</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>881</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>881</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>881</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31">
+        <v>4</v>
+      </c>
+      <c r="B5" s="31">
+        <v>6</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>884</v>
+      </c>
+      <c r="D5" s="38">
+        <v>44395</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>881</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>881</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>881</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>881</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
+        <v>5</v>
+      </c>
+      <c r="B6" s="31">
+        <v>7</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>885</v>
+      </c>
+      <c r="D6" s="38">
+        <v>44398</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>882</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>882</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>882</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>882</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>882</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{B500C116-1D91-410C-BF39-A1D5D66FC1EF}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20762,7 +21816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20938,7 +21992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21124,7 +22178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21362,7 +22416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21969,7 +23023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22394,7 +23448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\finalproject-workspace\thezo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5296CB40-0C57-43F5-8392-4C2CAC4FE911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36BAD5A-10C1-4877-A094-18E738F66948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="0" windowWidth="25185" windowHeight="21600" tabRatio="728" firstSheet="13" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="135" yWindow="0" windowWidth="25185" windowHeight="21600" tabRatio="728" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="member(sample)" sheetId="2" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2695" uniqueCount="1100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="1100">
   <si>
     <t xml:space="preserve">	서울특별시송파구올림픽로 99(잠실동, 잠실엘스)</t>
   </si>
@@ -2990,10 +2990,6 @@
   </si>
   <si>
     <t>COMP_ADDRESS_ENG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COMP_IMG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3911,6 +3907,10 @@
   </si>
   <si>
     <t>미승인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHANGE_NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4563,8 +4563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y492"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -21069,10 +21069,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -21093,10 +21093,11 @@
     <col min="14" max="14" width="15.625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="56.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.625" customWidth="1"/>
+    <col min="18" max="18" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>835</v>
       </c>
@@ -21146,57 +21147,61 @@
         <v>850</v>
       </c>
       <c r="Q1" s="29" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>561</v>
+      </c>
+      <c r="R1" s="29" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31">
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
+        <v>851</v>
+      </c>
+      <c r="C2" s="32" t="s">
         <v>852</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="D2" s="31" t="s">
         <v>853</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="E2" s="33" t="s">
         <v>854</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="F2" s="34" t="s">
         <v>855</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="G2" s="35" t="s">
         <v>856</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="H2" s="35" t="s">
         <v>857</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="I2" s="36" t="s">
         <v>858</v>
-      </c>
-      <c r="I2" s="36" t="s">
-        <v>859</v>
       </c>
       <c r="J2" s="35"/>
       <c r="K2" s="37" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="L2" s="37">
         <v>44431</v>
       </c>
       <c r="M2" s="31" t="s">
+        <v>860</v>
+      </c>
+      <c r="N2" s="31" t="s">
         <v>861</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="O2" s="31" t="s">
         <v>862</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="P2" s="31" t="s">
         <v>863</v>
       </c>
-      <c r="P2" s="31" t="s">
-        <v>864</v>
-      </c>
-      <c r="Q2" s="31"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -21229,25 +21234,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>551</v>
       </c>
       <c r="C1" s="41" t="s">
+        <v>865</v>
+      </c>
+      <c r="D1" s="41" t="s">
         <v>866</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="E1" s="41" t="s">
         <v>867</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="F1" s="41" t="s">
         <v>868</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="G1" s="41" t="s">
         <v>869</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -21270,7 +21275,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -21293,7 +21298,7 @@
         <v>8.9</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -21310,7 +21315,7 @@
       <c r="E4" s="39"/>
       <c r="F4" s="40"/>
       <c r="G4" s="35" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -21333,7 +21338,7 @@
         <v>3.6</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -21356,7 +21361,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -21379,7 +21384,7 @@
         <v>9</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -21396,7 +21401,7 @@
       <c r="E8" s="39"/>
       <c r="F8" s="40"/>
       <c r="G8" s="35" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -21419,7 +21424,7 @@
         <v>2.6</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
   </sheetData>
@@ -21448,19 +21453,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
+        <v>874</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>864</v>
+      </c>
+      <c r="C1" s="41" t="s">
         <v>875</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>865</v>
-      </c>
-      <c r="C1" s="41" t="s">
+      <c r="D1" s="41" t="s">
         <v>876</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="E1" s="41" t="s">
         <v>877</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -21471,13 +21476,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D2" s="38">
         <v>44379</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -21488,13 +21493,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D3" s="38">
         <v>44382</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -21505,13 +21510,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D4" s="38">
         <v>44392</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -21522,13 +21527,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D5" s="38">
         <v>44395</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -21539,13 +21544,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D6" s="38">
         <v>44398</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
   </sheetData>
@@ -21752,9 +21757,9 @@
     <col min="9" max="9" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>551</v>
@@ -21766,19 +21771,19 @@
         <v>555</v>
       </c>
       <c r="E1" s="41" t="s">
+        <v>886</v>
+      </c>
+      <c r="F1" s="41" t="s">
         <v>887</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="G1" s="41" t="s">
         <v>888</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="H1" s="41" t="s">
         <v>889</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="I1" s="41" t="s">
         <v>890</v>
-      </c>
-      <c r="I1" s="41" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -21798,16 +21803,16 @@
         <v>3</v>
       </c>
       <c r="F2" s="46" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="G2" s="46" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H2" s="37">
         <v>44385</v>
       </c>
       <c r="I2" s="46" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -21827,16 +21832,16 @@
         <v>1</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G3" s="46" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="H3" s="37">
         <v>44391</v>
       </c>
       <c r="I3" s="46" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -21856,16 +21861,16 @@
         <v>2</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H4" s="37">
         <v>44405</v>
       </c>
       <c r="I4" s="46" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
   </sheetData>
@@ -21898,19 +21903,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
+        <v>891</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>892</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>893</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>894</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>895</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>896</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>807</v>
@@ -21924,16 +21929,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>897</v>
+      </c>
+      <c r="C2" t="s">
         <v>898</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>899</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="42" t="s">
         <v>900</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>901</v>
       </c>
       <c r="F2" s="43">
         <v>44197</v>
@@ -21947,16 +21952,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>901</v>
+      </c>
+      <c r="C3" t="s">
         <v>902</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>903</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="42" t="s">
         <v>904</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>905</v>
       </c>
       <c r="F3" s="43">
         <v>44197</v>
@@ -21970,16 +21975,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>905</v>
+      </c>
+      <c r="C4" t="s">
         <v>906</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>907</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="42" t="s">
         <v>908</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>909</v>
       </c>
       <c r="F4" s="43">
         <v>44197</v>
@@ -21993,22 +21998,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C5" t="s">
+        <v>909</v>
+      </c>
+      <c r="D5" t="s">
         <v>910</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="42" t="s">
         <v>911</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>912</v>
       </c>
       <c r="F5" s="43">
         <v>44197</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -22016,22 +22021,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C6" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D6" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E6" s="42" t="s">
         <v>1094</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>1095</v>
       </c>
       <c r="F6" s="43">
         <v>44197</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
   </sheetData>
@@ -22063,28 +22068,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B1" t="s">
         <v>557</v>
       </c>
       <c r="C1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D1" t="s">
+        <v>914</v>
+      </c>
+      <c r="E1" t="s">
         <v>915</v>
-      </c>
-      <c r="E1" t="s">
-        <v>916</v>
       </c>
       <c r="F1" t="s">
         <v>235</v>
       </c>
       <c r="G1" t="s">
+        <v>916</v>
+      </c>
+      <c r="H1" t="s">
         <v>917</v>
-      </c>
-      <c r="H1" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -22098,16 +22103,16 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>918</v>
+      </c>
+      <c r="E2" s="42" t="s">
         <v>919</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="F2" s="43" t="s">
         <v>920</v>
       </c>
-      <c r="F2" s="43" t="s">
-        <v>921</v>
-      </c>
       <c r="G2" s="42" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H2" s="43">
         <v>44197</v>
@@ -22124,16 +22129,16 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>923</v>
+      </c>
+      <c r="E3" s="42" t="s">
         <v>924</v>
       </c>
-      <c r="E3" s="42" t="s">
-        <v>925</v>
-      </c>
       <c r="F3" s="43" t="s">
+        <v>926</v>
+      </c>
+      <c r="G3" s="42" t="s">
         <v>927</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>928</v>
       </c>
       <c r="H3" s="43">
         <v>44198</v>
@@ -22150,16 +22155,16 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E4" s="42" t="s">
+        <v>928</v>
+      </c>
+      <c r="F4" s="43" t="s">
         <v>929</v>
       </c>
-      <c r="F4" s="43" t="s">
-        <v>930</v>
-      </c>
       <c r="G4" s="42" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H4" s="43">
         <v>44199</v>
@@ -22176,16 +22181,16 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E5" s="42" t="s">
+        <v>930</v>
+      </c>
+      <c r="F5" s="43" t="s">
         <v>931</v>
       </c>
-      <c r="F5" s="43" t="s">
-        <v>932</v>
-      </c>
       <c r="G5" s="42" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H5" s="43">
         <v>44200</v>
@@ -22202,16 +22207,16 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
+        <v>918</v>
+      </c>
+      <c r="E6" s="42" t="s">
         <v>919</v>
       </c>
-      <c r="E6" s="42" t="s">
-        <v>920</v>
-      </c>
       <c r="F6" s="43" t="s">
+        <v>932</v>
+      </c>
+      <c r="G6" s="42" t="s">
         <v>933</v>
-      </c>
-      <c r="G6" s="42" t="s">
-        <v>934</v>
       </c>
       <c r="H6" s="43">
         <v>44201</v>
@@ -22228,16 +22233,16 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
+        <v>923</v>
+      </c>
+      <c r="E7" s="42" t="s">
         <v>924</v>
       </c>
-      <c r="E7" s="42" t="s">
-        <v>925</v>
-      </c>
       <c r="F7" s="43" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H7" s="43">
         <v>44202</v>
@@ -22254,16 +22259,16 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H8" s="43">
         <v>44203</v>
@@ -22280,16 +22285,16 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
+        <v>936</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>930</v>
+      </c>
+      <c r="F9" s="43" t="s">
         <v>937</v>
       </c>
-      <c r="E9" s="42" t="s">
-        <v>931</v>
-      </c>
-      <c r="F9" s="43" t="s">
-        <v>938</v>
-      </c>
       <c r="G9" s="42" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H9" s="43">
         <v>44204</v>
@@ -22306,16 +22311,16 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H10" s="43">
         <v>44205</v>
@@ -22332,16 +22337,16 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
+        <v>923</v>
+      </c>
+      <c r="E11" s="42" t="s">
         <v>924</v>
       </c>
-      <c r="E11" s="42" t="s">
-        <v>925</v>
-      </c>
       <c r="F11" s="43" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H11" s="43">
         <v>44206</v>
@@ -22358,16 +22363,16 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
+        <v>940</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>928</v>
+      </c>
+      <c r="F12" s="43" t="s">
         <v>941</v>
       </c>
-      <c r="E12" s="42" t="s">
-        <v>929</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>942</v>
-      </c>
       <c r="G12" s="42" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H12" s="43">
         <v>44207</v>
@@ -22384,16 +22389,16 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H13" s="43">
         <v>44208</v>
@@ -22410,16 +22415,16 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
+        <v>943</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>919</v>
+      </c>
+      <c r="F14" s="43" t="s">
         <v>944</v>
       </c>
-      <c r="E14" s="42" t="s">
-        <v>920</v>
-      </c>
-      <c r="F14" s="43" t="s">
-        <v>945</v>
-      </c>
       <c r="G14" s="42" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H14" s="43">
         <v>44209</v>
@@ -22436,16 +22441,16 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
+        <v>923</v>
+      </c>
+      <c r="E15" s="42" t="s">
         <v>924</v>
       </c>
-      <c r="E15" s="42" t="s">
-        <v>925</v>
-      </c>
       <c r="F15" s="43" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H15" s="43">
         <v>44210</v>
@@ -22462,16 +22467,16 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F16" s="43" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H16" s="43">
         <v>44211</v>
@@ -22488,16 +22493,16 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F17" s="43" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H17" s="43">
         <v>44212</v>
@@ -22514,16 +22519,16 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E18" s="42" t="s">
         <v>1092</v>
       </c>
-      <c r="E18" s="42" t="s">
-        <v>1093</v>
-      </c>
       <c r="F18" s="43" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H18" s="43">
         <v>44212</v>
@@ -22552,31 +22557,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B1" t="s">
         <v>949</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>950</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>951</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>952</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>953</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>954</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>955</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>956</v>
-      </c>
-      <c r="I1" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -22593,16 +22598,16 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>958</v>
+      </c>
+      <c r="F2" s="44" t="s">
         <v>959</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="G2" t="s">
         <v>960</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>961</v>
-      </c>
-      <c r="H2" t="s">
-        <v>962</v>
       </c>
       <c r="I2" s="43">
         <v>44317</v>
@@ -22622,13 +22627,13 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
+        <v>962</v>
+      </c>
+      <c r="F3" s="44" t="s">
         <v>963</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="H3" t="s">
         <v>964</v>
-      </c>
-      <c r="H3" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -22645,13 +22650,13 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H4" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -22668,13 +22673,13 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
+        <v>966</v>
+      </c>
+      <c r="F5" s="44" t="s">
         <v>967</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="H5" t="s">
         <v>968</v>
-      </c>
-      <c r="H5" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -22691,13 +22696,13 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
+        <v>969</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>963</v>
+      </c>
+      <c r="H6" t="s">
         <v>970</v>
-      </c>
-      <c r="F6" s="44" t="s">
-        <v>964</v>
-      </c>
-      <c r="H6" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -22714,10 +22719,10 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
+        <v>971</v>
+      </c>
+      <c r="F7" s="44" t="s">
         <v>972</v>
-      </c>
-      <c r="F7" s="44" t="s">
-        <v>973</v>
       </c>
       <c r="H7" t="s">
         <v>529</v>
@@ -22737,13 +22742,13 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
+        <v>973</v>
+      </c>
+      <c r="F8" s="44" t="s">
         <v>974</v>
       </c>
-      <c r="F8" s="44" t="s">
-        <v>975</v>
-      </c>
       <c r="H8" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -22760,13 +22765,13 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H9" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -22783,13 +22788,13 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
+        <v>976</v>
+      </c>
+      <c r="F10" s="44" t="s">
         <v>977</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="H10" t="s">
         <v>978</v>
-      </c>
-      <c r="H10" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -22806,13 +22811,13 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F11" s="44" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H11" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -22829,13 +22834,13 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H12" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -22852,13 +22857,13 @@
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H13" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -22875,13 +22880,13 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F14" s="44" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H14" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -22898,13 +22903,13 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F15" s="44" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H15" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -22921,13 +22926,13 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
+        <v>973</v>
+      </c>
+      <c r="F16" s="44" t="s">
         <v>974</v>
       </c>
-      <c r="F16" s="44" t="s">
-        <v>975</v>
-      </c>
       <c r="H16" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -22944,13 +22949,13 @@
         <v>4</v>
       </c>
       <c r="E17" t="s">
+        <v>984</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>974</v>
+      </c>
+      <c r="H17" t="s">
         <v>985</v>
-      </c>
-      <c r="F17" s="44" t="s">
-        <v>975</v>
-      </c>
-      <c r="H17" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -22967,13 +22972,13 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F18" s="44" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H18" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -22990,13 +22995,13 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
+        <v>986</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>925</v>
+      </c>
+      <c r="H19" t="s">
         <v>987</v>
-      </c>
-      <c r="F19" s="44" t="s">
-        <v>926</v>
-      </c>
-      <c r="H19" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -23013,13 +23018,13 @@
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F20" s="44" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H20" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -23036,13 +23041,13 @@
         <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F21" s="44" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H21" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -23059,13 +23064,13 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F22" s="44" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H22" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -23082,13 +23087,13 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F23" s="44" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H23" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -23105,13 +23110,13 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F24" s="44" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H24" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -23128,13 +23133,13 @@
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F25" s="44" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H25" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -23151,13 +23156,13 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F26" s="44" t="s">
+        <v>963</v>
+      </c>
+      <c r="H26" t="s">
         <v>964</v>
-      </c>
-      <c r="H26" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -23174,13 +23179,13 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
+        <v>993</v>
+      </c>
+      <c r="F27" s="44" t="s">
         <v>994</v>
       </c>
-      <c r="F27" s="44" t="s">
-        <v>995</v>
-      </c>
       <c r="H27" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -23197,13 +23202,13 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F28" s="44" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H28" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -23220,13 +23225,13 @@
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F29" s="44" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H29" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -23243,13 +23248,13 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F30" s="44" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H30" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -23266,13 +23271,13 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F31" s="44" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H31" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -23289,13 +23294,13 @@
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F32" s="44" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H32" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -23312,13 +23317,13 @@
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F33" s="44" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H33" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -23335,13 +23340,13 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F34" s="44" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H34" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -23358,13 +23363,13 @@
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F35" s="44" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H35" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -23381,13 +23386,13 @@
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F36" s="44" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H36" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -23404,13 +23409,13 @@
         <v>4</v>
       </c>
       <c r="E37" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F37" s="44" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H37" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -23427,13 +23432,13 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F38" s="44" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H38" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -23450,13 +23455,13 @@
         <v>2</v>
       </c>
       <c r="E39" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F39" s="44" t="s">
+        <v>925</v>
+      </c>
+      <c r="H39" t="s">
         <v>1002</v>
-      </c>
-      <c r="F39" s="44" t="s">
-        <v>926</v>
-      </c>
-      <c r="H39" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -23473,13 +23478,13 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F40" s="44" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H40" t="s">
         <v>1004</v>
-      </c>
-      <c r="H40" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -23496,13 +23501,13 @@
         <v>4</v>
       </c>
       <c r="E41" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F41" s="44" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H41" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -23519,13 +23524,13 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F42" s="44" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H42" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -23542,13 +23547,13 @@
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F43" s="44" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H43" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -23565,13 +23570,13 @@
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F44" s="44" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H44" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -23588,13 +23593,13 @@
         <v>4</v>
       </c>
       <c r="E45" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F45" s="44" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H45" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -23611,13 +23616,13 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F46" s="44" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H46" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -23634,13 +23639,13 @@
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F47" s="44" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H47" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -23657,13 +23662,13 @@
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F48" s="44" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H48" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -23680,13 +23685,13 @@
         <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F49" s="44" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H49" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -23703,13 +23708,13 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F50" s="44" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H50" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -23726,13 +23731,13 @@
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F51" s="44" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H51" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -23749,13 +23754,13 @@
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F52" s="44" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H52" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -23772,13 +23777,13 @@
         <v>4</v>
       </c>
       <c r="E53" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F53" s="44" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H53" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -23795,13 +23800,13 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
+        <v>993</v>
+      </c>
+      <c r="F54" s="44" t="s">
         <v>994</v>
       </c>
-      <c r="F54" s="44" t="s">
-        <v>995</v>
-      </c>
       <c r="H54" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -23818,13 +23823,13 @@
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F55" s="44" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H55" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -23841,13 +23846,13 @@
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F56" s="44" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H56" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -23864,13 +23869,13 @@
         <v>4</v>
       </c>
       <c r="E57" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F57" s="44" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H57" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -23887,13 +23892,13 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F58" s="44" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H58" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -23910,13 +23915,13 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F59" s="44" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H59" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -23933,13 +23938,13 @@
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F60" s="44" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H60" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -23956,10 +23961,10 @@
         <v>4</v>
       </c>
       <c r="E61" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F61" s="44" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H61" t="s">
         <v>529</v>
@@ -23979,13 +23984,13 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F62" s="44" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H62" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -24002,13 +24007,13 @@
         <v>2</v>
       </c>
       <c r="E63" t="s">
+        <v>973</v>
+      </c>
+      <c r="F63" s="44" t="s">
         <v>974</v>
       </c>
-      <c r="F63" s="44" t="s">
-        <v>975</v>
-      </c>
       <c r="H63" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -24025,13 +24030,13 @@
         <v>3</v>
       </c>
       <c r="E64" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F64" s="44" t="s">
         <v>1011</v>
       </c>
-      <c r="F64" s="44" t="s">
-        <v>1012</v>
-      </c>
       <c r="H64" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -24048,13 +24053,13 @@
         <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F65" s="44" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H65" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
   </sheetData>
@@ -24091,25 +24096,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>1013</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>1014</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>1015</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>1016</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>1017</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>1018</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>1019</v>
       </c>
       <c r="H1" s="13" t="s">
         <v>235</v>
@@ -24120,19 +24125,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D2" s="45" t="s">
         <v>1022</v>
       </c>
-      <c r="D2" s="45" t="s">
-        <v>1023</v>
-      </c>
       <c r="E2" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -24140,19 +24145,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C3" t="s">
         <v>1026</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="45" t="s">
         <v>1027</v>
       </c>
-      <c r="D3" s="45" t="s">
-        <v>1028</v>
-      </c>
       <c r="E3" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -24160,19 +24165,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C4" t="s">
         <v>1029</v>
       </c>
-      <c r="C4" t="s">
-        <v>1030</v>
-      </c>
       <c r="D4" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H4" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -24180,19 +24185,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C5" t="s">
         <v>1031</v>
       </c>
-      <c r="C5" t="s">
-        <v>1032</v>
-      </c>
       <c r="D5" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -24200,19 +24205,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C6" t="s">
         <v>1033</v>
       </c>
-      <c r="C6" t="s">
-        <v>1034</v>
-      </c>
       <c r="D6" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H6" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -24220,19 +24225,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C7" t="s">
         <v>1035</v>
       </c>
-      <c r="C7" t="s">
-        <v>1036</v>
-      </c>
       <c r="D7" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H7" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -24240,19 +24245,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C8" t="s">
         <v>1037</v>
       </c>
-      <c r="C8" t="s">
-        <v>1038</v>
-      </c>
       <c r="D8" s="45" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H8" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -24260,19 +24265,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C9" t="s">
         <v>1039</v>
       </c>
-      <c r="C9" t="s">
-        <v>1040</v>
-      </c>
       <c r="D9" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H9" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -24280,19 +24285,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C10" t="s">
         <v>1041</v>
       </c>
-      <c r="C10" t="s">
-        <v>1042</v>
-      </c>
       <c r="D10" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H10" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -24300,19 +24305,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C11" t="s">
         <v>1043</v>
       </c>
-      <c r="C11" t="s">
-        <v>1044</v>
-      </c>
       <c r="D11" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E11" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H11" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -24320,19 +24325,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C12" t="s">
         <v>1045</v>
       </c>
-      <c r="C12" t="s">
-        <v>1046</v>
-      </c>
       <c r="D12" s="45" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H12" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -24340,19 +24345,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C13" t="s">
         <v>1047</v>
       </c>
-      <c r="C13" t="s">
-        <v>1048</v>
-      </c>
       <c r="D13" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H13" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -24360,19 +24365,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C14" t="s">
         <v>1049</v>
       </c>
-      <c r="C14" t="s">
-        <v>1050</v>
-      </c>
       <c r="D14" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H14" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -24380,19 +24385,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C15" t="s">
         <v>1051</v>
       </c>
-      <c r="C15" t="s">
-        <v>1052</v>
-      </c>
       <c r="D15" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H15" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -24400,16 +24405,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C16" t="s">
         <v>1053</v>
       </c>
-      <c r="C16" t="s">
-        <v>1054</v>
-      </c>
       <c r="D16" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H16" t="s">
         <v>529</v>
@@ -24420,19 +24425,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C17" t="s">
         <v>1055</v>
       </c>
-      <c r="C17" t="s">
-        <v>1056</v>
-      </c>
       <c r="D17" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E17" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H17" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -24440,19 +24445,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C18" t="s">
         <v>1057</v>
       </c>
-      <c r="C18" t="s">
-        <v>1058</v>
-      </c>
       <c r="D18" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E18" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H18" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -24460,19 +24465,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C19" t="s">
         <v>1059</v>
       </c>
-      <c r="C19" t="s">
-        <v>1060</v>
-      </c>
       <c r="D19" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E19" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H19" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -24480,19 +24485,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C20" t="s">
         <v>1061</v>
       </c>
-      <c r="C20" t="s">
-        <v>1062</v>
-      </c>
       <c r="D20" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E20" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H20" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -24500,19 +24505,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C21" t="s">
         <v>1063</v>
       </c>
-      <c r="C21" t="s">
-        <v>1064</v>
-      </c>
       <c r="D21" s="45" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E21" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H21" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -24520,19 +24525,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C22" t="s">
         <v>1065</v>
       </c>
-      <c r="C22" t="s">
-        <v>1066</v>
-      </c>
       <c r="D22" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E22" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H22" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -24540,19 +24545,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C23" t="s">
         <v>1067</v>
       </c>
-      <c r="C23" t="s">
-        <v>1068</v>
-      </c>
       <c r="D23" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E23" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H23" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -24560,19 +24565,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C24" t="s">
         <v>1069</v>
       </c>
-      <c r="C24" t="s">
-        <v>1070</v>
-      </c>
       <c r="D24" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E24" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H24" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -24580,19 +24585,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C25" t="s">
         <v>1071</v>
       </c>
-      <c r="C25" t="s">
-        <v>1072</v>
-      </c>
       <c r="D25" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E25" s="45" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H25" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -24600,19 +24605,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C26" t="s">
         <v>1073</v>
       </c>
-      <c r="C26" t="s">
-        <v>1074</v>
-      </c>
       <c r="D26" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E26" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H26" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -24620,19 +24625,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C27" t="s">
         <v>1075</v>
       </c>
-      <c r="C27" t="s">
-        <v>1076</v>
-      </c>
       <c r="D27" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E27" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H27" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -24640,19 +24645,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C28" t="s">
         <v>1077</v>
       </c>
-      <c r="C28" t="s">
-        <v>1078</v>
-      </c>
       <c r="D28" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E28" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H28" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
   </sheetData>
@@ -24729,13 +24734,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B1" t="s">
         <v>1079</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1080</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -25302,34 +25307,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>557</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>1014</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>1015</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>1016</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>1017</v>
-      </c>
       <c r="G1" s="13" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="H1" s="13" t="s">
         <v>235</v>
       </c>
       <c r="I1" s="13" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J1" s="13" t="s">
         <v>1084</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -25340,28 +25345,28 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D2" t="s">
         <v>1020</v>
       </c>
-      <c r="D2" t="s">
-        <v>1021</v>
-      </c>
       <c r="E2" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H2" t="s">
+        <v>961</v>
+      </c>
+      <c r="I2" t="s">
+        <v>961</v>
+      </c>
+      <c r="J2" t="s">
         <v>1086</v>
-      </c>
-      <c r="H2" t="s">
-        <v>962</v>
-      </c>
-      <c r="I2" t="s">
-        <v>962</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -25372,28 +25377,28 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D3" t="s">
         <v>1026</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="45" t="s">
         <v>1027</v>
       </c>
-      <c r="E3" s="45" t="s">
-        <v>1028</v>
-      </c>
       <c r="F3" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J3" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -25404,28 +25409,28 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D4" t="s">
         <v>1029</v>
       </c>
-      <c r="D4" t="s">
-        <v>1030</v>
-      </c>
       <c r="E4" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H4" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I4" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -25436,28 +25441,28 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D5" t="s">
         <v>1031</v>
       </c>
-      <c r="D5" t="s">
-        <v>1032</v>
-      </c>
       <c r="E5" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J5" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -25468,28 +25473,28 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D6" t="s">
         <v>1033</v>
       </c>
-      <c r="D6" t="s">
-        <v>1034</v>
-      </c>
       <c r="E6" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G6" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H6" t="s">
         <v>529</v>
       </c>
       <c r="I6" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J6" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -25500,28 +25505,28 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D7" t="s">
         <v>1035</v>
       </c>
-      <c r="D7" t="s">
-        <v>1036</v>
-      </c>
       <c r="E7" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G7" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H7" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I7" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J7" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -25532,28 +25537,28 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D8" t="s">
         <v>1037</v>
       </c>
-      <c r="D8" t="s">
-        <v>1038</v>
-      </c>
       <c r="E8" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G8" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H8" t="s">
         <v>529</v>
       </c>
       <c r="I8" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J8" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -25564,28 +25569,28 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D9" t="s">
         <v>1039</v>
       </c>
-      <c r="D9" t="s">
-        <v>1040</v>
-      </c>
       <c r="E9" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G9" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H9" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I9" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J9" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -25596,28 +25601,28 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D10" t="s">
         <v>1041</v>
       </c>
-      <c r="D10" t="s">
-        <v>1042</v>
-      </c>
       <c r="E10" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="G10" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H10" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I10" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J10" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -25628,28 +25633,28 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D11" t="s">
         <v>1043</v>
       </c>
-      <c r="D11" t="s">
-        <v>1044</v>
-      </c>
       <c r="E11" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G11" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H11" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I11" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J11" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -25660,28 +25665,28 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D12" t="s">
         <v>1045</v>
       </c>
-      <c r="D12" t="s">
-        <v>1046</v>
-      </c>
       <c r="E12" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G12" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H12" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I12" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J12" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -25692,28 +25697,28 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D13" t="s">
         <v>1047</v>
       </c>
-      <c r="D13" t="s">
-        <v>1048</v>
-      </c>
       <c r="E13" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G13" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H13" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I13" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J13" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -25724,28 +25729,28 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D14" t="s">
         <v>1049</v>
       </c>
-      <c r="D14" t="s">
-        <v>1050</v>
-      </c>
       <c r="E14" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G14" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H14" t="s">
         <v>529</v>
       </c>
       <c r="I14" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J14" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -25756,28 +25761,28 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D15" t="s">
         <v>1051</v>
       </c>
-      <c r="D15" t="s">
-        <v>1052</v>
-      </c>
       <c r="E15" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G15" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H15" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I15" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J15" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -25788,28 +25793,28 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D16" t="s">
         <v>1053</v>
       </c>
-      <c r="D16" t="s">
-        <v>1054</v>
-      </c>
       <c r="E16" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G16" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H16" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I16" t="s">
         <v>529</v>
       </c>
       <c r="J16" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -25820,28 +25825,28 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D17" t="s">
         <v>1055</v>
       </c>
-      <c r="D17" t="s">
-        <v>1056</v>
-      </c>
       <c r="E17" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G17" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H17" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I17" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J17" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -25852,28 +25857,28 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D18" t="s">
         <v>1057</v>
       </c>
-      <c r="D18" t="s">
-        <v>1058</v>
-      </c>
       <c r="E18" s="45" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G18" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H18" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I18" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J18" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -25884,28 +25889,28 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D19" t="s">
         <v>1059</v>
       </c>
-      <c r="D19" t="s">
-        <v>1060</v>
-      </c>
       <c r="E19" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G19" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H19" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I19" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J19" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -25916,28 +25921,28 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D20" t="s">
         <v>1061</v>
       </c>
-      <c r="D20" t="s">
-        <v>1062</v>
-      </c>
       <c r="E20" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G20" t="s">
         <v>528</v>
       </c>
       <c r="H20" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I20" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J20" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -25948,28 +25953,28 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D21" t="s">
         <v>1063</v>
       </c>
-      <c r="D21" t="s">
-        <v>1064</v>
-      </c>
       <c r="E21" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F21" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G21" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H21" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I21" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J21" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -25980,28 +25985,28 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D22" t="s">
         <v>1065</v>
       </c>
-      <c r="D22" t="s">
-        <v>1066</v>
-      </c>
       <c r="E22" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G22" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H22" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I22" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J22" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -26012,28 +26017,28 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D23" t="s">
         <v>1067</v>
       </c>
-      <c r="D23" t="s">
-        <v>1068</v>
-      </c>
       <c r="E23" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F23" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G23" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H23" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I23" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J23" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -26044,28 +26049,28 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D24" t="s">
         <v>1069</v>
       </c>
-      <c r="D24" t="s">
-        <v>1070</v>
-      </c>
       <c r="E24" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F24" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G24" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H24" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I24" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J24" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -26076,28 +26081,28 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D25" t="s">
         <v>1071</v>
       </c>
-      <c r="D25" t="s">
-        <v>1072</v>
-      </c>
       <c r="E25" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G25" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H25" t="s">
         <v>529</v>
       </c>
       <c r="I25" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J25" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -26108,28 +26113,28 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D26" t="s">
         <v>1073</v>
       </c>
-      <c r="D26" t="s">
-        <v>1074</v>
-      </c>
       <c r="E26" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F26" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G26" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H26" t="s">
+        <v>961</v>
+      </c>
+      <c r="I26" t="s">
+        <v>961</v>
+      </c>
+      <c r="J26" t="s">
         <v>1086</v>
-      </c>
-      <c r="H26" t="s">
-        <v>962</v>
-      </c>
-      <c r="I26" t="s">
-        <v>962</v>
-      </c>
-      <c r="J26" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -26140,28 +26145,28 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D27" t="s">
         <v>1075</v>
       </c>
-      <c r="D27" t="s">
-        <v>1076</v>
-      </c>
       <c r="E27" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F27" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G27" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H27" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I27" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J27" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -26172,28 +26177,28 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D28" t="s">
         <v>1077</v>
       </c>
-      <c r="D28" t="s">
-        <v>1078</v>
-      </c>
       <c r="E28" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F28" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G28" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H28" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I28" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J28" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
   </sheetData>

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\finalproject-workspace\thezo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36BAD5A-10C1-4877-A094-18E738F66948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B53CA5-9AA0-4601-981A-B4002636ECC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="0" windowWidth="25185" windowHeight="21600" tabRatio="728" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="135" yWindow="0" windowWidth="25185" windowHeight="21600" tabRatio="919" firstSheet="10" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="member(sample)" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">appr_accept!$A$1:$I$65</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">JaeWook_ATT_BOARD!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">JaeWook_ATTENDANCE!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">JaeWook_LEAVE!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">JaeWook_LEAVE!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'member(sample)'!$A$1:$Q$491</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">REFERENCE!$A$1:$C$49</definedName>
     <definedName name="Apart" localSheetId="20">#REF!</definedName>
@@ -4563,7 +4563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
@@ -21740,8 +21740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -21874,7 +21874,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{00000000-0009-0000-0000-000013000000}"/>
+  <autoFilter ref="A1:I1" xr:uid="{00000000-0001-0000-1300-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\finalProject\thezo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0862E2-B986-49F6-9E1C-C7951643836D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B482282-7A1C-480B-BAC3-FCF8A2A28C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6372" yWindow="900" windowWidth="16584" windowHeight="11004" tabRatio="919" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2364" yWindow="564" windowWidth="16584" windowHeight="11004" tabRatio="919" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="member(sample)" sheetId="2" r:id="rId1"/>
@@ -24,8 +24,8 @@
     <sheet name="Jaewon_message" sheetId="12" r:id="rId9"/>
     <sheet name="Jaewon_msg_report" sheetId="13" r:id="rId10"/>
     <sheet name="Jaewon_admin_log" sheetId="14" r:id="rId11"/>
-    <sheet name="Sunyoung_document" sheetId="15" r:id="rId12"/>
-    <sheet name="Sunyoung_schedule" sheetId="30" r:id="rId13"/>
+    <sheet name="Sunyoung_schedule" sheetId="15" r:id="rId12"/>
+    <sheet name="Sunyoung_document" sheetId="30" r:id="rId13"/>
     <sheet name="Sunyoung_bizReport" sheetId="31" r:id="rId14"/>
     <sheet name="Sunyoung_note" sheetId="32" r:id="rId15"/>
     <sheet name="SK_board" sheetId="16" r:id="rId16"/>
@@ -17215,8 +17215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -17602,7 +17602,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="A1:H21"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -18188,7 +18188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90769CBB-AB76-41F0-97EE-DFCA6C8D4FBC}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="560" windowWidth="16580" windowHeight="11000" tabRatio="919" activeTab="1"/>
+    <workbookView xWindow="2360" yWindow="560" windowWidth="16580" windowHeight="11000" tabRatio="919" firstSheet="16" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="member(sample)" sheetId="2" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2896" uniqueCount="1200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2895" uniqueCount="1200">
   <si>
     <t xml:space="preserve">	서울특별시송파구올림픽로 99(잠실동, 잠실엘스)</t>
   </si>
@@ -18173,8 +18173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -22564,8 +22564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -23458,8 +23458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -23602,9 +23602,7 @@
       <c r="D6" t="s">
         <v>1071</v>
       </c>
-      <c r="E6" s="42" t="s">
-        <v>1072</v>
-      </c>
+      <c r="E6" s="42"/>
       <c r="F6" s="43">
         <v>44197</v>
       </c>

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -2937,10 +2937,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>COMMENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>READ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4305,6 +4301,10 @@
   <si>
     <t>A</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>appr_memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4993,37 +4993,37 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1113</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>1114</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>1115</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>1116</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>1117</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>1118</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>1119</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>1120</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>1121</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>1122</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>1123</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>211</v>
@@ -5032,19 +5032,19 @@
         <v>212</v>
       </c>
       <c r="N1" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>1124</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>1125</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>1126</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>1127</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>1128</v>
       </c>
       <c r="S1" s="4" t="s">
         <v>214</v>
@@ -5056,7 +5056,7 @@
         <v>216</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="W1" s="4" t="s">
         <v>217</v>
@@ -5073,22 +5073,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>1130</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>1211</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>1131</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>1132</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>141</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="H2" s="8">
         <v>33093</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>1134</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>1135</v>
       </c>
       <c r="O2" s="4">
         <v>244</v>
@@ -5130,7 +5130,7 @@
         <v>223</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.45">
@@ -5138,22 +5138,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>1137</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>1211</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>1138</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>1139</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>142</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H3" s="8">
         <v>36161</v>
@@ -5168,13 +5168,13 @@
         <v>1</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="O3" s="4">
         <v>200</v>
@@ -5193,10 +5193,10 @@
         <v>19</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y3" s="4" t="s">
         <v>223</v>
@@ -5210,7 +5210,7 @@
         <v>226</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>112</v>
@@ -5228,7 +5228,7 @@
         <v>25934</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>26</v>
@@ -5237,10 +5237,10 @@
         <v>2</v>
       </c>
       <c r="L4" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>1143</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>1144</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>229</v>
@@ -5262,10 +5262,10 @@
         <v>22</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="Y4" s="4" t="s">
         <v>223</v>
@@ -5279,13 +5279,13 @@
         <v>230</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>144</v>
@@ -5306,10 +5306,10 @@
         <v>3</v>
       </c>
       <c r="L5" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>1198</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>1199</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>234</v>
@@ -5334,7 +5334,7 @@
         <v>223</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="Y5" s="4" t="s">
         <v>223</v>
@@ -5348,13 +5348,13 @@
         <v>235</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>236</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>145</v>
@@ -5366,7 +5366,7 @@
         <v>30804</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>0</v>
@@ -5378,7 +5378,7 @@
         <v>268</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="O6" s="4">
         <v>203</v>
@@ -5400,10 +5400,10 @@
         <v>223</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.45">
@@ -5414,13 +5414,13 @@
         <v>240</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>146</v>
@@ -5432,7 +5432,7 @@
         <v>33919</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>29</v>
@@ -5441,7 +5441,7 @@
         <v>3</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>222</v>
@@ -5463,13 +5463,13 @@
         <v>15</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="X7" s="4" t="s">
         <v>239</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.45">
@@ -5480,7 +5480,7 @@
         <v>242</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>107</v>
@@ -5498,7 +5498,7 @@
         <v>34963</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>18</v>
@@ -5507,7 +5507,7 @@
         <v>3</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="N8" s="4" t="s">
         <v>244</v>
@@ -5529,10 +5529,10 @@
         <v>12</v>
       </c>
       <c r="W8" s="4" t="s">
+        <v>1206</v>
+      </c>
+      <c r="X8" s="4" t="s">
         <v>1207</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>1208</v>
       </c>
       <c r="Y8" s="4" t="s">
         <v>223</v>
@@ -5546,7 +5546,7 @@
         <v>245</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>134</v>
@@ -5579,7 +5579,7 @@
         <v>233</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="O9" s="4">
         <v>207</v>
@@ -5603,7 +5603,7 @@
         <v>223</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.45">
@@ -5614,13 +5614,13 @@
         <v>249</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>135</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>149</v>
@@ -5632,7 +5632,7 @@
         <v>32312</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>7</v>
@@ -5662,13 +5662,13 @@
         <v>15</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.45">
@@ -5679,13 +5679,13 @@
         <v>251</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>150</v>
@@ -5697,7 +5697,7 @@
         <v>34315</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>6</v>
@@ -5706,7 +5706,7 @@
         <v>4</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>222</v>
@@ -5730,10 +5730,10 @@
         <v>223</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.45">
@@ -5744,7 +5744,7 @@
         <v>253</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>101</v>
@@ -5762,7 +5762,7 @@
         <v>35329</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>14</v>
@@ -5792,10 +5792,10 @@
         <v>15</v>
       </c>
       <c r="W12" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="Y12" s="4" t="s">
         <v>223</v>
@@ -5809,13 +5809,13 @@
         <v>255</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>79</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>152</v>
@@ -5842,7 +5842,7 @@
         <v>233</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="O13" s="4">
         <v>212</v>
@@ -5863,10 +5863,10 @@
         <v>223</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y13" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.45">
@@ -5877,7 +5877,7 @@
         <v>259</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>137</v>
@@ -5895,7 +5895,7 @@
         <v>31169</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>36</v>
@@ -5907,7 +5907,7 @@
         <v>258</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="O14" s="4">
         <v>213</v>
@@ -5925,13 +5925,13 @@
         <v>15</v>
       </c>
       <c r="W14" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="X14" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="Y14" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.45">
@@ -5942,7 +5942,7 @@
         <v>261</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>119</v>
@@ -5990,10 +5990,10 @@
         <v>15</v>
       </c>
       <c r="W15" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="Y15" s="4" t="s">
         <v>223</v>
@@ -6007,13 +6007,13 @@
         <v>264</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>155</v>
@@ -6025,7 +6025,7 @@
         <v>35842</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>30</v>
@@ -6037,7 +6037,7 @@
         <v>258</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="O16" s="4">
         <v>215</v>
@@ -6055,13 +6055,13 @@
         <v>15</v>
       </c>
       <c r="W16" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="X16" s="4" t="s">
         <v>239</v>
       </c>
       <c r="Y16" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.45">
@@ -6072,7 +6072,7 @@
         <v>266</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>138</v>
@@ -6090,7 +6090,7 @@
         <v>25934</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>55</v>
@@ -6099,13 +6099,13 @@
         <v>6</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>228</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="O17" s="4">
         <v>216</v>
@@ -6126,7 +6126,7 @@
         <v>223</v>
       </c>
       <c r="X17" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y17" s="4" t="s">
         <v>223</v>
@@ -6140,7 +6140,7 @@
         <v>269</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>115</v>
@@ -6170,10 +6170,10 @@
         <v>272</v>
       </c>
       <c r="M18" s="4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="N18" s="4" t="s">
         <v>1146</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>1147</v>
       </c>
       <c r="O18" s="4">
         <v>217</v>
@@ -6191,10 +6191,10 @@
         <v>15</v>
       </c>
       <c r="W18" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="X18" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y18" s="4" t="s">
         <v>223</v>
@@ -6208,7 +6208,7 @@
         <v>273</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>82</v>
@@ -6226,7 +6226,7 @@
         <v>32799</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>68</v>
@@ -6238,7 +6238,7 @@
         <v>272</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="O19" s="4">
         <v>218</v>
@@ -6256,13 +6256,13 @@
         <v>15</v>
       </c>
       <c r="W19" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="X19" s="4" t="s">
         <v>239</v>
       </c>
       <c r="Y19" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.45">
@@ -6273,13 +6273,13 @@
         <v>275</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>159</v>
@@ -6291,7 +6291,7 @@
         <v>33584</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>53</v>
@@ -6300,7 +6300,7 @@
         <v>7</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="N20" s="4" t="s">
         <v>222</v>
@@ -6324,10 +6324,10 @@
         <v>223</v>
       </c>
       <c r="X20" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="Y20" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.45">
@@ -6338,13 +6338,13 @@
         <v>277</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>75</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>160</v>
@@ -6386,13 +6386,13 @@
         <v>15</v>
       </c>
       <c r="W21" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="X21" s="4" t="s">
         <v>239</v>
       </c>
       <c r="Y21" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.45">
@@ -6403,13 +6403,13 @@
         <v>280</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>126</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>161</v>
@@ -6421,7 +6421,7 @@
         <v>29214</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>60</v>
@@ -6430,7 +6430,7 @@
         <v>8</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>233</v>
@@ -6454,13 +6454,13 @@
         <v>15</v>
       </c>
       <c r="W22" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="X22" s="4" t="s">
         <v>223</v>
       </c>
       <c r="Y22" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.45">
@@ -6471,13 +6471,13 @@
         <v>283</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>162</v>
@@ -6501,7 +6501,7 @@
         <v>282</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="O23" s="4">
         <v>223</v>
@@ -6519,7 +6519,7 @@
         <v>15</v>
       </c>
       <c r="W23" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="X23" s="4" t="s">
         <v>239</v>
@@ -6536,7 +6536,7 @@
         <v>286</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>72</v>
@@ -6563,10 +6563,10 @@
         <v>8</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="O24" s="4">
         <v>224</v>
@@ -6590,7 +6590,7 @@
         <v>239</v>
       </c>
       <c r="Y24" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.45">
@@ -6601,7 +6601,7 @@
         <v>289</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>84</v>
@@ -6628,7 +6628,7 @@
         <v>8</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="N25" s="4" t="s">
         <v>244</v>
@@ -6649,13 +6649,13 @@
         <v>15</v>
       </c>
       <c r="W25" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="X25" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="Y25" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.45">
@@ -6666,13 +6666,13 @@
         <v>292</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>131</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>165</v>
@@ -6693,10 +6693,10 @@
         <v>9</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="N26" s="4" t="s">
         <v>234</v>
@@ -6717,7 +6717,7 @@
         <v>15</v>
       </c>
       <c r="W26" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="X26" s="4" t="s">
         <v>223</v>
@@ -6734,7 +6734,7 @@
         <v>296</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>132</v>
@@ -6752,7 +6752,7 @@
         <v>32476</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>41</v>
@@ -6782,10 +6782,10 @@
         <v>15</v>
       </c>
       <c r="W27" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="X27" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="Y27" s="4" t="s">
         <v>223</v>
@@ -6799,13 +6799,13 @@
         <v>298</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>167</v>
@@ -6829,7 +6829,7 @@
         <v>295</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="O28" s="4">
         <v>229</v>
@@ -6850,10 +6850,10 @@
         <v>223</v>
       </c>
       <c r="X28" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="Y28" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.45">
@@ -6864,13 +6864,13 @@
         <v>301</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>168</v>
@@ -6882,7 +6882,7 @@
         <v>34628</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>39</v>
@@ -6891,7 +6891,7 @@
         <v>9</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="N29" s="4" t="s">
         <v>244</v>
@@ -6915,10 +6915,10 @@
         <v>223</v>
       </c>
       <c r="X29" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="Y29" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.45">
@@ -6929,13 +6929,13 @@
         <v>303</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>169</v>
@@ -6956,13 +6956,13 @@
         <v>10</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="M30" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="N30" s="4" t="s">
         <v>1144</v>
-      </c>
-      <c r="N30" s="4" t="s">
-        <v>1145</v>
       </c>
       <c r="O30" s="4">
         <v>231</v>
@@ -6980,7 +6980,7 @@
         <v>15</v>
       </c>
       <c r="W30" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="X30" s="4" t="s">
         <v>223</v>
@@ -6997,7 +6997,7 @@
         <v>306</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>76</v>
@@ -7015,7 +7015,7 @@
         <v>28452</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>28</v>
@@ -7024,13 +7024,13 @@
         <v>11</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>233</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="O31" s="4">
         <v>232</v>
@@ -7051,7 +7051,7 @@
         <v>223</v>
       </c>
       <c r="X31" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y31" s="4" t="s">
         <v>223</v>
@@ -7065,13 +7065,13 @@
         <v>309</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>171</v>
@@ -7092,7 +7092,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="N32" s="4" t="s">
         <v>238</v>
@@ -7130,13 +7130,13 @@
         <v>312</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>172</v>
@@ -7148,7 +7148,7 @@
         <v>34723</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>42</v>
@@ -7160,7 +7160,7 @@
         <v>308</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="O33" s="4">
         <v>234</v>
@@ -7184,7 +7184,7 @@
         <v>239</v>
       </c>
       <c r="Y33" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.45">
@@ -7195,7 +7195,7 @@
         <v>314</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>91</v>
@@ -7249,7 +7249,7 @@
         <v>239</v>
       </c>
       <c r="Y34" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.45">
@@ -7260,7 +7260,7 @@
         <v>317</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>128</v>
@@ -7287,13 +7287,13 @@
         <v>12</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>233</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="O35" s="4">
         <v>236</v>
@@ -7311,13 +7311,13 @@
         <v>15</v>
       </c>
       <c r="W35" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="X35" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y35" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.45">
@@ -7328,7 +7328,7 @@
         <v>321</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>133</v>
@@ -7346,7 +7346,7 @@
         <v>30904</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>47</v>
@@ -7355,7 +7355,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="N36" s="4" t="s">
         <v>238</v>
@@ -7376,7 +7376,7 @@
         <v>15</v>
       </c>
       <c r="W36" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="X36" s="4" t="s">
         <v>239</v>
@@ -7393,7 +7393,7 @@
         <v>323</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>96</v>
@@ -7411,7 +7411,7 @@
         <v>33745</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>11</v>
@@ -7441,10 +7441,10 @@
         <v>15</v>
       </c>
       <c r="W37" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="X37" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="Y37" s="4" t="s">
         <v>223</v>
@@ -7458,13 +7458,13 @@
         <v>325</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>116</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>177</v>
@@ -7488,7 +7488,7 @@
         <v>320</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="O38" s="4">
         <v>239</v>
@@ -7509,10 +7509,10 @@
         <v>223</v>
       </c>
       <c r="X38" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="Y38" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.45">
@@ -7523,13 +7523,13 @@
         <v>328</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>87</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>178</v>
@@ -7541,7 +7541,7 @@
         <v>31923</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>62</v>
@@ -7550,7 +7550,7 @@
         <v>13</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>233</v>
@@ -7574,10 +7574,10 @@
         <v>15</v>
       </c>
       <c r="W39" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y39" s="4" t="s">
         <v>223</v>
@@ -7591,7 +7591,7 @@
         <v>331</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>97</v>
@@ -7609,7 +7609,7 @@
         <v>30804</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>59</v>
@@ -7618,10 +7618,10 @@
         <v>13</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="O40" s="4">
         <v>241</v>
@@ -7639,7 +7639,7 @@
         <v>15</v>
       </c>
       <c r="W40" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="X40" s="4" t="s">
         <v>223</v>
@@ -7656,7 +7656,7 @@
         <v>333</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>78</v>
@@ -7674,7 +7674,7 @@
         <v>34830</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>44</v>
@@ -7683,7 +7683,7 @@
         <v>13</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="N41" s="4" t="s">
         <v>222</v>
@@ -7704,13 +7704,13 @@
         <v>15</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="X41" s="4" t="s">
         <v>239</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.45">
@@ -7721,13 +7721,13 @@
         <v>335</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>136</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>181</v>
@@ -7739,7 +7739,7 @@
         <v>34963</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>46</v>
@@ -7751,7 +7751,7 @@
         <v>330</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="O42" s="4">
         <v>243</v>
@@ -7786,7 +7786,7 @@
         <v>337</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>81</v>
@@ -7804,7 +7804,7 @@
         <v>35773</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>22</v>
@@ -7813,7 +7813,7 @@
         <v>3</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="N43" s="4" t="s">
         <v>244</v>
@@ -7834,7 +7834,7 @@
         <v>15</v>
       </c>
       <c r="W43" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="X43" s="4" t="s">
         <v>239</v>
@@ -7851,7 +7851,7 @@
         <v>339</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>130</v>
@@ -7916,13 +7916,13 @@
         <v>342</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>184</v>
@@ -7934,7 +7934,7 @@
         <v>32177</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>33</v>
@@ -7943,7 +7943,7 @@
         <v>3</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="N45" s="4" t="s">
         <v>222</v>
@@ -7964,7 +7964,7 @@
         <v>15</v>
       </c>
       <c r="W45" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="X45" s="4" t="s">
         <v>239</v>
@@ -7981,13 +7981,13 @@
         <v>344</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>183</v>
@@ -8011,7 +8011,7 @@
         <v>221</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="P46" s="8">
         <v>43761</v>
@@ -8046,7 +8046,7 @@
         <v>347</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>117</v>
@@ -8064,7 +8064,7 @@
         <v>36161</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>52</v>
@@ -8073,10 +8073,10 @@
         <v>4</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="P47" s="8">
         <v>44197</v>
@@ -8094,7 +8094,7 @@
         <v>15</v>
       </c>
       <c r="W47" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="X47" s="4" t="s">
         <v>239</v>
@@ -8111,7 +8111,7 @@
         <v>349</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>139</v>
@@ -8138,10 +8138,10 @@
         <v>4</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="P48" s="8">
         <v>40634</v>
@@ -8165,7 +8165,7 @@
         <v>239</v>
       </c>
       <c r="Y48" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.45">
@@ -8176,7 +8176,7 @@
         <v>352</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>89</v>
@@ -8194,7 +8194,7 @@
         <v>28159</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
@@ -8203,7 +8203,7 @@
         <v>4</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="N49" s="4" t="s">
         <v>244</v>
@@ -8224,10 +8224,10 @@
         <v>15</v>
       </c>
       <c r="W49" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="X49" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="Y49" s="4" t="s">
         <v>239</v>
@@ -8241,13 +8241,13 @@
         <v>354</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>187</v>
@@ -8268,13 +8268,13 @@
         <v>4</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>233</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="P50" s="8">
         <v>40950</v>
@@ -8295,7 +8295,7 @@
         <v>223</v>
       </c>
       <c r="X50" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="Y50" s="4" t="s">
         <v>239</v>
@@ -8309,7 +8309,7 @@
         <v>357</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>110</v>
@@ -8327,7 +8327,7 @@
         <v>33919</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>69</v>
@@ -8336,10 +8336,10 @@
         <v>5</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="P51" s="8">
         <v>43761</v>
@@ -8357,13 +8357,13 @@
         <v>15</v>
       </c>
       <c r="W51" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="X51" s="4" t="s">
         <v>239</v>
       </c>
       <c r="Y51" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.45">
@@ -8374,13 +8374,13 @@
         <v>359</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>189</v>
@@ -8401,10 +8401,10 @@
         <v>5</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="P52" s="8">
         <v>44197</v>
@@ -8425,7 +8425,7 @@
         <v>223</v>
       </c>
       <c r="X52" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="Y52" s="4" t="s">
         <v>239</v>
@@ -8439,13 +8439,13 @@
         <v>362</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>190</v>
@@ -8457,7 +8457,7 @@
         <v>27737</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="J53" s="3" t="s">
         <v>10</v>
@@ -8487,10 +8487,10 @@
         <v>15</v>
       </c>
       <c r="W53" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="X53" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="Y53" s="4" t="s">
         <v>239</v>
@@ -8504,7 +8504,7 @@
         <v>364</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>129</v>
@@ -8534,7 +8534,7 @@
         <v>258</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="N54" s="4" t="s">
         <v>234</v>
@@ -8555,13 +8555,13 @@
         <v>15</v>
       </c>
       <c r="W54" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="X54" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="Y54" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.45">
@@ -8572,13 +8572,13 @@
         <v>367</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>192</v>
@@ -8602,7 +8602,7 @@
         <v>272</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="P55" s="8">
         <v>43396</v>
@@ -8620,13 +8620,13 @@
         <v>15</v>
       </c>
       <c r="W55" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="X55" s="4" t="s">
         <v>239</v>
       </c>
       <c r="Y55" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.45">
@@ -8637,7 +8637,7 @@
         <v>370</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>140</v>
@@ -8655,7 +8655,7 @@
         <v>35329</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>24</v>
@@ -8664,7 +8664,7 @@
         <v>7</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="N56" s="4" t="s">
         <v>222</v>
@@ -8685,10 +8685,10 @@
         <v>15</v>
       </c>
       <c r="W56" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="X56" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="Y56" s="4" t="s">
         <v>239</v>
@@ -8702,7 +8702,7 @@
         <v>372</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>120</v>
@@ -8720,7 +8720,7 @@
         <v>29223</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>45</v>
@@ -8732,7 +8732,7 @@
         <v>272</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="P57" s="8">
         <v>40675</v>
@@ -8767,13 +8767,13 @@
         <v>374</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>195</v>
@@ -8785,7 +8785,7 @@
         <v>31169</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>56</v>
@@ -8794,7 +8794,7 @@
         <v>7</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="N58" s="4" t="s">
         <v>244</v>
@@ -8815,13 +8815,13 @@
         <v>15</v>
       </c>
       <c r="W58" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="X58" s="4" t="s">
         <v>239</v>
       </c>
       <c r="Y58" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.45">
@@ -8832,13 +8832,13 @@
         <v>376</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>114</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>196</v>
@@ -8850,7 +8850,7 @@
         <v>35012</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>37</v>
@@ -8862,7 +8862,7 @@
         <v>282</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="P59" s="8">
         <v>43761</v>
@@ -8883,10 +8883,10 @@
         <v>223</v>
       </c>
       <c r="X59" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="Y59" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.45">
@@ -8897,7 +8897,7 @@
         <v>378</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>125</v>
@@ -8924,10 +8924,10 @@
         <v>8</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="P60" s="8">
         <v>44197</v>
@@ -8948,7 +8948,7 @@
         <v>223</v>
       </c>
       <c r="X60" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="Y60" s="4" t="s">
         <v>239</v>
@@ -8962,7 +8962,7 @@
         <v>381</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>113</v>
@@ -8980,7 +8980,7 @@
         <v>25934</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="J61" s="3" t="s">
         <v>50</v>
@@ -8992,7 +8992,7 @@
         <v>282</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="P61" s="8">
         <v>40634</v>
@@ -9010,13 +9010,13 @@
         <v>15</v>
       </c>
       <c r="W61" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="X61" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="Y61" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.45">
@@ -9027,7 +9027,7 @@
         <v>383</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>102</v>
@@ -9054,7 +9054,7 @@
         <v>8</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="N62" s="4" t="s">
         <v>244</v>
@@ -9075,13 +9075,13 @@
         <v>15</v>
       </c>
       <c r="W62" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="X62" s="4" t="s">
         <v>239</v>
       </c>
       <c r="Y62" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.45">
@@ -9092,7 +9092,7 @@
         <v>386</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>124</v>
@@ -9110,7 +9110,7 @@
         <v>32799</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>61</v>
@@ -9119,7 +9119,7 @@
         <v>9</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="N63" s="4" t="s">
         <v>238</v>
@@ -9143,7 +9143,7 @@
         <v>223</v>
       </c>
       <c r="X63" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="Y63" s="4" t="s">
         <v>239</v>
@@ -9157,13 +9157,13 @@
         <v>388</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>201</v>
@@ -9187,7 +9187,7 @@
         <v>295</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="P64" s="8">
         <v>43761</v>
@@ -9222,7 +9222,7 @@
         <v>391</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>108</v>
@@ -9240,7 +9240,7 @@
         <v>34917</v>
       </c>
       <c r="I65" s="12" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="J65" s="3" t="s">
         <v>40</v>
@@ -9252,7 +9252,7 @@
         <v>295</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="P65" s="8">
         <v>44197</v>
@@ -9273,7 +9273,7 @@
         <v>223</v>
       </c>
       <c r="X65" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="Y65" s="4" t="s">
         <v>239</v>
@@ -9287,7 +9287,7 @@
         <v>393</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>99</v>
@@ -9314,10 +9314,10 @@
         <v>9</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="P66" s="8">
         <v>44116</v>
@@ -9341,7 +9341,7 @@
         <v>239</v>
       </c>
       <c r="Y66" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.45">
@@ -9352,7 +9352,7 @@
         <v>396</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>73</v>
@@ -9370,7 +9370,7 @@
         <v>30743</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="J67" s="3" t="s">
         <v>12</v>
@@ -9379,7 +9379,7 @@
         <v>11</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="N67" s="4" t="s">
         <v>222</v>
@@ -9400,10 +9400,10 @@
         <v>15</v>
       </c>
       <c r="W67" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="X67" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="Y67" s="4" t="s">
         <v>239</v>
@@ -9417,13 +9417,13 @@
         <v>398</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>205</v>
@@ -9444,7 +9444,7 @@
         <v>11</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="N68" s="4" t="s">
         <v>238</v>
@@ -9465,13 +9465,13 @@
         <v>15</v>
       </c>
       <c r="W68" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="X68" s="4" t="s">
         <v>239</v>
       </c>
       <c r="Y68" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.45">
@@ -9482,7 +9482,7 @@
         <v>400</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>123</v>
@@ -9509,10 +9509,10 @@
         <v>11</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="P69" s="8">
         <v>40634</v>
@@ -9530,10 +9530,10 @@
         <v>15</v>
       </c>
       <c r="W69" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="X69" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="Y69" s="4" t="s">
         <v>239</v>
@@ -9547,7 +9547,7 @@
         <v>402</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>92</v>
@@ -9565,7 +9565,7 @@
         <v>28159</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="J70" s="3" t="s">
         <v>66</v>
@@ -9577,7 +9577,7 @@
         <v>308</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="P70" s="8">
         <v>40675</v>
@@ -9595,13 +9595,13 @@
         <v>15</v>
       </c>
       <c r="W70" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="X70" s="4" t="s">
         <v>239</v>
       </c>
       <c r="Y70" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.45">
@@ -9612,13 +9612,13 @@
         <v>403</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>86</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>208</v>
@@ -9630,7 +9630,7 @@
         <v>32476</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="J71" s="3" t="s">
         <v>32</v>
@@ -9639,7 +9639,7 @@
         <v>12</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="N71" s="4" t="s">
         <v>244</v>
@@ -9663,10 +9663,10 @@
         <v>223</v>
       </c>
       <c r="X71" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="Y71" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.45">
@@ -9677,13 +9677,13 @@
         <v>404</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>118</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>209</v>
@@ -9725,13 +9725,13 @@
         <v>15</v>
       </c>
       <c r="W72" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="X72" s="4" t="s">
         <v>239</v>
       </c>
       <c r="Y72" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.45">
@@ -9742,13 +9742,13 @@
         <v>406</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>210</v>
@@ -9760,7 +9760,7 @@
         <v>34628</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="J73" s="3" t="s">
         <v>13</v>
@@ -9769,7 +9769,7 @@
         <v>12</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="N73" s="4" t="s">
         <v>244</v>
@@ -9793,7 +9793,7 @@
         <v>223</v>
       </c>
       <c r="X73" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="Y73" s="4" t="s">
         <v>239</v>
@@ -17857,28 +17857,28 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="48" t="s">
+        <v>995</v>
+      </c>
+      <c r="B1" s="48" t="s">
         <v>996</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="C1" s="48" t="s">
         <v>997</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="D1" s="48" t="s">
         <v>998</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="E1" s="48" t="s">
         <v>999</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="F1" s="48" t="s">
         <v>1000</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="G1" s="48" t="s">
         <v>1001</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="H1" s="48" t="s">
         <v>1002</v>
-      </c>
-      <c r="H1" s="48" t="s">
-        <v>1003</v>
       </c>
       <c r="I1" s="48" t="s">
         <v>219</v>
@@ -17892,19 +17892,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="30" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>1004</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="E2" s="30" t="s">
         <v>1005</v>
       </c>
-      <c r="E2" s="30" t="s">
-        <v>1006</v>
-      </c>
       <c r="F2" s="52" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G2" s="52" t="s">
         <v>1096</v>
-      </c>
-      <c r="G2" s="52" t="s">
-        <v>1097</v>
       </c>
       <c r="H2" s="30" t="s">
         <v>239</v>
@@ -17921,19 +17921,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="30" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>1007</v>
       </c>
-      <c r="D3" s="30" t="s">
-        <v>1008</v>
-      </c>
       <c r="E3" s="30" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F3" s="52" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G3" s="52" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="H3" s="30" t="s">
         <v>223</v>
@@ -17950,17 +17950,17 @@
         <v>4</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D4" s="30"/>
       <c r="E4" s="30" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G4" s="52" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H4" s="30" t="s">
         <v>223</v>
@@ -17977,17 +17977,17 @@
         <v>4</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D5" s="30"/>
       <c r="E5" s="30" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H5" s="30" t="s">
         <v>223</v>
@@ -18004,17 +18004,17 @@
         <v>4</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D6" s="30"/>
       <c r="E6" s="30" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F6" s="52" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G6" s="52" t="s">
         <v>1101</v>
-      </c>
-      <c r="G6" s="52" t="s">
-        <v>1102</v>
       </c>
       <c r="H6" s="30" t="s">
         <v>239</v>
@@ -18031,17 +18031,17 @@
         <v>4</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D7" s="30"/>
       <c r="E7" s="30" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F7" s="52" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G7" s="52" t="s">
         <v>1103</v>
-      </c>
-      <c r="G7" s="52" t="s">
-        <v>1104</v>
       </c>
       <c r="H7" s="30" t="s">
         <v>239</v>
@@ -18058,17 +18058,17 @@
         <v>4</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D8" s="30"/>
       <c r="E8" s="30" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F8" s="52" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G8" s="52" t="s">
         <v>1105</v>
-      </c>
-      <c r="G8" s="52" t="s">
-        <v>1106</v>
       </c>
       <c r="H8" s="30" t="s">
         <v>239</v>
@@ -18085,19 +18085,19 @@
         <v>4</v>
       </c>
       <c r="C9" s="30" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D9" s="30" t="s">
         <v>1014</v>
       </c>
-      <c r="D9" s="30" t="s">
-        <v>1015</v>
-      </c>
       <c r="E9" s="30" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H9" s="30" t="s">
         <v>223</v>
@@ -18114,17 +18114,17 @@
         <v>4</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D10" s="30"/>
       <c r="E10" s="30" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F10" s="52" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H10" s="30" t="s">
         <v>223</v>
@@ -18141,17 +18141,17 @@
         <v>4</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D11" s="30"/>
       <c r="E11" s="30" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F11" s="52" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="H11" s="30" t="s">
         <v>223</v>
@@ -18168,17 +18168,17 @@
         <v>4</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D12" s="30"/>
       <c r="E12" s="30" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F12" s="52" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G12" s="52" t="s">
         <v>1109</v>
-      </c>
-      <c r="G12" s="52" t="s">
-        <v>1110</v>
       </c>
       <c r="H12" s="30" t="s">
         <v>239</v>
@@ -18195,17 +18195,17 @@
         <v>4</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D13" s="30"/>
       <c r="E13" s="30" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F13" s="52" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G13" s="52" t="s">
         <v>1111</v>
-      </c>
-      <c r="G13" s="52" t="s">
-        <v>1112</v>
       </c>
       <c r="H13" s="30" t="s">
         <v>239</v>
@@ -18734,19 +18734,19 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="48" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D1" s="48" t="s">
         <v>518</v>
       </c>
       <c r="E1" s="48" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F1" s="48" t="s">
         <v>466</v>
@@ -18766,15 +18766,15 @@
         <v>4</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E2" s="30"/>
       <c r="F2" s="30"/>
       <c r="G2" s="52" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H2" s="30" t="s">
         <v>223</v>
@@ -18788,15 +18788,15 @@
         <v>4</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
       <c r="G3" s="52" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="H3" s="30" t="s">
         <v>223</v>
@@ -18826,19 +18826,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="48" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D1" s="48" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="F1" s="48" t="s">
         <v>711</v>
@@ -18856,10 +18856,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F2" s="49">
         <v>44388</v>
@@ -18877,10 +18877,10 @@
         <v>4</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="F3" s="49">
         <v>44389</v>
@@ -18898,10 +18898,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F4" s="49">
         <v>44390</v>
@@ -18919,10 +18919,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="F5" s="49">
         <v>44391</v>
@@ -18940,10 +18940,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="F6" s="49">
         <v>44392</v>
@@ -18961,10 +18961,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E7" s="50" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F7" s="49">
         <v>44393</v>
@@ -18982,10 +18982,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E8" s="50" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F8" s="49">
         <v>44394</v>
@@ -19003,10 +19003,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E9" s="50" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="F9" s="49">
         <v>44395</v>
@@ -19024,10 +19024,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F10" s="49">
         <v>44396</v>
@@ -19045,10 +19045,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E11" s="50" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F11" s="49">
         <v>44397</v>
@@ -19066,10 +19066,10 @@
         <v>4</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F12" s="49">
         <v>44398</v>
@@ -19087,10 +19087,10 @@
         <v>4</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E13" s="50" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F13" s="49">
         <v>44399</v>
@@ -19108,10 +19108,10 @@
         <v>4</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E14" s="50" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F14" s="49">
         <v>44400</v>
@@ -19129,10 +19129,10 @@
         <v>4</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="E15" s="50" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F15" s="49">
         <v>44409</v>
@@ -19150,10 +19150,10 @@
         <v>4</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="E16" s="50" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F16" s="49">
         <v>44410</v>
@@ -19171,10 +19171,10 @@
         <v>4</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E17" s="50" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F17" s="49">
         <v>44411</v>
@@ -19192,10 +19192,10 @@
         <v>4</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E18" s="50" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F18" s="49">
         <v>44412</v>
@@ -19213,10 +19213,10 @@
         <v>4</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E19" s="50" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F19" s="49">
         <v>44413</v>
@@ -19234,10 +19234,10 @@
         <v>4</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E20" s="50" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F20" s="49">
         <v>44414</v>
@@ -19255,10 +19255,10 @@
         <v>4</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E21" s="50" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F21" s="49">
         <v>44415</v>
@@ -19276,10 +19276,10 @@
         <v>4</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E22" s="50" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F22" s="49">
         <v>44416</v>
@@ -19297,10 +19297,10 @@
         <v>4</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E23" s="50" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F23" s="49">
         <v>44417</v>
@@ -19318,10 +19318,10 @@
         <v>4</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E24" s="50" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F24" s="49">
         <v>44423</v>
@@ -19339,10 +19339,10 @@
         <v>4</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E25" s="50" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F25" s="49">
         <v>44424</v>
@@ -19362,10 +19362,10 @@
         <v>4</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E26" s="50" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F26" s="49">
         <v>44418</v>
@@ -19385,10 +19385,10 @@
         <v>4</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E27" s="50" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F27" s="49">
         <v>44423</v>
@@ -19406,10 +19406,10 @@
         <v>4</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E28" s="50" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F28" s="49">
         <v>44424</v>
@@ -19429,10 +19429,10 @@
         <v>4</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E29" s="50" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F29" s="49">
         <v>44425</v>
@@ -19452,10 +19452,10 @@
         <v>4</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E30" s="50" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F30" s="49">
         <v>44426</v>
@@ -23227,10 +23227,10 @@
         <v>409</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -23255,7 +23255,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -23272,7 +23272,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -23289,7 +23289,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -23306,7 +23306,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -23323,7 +23323,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -23340,7 +23340,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -23357,7 +23357,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E9">
         <v>6</v>
@@ -23374,7 +23374,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E10">
         <v>6</v>
@@ -23391,7 +23391,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -23538,7 +23538,7 @@
         <v>465</v>
       </c>
       <c r="R1" s="29" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.45">
@@ -23983,7 +23983,7 @@
         <v>459</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F1" s="41" t="s">
         <v>790</v>
@@ -23995,7 +23995,7 @@
         <v>792</v>
       </c>
       <c r="I1" s="41" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.45">
@@ -24015,16 +24015,16 @@
         <v>3</v>
       </c>
       <c r="F2" s="46" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G2" s="46" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H2" s="37">
         <v>44385</v>
       </c>
       <c r="I2" s="46" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.45">
@@ -24044,16 +24044,16 @@
         <v>1</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="G3" s="46" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H3" s="37">
         <v>44391</v>
       </c>
       <c r="I3" s="46" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.45">
@@ -24073,16 +24073,16 @@
         <v>2</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H4" s="37">
         <v>44405</v>
       </c>
       <c r="I4" s="46" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
   </sheetData>
@@ -24236,10 +24236,10 @@
         <v>799</v>
       </c>
       <c r="C6" t="s">
+        <v>973</v>
+      </c>
+      <c r="D6" t="s">
         <v>974</v>
-      </c>
-      <c r="D6" t="s">
-        <v>975</v>
       </c>
       <c r="E6" s="42"/>
       <c r="F6" s="43">
@@ -24313,7 +24313,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E2" s="42" t="s">
         <v>820</v>
@@ -24371,7 +24371,7 @@
         <v>826</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="G4" s="42" t="s">
         <v>822</v>
@@ -24391,7 +24391,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E5" s="42" t="s">
         <v>828</v>
@@ -24417,7 +24417,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>820</v>
@@ -24452,7 +24452,7 @@
         <v>821</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H7" s="43">
         <v>44202</v>
@@ -24469,13 +24469,13 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E8" s="42" t="s">
         <v>826</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="G8" s="42" t="s">
         <v>822</v>
@@ -24504,7 +24504,7 @@
         <v>827</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H9" s="43">
         <v>44204</v>
@@ -24521,7 +24521,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E10" s="42" t="s">
         <v>820</v>
@@ -24530,7 +24530,7 @@
         <v>829</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H10" s="43">
         <v>44205</v>
@@ -24625,13 +24625,13 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E14" s="42" t="s">
         <v>820</v>
       </c>
       <c r="F14" s="43" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="G14" s="42" t="s">
         <v>822</v>
@@ -24712,7 +24712,7 @@
         <v>821</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H17" s="43">
         <v>44212</v>
@@ -24729,10 +24729,10 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F18" s="43" t="s">
         <v>824</v>
@@ -24755,16 +24755,16 @@
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F19" s="43" t="s">
         <v>824</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H19" s="37">
         <v>44391</v>
@@ -24781,10 +24781,10 @@
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E20" s="46" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F20" s="43" t="s">
         <v>824</v>
@@ -24808,7 +24808,7 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -24837,13 +24837,13 @@
         <v>836</v>
       </c>
       <c r="G1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="H1" t="s">
         <v>837</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>838</v>
-      </c>
-      <c r="I1" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -24860,16 +24860,16 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>840</v>
+      </c>
+      <c r="F2" s="44" t="s">
         <v>841</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="G2" t="s">
         <v>842</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>843</v>
-      </c>
-      <c r="H2" t="s">
-        <v>844</v>
       </c>
       <c r="I2" s="43">
         <v>44317</v>
@@ -24889,13 +24889,13 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
+        <v>844</v>
+      </c>
+      <c r="F3" s="44" t="s">
         <v>845</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="H3" t="s">
         <v>846</v>
-      </c>
-      <c r="H3" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
@@ -24912,13 +24912,13 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F4" s="44" t="s">
         <v>825</v>
       </c>
       <c r="H4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
@@ -24935,13 +24935,13 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
+        <v>848</v>
+      </c>
+      <c r="F5" s="44" t="s">
         <v>849</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="H5" t="s">
         <v>850</v>
-      </c>
-      <c r="H5" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
@@ -24958,13 +24958,13 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
+        <v>851</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>845</v>
+      </c>
+      <c r="H6" t="s">
         <v>852</v>
-      </c>
-      <c r="F6" s="44" t="s">
-        <v>846</v>
-      </c>
-      <c r="H6" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
@@ -24981,10 +24981,10 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
+        <v>853</v>
+      </c>
+      <c r="F7" s="44" t="s">
         <v>854</v>
-      </c>
-      <c r="F7" s="44" t="s">
-        <v>855</v>
       </c>
       <c r="H7" t="s">
         <v>433</v>
@@ -25004,13 +25004,13 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
+        <v>855</v>
+      </c>
+      <c r="F8" s="44" t="s">
         <v>856</v>
       </c>
-      <c r="F8" s="44" t="s">
-        <v>857</v>
-      </c>
       <c r="H8" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
@@ -25027,13 +25027,13 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H9" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
@@ -25050,13 +25050,13 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
+        <v>858</v>
+      </c>
+      <c r="F10" s="44" t="s">
         <v>859</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="H10" t="s">
         <v>860</v>
-      </c>
-      <c r="H10" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
@@ -25073,13 +25073,13 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F11" s="44" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H11" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
@@ -25096,13 +25096,13 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F12" s="44" t="s">
         <v>825</v>
       </c>
       <c r="H12" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
@@ -25119,13 +25119,13 @@
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F13" s="44" t="s">
         <v>824</v>
       </c>
       <c r="H13" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
@@ -25142,13 +25142,13 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F14" s="44" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H14" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
@@ -25165,13 +25165,13 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F15" s="44" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H15" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
@@ -25188,13 +25188,13 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
+        <v>855</v>
+      </c>
+      <c r="F16" s="44" t="s">
         <v>856</v>
       </c>
-      <c r="F16" s="44" t="s">
-        <v>857</v>
-      </c>
       <c r="H16" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
@@ -25211,13 +25211,13 @@
         <v>4</v>
       </c>
       <c r="E17" t="s">
+        <v>866</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>856</v>
+      </c>
+      <c r="H17" t="s">
         <v>867</v>
-      </c>
-      <c r="F17" s="44" t="s">
-        <v>857</v>
-      </c>
-      <c r="H17" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
@@ -25234,13 +25234,13 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F18" s="44" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
@@ -25257,13 +25257,13 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F19" s="44" t="s">
         <v>824</v>
       </c>
       <c r="H19" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
@@ -25280,13 +25280,13 @@
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F20" s="44" t="s">
         <v>824</v>
       </c>
       <c r="H20" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
@@ -25303,13 +25303,13 @@
         <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F21" s="44" t="s">
         <v>824</v>
       </c>
       <c r="H21" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
@@ -25326,13 +25326,13 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F22" s="44" t="s">
         <v>824</v>
       </c>
       <c r="H22" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
@@ -25349,13 +25349,13 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F23" s="44" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H23" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
@@ -25372,13 +25372,13 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F24" s="44" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H24" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
@@ -25395,13 +25395,13 @@
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F25" s="44" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H25" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
@@ -25418,13 +25418,13 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F26" s="44" t="s">
+        <v>845</v>
+      </c>
+      <c r="H26" t="s">
         <v>846</v>
-      </c>
-      <c r="H26" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
@@ -25441,13 +25441,13 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
+        <v>875</v>
+      </c>
+      <c r="F27" s="44" t="s">
         <v>876</v>
       </c>
-      <c r="F27" s="44" t="s">
-        <v>877</v>
-      </c>
       <c r="H27" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
@@ -25464,13 +25464,13 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F28" s="44" t="s">
         <v>824</v>
       </c>
       <c r="H28" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
@@ -25487,13 +25487,13 @@
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F29" s="44" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H29" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
@@ -25510,13 +25510,13 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F30" s="44" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H30" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
@@ -25533,13 +25533,13 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F31" s="44" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H31" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
@@ -25556,13 +25556,13 @@
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F32" s="44" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H32" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
@@ -25579,13 +25579,13 @@
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F33" s="44" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H33" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
@@ -25602,13 +25602,13 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F34" s="44" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H34" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
@@ -25625,13 +25625,13 @@
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F35" s="44" t="s">
         <v>824</v>
       </c>
       <c r="H35" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
@@ -25648,13 +25648,13 @@
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F36" s="44" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H36" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
@@ -25671,13 +25671,13 @@
         <v>4</v>
       </c>
       <c r="E37" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F37" s="44" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H37" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
@@ -25694,13 +25694,13 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F38" s="44" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H38" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
@@ -25717,13 +25717,13 @@
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F39" s="44" t="s">
         <v>824</v>
       </c>
       <c r="H39" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
@@ -25740,13 +25740,13 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F40" s="44" t="s">
+        <v>885</v>
+      </c>
+      <c r="H40" t="s">
         <v>886</v>
-      </c>
-      <c r="H40" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
@@ -25763,13 +25763,13 @@
         <v>4</v>
       </c>
       <c r="E41" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F41" s="44" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H41" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
@@ -25786,13 +25786,13 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F42" s="44" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H42" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
@@ -25809,13 +25809,13 @@
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F43" s="44" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H43" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
@@ -25832,13 +25832,13 @@
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F44" s="44" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H44" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
@@ -25855,13 +25855,13 @@
         <v>4</v>
       </c>
       <c r="E45" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F45" s="44" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H45" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
@@ -25878,13 +25878,13 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F46" s="44" t="s">
         <v>824</v>
       </c>
       <c r="H46" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
@@ -25901,13 +25901,13 @@
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F47" s="44" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H47" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
@@ -25924,13 +25924,13 @@
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F48" s="44" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H48" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.45">
@@ -25947,13 +25947,13 @@
         <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F49" s="44" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H49" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.45">
@@ -25970,13 +25970,13 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F50" s="44" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H50" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.45">
@@ -25993,13 +25993,13 @@
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F51" s="44" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H51" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.45">
@@ -26016,13 +26016,13 @@
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F52" s="44" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H52" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.45">
@@ -26039,13 +26039,13 @@
         <v>4</v>
       </c>
       <c r="E53" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F53" s="44" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H53" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.45">
@@ -26062,13 +26062,13 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
+        <v>875</v>
+      </c>
+      <c r="F54" s="44" t="s">
         <v>876</v>
       </c>
-      <c r="F54" s="44" t="s">
-        <v>877</v>
-      </c>
       <c r="H54" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.45">
@@ -26085,13 +26085,13 @@
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F55" s="44" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H55" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.45">
@@ -26108,13 +26108,13 @@
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F56" s="44" t="s">
         <v>825</v>
       </c>
       <c r="H56" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.45">
@@ -26131,13 +26131,13 @@
         <v>4</v>
       </c>
       <c r="E57" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F57" s="44" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H57" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.45">
@@ -26154,13 +26154,13 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F58" s="44" t="s">
         <v>824</v>
       </c>
       <c r="H58" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
@@ -26177,13 +26177,13 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F59" s="44" t="s">
         <v>824</v>
       </c>
       <c r="H59" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
@@ -26200,13 +26200,13 @@
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F60" s="44" t="s">
         <v>824</v>
       </c>
       <c r="H60" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
@@ -26223,10 +26223,10 @@
         <v>4</v>
       </c>
       <c r="E61" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F61" s="44" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H61" t="s">
         <v>433</v>
@@ -26246,13 +26246,13 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F62" s="44" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H62" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
@@ -26269,13 +26269,13 @@
         <v>2</v>
       </c>
       <c r="E63" t="s">
+        <v>855</v>
+      </c>
+      <c r="F63" s="44" t="s">
         <v>856</v>
       </c>
-      <c r="F63" s="44" t="s">
-        <v>857</v>
-      </c>
       <c r="H63" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
@@ -26292,13 +26292,13 @@
         <v>3</v>
       </c>
       <c r="E64" t="s">
+        <v>892</v>
+      </c>
+      <c r="F64" s="44" t="s">
         <v>893</v>
       </c>
-      <c r="F64" s="44" t="s">
-        <v>894</v>
-      </c>
       <c r="H64" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
@@ -26315,13 +26315,13 @@
         <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F65" s="44" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H65" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
   </sheetData>
@@ -26358,25 +26358,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
+        <v>894</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>895</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>896</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>897</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>898</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>899</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>900</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>901</v>
       </c>
       <c r="H1" s="13" t="s">
         <v>219</v>
@@ -26387,19 +26387,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C2" t="s">
+        <v>903</v>
+      </c>
+      <c r="D2" s="45" t="s">
         <v>904</v>
       </c>
-      <c r="D2" s="45" t="s">
-        <v>905</v>
-      </c>
       <c r="E2" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
@@ -26407,19 +26407,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>907</v>
+      </c>
+      <c r="C3" t="s">
         <v>908</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="45" t="s">
         <v>909</v>
       </c>
-      <c r="D3" s="45" t="s">
-        <v>910</v>
-      </c>
       <c r="E3" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -26427,19 +26427,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>910</v>
+      </c>
+      <c r="C4" t="s">
         <v>911</v>
       </c>
-      <c r="C4" t="s">
-        <v>912</v>
-      </c>
       <c r="D4" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -26447,19 +26447,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>912</v>
+      </c>
+      <c r="C5" t="s">
         <v>913</v>
       </c>
-      <c r="C5" t="s">
-        <v>914</v>
-      </c>
       <c r="D5" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -26467,19 +26467,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>914</v>
+      </c>
+      <c r="C6" t="s">
         <v>915</v>
       </c>
-      <c r="C6" t="s">
-        <v>916</v>
-      </c>
       <c r="D6" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -26487,19 +26487,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>916</v>
+      </c>
+      <c r="C7" t="s">
         <v>917</v>
       </c>
-      <c r="C7" t="s">
-        <v>918</v>
-      </c>
       <c r="D7" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H7" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -26507,19 +26507,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>918</v>
+      </c>
+      <c r="C8" t="s">
         <v>919</v>
       </c>
-      <c r="C8" t="s">
-        <v>920</v>
-      </c>
       <c r="D8" s="45" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H8" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -26527,19 +26527,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>920</v>
+      </c>
+      <c r="C9" t="s">
         <v>921</v>
       </c>
-      <c r="C9" t="s">
-        <v>922</v>
-      </c>
       <c r="D9" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H9" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -26547,19 +26547,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>922</v>
+      </c>
+      <c r="C10" t="s">
         <v>923</v>
       </c>
-      <c r="C10" t="s">
-        <v>924</v>
-      </c>
       <c r="D10" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H10" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -26567,19 +26567,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>924</v>
+      </c>
+      <c r="C11" t="s">
         <v>925</v>
       </c>
-      <c r="C11" t="s">
-        <v>926</v>
-      </c>
       <c r="D11" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E11" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H11" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
@@ -26587,19 +26587,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>926</v>
+      </c>
+      <c r="C12" t="s">
         <v>927</v>
       </c>
-      <c r="C12" t="s">
-        <v>928</v>
-      </c>
       <c r="D12" s="45" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H12" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
@@ -26607,19 +26607,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>928</v>
+      </c>
+      <c r="C13" t="s">
         <v>929</v>
       </c>
-      <c r="C13" t="s">
-        <v>930</v>
-      </c>
       <c r="D13" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H13" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
@@ -26627,19 +26627,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>930</v>
+      </c>
+      <c r="C14" t="s">
         <v>931</v>
       </c>
-      <c r="C14" t="s">
-        <v>932</v>
-      </c>
       <c r="D14" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H14" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
@@ -26647,19 +26647,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>932</v>
+      </c>
+      <c r="C15" t="s">
         <v>933</v>
       </c>
-      <c r="C15" t="s">
-        <v>934</v>
-      </c>
       <c r="D15" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H15" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
@@ -26667,16 +26667,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>934</v>
+      </c>
+      <c r="C16" t="s">
         <v>935</v>
       </c>
-      <c r="C16" t="s">
-        <v>936</v>
-      </c>
       <c r="D16" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H16" t="s">
         <v>433</v>
@@ -26687,19 +26687,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>936</v>
+      </c>
+      <c r="C17" t="s">
         <v>937</v>
       </c>
-      <c r="C17" t="s">
-        <v>938</v>
-      </c>
       <c r="D17" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E17" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H17" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
@@ -26707,19 +26707,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>938</v>
+      </c>
+      <c r="C18" t="s">
         <v>939</v>
       </c>
-      <c r="C18" t="s">
-        <v>940</v>
-      </c>
       <c r="D18" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E18" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H18" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
@@ -26727,19 +26727,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>940</v>
+      </c>
+      <c r="C19" t="s">
         <v>941</v>
       </c>
-      <c r="C19" t="s">
-        <v>942</v>
-      </c>
       <c r="D19" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E19" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
@@ -26747,19 +26747,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>942</v>
+      </c>
+      <c r="C20" t="s">
         <v>943</v>
       </c>
-      <c r="C20" t="s">
-        <v>944</v>
-      </c>
       <c r="D20" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E20" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H20" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
@@ -26767,19 +26767,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>944</v>
+      </c>
+      <c r="C21" t="s">
         <v>945</v>
       </c>
-      <c r="C21" t="s">
-        <v>946</v>
-      </c>
       <c r="D21" s="45" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E21" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H21" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
@@ -26787,19 +26787,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>946</v>
+      </c>
+      <c r="C22" t="s">
         <v>947</v>
       </c>
-      <c r="C22" t="s">
-        <v>948</v>
-      </c>
       <c r="D22" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E22" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H22" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
@@ -26807,19 +26807,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>948</v>
+      </c>
+      <c r="C23" t="s">
         <v>949</v>
       </c>
-      <c r="C23" t="s">
-        <v>950</v>
-      </c>
       <c r="D23" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E23" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H23" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
@@ -26827,19 +26827,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>950</v>
+      </c>
+      <c r="C24" t="s">
         <v>951</v>
       </c>
-      <c r="C24" t="s">
-        <v>952</v>
-      </c>
       <c r="D24" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E24" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H24" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
@@ -26847,19 +26847,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>952</v>
+      </c>
+      <c r="C25" t="s">
         <v>953</v>
       </c>
-      <c r="C25" t="s">
-        <v>954</v>
-      </c>
       <c r="D25" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E25" s="45" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H25" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
@@ -26867,19 +26867,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>954</v>
+      </c>
+      <c r="C26" t="s">
         <v>955</v>
       </c>
-      <c r="C26" t="s">
-        <v>956</v>
-      </c>
       <c r="D26" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E26" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H26" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
@@ -26887,19 +26887,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>956</v>
+      </c>
+      <c r="C27" t="s">
         <v>957</v>
       </c>
-      <c r="C27" t="s">
-        <v>958</v>
-      </c>
       <c r="D27" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E27" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H27" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
@@ -26907,19 +26907,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>958</v>
+      </c>
+      <c r="C28" t="s">
         <v>959</v>
       </c>
-      <c r="C28" t="s">
-        <v>960</v>
-      </c>
       <c r="D28" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E28" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H28" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
   </sheetData>
@@ -26996,13 +26996,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>960</v>
+      </c>
+      <c r="B1" t="s">
         <v>961</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>962</v>
-      </c>
-      <c r="C1" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -27569,34 +27569,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>461</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>895</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>896</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>897</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>898</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>899</v>
-      </c>
       <c r="G1" s="13" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1" s="13" t="s">
         <v>219</v>
       </c>
       <c r="I1" s="13" t="s">
+        <v>965</v>
+      </c>
+      <c r="J1" s="13" t="s">
         <v>966</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -27607,28 +27607,28 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>901</v>
+      </c>
+      <c r="D2" t="s">
         <v>902</v>
       </c>
-      <c r="D2" t="s">
-        <v>903</v>
-      </c>
       <c r="E2" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G2" t="s">
+        <v>967</v>
+      </c>
+      <c r="H2" t="s">
+        <v>843</v>
+      </c>
+      <c r="I2" t="s">
+        <v>843</v>
+      </c>
+      <c r="J2" t="s">
         <v>968</v>
-      </c>
-      <c r="H2" t="s">
-        <v>844</v>
-      </c>
-      <c r="I2" t="s">
-        <v>844</v>
-      </c>
-      <c r="J2" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
@@ -27639,28 +27639,28 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D3" t="s">
         <v>908</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="45" t="s">
         <v>909</v>
       </c>
-      <c r="E3" s="45" t="s">
-        <v>910</v>
-      </c>
       <c r="F3" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
@@ -27671,28 +27671,28 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>910</v>
+      </c>
+      <c r="D4" t="s">
         <v>911</v>
       </c>
-      <c r="D4" t="s">
-        <v>912</v>
-      </c>
       <c r="E4" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G4" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J4" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
@@ -27703,28 +27703,28 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>912</v>
+      </c>
+      <c r="D5" t="s">
         <v>913</v>
       </c>
-      <c r="D5" t="s">
-        <v>914</v>
-      </c>
       <c r="E5" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J5" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
@@ -27735,28 +27735,28 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>914</v>
+      </c>
+      <c r="D6" t="s">
         <v>915</v>
       </c>
-      <c r="D6" t="s">
-        <v>916</v>
-      </c>
       <c r="E6" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H6" t="s">
         <v>433</v>
       </c>
       <c r="I6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J6" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
@@ -27767,28 +27767,28 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>916</v>
+      </c>
+      <c r="D7" t="s">
         <v>917</v>
       </c>
-      <c r="D7" t="s">
-        <v>918</v>
-      </c>
       <c r="E7" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G7" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H7" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I7" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
@@ -27799,28 +27799,28 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
+        <v>918</v>
+      </c>
+      <c r="D8" t="s">
         <v>919</v>
       </c>
-      <c r="D8" t="s">
-        <v>920</v>
-      </c>
       <c r="E8" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G8" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H8" t="s">
         <v>433</v>
       </c>
       <c r="I8" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J8" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
@@ -27831,28 +27831,28 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
+        <v>920</v>
+      </c>
+      <c r="D9" t="s">
         <v>921</v>
       </c>
-      <c r="D9" t="s">
-        <v>922</v>
-      </c>
       <c r="E9" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G9" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H9" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I9" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J9" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
@@ -27863,28 +27863,28 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
+        <v>922</v>
+      </c>
+      <c r="D10" t="s">
         <v>923</v>
       </c>
-      <c r="D10" t="s">
-        <v>924</v>
-      </c>
       <c r="E10" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="G10" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H10" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I10" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J10" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
@@ -27895,28 +27895,28 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
+        <v>924</v>
+      </c>
+      <c r="D11" t="s">
         <v>925</v>
       </c>
-      <c r="D11" t="s">
-        <v>926</v>
-      </c>
       <c r="E11" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G11" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H11" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I11" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J11" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
@@ -27927,28 +27927,28 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
+        <v>926</v>
+      </c>
+      <c r="D12" t="s">
         <v>927</v>
       </c>
-      <c r="D12" t="s">
-        <v>928</v>
-      </c>
       <c r="E12" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G12" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H12" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I12" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J12" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
@@ -27959,28 +27959,28 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
+        <v>928</v>
+      </c>
+      <c r="D13" t="s">
         <v>929</v>
       </c>
-      <c r="D13" t="s">
-        <v>930</v>
-      </c>
       <c r="E13" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G13" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H13" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I13" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J13" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
@@ -27991,28 +27991,28 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
+        <v>930</v>
+      </c>
+      <c r="D14" t="s">
         <v>931</v>
       </c>
-      <c r="D14" t="s">
-        <v>932</v>
-      </c>
       <c r="E14" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G14" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H14" t="s">
         <v>433</v>
       </c>
       <c r="I14" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J14" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
@@ -28023,28 +28023,28 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
+        <v>932</v>
+      </c>
+      <c r="D15" t="s">
         <v>933</v>
       </c>
-      <c r="D15" t="s">
-        <v>934</v>
-      </c>
       <c r="E15" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G15" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H15" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I15" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J15" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
@@ -28055,28 +28055,28 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
+        <v>934</v>
+      </c>
+      <c r="D16" t="s">
         <v>935</v>
       </c>
-      <c r="D16" t="s">
-        <v>936</v>
-      </c>
       <c r="E16" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G16" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H16" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I16" t="s">
         <v>433</v>
       </c>
       <c r="J16" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
@@ -28087,28 +28087,28 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
+        <v>936</v>
+      </c>
+      <c r="D17" t="s">
         <v>937</v>
       </c>
-      <c r="D17" t="s">
-        <v>938</v>
-      </c>
       <c r="E17" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G17" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H17" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I17" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J17" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
@@ -28119,28 +28119,28 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
+        <v>938</v>
+      </c>
+      <c r="D18" t="s">
         <v>939</v>
       </c>
-      <c r="D18" t="s">
-        <v>940</v>
-      </c>
       <c r="E18" s="45" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G18" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H18" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I18" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J18" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
@@ -28151,28 +28151,28 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
+        <v>940</v>
+      </c>
+      <c r="D19" t="s">
         <v>941</v>
       </c>
-      <c r="D19" t="s">
-        <v>942</v>
-      </c>
       <c r="E19" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J19" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
@@ -28183,28 +28183,28 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
+        <v>942</v>
+      </c>
+      <c r="D20" t="s">
         <v>943</v>
       </c>
-      <c r="D20" t="s">
-        <v>944</v>
-      </c>
       <c r="E20" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G20" t="s">
         <v>432</v>
       </c>
       <c r="H20" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I20" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J20" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
@@ -28215,28 +28215,28 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
+        <v>944</v>
+      </c>
+      <c r="D21" t="s">
         <v>945</v>
       </c>
-      <c r="D21" t="s">
-        <v>946</v>
-      </c>
       <c r="E21" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F21" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G21" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H21" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I21" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J21" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
@@ -28247,28 +28247,28 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
+        <v>946</v>
+      </c>
+      <c r="D22" t="s">
         <v>947</v>
       </c>
-      <c r="D22" t="s">
-        <v>948</v>
-      </c>
       <c r="E22" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G22" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H22" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I22" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J22" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
@@ -28279,28 +28279,28 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
+        <v>948</v>
+      </c>
+      <c r="D23" t="s">
         <v>949</v>
       </c>
-      <c r="D23" t="s">
-        <v>950</v>
-      </c>
       <c r="E23" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F23" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G23" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H23" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I23" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J23" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
@@ -28311,28 +28311,28 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
+        <v>950</v>
+      </c>
+      <c r="D24" t="s">
         <v>951</v>
       </c>
-      <c r="D24" t="s">
-        <v>952</v>
-      </c>
       <c r="E24" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F24" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G24" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H24" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I24" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J24" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
@@ -28343,28 +28343,28 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
+        <v>952</v>
+      </c>
+      <c r="D25" t="s">
         <v>953</v>
       </c>
-      <c r="D25" t="s">
-        <v>954</v>
-      </c>
       <c r="E25" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G25" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H25" t="s">
         <v>433</v>
       </c>
       <c r="I25" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J25" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
@@ -28375,28 +28375,28 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
+        <v>954</v>
+      </c>
+      <c r="D26" t="s">
         <v>955</v>
       </c>
-      <c r="D26" t="s">
-        <v>956</v>
-      </c>
       <c r="E26" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F26" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G26" t="s">
+        <v>967</v>
+      </c>
+      <c r="H26" t="s">
+        <v>843</v>
+      </c>
+      <c r="I26" t="s">
+        <v>843</v>
+      </c>
+      <c r="J26" t="s">
         <v>968</v>
-      </c>
-      <c r="H26" t="s">
-        <v>844</v>
-      </c>
-      <c r="I26" t="s">
-        <v>844</v>
-      </c>
-      <c r="J26" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
@@ -28407,28 +28407,28 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
+        <v>956</v>
+      </c>
+      <c r="D27" t="s">
         <v>957</v>
       </c>
-      <c r="D27" t="s">
-        <v>958</v>
-      </c>
       <c r="E27" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F27" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G27" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H27" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I27" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J27" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
@@ -28439,28 +28439,28 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
+        <v>958</v>
+      </c>
+      <c r="D28" t="s">
         <v>959</v>
       </c>
-      <c r="D28" t="s">
-        <v>960</v>
-      </c>
       <c r="E28" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F28" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G28" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H28" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I28" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J28" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
   </sheetData>

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="2240" windowWidth="19990" windowHeight="9940" tabRatio="919" firstSheet="10" activeTab="25"/>
+    <workbookView xWindow="2780" yWindow="2240" windowWidth="19990" windowHeight="9940" tabRatio="919" firstSheet="10" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="member(sample)" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">JaeWook_ATTENDANCE!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">JaeWook_LEAVE!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'member(sample)'!$A$1:$Q$491</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="27" hidden="1">REFERENCE!$A$1:$C$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="27" hidden="1">REFERENCE!$A$1:$D$49</definedName>
     <definedName name="Apart" localSheetId="23">#REF!</definedName>
     <definedName name="Apart" localSheetId="24">#REF!</definedName>
     <definedName name="Apart">#REF!</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2912" uniqueCount="1213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2961" uniqueCount="1216">
   <si>
     <t xml:space="preserve">	서울특별시송파구올림픽로 99(잠실동, 잠실엘스)</t>
   </si>
@@ -4304,6 +4304,18 @@
   </si>
   <si>
     <t>appr_memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>READ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -24807,8 +24819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -26986,15 +26998,15 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>960</v>
       </c>
@@ -27004,8 +27016,11 @@
       <c r="C1" t="s">
         <v>962</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D1" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -27015,8 +27030,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D2" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -27026,8 +27044,11 @@
       <c r="C3">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D3" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -27037,8 +27058,11 @@
       <c r="C4">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D4" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -27048,8 +27072,11 @@
       <c r="C5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D5" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -27059,8 +27086,11 @@
       <c r="C6">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D6" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -27070,8 +27100,11 @@
       <c r="C7">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D7" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -27081,8 +27114,11 @@
       <c r="C8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D8" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -27092,8 +27128,11 @@
       <c r="C9">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D9" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -27103,8 +27142,11 @@
       <c r="C10">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D10" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -27114,8 +27156,11 @@
       <c r="C11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -27125,8 +27170,11 @@
       <c r="C12">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D12" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -27136,8 +27184,11 @@
       <c r="C13">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D13" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -27147,8 +27198,11 @@
       <c r="C14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D14" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -27158,8 +27212,11 @@
       <c r="C15">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D15" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -27169,8 +27226,11 @@
       <c r="C16">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D16" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -27180,8 +27240,11 @@
       <c r="C17">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D17" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -27191,8 +27254,11 @@
       <c r="C18">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D18" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -27202,8 +27268,11 @@
       <c r="C19">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D19" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -27213,8 +27282,11 @@
       <c r="C20">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D20" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -27224,8 +27296,11 @@
       <c r="C21">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D21" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -27235,8 +27310,11 @@
       <c r="C22">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D22" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -27246,8 +27324,11 @@
       <c r="C23">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D23" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -27257,8 +27338,11 @@
       <c r="C24">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D24" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -27268,8 +27352,11 @@
       <c r="C25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D25" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -27279,8 +27366,11 @@
       <c r="C26">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D26" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -27290,8 +27380,11 @@
       <c r="C27">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D27" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -27301,8 +27394,11 @@
       <c r="C28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D28" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -27312,8 +27408,11 @@
       <c r="C29">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D29" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -27323,8 +27422,11 @@
       <c r="C30">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D30" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -27334,8 +27436,11 @@
       <c r="C31">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D31" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -27345,8 +27450,11 @@
       <c r="C32">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D32" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -27356,8 +27464,11 @@
       <c r="C33">
         <v>27</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D33" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -27367,8 +27478,11 @@
       <c r="C34">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D34" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -27378,8 +27492,11 @@
       <c r="C35">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D35" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -27389,8 +27506,11 @@
       <c r="C36">
         <v>28</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D36" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -27400,8 +27520,11 @@
       <c r="C37">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D37" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -27411,8 +27534,11 @@
       <c r="C38">
         <v>13</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D38" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -27422,8 +27548,11 @@
       <c r="C39">
         <v>29</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D39" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -27433,8 +27562,11 @@
       <c r="C40">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D40" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
@@ -27444,8 +27576,11 @@
       <c r="C41">
         <v>14</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D41" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -27455,8 +27590,11 @@
       <c r="C42">
         <v>30</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D42" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -27466,8 +27604,11 @@
       <c r="C43">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D43" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -27477,8 +27618,11 @@
       <c r="C44">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D44" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
@@ -27488,8 +27632,11 @@
       <c r="C45">
         <v>31</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D45" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
@@ -27499,8 +27646,11 @@
       <c r="C46">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D46" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
@@ -27510,8 +27660,11 @@
       <c r="C47">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D47" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
@@ -27521,8 +27674,11 @@
       <c r="C48">
         <v>32</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D48" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
@@ -27532,13 +27688,12 @@
       <c r="C49">
         <v>9</v>
       </c>
+      <c r="D49" t="s">
+        <v>1214</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C49">
-    <sortState ref="A2:C49">
-      <sortCondition ref="B1:B49"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:D49"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5420" yWindow="700" windowWidth="17570" windowHeight="11360" tabRatio="919" firstSheet="10" activeTab="27"/>
+    <workbookView xWindow="5420" yWindow="700" windowWidth="17570" windowHeight="11360" tabRatio="919" firstSheet="10" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="member(sample)" sheetId="2" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3006" uniqueCount="1239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3007" uniqueCount="1240">
   <si>
     <t xml:space="preserve">	서울특별시송파구올림픽로 99(잠실동, 잠실엘스)</t>
   </si>
@@ -4409,6 +4409,10 @@
   </si>
   <si>
     <t>REF_MEM_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECEIVE_DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -26670,8 +26674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -26681,7 +26685,7 @@
     <col min="3" max="3" width="14.9140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.9140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.9140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.75" customWidth="1"/>
     <col min="7" max="7" width="10.9140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.58203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -26728,6 +26732,9 @@
       <c r="E2" s="45" t="s">
         <v>904</v>
       </c>
+      <c r="F2" s="43">
+        <v>44197</v>
+      </c>
       <c r="H2" t="s">
         <v>841</v>
       </c>
@@ -26748,6 +26755,9 @@
       <c r="E3" s="45" t="s">
         <v>904</v>
       </c>
+      <c r="F3" s="43">
+        <v>44198</v>
+      </c>
       <c r="H3" t="s">
         <v>841</v>
       </c>
@@ -26768,6 +26778,9 @@
       <c r="E4" s="45" t="s">
         <v>904</v>
       </c>
+      <c r="F4" s="43">
+        <v>44199</v>
+      </c>
       <c r="H4" t="s">
         <v>841</v>
       </c>
@@ -26788,6 +26801,9 @@
       <c r="E5" s="45" t="s">
         <v>904</v>
       </c>
+      <c r="F5" s="43">
+        <v>44200</v>
+      </c>
       <c r="H5" t="s">
         <v>841</v>
       </c>
@@ -26808,6 +26824,9 @@
       <c r="E6" s="45" t="s">
         <v>904</v>
       </c>
+      <c r="F6" s="43">
+        <v>44201</v>
+      </c>
       <c r="H6" t="s">
         <v>841</v>
       </c>
@@ -26828,6 +26847,9 @@
       <c r="E7" s="45" t="s">
         <v>904</v>
       </c>
+      <c r="F7" s="43">
+        <v>44202</v>
+      </c>
       <c r="H7" t="s">
         <v>841</v>
       </c>
@@ -26848,6 +26870,9 @@
       <c r="E8" s="45" t="s">
         <v>904</v>
       </c>
+      <c r="F8" s="43">
+        <v>44203</v>
+      </c>
       <c r="H8" t="s">
         <v>841</v>
       </c>
@@ -26868,6 +26893,9 @@
       <c r="E9" s="45" t="s">
         <v>904</v>
       </c>
+      <c r="F9" s="43">
+        <v>44204</v>
+      </c>
       <c r="H9" t="s">
         <v>841</v>
       </c>
@@ -26888,6 +26916,9 @@
       <c r="E10" s="45" t="s">
         <v>904</v>
       </c>
+      <c r="F10" s="43">
+        <v>44205</v>
+      </c>
       <c r="H10" t="s">
         <v>841</v>
       </c>
@@ -26908,6 +26939,9 @@
       <c r="E11" s="45" t="s">
         <v>904</v>
       </c>
+      <c r="F11" s="43">
+        <v>44206</v>
+      </c>
       <c r="H11" t="s">
         <v>841</v>
       </c>
@@ -26928,6 +26962,9 @@
       <c r="E12" s="45" t="s">
         <v>904</v>
       </c>
+      <c r="F12" s="43">
+        <v>44207</v>
+      </c>
       <c r="H12" t="s">
         <v>841</v>
       </c>
@@ -26948,6 +26985,9 @@
       <c r="E13" s="45" t="s">
         <v>904</v>
       </c>
+      <c r="F13" s="43">
+        <v>44208</v>
+      </c>
       <c r="H13" t="s">
         <v>841</v>
       </c>
@@ -26968,6 +27008,9 @@
       <c r="E14" s="45" t="s">
         <v>904</v>
       </c>
+      <c r="F14" s="43">
+        <v>44209</v>
+      </c>
       <c r="H14" t="s">
         <v>841</v>
       </c>
@@ -26988,6 +27031,9 @@
       <c r="E15" s="45" t="s">
         <v>904</v>
       </c>
+      <c r="F15" s="43">
+        <v>44210</v>
+      </c>
       <c r="H15" t="s">
         <v>841</v>
       </c>
@@ -27008,6 +27054,9 @@
       <c r="E16" s="45" t="s">
         <v>904</v>
       </c>
+      <c r="F16" s="43">
+        <v>44211</v>
+      </c>
       <c r="H16" t="s">
         <v>433</v>
       </c>
@@ -27028,6 +27077,9 @@
       <c r="E17" s="45" t="s">
         <v>904</v>
       </c>
+      <c r="F17" s="43">
+        <v>44212</v>
+      </c>
       <c r="H17" t="s">
         <v>841</v>
       </c>
@@ -27048,6 +27100,9 @@
       <c r="E18" s="45" t="s">
         <v>904</v>
       </c>
+      <c r="F18" s="43">
+        <v>44213</v>
+      </c>
       <c r="H18" t="s">
         <v>841</v>
       </c>
@@ -27068,6 +27123,9 @@
       <c r="E19" s="45" t="s">
         <v>904</v>
       </c>
+      <c r="F19" s="43">
+        <v>44214</v>
+      </c>
       <c r="H19" t="s">
         <v>841</v>
       </c>
@@ -27088,6 +27146,9 @@
       <c r="E20" s="45" t="s">
         <v>904</v>
       </c>
+      <c r="F20" s="43">
+        <v>44215</v>
+      </c>
       <c r="H20" t="s">
         <v>841</v>
       </c>
@@ -27108,6 +27169,9 @@
       <c r="E21" s="45" t="s">
         <v>904</v>
       </c>
+      <c r="F21" s="43">
+        <v>44216</v>
+      </c>
       <c r="H21" t="s">
         <v>841</v>
       </c>
@@ -27128,6 +27192,9 @@
       <c r="E22" s="45" t="s">
         <v>904</v>
       </c>
+      <c r="F22" s="43">
+        <v>44217</v>
+      </c>
       <c r="H22" t="s">
         <v>841</v>
       </c>
@@ -27148,6 +27215,9 @@
       <c r="E23" s="45" t="s">
         <v>904</v>
       </c>
+      <c r="F23" s="43">
+        <v>44218</v>
+      </c>
       <c r="H23" t="s">
         <v>841</v>
       </c>
@@ -27168,6 +27238,9 @@
       <c r="E24" s="45" t="s">
         <v>904</v>
       </c>
+      <c r="F24" s="43">
+        <v>44219</v>
+      </c>
       <c r="H24" t="s">
         <v>841</v>
       </c>
@@ -27188,6 +27261,9 @@
       <c r="E25" s="45" t="s">
         <v>903</v>
       </c>
+      <c r="F25" s="43">
+        <v>44220</v>
+      </c>
       <c r="H25" t="s">
         <v>841</v>
       </c>
@@ -27208,6 +27284,9 @@
       <c r="E26" s="45" t="s">
         <v>904</v>
       </c>
+      <c r="F26" s="43">
+        <v>44221</v>
+      </c>
       <c r="H26" t="s">
         <v>841</v>
       </c>
@@ -27228,6 +27307,9 @@
       <c r="E27" s="45" t="s">
         <v>904</v>
       </c>
+      <c r="F27" s="43">
+        <v>44222</v>
+      </c>
       <c r="H27" t="s">
         <v>841</v>
       </c>
@@ -27247,6 +27329,9 @@
       </c>
       <c r="E28" s="45" t="s">
         <v>904</v>
+      </c>
+      <c r="F28" s="43">
+        <v>44223</v>
       </c>
       <c r="H28" t="s">
         <v>841</v>
@@ -27318,7 +27403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -28023,10 +28108,10 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="K2" sqref="K2:K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -28041,9 +28126,10 @@
     <col min="8" max="8" width="7.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.08203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.58203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>960</v>
       </c>
@@ -28074,8 +28160,11 @@
       <c r="J1" s="13" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K1" s="13" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -28106,8 +28195,11 @@
       <c r="J2" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K2" s="43">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -28138,8 +28230,11 @@
       <c r="J3" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K3" s="43">
+        <v>44198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -28170,8 +28265,11 @@
       <c r="J4" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K4" s="43">
+        <v>44199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -28202,8 +28300,11 @@
       <c r="J5" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K5" s="43">
+        <v>44200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -28234,8 +28335,11 @@
       <c r="J6" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K6" s="43">
+        <v>44201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -28266,8 +28370,11 @@
       <c r="J7" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K7" s="43">
+        <v>44202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -28298,8 +28405,11 @@
       <c r="J8" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K8" s="43">
+        <v>44203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -28330,8 +28440,11 @@
       <c r="J9" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K9" s="43">
+        <v>44204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -28362,8 +28475,11 @@
       <c r="J10" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K10" s="43">
+        <v>44205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -28394,8 +28510,11 @@
       <c r="J11" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K11" s="43">
+        <v>44206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -28426,8 +28545,11 @@
       <c r="J12" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K12" s="43">
+        <v>44207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -28458,8 +28580,11 @@
       <c r="J13" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K13" s="43">
+        <v>44208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -28490,8 +28615,11 @@
       <c r="J14" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K14" s="43">
+        <v>44209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -28522,8 +28650,11 @@
       <c r="J15" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K15" s="43">
+        <v>44210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -28554,8 +28685,11 @@
       <c r="J16" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K16" s="43">
+        <v>44211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -28586,8 +28720,11 @@
       <c r="J17" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K17" s="43">
+        <v>44212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -28618,8 +28755,11 @@
       <c r="J18" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K18" s="43">
+        <v>44213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -28650,8 +28790,11 @@
       <c r="J19" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K19" s="43">
+        <v>44214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -28682,8 +28825,11 @@
       <c r="J20" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K20" s="43">
+        <v>44215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -28714,8 +28860,11 @@
       <c r="J21" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K21" s="43">
+        <v>44216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -28746,8 +28895,11 @@
       <c r="J22" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K22" s="43">
+        <v>44217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -28778,8 +28930,11 @@
       <c r="J23" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K23" s="43">
+        <v>44218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -28810,8 +28965,11 @@
       <c r="J24" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K24" s="43">
+        <v>44219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -28842,8 +29000,11 @@
       <c r="J25" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K25" s="43">
+        <v>44220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -28874,8 +29035,11 @@
       <c r="J26" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K26" s="43">
+        <v>44221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -28906,8 +29070,11 @@
       <c r="J27" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K27" s="43">
+        <v>44222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -28937,6 +29104,9 @@
       </c>
       <c r="J28" t="s">
         <v>969</v>
+      </c>
+      <c r="K28" s="43">
+        <v>44223</v>
       </c>
     </row>
   </sheetData>

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\finalproject-workspace\thezo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F073BD-3B49-4CC1-B03A-E2A662DABE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2728DDA9-41F5-4FA7-93BB-BFC9C8E9A98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11865" yWindow="135" windowWidth="25185" windowHeight="21600" tabRatio="919" firstSheet="16" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9630" yWindow="0" windowWidth="25185" windowHeight="21600" tabRatio="919" firstSheet="17" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="member(sample)" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2941" uniqueCount="1211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3018" uniqueCount="1232">
   <si>
     <t xml:space="preserve">	서울특별시송파구올림픽로 99(잠실동, 잠실엘스)</t>
   </si>
@@ -2612,10 +2612,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TheZo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>강보람</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2624,10 +2620,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>thezopjt@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>서비스업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2652,10 +2644,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Boram. Kang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TheKang</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2685,22 +2673,6 @@
   </si>
   <si>
     <t>ATT_STATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정상출근</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결근</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조퇴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3362,10 +3334,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MEM_NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RE_MAIL_NO</t>
   </si>
   <si>
@@ -4287,6 +4255,119 @@
   </si>
   <si>
     <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0300</t>
+  </si>
+  <si>
+    <t>D0400</t>
+  </si>
+  <si>
+    <t>D0500</t>
+  </si>
+  <si>
+    <t>D0600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0701</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0502</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0502</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0701</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theKangpjt@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boram, Kang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REF_MEM_NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4579,9 +4660,6 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4630,6 +4708,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4975,8 +5056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y492"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5010,37 +5091,37 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>1107</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>1108</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>1109</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>1110</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>1111</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>1112</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>1113</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>1114</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>1115</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>1116</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>1117</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>211</v>
@@ -5049,19 +5130,19 @@
         <v>212</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>1118</v>
+        <v>1110</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>1119</v>
+        <v>1111</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>1120</v>
+        <v>1112</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>1121</v>
+        <v>1113</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>1122</v>
+        <v>1114</v>
       </c>
       <c r="S1" s="4" t="s">
         <v>214</v>
@@ -5073,7 +5154,7 @@
         <v>216</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="W1" s="4" t="s">
         <v>217</v>
@@ -5090,22 +5171,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1124</v>
+        <v>1116</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1125</v>
+        <v>1117</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>141</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
       <c r="H2" s="8">
         <v>33093</v>
@@ -5116,14 +5197,14 @@
       <c r="J2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K2" s="4">
-        <v>3</v>
+      <c r="K2" s="4" t="s">
+        <v>1216</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
       <c r="O2" s="4">
         <v>244</v>
@@ -5147,7 +5228,7 @@
         <v>223</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>1206</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -5155,22 +5236,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1131</v>
+        <v>1123</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1132</v>
+        <v>1124</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>142</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
       <c r="H3" s="8">
         <v>36161</v>
@@ -5181,17 +5262,17 @@
       <c r="J3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="4">
-        <v>1</v>
+      <c r="K3" s="4" t="s">
+        <v>1217</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>1135</v>
+        <v>1127</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>1135</v>
+        <v>1127</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>1135</v>
+        <v>1127</v>
       </c>
       <c r="O3" s="4">
         <v>200</v>
@@ -5210,10 +5291,10 @@
         <v>19</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="Y3" s="4" t="s">
         <v>223</v>
@@ -5227,7 +5308,7 @@
         <v>226</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>112</v>
@@ -5245,19 +5326,19 @@
         <v>25934</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>1136</v>
+        <v>1128</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="4">
-        <v>2</v>
+      <c r="K4" s="4" t="s">
+        <v>1218</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>1137</v>
+        <v>1129</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>1138</v>
+        <v>1130</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>229</v>
@@ -5279,10 +5360,10 @@
         <v>22</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
       <c r="Y4" s="4" t="s">
         <v>223</v>
@@ -5296,13 +5377,13 @@
         <v>230</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>1191</v>
+        <v>1183</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>144</v>
@@ -5319,14 +5400,14 @@
       <c r="J5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="4">
-        <v>3</v>
+      <c r="K5" s="4" t="s">
+        <v>1216</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>1192</v>
+        <v>1184</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>234</v>
@@ -5351,7 +5432,7 @@
         <v>223</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
       <c r="Y5" s="4" t="s">
         <v>223</v>
@@ -5365,13 +5446,13 @@
         <v>235</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>236</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>1194</v>
+        <v>1186</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>145</v>
@@ -5383,19 +5464,19 @@
         <v>30804</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>1195</v>
+        <v>1187</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K6" s="4">
-        <v>6</v>
+      <c r="K6" s="4" t="s">
+        <v>1219</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>268</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>1196</v>
+        <v>1188</v>
       </c>
       <c r="O6" s="4">
         <v>203</v>
@@ -5417,10 +5498,10 @@
         <v>223</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>1197</v>
+        <v>1189</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -5431,13 +5512,13 @@
         <v>240</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>1198</v>
+        <v>1190</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>146</v>
@@ -5449,16 +5530,16 @@
         <v>33919</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>1199</v>
+        <v>1191</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="4">
-        <v>3</v>
+      <c r="K7" s="4" t="s">
+        <v>1216</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>1192</v>
+        <v>1184</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>222</v>
@@ -5480,13 +5561,13 @@
         <v>15</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
       <c r="X7" s="4" t="s">
         <v>239</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -5497,7 +5578,7 @@
         <v>242</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>107</v>
@@ -5515,16 +5596,16 @@
         <v>34963</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="4">
-        <v>3</v>
+      <c r="K8" s="4" t="s">
+        <v>1216</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>1192</v>
+        <v>1184</v>
       </c>
       <c r="N8" s="4" t="s">
         <v>244</v>
@@ -5546,10 +5627,10 @@
         <v>12</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>1202</v>
+        <v>1194</v>
       </c>
       <c r="Y8" s="4" t="s">
         <v>223</v>
@@ -5563,7 +5644,7 @@
         <v>245</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>134</v>
@@ -5586,8 +5667,8 @@
       <c r="J9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="4">
-        <v>4</v>
+      <c r="K9" s="4" t="s">
+        <v>1220</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>248</v>
@@ -5596,7 +5677,7 @@
         <v>233</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>1203</v>
+        <v>1195</v>
       </c>
       <c r="O9" s="4">
         <v>207</v>
@@ -5620,7 +5701,7 @@
         <v>223</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -5631,13 +5712,13 @@
         <v>249</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>135</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>1191</v>
+        <v>1183</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>149</v>
@@ -5649,13 +5730,13 @@
         <v>32312</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>1204</v>
+        <v>1196</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="4">
-        <v>4</v>
+      <c r="K10" s="4" t="s">
+        <v>1220</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>248</v>
@@ -5679,13 +5760,13 @@
         <v>15</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>1197</v>
+        <v>1189</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -5696,13 +5777,13 @@
         <v>251</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>150</v>
@@ -5714,16 +5795,16 @@
         <v>34315</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>1147</v>
+        <v>1139</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="4">
-        <v>4</v>
+      <c r="K11" s="4" t="s">
+        <v>1220</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>222</v>
@@ -5747,10 +5828,10 @@
         <v>223</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -5761,7 +5842,7 @@
         <v>253</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>101</v>
@@ -5779,13 +5860,13 @@
         <v>35329</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>1148</v>
+        <v>1140</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="4">
-        <v>4</v>
+      <c r="K12" s="4" t="s">
+        <v>1220</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>248</v>
@@ -5809,10 +5890,10 @@
         <v>15</v>
       </c>
       <c r="W12" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="Y12" s="4" t="s">
         <v>223</v>
@@ -5826,13 +5907,13 @@
         <v>255</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>79</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>152</v>
@@ -5849,8 +5930,8 @@
       <c r="J13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="K13" s="4">
-        <v>5</v>
+      <c r="K13" s="4" t="s">
+        <v>1221</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>258</v>
@@ -5859,7 +5940,7 @@
         <v>233</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>1141</v>
+        <v>1133</v>
       </c>
       <c r="O13" s="4">
         <v>212</v>
@@ -5880,10 +5961,10 @@
         <v>223</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="Y13" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -5894,7 +5975,7 @@
         <v>259</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>137</v>
@@ -5912,19 +5993,19 @@
         <v>31169</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>1150</v>
+        <v>1142</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K14" s="4">
-        <v>5</v>
+      <c r="K14" s="4" t="s">
+        <v>1221</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>258</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>1143</v>
+        <v>1135</v>
       </c>
       <c r="O14" s="4">
         <v>213</v>
@@ -5942,13 +6023,13 @@
         <v>15</v>
       </c>
       <c r="W14" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="X14" s="4" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="Y14" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -5959,7 +6040,7 @@
         <v>261</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>119</v>
@@ -5982,8 +6063,8 @@
       <c r="J15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K15" s="4">
-        <v>5</v>
+      <c r="K15" s="4" t="s">
+        <v>1221</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>258</v>
@@ -6007,10 +6088,10 @@
         <v>15</v>
       </c>
       <c r="W15" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="Y15" s="4" t="s">
         <v>223</v>
@@ -6024,13 +6105,13 @@
         <v>264</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>155</v>
@@ -6042,19 +6123,19 @@
         <v>35842</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>1151</v>
+        <v>1143</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="4">
-        <v>5</v>
+      <c r="K16" s="4" t="s">
+        <v>1221</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>258</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
       <c r="O16" s="4">
         <v>215</v>
@@ -6072,13 +6153,13 @@
         <v>15</v>
       </c>
       <c r="W16" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="X16" s="4" t="s">
         <v>239</v>
       </c>
       <c r="Y16" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
@@ -6089,7 +6170,7 @@
         <v>266</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>138</v>
@@ -6107,22 +6188,22 @@
         <v>25934</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K17" s="4">
-        <v>6</v>
+      <c r="K17" s="4" t="s">
+        <v>1219</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>1142</v>
+        <v>1134</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>228</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>1139</v>
+        <v>1131</v>
       </c>
       <c r="O17" s="4">
         <v>216</v>
@@ -6143,7 +6224,7 @@
         <v>223</v>
       </c>
       <c r="X17" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="Y17" s="4" t="s">
         <v>223</v>
@@ -6157,7 +6238,7 @@
         <v>269</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>115</v>
@@ -6180,17 +6261,17 @@
       <c r="J18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="4">
-        <v>7</v>
+      <c r="K18" s="4" t="s">
+        <v>1222</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>272</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>1140</v>
+        <v>1132</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>1141</v>
+        <v>1133</v>
       </c>
       <c r="O18" s="4">
         <v>217</v>
@@ -6208,10 +6289,10 @@
         <v>15</v>
       </c>
       <c r="W18" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="X18" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="Y18" s="4" t="s">
         <v>223</v>
@@ -6225,7 +6306,7 @@
         <v>273</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>82</v>
@@ -6243,19 +6324,19 @@
         <v>32799</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>1154</v>
+        <v>1146</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K19" s="4">
-        <v>7</v>
+      <c r="K19" s="4" t="s">
+        <v>1222</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>272</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>1143</v>
+        <v>1135</v>
       </c>
       <c r="O19" s="4">
         <v>218</v>
@@ -6273,13 +6354,13 @@
         <v>15</v>
       </c>
       <c r="W19" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="X19" s="4" t="s">
         <v>239</v>
       </c>
       <c r="Y19" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
@@ -6290,13 +6371,13 @@
         <v>275</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>159</v>
@@ -6308,16 +6389,16 @@
         <v>33584</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>1155</v>
+        <v>1147</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K20" s="4">
-        <v>7</v>
+      <c r="K20" s="4" t="s">
+        <v>1222</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>1153</v>
+        <v>1145</v>
       </c>
       <c r="N20" s="4" t="s">
         <v>222</v>
@@ -6341,10 +6422,10 @@
         <v>223</v>
       </c>
       <c r="X20" s="4" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="Y20" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
@@ -6355,13 +6436,13 @@
         <v>277</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>75</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>160</v>
@@ -6378,8 +6459,8 @@
       <c r="J21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K21" s="4">
-        <v>7</v>
+      <c r="K21" s="4" t="s">
+        <v>1222</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>272</v>
@@ -6403,13 +6484,13 @@
         <v>15</v>
       </c>
       <c r="W21" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="X21" s="4" t="s">
         <v>239</v>
       </c>
       <c r="Y21" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
@@ -6420,13 +6501,13 @@
         <v>280</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>126</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>161</v>
@@ -6438,16 +6519,16 @@
         <v>29214</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>1156</v>
+        <v>1148</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K22" s="4">
-        <v>8</v>
+      <c r="K22" s="4" t="s">
+        <v>1223</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>233</v>
@@ -6471,13 +6552,13 @@
         <v>15</v>
       </c>
       <c r="W22" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="X22" s="4" t="s">
         <v>223</v>
       </c>
       <c r="Y22" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
@@ -6488,13 +6569,13 @@
         <v>283</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>162</v>
@@ -6511,14 +6592,14 @@
       <c r="J23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K23" s="4">
-        <v>8</v>
+      <c r="K23" s="4" t="s">
+        <v>1223</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>282</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>1143</v>
+        <v>1135</v>
       </c>
       <c r="O23" s="4">
         <v>223</v>
@@ -6536,7 +6617,7 @@
         <v>15</v>
       </c>
       <c r="W23" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="X23" s="4" t="s">
         <v>239</v>
@@ -6553,7 +6634,7 @@
         <v>286</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>72</v>
@@ -6576,14 +6657,14 @@
       <c r="J24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K24" s="4">
-        <v>8</v>
+      <c r="K24" s="4" t="s">
+        <v>1223</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
       <c r="O24" s="4">
         <v>224</v>
@@ -6607,7 +6688,7 @@
         <v>239</v>
       </c>
       <c r="Y24" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -6618,7 +6699,7 @@
         <v>289</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>84</v>
@@ -6641,11 +6722,11 @@
       <c r="J25" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K25" s="4">
-        <v>8</v>
+      <c r="K25" s="4" t="s">
+        <v>1223</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="N25" s="4" t="s">
         <v>244</v>
@@ -6666,13 +6747,13 @@
         <v>15</v>
       </c>
       <c r="W25" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="X25" s="4" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="Y25" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
@@ -6683,13 +6764,13 @@
         <v>292</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>131</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>165</v>
@@ -6706,14 +6787,14 @@
       <c r="J26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K26" s="4">
-        <v>9</v>
+      <c r="K26" s="4" t="s">
+        <v>1224</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>1158</v>
+        <v>1150</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>1140</v>
+        <v>1132</v>
       </c>
       <c r="N26" s="4" t="s">
         <v>234</v>
@@ -6734,7 +6815,7 @@
         <v>15</v>
       </c>
       <c r="W26" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="X26" s="4" t="s">
         <v>223</v>
@@ -6751,7 +6832,7 @@
         <v>296</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>132</v>
@@ -6769,13 +6850,13 @@
         <v>32476</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>1159</v>
+        <v>1151</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K27" s="4">
-        <v>9</v>
+      <c r="K27" s="4" t="s">
+        <v>1224</v>
       </c>
       <c r="L27" s="4" t="s">
         <v>295</v>
@@ -6799,10 +6880,10 @@
         <v>15</v>
       </c>
       <c r="W27" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="X27" s="4" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="Y27" s="4" t="s">
         <v>223</v>
@@ -6816,13 +6897,13 @@
         <v>298</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>167</v>
@@ -6839,14 +6920,14 @@
       <c r="J28" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K28" s="4">
-        <v>9</v>
+      <c r="K28" s="4" t="s">
+        <v>1224</v>
       </c>
       <c r="L28" s="4" t="s">
         <v>295</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
       <c r="O28" s="4">
         <v>229</v>
@@ -6867,10 +6948,10 @@
         <v>223</v>
       </c>
       <c r="X28" s="4" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="Y28" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
@@ -6881,13 +6962,13 @@
         <v>301</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>168</v>
@@ -6899,16 +6980,16 @@
         <v>34628</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>1160</v>
+        <v>1152</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K29" s="4">
-        <v>9</v>
+      <c r="K29" s="4" t="s">
+        <v>1224</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>1158</v>
+        <v>1150</v>
       </c>
       <c r="N29" s="4" t="s">
         <v>244</v>
@@ -6932,10 +7013,10 @@
         <v>223</v>
       </c>
       <c r="X29" s="4" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="Y29" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
@@ -6946,13 +7027,13 @@
         <v>303</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>169</v>
@@ -6969,17 +7050,17 @@
       <c r="J30" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K30" s="4">
-        <v>10</v>
+      <c r="K30" s="4" t="s">
+        <v>1225</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>1161</v>
+        <v>1153</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>1138</v>
+        <v>1130</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>1139</v>
+        <v>1131</v>
       </c>
       <c r="O30" s="4">
         <v>231</v>
@@ -6997,7 +7078,7 @@
         <v>15</v>
       </c>
       <c r="W30" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="X30" s="4" t="s">
         <v>223</v>
@@ -7014,7 +7095,7 @@
         <v>306</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>76</v>
@@ -7032,22 +7113,22 @@
         <v>28452</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>1162</v>
+        <v>1154</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K31" s="4">
-        <v>11</v>
+      <c r="K31" s="4" t="s">
+        <v>1226</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>233</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>1141</v>
+        <v>1133</v>
       </c>
       <c r="O31" s="4">
         <v>232</v>
@@ -7068,7 +7149,7 @@
         <v>223</v>
       </c>
       <c r="X31" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="Y31" s="4" t="s">
         <v>223</v>
@@ -7082,13 +7163,13 @@
         <v>309</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>171</v>
@@ -7105,11 +7186,11 @@
       <c r="J32" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K32" s="4">
-        <v>11</v>
+      <c r="K32" s="4" t="s">
+        <v>1226</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
       <c r="N32" s="4" t="s">
         <v>238</v>
@@ -7147,13 +7228,13 @@
         <v>312</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>172</v>
@@ -7165,19 +7246,19 @@
         <v>34723</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>1164</v>
+        <v>1156</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K33" s="4">
-        <v>11</v>
+      <c r="K33" s="4" t="s">
+        <v>1226</v>
       </c>
       <c r="L33" s="4" t="s">
         <v>308</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
       <c r="O33" s="4">
         <v>234</v>
@@ -7201,7 +7282,7 @@
         <v>239</v>
       </c>
       <c r="Y33" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
@@ -7212,7 +7293,7 @@
         <v>314</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>91</v>
@@ -7235,8 +7316,8 @@
       <c r="J34" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K34" s="4">
-        <v>11</v>
+      <c r="K34" s="4" t="s">
+        <v>1226</v>
       </c>
       <c r="L34" s="4" t="s">
         <v>308</v>
@@ -7266,7 +7347,7 @@
         <v>239</v>
       </c>
       <c r="Y34" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
@@ -7277,7 +7358,7 @@
         <v>317</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>128</v>
@@ -7300,17 +7381,17 @@
       <c r="J35" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K35" s="4">
-        <v>12</v>
+      <c r="K35" s="4" t="s">
+        <v>1227</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>233</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>1141</v>
+        <v>1133</v>
       </c>
       <c r="O35" s="4">
         <v>236</v>
@@ -7328,13 +7409,13 @@
         <v>15</v>
       </c>
       <c r="W35" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="X35" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="Y35" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
@@ -7345,7 +7426,7 @@
         <v>321</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>133</v>
@@ -7363,16 +7444,16 @@
         <v>30904</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>1166</v>
+        <v>1158</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K36" s="4">
-        <v>12</v>
+      <c r="K36" s="4" t="s">
+        <v>1227</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
       <c r="N36" s="4" t="s">
         <v>238</v>
@@ -7393,7 +7474,7 @@
         <v>15</v>
       </c>
       <c r="W36" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="X36" s="4" t="s">
         <v>239</v>
@@ -7410,7 +7491,7 @@
         <v>323</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>96</v>
@@ -7428,13 +7509,13 @@
         <v>33745</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>1167</v>
+        <v>1159</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K37" s="4">
-        <v>12</v>
+      <c r="K37" s="4" t="s">
+        <v>1227</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>320</v>
@@ -7458,10 +7539,10 @@
         <v>15</v>
       </c>
       <c r="W37" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="X37" s="4" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="Y37" s="4" t="s">
         <v>223</v>
@@ -7475,13 +7556,13 @@
         <v>325</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>116</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>177</v>
@@ -7498,14 +7579,14 @@
       <c r="J38" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="4">
-        <v>12</v>
+      <c r="K38" s="4" t="s">
+        <v>1227</v>
       </c>
       <c r="L38" s="4" t="s">
         <v>320</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
       <c r="O38" s="4">
         <v>239</v>
@@ -7526,10 +7607,10 @@
         <v>223</v>
       </c>
       <c r="X38" s="4" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="Y38" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
@@ -7540,13 +7621,13 @@
         <v>328</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>87</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>178</v>
@@ -7558,16 +7639,16 @@
         <v>31923</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K39" s="4">
-        <v>13</v>
+      <c r="K39" s="4" t="s">
+        <v>1228</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>233</v>
@@ -7591,10 +7672,10 @@
         <v>15</v>
       </c>
       <c r="W39" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="Y39" s="4" t="s">
         <v>223</v>
@@ -7608,7 +7689,7 @@
         <v>331</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>97</v>
@@ -7626,19 +7707,19 @@
         <v>30804</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>1170</v>
+        <v>1162</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K40" s="4">
-        <v>13</v>
+      <c r="K40" s="4" t="s">
+        <v>1228</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>1143</v>
+        <v>1135</v>
       </c>
       <c r="O40" s="4">
         <v>241</v>
@@ -7656,7 +7737,7 @@
         <v>15</v>
       </c>
       <c r="W40" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="X40" s="4" t="s">
         <v>223</v>
@@ -7673,7 +7754,7 @@
         <v>333</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>78</v>
@@ -7691,16 +7772,16 @@
         <v>34830</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>1171</v>
+        <v>1163</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K41" s="4">
-        <v>13</v>
+      <c r="K41" s="4" t="s">
+        <v>1228</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
       <c r="N41" s="4" t="s">
         <v>222</v>
@@ -7721,13 +7802,13 @@
         <v>15</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="X41" s="4" t="s">
         <v>239</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
@@ -7738,13 +7819,13 @@
         <v>335</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>136</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>181</v>
@@ -7756,19 +7837,19 @@
         <v>34963</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>1172</v>
+        <v>1164</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K42" s="4">
-        <v>13</v>
+      <c r="K42" s="4" t="s">
+        <v>1228</v>
       </c>
       <c r="L42" s="4" t="s">
         <v>330</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
       <c r="O42" s="4">
         <v>243</v>
@@ -7803,7 +7884,7 @@
         <v>337</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>81</v>
@@ -7821,16 +7902,16 @@
         <v>35773</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>1173</v>
+        <v>1165</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K43" s="4">
-        <v>3</v>
+      <c r="K43" s="4" t="s">
+        <v>1216</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
       <c r="N43" s="4" t="s">
         <v>244</v>
@@ -7851,7 +7932,7 @@
         <v>15</v>
       </c>
       <c r="W43" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="X43" s="4" t="s">
         <v>239</v>
@@ -7868,7 +7949,7 @@
         <v>339</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>130</v>
@@ -7891,8 +7972,8 @@
       <c r="J44" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K44" s="4">
-        <v>3</v>
+      <c r="K44" s="4" t="s">
+        <v>1216</v>
       </c>
       <c r="L44" s="4" t="s">
         <v>221</v>
@@ -7933,13 +8014,13 @@
         <v>342</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>184</v>
@@ -7951,16 +8032,16 @@
         <v>32177</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>1174</v>
+        <v>1166</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K45" s="4">
-        <v>3</v>
+      <c r="K45" s="4" t="s">
+        <v>1216</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
       <c r="N45" s="4" t="s">
         <v>222</v>
@@ -7981,7 +8062,7 @@
         <v>15</v>
       </c>
       <c r="W45" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="X45" s="4" t="s">
         <v>239</v>
@@ -7998,13 +8079,13 @@
         <v>344</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>183</v>
@@ -8021,14 +8102,14 @@
       <c r="J46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K46" s="4">
-        <v>3</v>
+      <c r="K46" s="4" t="s">
+        <v>1216</v>
       </c>
       <c r="L46" s="4" t="s">
         <v>221</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
       <c r="P46" s="8">
         <v>43761</v>
@@ -8063,7 +8144,7 @@
         <v>347</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>117</v>
@@ -8081,19 +8162,19 @@
         <v>36161</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K47" s="4">
-        <v>4</v>
+      <c r="K47" s="4" t="s">
+        <v>1220</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>1143</v>
+        <v>1135</v>
       </c>
       <c r="P47" s="8">
         <v>44197</v>
@@ -8111,7 +8192,7 @@
         <v>15</v>
       </c>
       <c r="W47" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="X47" s="4" t="s">
         <v>239</v>
@@ -8128,7 +8209,7 @@
         <v>349</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>139</v>
@@ -8151,14 +8232,14 @@
       <c r="J48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K48" s="4">
-        <v>4</v>
+      <c r="K48" s="4" t="s">
+        <v>1220</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
       <c r="P48" s="8">
         <v>40634</v>
@@ -8182,7 +8263,7 @@
         <v>239</v>
       </c>
       <c r="Y48" s="4" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
@@ -8193,7 +8274,7 @@
         <v>352</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>89</v>
@@ -8211,16 +8292,16 @@
         <v>28159</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="4">
-        <v>4</v>
+      <c r="K49" s="4" t="s">
+        <v>1220</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="N49" s="4" t="s">
         <v>244</v>
@@ -8241,10 +8322,10 @@
         <v>15</v>
       </c>
       <c r="W49" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="X49" s="4" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="Y49" s="4" t="s">
         <v>239</v>
@@ -8258,13 +8339,13 @@
         <v>354</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>187</v>
@@ -8281,17 +8362,17 @@
       <c r="J50" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K50" s="4">
-        <v>4</v>
+      <c r="K50" s="4" t="s">
+        <v>1220</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>233</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>1141</v>
+        <v>1133</v>
       </c>
       <c r="P50" s="8">
         <v>40950</v>
@@ -8312,7 +8393,7 @@
         <v>223</v>
       </c>
       <c r="X50" s="4" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="Y50" s="4" t="s">
         <v>239</v>
@@ -8326,7 +8407,7 @@
         <v>357</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>110</v>
@@ -8344,19 +8425,19 @@
         <v>33919</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>1177</v>
+        <v>1169</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="K51" s="4">
-        <v>5</v>
+      <c r="K51" s="4" t="s">
+        <v>1221</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>1149</v>
+        <v>1141</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>1143</v>
+        <v>1135</v>
       </c>
       <c r="P51" s="8">
         <v>43761</v>
@@ -8374,13 +8455,13 @@
         <v>15</v>
       </c>
       <c r="W51" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="X51" s="4" t="s">
         <v>239</v>
       </c>
       <c r="Y51" s="4" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
@@ -8391,13 +8472,13 @@
         <v>359</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>189</v>
@@ -8414,14 +8495,14 @@
       <c r="J52" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K52" s="4">
-        <v>5</v>
+      <c r="K52" s="4" t="s">
+        <v>1221</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>1149</v>
+        <v>1141</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
       <c r="P52" s="8">
         <v>44197</v>
@@ -8442,7 +8523,7 @@
         <v>223</v>
       </c>
       <c r="X52" s="4" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="Y52" s="4" t="s">
         <v>239</v>
@@ -8456,13 +8537,13 @@
         <v>362</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>190</v>
@@ -8474,13 +8555,13 @@
         <v>27737</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>1178</v>
+        <v>1170</v>
       </c>
       <c r="J53" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K53" s="4">
-        <v>5</v>
+      <c r="K53" s="4" t="s">
+        <v>1221</v>
       </c>
       <c r="L53" s="4" t="s">
         <v>258</v>
@@ -8504,10 +8585,10 @@
         <v>15</v>
       </c>
       <c r="W53" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="X53" s="4" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="Y53" s="4" t="s">
         <v>239</v>
@@ -8521,7 +8602,7 @@
         <v>364</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>129</v>
@@ -8544,14 +8625,14 @@
       <c r="J54" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K54" s="4">
-        <v>5</v>
+      <c r="K54" s="4" t="s">
+        <v>1221</v>
       </c>
       <c r="L54" s="4" t="s">
         <v>258</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>1140</v>
+        <v>1132</v>
       </c>
       <c r="N54" s="4" t="s">
         <v>234</v>
@@ -8572,13 +8653,13 @@
         <v>15</v>
       </c>
       <c r="W54" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="X54" s="4" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="Y54" s="4" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
@@ -8589,13 +8670,13 @@
         <v>367</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>192</v>
@@ -8612,14 +8693,14 @@
       <c r="J55" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K55" s="4">
-        <v>7</v>
+      <c r="K55" s="4" t="s">
+        <v>1222</v>
       </c>
       <c r="L55" s="4" t="s">
         <v>272</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>1143</v>
+        <v>1135</v>
       </c>
       <c r="P55" s="8">
         <v>43396</v>
@@ -8637,13 +8718,13 @@
         <v>15</v>
       </c>
       <c r="W55" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="X55" s="4" t="s">
         <v>239</v>
       </c>
       <c r="Y55" s="4" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
@@ -8654,7 +8735,7 @@
         <v>370</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>140</v>
@@ -8672,16 +8753,16 @@
         <v>35329</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>1179</v>
+        <v>1171</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K56" s="4">
-        <v>7</v>
+      <c r="K56" s="4" t="s">
+        <v>1222</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>1153</v>
+        <v>1145</v>
       </c>
       <c r="N56" s="4" t="s">
         <v>222</v>
@@ -8702,10 +8783,10 @@
         <v>15</v>
       </c>
       <c r="W56" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="X56" s="4" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="Y56" s="4" t="s">
         <v>239</v>
@@ -8719,7 +8800,7 @@
         <v>372</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>120</v>
@@ -8737,19 +8818,19 @@
         <v>29223</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K57" s="4">
-        <v>7</v>
+      <c r="K57" s="4" t="s">
+        <v>1222</v>
       </c>
       <c r="L57" s="4" t="s">
         <v>272</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
       <c r="P57" s="8">
         <v>40675</v>
@@ -8784,13 +8865,13 @@
         <v>374</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>195</v>
@@ -8802,16 +8883,16 @@
         <v>31169</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K58" s="4">
-        <v>7</v>
+      <c r="K58" s="4" t="s">
+        <v>1222</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>1153</v>
+        <v>1145</v>
       </c>
       <c r="N58" s="4" t="s">
         <v>244</v>
@@ -8832,13 +8913,13 @@
         <v>15</v>
       </c>
       <c r="W58" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="X58" s="4" t="s">
         <v>239</v>
       </c>
       <c r="Y58" s="4" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
@@ -8849,13 +8930,13 @@
         <v>376</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>114</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>196</v>
@@ -8867,19 +8948,19 @@
         <v>35012</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K59" s="4">
-        <v>8</v>
+      <c r="K59" s="4" t="s">
+        <v>1223</v>
       </c>
       <c r="L59" s="4" t="s">
         <v>282</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
       <c r="P59" s="8">
         <v>43761</v>
@@ -8900,10 +8981,10 @@
         <v>223</v>
       </c>
       <c r="X59" s="4" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="Y59" s="4" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
@@ -8914,7 +8995,7 @@
         <v>378</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>125</v>
@@ -8937,14 +9018,14 @@
       <c r="J60" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K60" s="4">
-        <v>8</v>
+      <c r="K60" s="4" t="s">
+        <v>1223</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>1143</v>
+        <v>1135</v>
       </c>
       <c r="P60" s="8">
         <v>44197</v>
@@ -8965,7 +9046,7 @@
         <v>223</v>
       </c>
       <c r="X60" s="4" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="Y60" s="4" t="s">
         <v>239</v>
@@ -8979,7 +9060,7 @@
         <v>381</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>113</v>
@@ -8997,19 +9078,19 @@
         <v>25934</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>1183</v>
+        <v>1175</v>
       </c>
       <c r="J61" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K61" s="4">
-        <v>8</v>
+      <c r="K61" s="4" t="s">
+        <v>1223</v>
       </c>
       <c r="L61" s="4" t="s">
         <v>282</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
       <c r="P61" s="8">
         <v>40634</v>
@@ -9027,13 +9108,13 @@
         <v>15</v>
       </c>
       <c r="W61" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="X61" s="4" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="Y61" s="4" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
@@ -9044,7 +9125,7 @@
         <v>383</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>102</v>
@@ -9067,11 +9148,11 @@
       <c r="J62" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K62" s="4">
-        <v>8</v>
+      <c r="K62" s="4" t="s">
+        <v>1223</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="N62" s="4" t="s">
         <v>244</v>
@@ -9092,13 +9173,13 @@
         <v>15</v>
       </c>
       <c r="W62" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="X62" s="4" t="s">
         <v>239</v>
       </c>
       <c r="Y62" s="4" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
@@ -9109,7 +9190,7 @@
         <v>386</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>124</v>
@@ -9127,16 +9208,16 @@
         <v>32799</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>1184</v>
+        <v>1176</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K63" s="4">
-        <v>9</v>
+      <c r="K63" s="4" t="s">
+        <v>1224</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>1158</v>
+        <v>1150</v>
       </c>
       <c r="N63" s="4" t="s">
         <v>238</v>
@@ -9160,7 +9241,7 @@
         <v>223</v>
       </c>
       <c r="X63" s="4" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="Y63" s="4" t="s">
         <v>239</v>
@@ -9174,13 +9255,13 @@
         <v>388</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>201</v>
@@ -9197,14 +9278,14 @@
       <c r="J64" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K64" s="4">
-        <v>9</v>
+      <c r="K64" s="4" t="s">
+        <v>1224</v>
       </c>
       <c r="L64" s="4" t="s">
         <v>295</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>1143</v>
+        <v>1135</v>
       </c>
       <c r="P64" s="8">
         <v>43761</v>
@@ -9239,7 +9320,7 @@
         <v>391</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>108</v>
@@ -9257,19 +9338,19 @@
         <v>34917</v>
       </c>
       <c r="I65" s="12" t="s">
-        <v>1185</v>
+        <v>1177</v>
       </c>
       <c r="J65" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K65" s="4">
-        <v>9</v>
+      <c r="K65" s="4" t="s">
+        <v>1224</v>
       </c>
       <c r="L65" s="4" t="s">
         <v>295</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
       <c r="P65" s="8">
         <v>44197</v>
@@ -9290,7 +9371,7 @@
         <v>223</v>
       </c>
       <c r="X65" s="4" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="Y65" s="4" t="s">
         <v>239</v>
@@ -9304,7 +9385,7 @@
         <v>393</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>99</v>
@@ -9327,14 +9408,14 @@
       <c r="J66" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K66" s="4">
-        <v>9</v>
+      <c r="K66" s="4" t="s">
+        <v>1224</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>1158</v>
+        <v>1150</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
       <c r="P66" s="8">
         <v>44116</v>
@@ -9358,7 +9439,7 @@
         <v>239</v>
       </c>
       <c r="Y66" s="4" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
@@ -9369,7 +9450,7 @@
         <v>396</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>73</v>
@@ -9387,16 +9468,16 @@
         <v>30743</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>1186</v>
+        <v>1178</v>
       </c>
       <c r="J67" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K67" s="4">
-        <v>11</v>
+      <c r="K67" s="4" t="s">
+        <v>1226</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
       <c r="N67" s="4" t="s">
         <v>222</v>
@@ -9417,10 +9498,10 @@
         <v>15</v>
       </c>
       <c r="W67" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="X67" s="4" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="Y67" s="4" t="s">
         <v>239</v>
@@ -9434,13 +9515,13 @@
         <v>398</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>205</v>
@@ -9457,11 +9538,11 @@
       <c r="J68" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K68" s="4">
-        <v>11</v>
+      <c r="K68" s="4" t="s">
+        <v>1226</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
       <c r="N68" s="4" t="s">
         <v>238</v>
@@ -9482,13 +9563,13 @@
         <v>15</v>
       </c>
       <c r="W68" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="X68" s="4" t="s">
         <v>239</v>
       </c>
       <c r="Y68" s="4" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
@@ -9499,7 +9580,7 @@
         <v>400</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>123</v>
@@ -9522,14 +9603,14 @@
       <c r="J69" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K69" s="4">
-        <v>11</v>
+      <c r="K69" s="4" t="s">
+        <v>1226</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
       <c r="P69" s="8">
         <v>40634</v>
@@ -9547,10 +9628,10 @@
         <v>15</v>
       </c>
       <c r="W69" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="X69" s="4" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="Y69" s="4" t="s">
         <v>239</v>
@@ -9564,7 +9645,7 @@
         <v>402</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>92</v>
@@ -9582,19 +9663,19 @@
         <v>28159</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>1187</v>
+        <v>1179</v>
       </c>
       <c r="J70" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K70" s="4">
-        <v>11</v>
+      <c r="K70" s="4" t="s">
+        <v>1226</v>
       </c>
       <c r="L70" s="4" t="s">
         <v>308</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
       <c r="P70" s="8">
         <v>40675</v>
@@ -9612,13 +9693,13 @@
         <v>15</v>
       </c>
       <c r="W70" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="X70" s="4" t="s">
         <v>239</v>
       </c>
       <c r="Y70" s="4" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
@@ -9629,13 +9710,13 @@
         <v>403</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>86</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>208</v>
@@ -9647,16 +9728,16 @@
         <v>32476</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>1188</v>
+        <v>1180</v>
       </c>
       <c r="J71" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K71" s="4">
-        <v>12</v>
+      <c r="K71" s="4" t="s">
+        <v>1227</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
       <c r="N71" s="4" t="s">
         <v>244</v>
@@ -9680,10 +9761,10 @@
         <v>223</v>
       </c>
       <c r="X71" s="4" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="Y71" s="4" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
@@ -9694,13 +9775,13 @@
         <v>404</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>118</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>209</v>
@@ -9717,8 +9798,8 @@
       <c r="J72" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K72" s="4">
-        <v>12</v>
+      <c r="K72" s="4" t="s">
+        <v>1227</v>
       </c>
       <c r="L72" s="4" t="s">
         <v>320</v>
@@ -9742,13 +9823,13 @@
         <v>15</v>
       </c>
       <c r="W72" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="X72" s="4" t="s">
         <v>239</v>
       </c>
       <c r="Y72" s="4" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
@@ -9759,13 +9840,13 @@
         <v>406</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>210</v>
@@ -9777,16 +9858,16 @@
         <v>34628</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>1189</v>
+        <v>1181</v>
       </c>
       <c r="J73" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K73" s="4">
-        <v>12</v>
+      <c r="K73" s="4" t="s">
+        <v>1227</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
       <c r="N73" s="4" t="s">
         <v>244</v>
@@ -9810,7 +9891,7 @@
         <v>223</v>
       </c>
       <c r="X73" s="4" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="Y73" s="4" t="s">
         <v>239</v>
@@ -17873,31 +17954,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
-        <v>990</v>
-      </c>
-      <c r="B1" s="48" t="s">
-        <v>991</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>992</v>
-      </c>
-      <c r="D1" s="48" t="s">
-        <v>993</v>
-      </c>
-      <c r="E1" s="48" t="s">
-        <v>994</v>
-      </c>
-      <c r="F1" s="48" t="s">
-        <v>995</v>
-      </c>
-      <c r="G1" s="48" t="s">
-        <v>996</v>
-      </c>
-      <c r="H1" s="48" t="s">
-        <v>997</v>
-      </c>
-      <c r="I1" s="48" t="s">
+      <c r="A1" s="47" t="s">
+        <v>982</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>983</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>984</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>985</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>986</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>987</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>988</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>989</v>
+      </c>
+      <c r="I1" s="47" t="s">
         <v>219</v>
       </c>
     </row>
@@ -17909,19 +17990,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F2" s="52" t="s">
-        <v>1090</v>
-      </c>
-      <c r="G2" s="52" t="s">
-        <v>1091</v>
+        <v>992</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>1083</v>
       </c>
       <c r="H2" s="30" t="s">
         <v>239</v>
@@ -17938,19 +18019,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F3" s="52" t="s">
-        <v>1092</v>
-      </c>
-      <c r="G3" s="52" t="s">
-        <v>1092</v>
+        <v>992</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>1084</v>
       </c>
       <c r="H3" s="30" t="s">
         <v>223</v>
@@ -17967,17 +18048,17 @@
         <v>4</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="D4" s="30"/>
       <c r="E4" s="30" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F4" s="52" t="s">
-        <v>1093</v>
-      </c>
-      <c r="G4" s="52" t="s">
-        <v>1093</v>
+        <v>992</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G4" s="51" t="s">
+        <v>1085</v>
       </c>
       <c r="H4" s="30" t="s">
         <v>223</v>
@@ -17994,17 +18075,17 @@
         <v>4</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="D5" s="30"/>
       <c r="E5" s="30" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F5" s="52" t="s">
-        <v>1094</v>
-      </c>
-      <c r="G5" s="52" t="s">
-        <v>1094</v>
+        <v>992</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>1086</v>
       </c>
       <c r="H5" s="30" t="s">
         <v>223</v>
@@ -18021,17 +18102,17 @@
         <v>4</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="D6" s="30"/>
       <c r="E6" s="30" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F6" s="52" t="s">
-        <v>1095</v>
-      </c>
-      <c r="G6" s="52" t="s">
-        <v>1096</v>
+        <v>992</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>1088</v>
       </c>
       <c r="H6" s="30" t="s">
         <v>239</v>
@@ -18048,17 +18129,17 @@
         <v>4</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="D7" s="30"/>
       <c r="E7" s="30" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F7" s="52" t="s">
-        <v>1097</v>
-      </c>
-      <c r="G7" s="52" t="s">
-        <v>1098</v>
+        <v>992</v>
+      </c>
+      <c r="F7" s="51" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>1090</v>
       </c>
       <c r="H7" s="30" t="s">
         <v>239</v>
@@ -18075,17 +18156,17 @@
         <v>4</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="D8" s="30"/>
       <c r="E8" s="30" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F8" s="52" t="s">
-        <v>1099</v>
-      </c>
-      <c r="G8" s="52" t="s">
-        <v>1100</v>
+        <v>992</v>
+      </c>
+      <c r="F8" s="51" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G8" s="51" t="s">
+        <v>1092</v>
       </c>
       <c r="H8" s="30" t="s">
         <v>239</v>
@@ -18102,19 +18183,19 @@
         <v>4</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F9" s="52" t="s">
-        <v>1101</v>
-      </c>
-      <c r="G9" s="52" t="s">
-        <v>1101</v>
+        <v>992</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>1093</v>
       </c>
       <c r="H9" s="30" t="s">
         <v>223</v>
@@ -18131,17 +18212,17 @@
         <v>4</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="D10" s="30"/>
       <c r="E10" s="30" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F10" s="52" t="s">
-        <v>1102</v>
-      </c>
-      <c r="G10" s="52" t="s">
-        <v>1102</v>
+        <v>992</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>1094</v>
       </c>
       <c r="H10" s="30" t="s">
         <v>223</v>
@@ -18158,17 +18239,17 @@
         <v>4</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="D11" s="30"/>
       <c r="E11" s="30" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F11" s="52" t="s">
-        <v>1089</v>
-      </c>
-      <c r="G11" s="52" t="s">
-        <v>1089</v>
+        <v>992</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>1081</v>
       </c>
       <c r="H11" s="30" t="s">
         <v>223</v>
@@ -18185,17 +18266,17 @@
         <v>4</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="D12" s="30"/>
       <c r="E12" s="30" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F12" s="52" t="s">
-        <v>1103</v>
-      </c>
-      <c r="G12" s="52" t="s">
-        <v>1104</v>
+        <v>992</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>1096</v>
       </c>
       <c r="H12" s="30" t="s">
         <v>239</v>
@@ -18212,17 +18293,17 @@
         <v>4</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
       <c r="D13" s="30"/>
       <c r="E13" s="30" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F13" s="52" t="s">
-        <v>1105</v>
-      </c>
-      <c r="G13" s="52" t="s">
-        <v>1106</v>
+        <v>992</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G13" s="51" t="s">
+        <v>1098</v>
       </c>
       <c r="H13" s="30" t="s">
         <v>239</v>
@@ -18259,28 +18340,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>542</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="46" t="s">
         <v>543</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="46" t="s">
         <v>544</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="46" t="s">
         <v>545</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="46" t="s">
         <v>546</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="46" t="s">
         <v>547</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="46" t="s">
         <v>548</v>
       </c>
     </row>
@@ -18750,28 +18831,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
-        <v>990</v>
-      </c>
-      <c r="B1" s="48" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D1" s="48" t="s">
+      <c r="A1" s="47" t="s">
+        <v>982</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D1" s="47" t="s">
         <v>518</v>
       </c>
-      <c r="E1" s="48" t="s">
-        <v>1017</v>
-      </c>
-      <c r="F1" s="48" t="s">
+      <c r="E1" s="47" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F1" s="47" t="s">
         <v>466</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="47" t="s">
         <v>711</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="47" t="s">
         <v>219</v>
       </c>
     </row>
@@ -18783,15 +18864,15 @@
         <v>4</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="E2" s="30"/>
       <c r="F2" s="30"/>
-      <c r="G2" s="52" t="s">
-        <v>1088</v>
+      <c r="G2" s="51" t="s">
+        <v>1080</v>
       </c>
       <c r="H2" s="30" t="s">
         <v>223</v>
@@ -18805,15 +18886,15 @@
         <v>4</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
-      <c r="G3" s="52" t="s">
-        <v>1089</v>
+      <c r="G3" s="51" t="s">
+        <v>1081</v>
       </c>
       <c r="H3" s="30" t="s">
         <v>223</v>
@@ -18842,25 +18923,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B1" s="48" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D1" s="48" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E1" s="51" t="s">
-        <v>1078</v>
-      </c>
-      <c r="F1" s="48" t="s">
+      <c r="A1" s="47" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F1" s="47" t="s">
         <v>711</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="47" t="s">
         <v>219</v>
       </c>
     </row>
@@ -18873,12 +18954,12 @@
         <v>4</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>1076</v>
-      </c>
-      <c r="F2" s="49">
+        <v>1069</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F2" s="48">
         <v>44388</v>
       </c>
       <c r="G2" s="30" t="s">
@@ -18894,12 +18975,12 @@
         <v>4</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F3" s="49">
+        <v>1067</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F3" s="48">
         <v>44389</v>
       </c>
       <c r="G3" s="30" t="s">
@@ -18915,12 +18996,12 @@
         <v>4</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F4" s="49">
+        <v>1065</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F4" s="48">
         <v>44390</v>
       </c>
       <c r="G4" s="30" t="s">
@@ -18936,12 +19017,12 @@
         <v>4</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F5" s="49">
+        <v>1063</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F5" s="48">
         <v>44391</v>
       </c>
       <c r="G5" s="30" t="s">
@@ -18957,12 +19038,12 @@
         <v>4</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>1068</v>
-      </c>
-      <c r="F6" s="49">
+        <v>1061</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F6" s="48">
         <v>44392</v>
       </c>
       <c r="G6" s="30" t="s">
@@ -18978,12 +19059,12 @@
         <v>4</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>1066</v>
-      </c>
-      <c r="F7" s="49">
+        <v>1059</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F7" s="48">
         <v>44393</v>
       </c>
       <c r="G7" s="30" t="s">
@@ -18999,12 +19080,12 @@
         <v>4</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E8" s="50" t="s">
-        <v>1064</v>
-      </c>
-      <c r="F8" s="49">
+        <v>1057</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F8" s="48">
         <v>44394</v>
       </c>
       <c r="G8" s="30" t="s">
@@ -19020,12 +19101,12 @@
         <v>4</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E9" s="50" t="s">
-        <v>1062</v>
-      </c>
-      <c r="F9" s="49">
+        <v>1055</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F9" s="48">
         <v>44395</v>
       </c>
       <c r="G9" s="30" t="s">
@@ -19041,12 +19122,12 @@
         <v>4</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>1060</v>
-      </c>
-      <c r="F10" s="49">
+        <v>1053</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F10" s="48">
         <v>44396</v>
       </c>
       <c r="G10" s="30" t="s">
@@ -19062,12 +19143,12 @@
         <v>4</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>1058</v>
-      </c>
-      <c r="F11" s="49">
+        <v>1051</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F11" s="48">
         <v>44397</v>
       </c>
       <c r="G11" s="30" t="s">
@@ -19083,12 +19164,12 @@
         <v>4</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>1056</v>
-      </c>
-      <c r="F12" s="49">
+        <v>1049</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F12" s="48">
         <v>44398</v>
       </c>
       <c r="G12" s="30" t="s">
@@ -19104,12 +19185,12 @@
         <v>4</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>1055</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>1054</v>
-      </c>
-      <c r="F13" s="49">
+        <v>1047</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F13" s="48">
         <v>44399</v>
       </c>
       <c r="G13" s="30" t="s">
@@ -19125,12 +19206,12 @@
         <v>4</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>1052</v>
-      </c>
-      <c r="F14" s="49">
+        <v>1045</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F14" s="48">
         <v>44400</v>
       </c>
       <c r="G14" s="30" t="s">
@@ -19146,12 +19227,12 @@
         <v>4</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E15" s="50" t="s">
-        <v>1050</v>
-      </c>
-      <c r="F15" s="49">
+        <v>1043</v>
+      </c>
+      <c r="E15" s="49" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F15" s="48">
         <v>44409</v>
       </c>
       <c r="G15" s="30" t="s">
@@ -19167,12 +19248,12 @@
         <v>4</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>1048</v>
-      </c>
-      <c r="F16" s="49">
+        <v>1041</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F16" s="48">
         <v>44410</v>
       </c>
       <c r="G16" s="30" t="s">
@@ -19188,12 +19269,12 @@
         <v>4</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E17" s="50" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F17" s="49">
+        <v>1039</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F17" s="48">
         <v>44411</v>
       </c>
       <c r="G17" s="30" t="s">
@@ -19209,12 +19290,12 @@
         <v>4</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E18" s="50" t="s">
-        <v>1044</v>
-      </c>
-      <c r="F18" s="49">
+        <v>1037</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F18" s="48">
         <v>44412</v>
       </c>
       <c r="G18" s="30" t="s">
@@ -19230,12 +19311,12 @@
         <v>4</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>1043</v>
-      </c>
-      <c r="E19" s="50" t="s">
-        <v>1042</v>
-      </c>
-      <c r="F19" s="49">
+        <v>1035</v>
+      </c>
+      <c r="E19" s="49" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F19" s="48">
         <v>44413</v>
       </c>
       <c r="G19" s="30" t="s">
@@ -19251,12 +19332,12 @@
         <v>4</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>1041</v>
-      </c>
-      <c r="E20" s="50" t="s">
-        <v>1040</v>
-      </c>
-      <c r="F20" s="49">
+        <v>1033</v>
+      </c>
+      <c r="E20" s="49" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F20" s="48">
         <v>44414</v>
       </c>
       <c r="G20" s="30" t="s">
@@ -19272,12 +19353,12 @@
         <v>4</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E21" s="50" t="s">
-        <v>1038</v>
-      </c>
-      <c r="F21" s="49">
+        <v>1031</v>
+      </c>
+      <c r="E21" s="49" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F21" s="48">
         <v>44415</v>
       </c>
       <c r="G21" s="30" t="s">
@@ -19293,12 +19374,12 @@
         <v>4</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E22" s="50" t="s">
-        <v>1036</v>
-      </c>
-      <c r="F22" s="49">
+        <v>1029</v>
+      </c>
+      <c r="E22" s="49" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F22" s="48">
         <v>44416</v>
       </c>
       <c r="G22" s="30" t="s">
@@ -19314,12 +19395,12 @@
         <v>4</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E23" s="50" t="s">
-        <v>1034</v>
-      </c>
-      <c r="F23" s="49">
+        <v>1027</v>
+      </c>
+      <c r="E23" s="49" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F23" s="48">
         <v>44417</v>
       </c>
       <c r="G23" s="30" t="s">
@@ -19335,12 +19416,12 @@
         <v>4</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E24" s="50" t="s">
-        <v>1032</v>
-      </c>
-      <c r="F24" s="49">
+        <v>1025</v>
+      </c>
+      <c r="E24" s="49" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F24" s="48">
         <v>44423</v>
       </c>
       <c r="G24" s="30" t="s">
@@ -19356,12 +19437,12 @@
         <v>4</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E25" s="50" t="s">
-        <v>1030</v>
-      </c>
-      <c r="F25" s="49">
+        <v>1023</v>
+      </c>
+      <c r="E25" s="49" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F25" s="48">
         <v>44424</v>
       </c>
       <c r="G25" s="30" t="s">
@@ -19379,12 +19460,12 @@
         <v>4</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E26" s="50" t="s">
-        <v>1028</v>
-      </c>
-      <c r="F26" s="49">
+        <v>1021</v>
+      </c>
+      <c r="E26" s="49" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F26" s="48">
         <v>44418</v>
       </c>
       <c r="G26" s="30" t="s">
@@ -19402,12 +19483,12 @@
         <v>4</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E27" s="50" t="s">
-        <v>1026</v>
-      </c>
-      <c r="F27" s="49">
+        <v>1019</v>
+      </c>
+      <c r="E27" s="49" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F27" s="48">
         <v>44423</v>
       </c>
       <c r="G27" s="30" t="s">
@@ -19423,12 +19504,12 @@
         <v>4</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E28" s="50" t="s">
-        <v>1024</v>
-      </c>
-      <c r="F28" s="49">
+        <v>1017</v>
+      </c>
+      <c r="E28" s="49" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F28" s="48">
         <v>44424</v>
       </c>
       <c r="G28" s="30" t="s">
@@ -19446,12 +19527,12 @@
         <v>4</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E29" s="50" t="s">
-        <v>1022</v>
-      </c>
-      <c r="F29" s="49">
+        <v>1015</v>
+      </c>
+      <c r="E29" s="49" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F29" s="48">
         <v>44425</v>
       </c>
       <c r="G29" s="30" t="s">
@@ -19469,12 +19550,12 @@
         <v>4</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E30" s="50" t="s">
-        <v>1020</v>
-      </c>
-      <c r="F30" s="49">
+        <v>1013</v>
+      </c>
+      <c r="E30" s="49" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F30" s="48">
         <v>44426</v>
       </c>
       <c r="G30" s="30" t="s">
@@ -23221,7 +23302,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -23244,15 +23325,15 @@
         <v>409</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>1083</v>
+        <v>1075</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>1213</v>
       </c>
       <c r="B2" t="s">
         <v>410</v>
@@ -23262,8 +23343,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>1203</v>
       </c>
       <c r="B3" t="s">
         <v>411</v>
@@ -23272,15 +23353,15 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>1084</v>
+        <v>1076</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>1204</v>
       </c>
       <c r="B4" t="s">
         <v>412</v>
@@ -23289,15 +23370,15 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>1085</v>
+        <v>1077</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>1205</v>
       </c>
       <c r="B5" t="s">
         <v>413</v>
@@ -23306,15 +23387,15 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>1085</v>
+        <v>1077</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" t="s">
+        <v>1206</v>
       </c>
       <c r="B6" t="s">
         <v>414</v>
@@ -23323,15 +23404,15 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>1085</v>
+        <v>1077</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>1207</v>
       </c>
       <c r="B7" t="s">
         <v>415</v>
@@ -23340,15 +23421,15 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>1084</v>
+        <v>1076</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
+      <c r="A8" t="s">
+        <v>1214</v>
       </c>
       <c r="B8" t="s">
         <v>416</v>
@@ -23357,15 +23438,15 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
+      <c r="A9" t="s">
+        <v>1215</v>
       </c>
       <c r="B9" t="s">
         <v>417</v>
@@ -23374,15 +23455,15 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="E9">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
+      <c r="A10" t="s">
+        <v>1208</v>
       </c>
       <c r="B10" t="s">
         <v>418</v>
@@ -23391,15 +23472,15 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="E10">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
+      <c r="A11" t="s">
+        <v>1209</v>
       </c>
       <c r="B11" t="s">
         <v>419</v>
@@ -23408,15 +23489,15 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>1084</v>
+        <v>1076</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
+      <c r="A12" t="s">
+        <v>1210</v>
       </c>
       <c r="B12" t="s">
         <v>420</v>
@@ -23432,8 +23513,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
+      <c r="A13" t="s">
+        <v>1211</v>
       </c>
       <c r="B13" t="s">
         <v>421</v>
@@ -23449,8 +23530,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
+      <c r="A14" t="s">
+        <v>1212</v>
       </c>
       <c r="B14" t="s">
         <v>422</v>
@@ -23476,8 +23557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -23555,7 +23636,7 @@
         <v>465</v>
       </c>
       <c r="R1" s="29" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -23563,47 +23644,47 @@
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
+        <v>763</v>
+      </c>
+      <c r="C2" s="32" t="s">
         <v>755</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="D2" s="31" t="s">
         <v>756</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="E2" s="52" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F2" s="33" t="s">
         <v>757</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="G2" s="34" t="s">
         <v>758</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="H2" s="34" t="s">
         <v>759</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="I2" s="35" t="s">
         <v>760</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="J2" s="34"/>
+      <c r="K2" s="36" t="s">
         <v>761</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="L2" s="36">
+        <v>44431</v>
+      </c>
+      <c r="M2" s="31" t="s">
         <v>762</v>
       </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="37" t="s">
+      <c r="N2" s="31" t="s">
+        <v>1230</v>
+      </c>
+      <c r="O2" s="31" t="s">
         <v>763</v>
       </c>
-      <c r="L2" s="37">
-        <v>44431</v>
-      </c>
-      <c r="M2" s="31" t="s">
+      <c r="P2" s="31" t="s">
         <v>764</v>
-      </c>
-      <c r="N2" s="31" t="s">
-        <v>765</v>
-      </c>
-      <c r="O2" s="31" t="s">
-        <v>766</v>
-      </c>
-      <c r="P2" s="31" t="s">
-        <v>767</v>
       </c>
       <c r="Q2" s="29"/>
       <c r="R2" s="29"/>
@@ -23624,7 +23705,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -23638,199 +23719,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
+        <v>765</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>455</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>766</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>767</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>768</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>455</v>
-      </c>
-      <c r="C1" s="41" t="s">
+      <c r="F1" s="40" t="s">
         <v>769</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="G1" s="40" t="s">
         <v>770</v>
       </c>
-      <c r="E1" s="41" t="s">
-        <v>771</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>772</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>773</v>
-      </c>
     </row>
     <row r="2" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31">
-        <v>1</v>
-      </c>
-      <c r="B2" s="31">
-        <v>2</v>
-      </c>
-      <c r="C2" s="38">
-        <v>44378</v>
-      </c>
-      <c r="D2" s="39">
-        <v>0.36805555555555558</v>
-      </c>
-      <c r="E2" s="39">
-        <v>0.75694444444444453</v>
-      </c>
-      <c r="F2" s="40">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>774</v>
-      </c>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31">
-        <v>2</v>
-      </c>
-      <c r="B3" s="31">
-        <v>2</v>
-      </c>
-      <c r="C3" s="38">
-        <v>44379</v>
-      </c>
-      <c r="D3" s="39">
-        <v>0.38194444444444442</v>
-      </c>
-      <c r="E3" s="39">
-        <v>0.75</v>
-      </c>
-      <c r="F3" s="40">
-        <v>8.9</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>775</v>
-      </c>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31">
-        <v>3</v>
-      </c>
-      <c r="B4" s="31">
-        <v>2</v>
-      </c>
-      <c r="C4" s="38">
-        <v>44382</v>
-      </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="35" t="s">
-        <v>776</v>
-      </c>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="34"/>
     </row>
     <row r="5" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31">
-        <v>4</v>
-      </c>
-      <c r="B5" s="31">
-        <v>2</v>
-      </c>
-      <c r="C5" s="38">
-        <v>44387</v>
-      </c>
-      <c r="D5" s="39">
-        <v>0.37152777777777773</v>
-      </c>
-      <c r="E5" s="39">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="F5" s="40">
-        <v>3.6</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>777</v>
-      </c>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="34"/>
     </row>
     <row r="6" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31">
-        <v>5</v>
-      </c>
-      <c r="B6" s="31">
-        <v>2</v>
-      </c>
-      <c r="C6" s="38">
-        <v>44392</v>
-      </c>
-      <c r="D6" s="39">
-        <v>0.37013888888888885</v>
-      </c>
-      <c r="E6" s="39">
-        <v>0.75277777777777777</v>
-      </c>
-      <c r="F6" s="40">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>774</v>
-      </c>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="34"/>
     </row>
     <row r="7" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31">
-        <v>6</v>
-      </c>
-      <c r="B7" s="31">
-        <v>2</v>
-      </c>
-      <c r="C7" s="38">
-        <v>44395</v>
-      </c>
-      <c r="D7" s="39">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="E7" s="39">
-        <v>0.75763888888888886</v>
-      </c>
-      <c r="F7" s="40">
-        <v>9</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>775</v>
-      </c>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="34"/>
     </row>
     <row r="8" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
-        <v>7</v>
-      </c>
-      <c r="B8" s="31">
-        <v>2</v>
-      </c>
-      <c r="C8" s="38">
-        <v>44398</v>
-      </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="35" t="s">
-        <v>776</v>
-      </c>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="34"/>
     </row>
     <row r="9" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
-        <v>8</v>
-      </c>
-      <c r="B9" s="31">
-        <v>2</v>
-      </c>
-      <c r="C9" s="38">
-        <v>44400</v>
-      </c>
-      <c r="D9" s="39">
-        <v>0.37013888888888885</v>
-      </c>
-      <c r="E9" s="39">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="F9" s="40">
-        <v>2.6</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>777</v>
-      </c>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="34"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000014000000}"/>
@@ -23857,20 +23838,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
-        <v>778</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>768</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>779</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>780</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>781</v>
+      <c r="A1" s="40" t="s">
+        <v>771</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>765</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>772</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>773</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -23880,14 +23861,14 @@
       <c r="B2" s="31">
         <v>2</v>
       </c>
-      <c r="C2" s="38" t="s">
-        <v>782</v>
-      </c>
-      <c r="D2" s="38">
+      <c r="C2" s="37" t="s">
+        <v>775</v>
+      </c>
+      <c r="D2" s="37">
         <v>44379</v>
       </c>
-      <c r="E2" s="39" t="s">
-        <v>785</v>
+      <c r="E2" s="38" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -23897,14 +23878,14 @@
       <c r="B3" s="31">
         <v>3</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>783</v>
-      </c>
-      <c r="D3" s="38">
+      <c r="C3" s="37" t="s">
+        <v>776</v>
+      </c>
+      <c r="D3" s="37">
         <v>44382</v>
       </c>
-      <c r="E3" s="39" t="s">
-        <v>784</v>
+      <c r="E3" s="38" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -23914,14 +23895,14 @@
       <c r="B4" s="31">
         <v>4</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>786</v>
-      </c>
-      <c r="D4" s="38">
+      <c r="C4" s="37" t="s">
+        <v>779</v>
+      </c>
+      <c r="D4" s="37">
         <v>44392</v>
       </c>
-      <c r="E4" s="39" t="s">
-        <v>784</v>
+      <c r="E4" s="38" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -23931,14 +23912,14 @@
       <c r="B5" s="31">
         <v>6</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>787</v>
-      </c>
-      <c r="D5" s="38">
+      <c r="C5" s="37" t="s">
+        <v>780</v>
+      </c>
+      <c r="D5" s="37">
         <v>44395</v>
       </c>
-      <c r="E5" s="39" t="s">
-        <v>784</v>
+      <c r="E5" s="38" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -23948,14 +23929,14 @@
       <c r="B6" s="31">
         <v>7</v>
       </c>
-      <c r="C6" s="38" t="s">
-        <v>788</v>
-      </c>
-      <c r="D6" s="38">
+      <c r="C6" s="37" t="s">
+        <v>781</v>
+      </c>
+      <c r="D6" s="37">
         <v>44398</v>
       </c>
-      <c r="E6" s="39" t="s">
-        <v>785</v>
+      <c r="E6" s="38" t="s">
+        <v>778</v>
       </c>
     </row>
   </sheetData>
@@ -23987,32 +23968,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
-        <v>789</v>
-      </c>
-      <c r="B1" s="41" t="s">
+      <c r="A1" s="40" t="s">
+        <v>782</v>
+      </c>
+      <c r="B1" s="40" t="s">
         <v>455</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="40" t="s">
         <v>458</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="40" t="s">
         <v>459</v>
       </c>
-      <c r="E1" s="41" t="s">
-        <v>986</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>790</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>791</v>
-      </c>
-      <c r="H1" s="41" t="s">
-        <v>792</v>
-      </c>
-      <c r="I1" s="41" t="s">
-        <v>987</v>
+      <c r="E1" s="40" t="s">
+        <v>978</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>783</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>784</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>785</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -24022,26 +24003,26 @@
       <c r="B2" s="31">
         <v>1</v>
       </c>
-      <c r="C2" s="38">
+      <c r="C2" s="37">
         <v>44383</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="37">
         <v>44385</v>
       </c>
-      <c r="E2" s="46">
+      <c r="E2" s="45">
         <v>3</v>
       </c>
-      <c r="F2" s="46" t="s">
-        <v>988</v>
-      </c>
-      <c r="G2" s="46" t="s">
-        <v>975</v>
-      </c>
-      <c r="H2" s="37">
+      <c r="F2" s="45" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>967</v>
+      </c>
+      <c r="H2" s="36">
         <v>44385</v>
       </c>
-      <c r="I2" s="46" t="s">
-        <v>977</v>
+      <c r="I2" s="45" t="s">
+        <v>969</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -24051,26 +24032,26 @@
       <c r="B3" s="31">
         <v>1</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="37">
         <v>44393</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="37">
         <v>44393</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="45">
         <v>1</v>
       </c>
-      <c r="F3" s="46" t="s">
-        <v>974</v>
-      </c>
-      <c r="G3" s="46" t="s">
-        <v>989</v>
-      </c>
-      <c r="H3" s="37">
+      <c r="F3" s="45" t="s">
+        <v>966</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>981</v>
+      </c>
+      <c r="H3" s="36">
         <v>44391</v>
       </c>
-      <c r="I3" s="46" t="s">
-        <v>839</v>
+      <c r="I3" s="45" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -24080,26 +24061,26 @@
       <c r="B4" s="31">
         <v>1</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="37">
         <v>44405</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="37">
         <v>44407</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="45">
         <v>2</v>
       </c>
-      <c r="F4" s="46" t="s">
-        <v>973</v>
-      </c>
-      <c r="G4" s="46" t="s">
-        <v>975</v>
-      </c>
-      <c r="H4" s="37">
+      <c r="F4" s="45" t="s">
+        <v>965</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>967</v>
+      </c>
+      <c r="H4" s="36">
         <v>44405</v>
       </c>
-      <c r="I4" s="46" t="s">
-        <v>977</v>
+      <c r="I4" s="45" t="s">
+        <v>969</v>
       </c>
     </row>
   </sheetData>
@@ -24132,19 +24113,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>711</v>
@@ -24158,21 +24139,21 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C2" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="D2" t="s">
-        <v>801</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>802</v>
-      </c>
-      <c r="F2" s="43">
+        <v>794</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>795</v>
+      </c>
+      <c r="F2" s="42">
         <v>44197</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="41" t="s">
         <v>432</v>
       </c>
     </row>
@@ -24181,21 +24162,21 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="C3" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="D3" t="s">
-        <v>805</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>806</v>
-      </c>
-      <c r="F3" s="43">
+        <v>798</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>799</v>
+      </c>
+      <c r="F3" s="42">
         <v>44197</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="41" t="s">
         <v>432</v>
       </c>
     </row>
@@ -24204,21 +24185,21 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="C4" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="D4" t="s">
-        <v>809</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>810</v>
-      </c>
-      <c r="F4" s="43">
+        <v>802</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>803</v>
+      </c>
+      <c r="F4" s="42">
         <v>44197</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="41" t="s">
         <v>432</v>
       </c>
     </row>
@@ -24227,22 +24208,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="C5" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="D5" t="s">
-        <v>812</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>813</v>
-      </c>
-      <c r="F5" s="43">
+        <v>805</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>806</v>
+      </c>
+      <c r="F5" s="42">
         <v>44197</v>
       </c>
-      <c r="G5" s="42" t="s">
-        <v>814</v>
+      <c r="G5" s="41" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -24250,20 +24231,20 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C6" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="D6" t="s">
-        <v>972</v>
-      </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="43">
+        <v>964</v>
+      </c>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42">
         <v>44197</v>
       </c>
-      <c r="G6" s="42" t="s">
-        <v>814</v>
+      <c r="G6" s="41" t="s">
+        <v>807</v>
       </c>
     </row>
   </sheetData>
@@ -24277,7 +24258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -24294,25 +24275,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="B1" t="s">
         <v>461</v>
       </c>
       <c r="C1" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="D1" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="E1" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="F1" t="s">
         <v>219</v>
       </c>
       <c r="G1" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -24326,15 +24307,15 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>979</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>819</v>
-      </c>
-      <c r="F2" s="43" t="s">
-        <v>820</v>
-      </c>
-      <c r="G2" s="43">
+        <v>971</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>812</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>813</v>
+      </c>
+      <c r="G2" s="42">
         <v>44197</v>
       </c>
     </row>
@@ -24349,15 +24330,15 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>804</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>821</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>822</v>
-      </c>
-      <c r="G3" s="43">
+        <v>797</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>814</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>815</v>
+      </c>
+      <c r="G3" s="42">
         <v>44198</v>
       </c>
     </row>
@@ -24372,15 +24353,15 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>808</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>824</v>
-      </c>
-      <c r="F4" s="43" t="s">
-        <v>980</v>
-      </c>
-      <c r="G4" s="43">
+        <v>801</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>817</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>972</v>
+      </c>
+      <c r="G4" s="42">
         <v>44199</v>
       </c>
     </row>
@@ -24395,15 +24376,15 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>981</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>826</v>
-      </c>
-      <c r="F5" s="43" t="s">
-        <v>827</v>
-      </c>
-      <c r="G5" s="43">
+        <v>973</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>819</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>820</v>
+      </c>
+      <c r="G5" s="42">
         <v>44200</v>
       </c>
     </row>
@@ -24418,15 +24399,15 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>982</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>819</v>
-      </c>
-      <c r="F6" s="43" t="s">
-        <v>828</v>
-      </c>
-      <c r="G6" s="43">
+        <v>974</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>812</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>821</v>
+      </c>
+      <c r="G6" s="42">
         <v>44201</v>
       </c>
     </row>
@@ -24441,15 +24422,15 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>804</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>821</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>820</v>
-      </c>
-      <c r="G7" s="43">
+        <v>797</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>814</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>813</v>
+      </c>
+      <c r="G7" s="42">
         <v>44202</v>
       </c>
     </row>
@@ -24464,15 +24445,15 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>983</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>824</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>984</v>
-      </c>
-      <c r="G8" s="43">
+        <v>975</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>817</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>976</v>
+      </c>
+      <c r="G8" s="42">
         <v>44203</v>
       </c>
     </row>
@@ -24487,15 +24468,15 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>811</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>826</v>
-      </c>
-      <c r="F9" s="43" t="s">
-        <v>825</v>
-      </c>
-      <c r="G9" s="43">
+        <v>804</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>819</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>818</v>
+      </c>
+      <c r="G9" s="42">
         <v>44204</v>
       </c>
     </row>
@@ -24510,15 +24491,15 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>985</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>819</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>827</v>
-      </c>
-      <c r="G10" s="43">
+        <v>977</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>812</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>820</v>
+      </c>
+      <c r="G10" s="42">
         <v>44205</v>
       </c>
     </row>
@@ -24533,15 +24514,15 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>804</v>
-      </c>
-      <c r="E11" s="42" t="s">
+        <v>797</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>814</v>
+      </c>
+      <c r="F11" s="42" t="s">
         <v>821</v>
       </c>
-      <c r="F11" s="43" t="s">
-        <v>828</v>
-      </c>
-      <c r="G11" s="43">
+      <c r="G11" s="42">
         <v>44206</v>
       </c>
     </row>
@@ -24556,15 +24537,15 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>808</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>824</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>820</v>
-      </c>
-      <c r="G12" s="43">
+        <v>801</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>817</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>813</v>
+      </c>
+      <c r="G12" s="42">
         <v>44207</v>
       </c>
     </row>
@@ -24579,15 +24560,15 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>811</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>826</v>
-      </c>
-      <c r="F13" s="43" t="s">
-        <v>822</v>
-      </c>
-      <c r="G13" s="43">
+        <v>804</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>819</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>815</v>
+      </c>
+      <c r="G13" s="42">
         <v>44208</v>
       </c>
     </row>
@@ -24602,15 +24583,15 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>979</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>819</v>
-      </c>
-      <c r="F14" s="43" t="s">
-        <v>980</v>
-      </c>
-      <c r="G14" s="43">
+        <v>971</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>812</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>972</v>
+      </c>
+      <c r="G14" s="42">
         <v>44209</v>
       </c>
     </row>
@@ -24625,15 +24606,15 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>804</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>821</v>
-      </c>
-      <c r="F15" s="43" t="s">
-        <v>827</v>
-      </c>
-      <c r="G15" s="43">
+        <v>797</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>814</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>820</v>
+      </c>
+      <c r="G15" s="42">
         <v>44210</v>
       </c>
     </row>
@@ -24648,15 +24629,15 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>808</v>
-      </c>
-      <c r="E16" s="42" t="s">
-        <v>824</v>
-      </c>
-      <c r="F16" s="43" t="s">
-        <v>828</v>
-      </c>
-      <c r="G16" s="43">
+        <v>801</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>817</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>821</v>
+      </c>
+      <c r="G16" s="42">
         <v>44211</v>
       </c>
     </row>
@@ -24671,15 +24652,15 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>811</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>826</v>
-      </c>
-      <c r="F17" s="43" t="s">
-        <v>820</v>
-      </c>
-      <c r="G17" s="43">
+        <v>804</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>819</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>813</v>
+      </c>
+      <c r="G17" s="42">
         <v>44212</v>
       </c>
     </row>
@@ -24694,15 +24675,15 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>971</v>
-      </c>
-      <c r="E18" s="46" t="s">
-        <v>975</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>822</v>
-      </c>
-      <c r="G18" s="37">
+        <v>963</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>967</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>815</v>
+      </c>
+      <c r="G18" s="36">
         <v>44385</v>
       </c>
     </row>
@@ -24717,15 +24698,15 @@
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>971</v>
-      </c>
-      <c r="E19" s="46" t="s">
-        <v>976</v>
-      </c>
-      <c r="F19" s="43" t="s">
-        <v>822</v>
-      </c>
-      <c r="G19" s="37">
+        <v>963</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>968</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>815</v>
+      </c>
+      <c r="G19" s="36">
         <v>44391</v>
       </c>
     </row>
@@ -24740,15 +24721,15 @@
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>971</v>
-      </c>
-      <c r="E20" s="46" t="s">
-        <v>975</v>
-      </c>
-      <c r="F20" s="43" t="s">
-        <v>822</v>
-      </c>
-      <c r="G20" s="37">
+        <v>963</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>967</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>815</v>
+      </c>
+      <c r="G20" s="36">
         <v>44405</v>
       </c>
     </row>
@@ -24764,7 +24745,7 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -24775,31 +24756,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B1" t="s">
+        <v>823</v>
+      </c>
+      <c r="C1" t="s">
+        <v>824</v>
+      </c>
+      <c r="D1" t="s">
+        <v>825</v>
+      </c>
+      <c r="E1" t="s">
+        <v>826</v>
+      </c>
+      <c r="F1" t="s">
+        <v>827</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="H1" t="s">
+        <v>828</v>
+      </c>
+      <c r="I1" t="s">
         <v>829</v>
-      </c>
-      <c r="B1" t="s">
-        <v>830</v>
-      </c>
-      <c r="C1" t="s">
-        <v>831</v>
-      </c>
-      <c r="D1" t="s">
-        <v>832</v>
-      </c>
-      <c r="E1" t="s">
-        <v>833</v>
-      </c>
-      <c r="F1" t="s">
-        <v>834</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1207</v>
-      </c>
-      <c r="H1" t="s">
-        <v>835</v>
-      </c>
-      <c r="I1" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -24816,18 +24797,18 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>838</v>
-      </c>
-      <c r="F2" s="44" t="s">
-        <v>839</v>
+        <v>831</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>832</v>
       </c>
       <c r="G2" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="H2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I2" s="43">
+        <v>834</v>
+      </c>
+      <c r="I2" s="42">
         <v>44317</v>
       </c>
     </row>
@@ -24845,13 +24826,13 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>842</v>
-      </c>
-      <c r="F3" s="44" t="s">
-        <v>843</v>
+        <v>835</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>836</v>
       </c>
       <c r="H3" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -24868,13 +24849,13 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>837</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>823</v>
+        <v>830</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>816</v>
       </c>
       <c r="H4" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -24891,13 +24872,13 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>846</v>
-      </c>
-      <c r="F5" s="44" t="s">
-        <v>847</v>
+        <v>839</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>840</v>
       </c>
       <c r="H5" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -24914,13 +24895,13 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>849</v>
-      </c>
-      <c r="F6" s="44" t="s">
+        <v>842</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>836</v>
+      </c>
+      <c r="H6" t="s">
         <v>843</v>
-      </c>
-      <c r="H6" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -24937,10 +24918,10 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>851</v>
-      </c>
-      <c r="F7" s="44" t="s">
-        <v>852</v>
+        <v>844</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>845</v>
       </c>
       <c r="H7" t="s">
         <v>433</v>
@@ -24960,13 +24941,13 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>853</v>
-      </c>
-      <c r="F8" s="44" t="s">
-        <v>854</v>
+        <v>846</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>847</v>
       </c>
       <c r="H8" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -24983,13 +24964,13 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>849</v>
-      </c>
-      <c r="F9" s="44" t="s">
-        <v>855</v>
+        <v>842</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>848</v>
       </c>
       <c r="H9" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -25006,13 +24987,13 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>856</v>
-      </c>
-      <c r="F10" s="44" t="s">
-        <v>857</v>
+        <v>849</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>850</v>
       </c>
       <c r="H10" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -25029,13 +25010,13 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>846</v>
-      </c>
-      <c r="F11" s="44" t="s">
-        <v>859</v>
+        <v>839</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>852</v>
       </c>
       <c r="H11" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -25052,13 +25033,13 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>860</v>
-      </c>
-      <c r="F12" s="44" t="s">
-        <v>823</v>
+        <v>853</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>816</v>
       </c>
       <c r="H12" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -25075,13 +25056,13 @@
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>837</v>
-      </c>
-      <c r="F13" s="44" t="s">
-        <v>822</v>
+        <v>830</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>815</v>
       </c>
       <c r="H13" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -25098,13 +25079,13 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>856</v>
-      </c>
-      <c r="F14" s="44" t="s">
-        <v>862</v>
+        <v>849</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>855</v>
       </c>
       <c r="H14" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -25121,13 +25102,13 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
+        <v>849</v>
+      </c>
+      <c r="F15" s="43" t="s">
         <v>856</v>
       </c>
-      <c r="F15" s="44" t="s">
-        <v>863</v>
-      </c>
       <c r="H15" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -25144,13 +25125,13 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>853</v>
-      </c>
-      <c r="F16" s="44" t="s">
-        <v>854</v>
+        <v>846</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>847</v>
       </c>
       <c r="H16" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -25167,13 +25148,13 @@
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>864</v>
-      </c>
-      <c r="F17" s="44" t="s">
-        <v>854</v>
+        <v>857</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>847</v>
       </c>
       <c r="H17" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -25190,13 +25171,13 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
+        <v>844</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>855</v>
+      </c>
+      <c r="H18" t="s">
         <v>851</v>
-      </c>
-      <c r="F18" s="44" t="s">
-        <v>862</v>
-      </c>
-      <c r="H18" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -25213,13 +25194,13 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>866</v>
-      </c>
-      <c r="F19" s="44" t="s">
-        <v>822</v>
+        <v>859</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>815</v>
       </c>
       <c r="H19" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -25236,13 +25217,13 @@
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>856</v>
-      </c>
-      <c r="F20" s="44" t="s">
-        <v>822</v>
+        <v>849</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>815</v>
       </c>
       <c r="H20" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -25259,13 +25240,13 @@
         <v>4</v>
       </c>
       <c r="E21" t="s">
+        <v>844</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>815</v>
+      </c>
+      <c r="H21" t="s">
         <v>851</v>
-      </c>
-      <c r="F21" s="44" t="s">
-        <v>822</v>
-      </c>
-      <c r="H21" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -25282,13 +25263,13 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>870</v>
-      </c>
-      <c r="F22" s="44" t="s">
-        <v>822</v>
+        <v>863</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>815</v>
       </c>
       <c r="H22" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -25305,13 +25286,13 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>871</v>
-      </c>
-      <c r="F23" s="44" t="s">
-        <v>854</v>
+        <v>864</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>847</v>
       </c>
       <c r="H23" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -25328,13 +25309,13 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>869</v>
-      </c>
-      <c r="F24" s="44" t="s">
-        <v>854</v>
+        <v>862</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>847</v>
       </c>
       <c r="H24" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -25351,13 +25332,13 @@
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>871</v>
-      </c>
-      <c r="F25" s="44" t="s">
-        <v>863</v>
+        <v>864</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>856</v>
       </c>
       <c r="H25" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -25374,13 +25355,13 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>872</v>
-      </c>
-      <c r="F26" s="44" t="s">
-        <v>843</v>
+        <v>865</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>836</v>
       </c>
       <c r="H26" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -25397,13 +25378,13 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>873</v>
-      </c>
-      <c r="F27" s="44" t="s">
-        <v>874</v>
+        <v>866</v>
+      </c>
+      <c r="F27" s="43" t="s">
+        <v>867</v>
       </c>
       <c r="H27" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -25420,13 +25401,13 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>871</v>
-      </c>
-      <c r="F28" s="44" t="s">
-        <v>822</v>
+        <v>864</v>
+      </c>
+      <c r="F28" s="43" t="s">
+        <v>815</v>
       </c>
       <c r="H28" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -25443,13 +25424,13 @@
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>875</v>
-      </c>
-      <c r="F29" s="44" t="s">
+        <v>868</v>
+      </c>
+      <c r="F29" s="43" t="s">
+        <v>847</v>
+      </c>
+      <c r="H29" t="s">
         <v>854</v>
-      </c>
-      <c r="H29" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -25466,13 +25447,13 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>856</v>
-      </c>
-      <c r="F30" s="44" t="s">
-        <v>876</v>
+        <v>849</v>
+      </c>
+      <c r="F30" s="43" t="s">
+        <v>869</v>
       </c>
       <c r="H30" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -25489,13 +25470,13 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
+        <v>853</v>
+      </c>
+      <c r="F31" s="43" t="s">
+        <v>840</v>
+      </c>
+      <c r="H31" t="s">
         <v>860</v>
-      </c>
-      <c r="F31" s="44" t="s">
-        <v>847</v>
-      </c>
-      <c r="H31" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -25512,13 +25493,13 @@
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>877</v>
-      </c>
-      <c r="F32" s="44" t="s">
-        <v>859</v>
+        <v>870</v>
+      </c>
+      <c r="F32" s="43" t="s">
+        <v>852</v>
       </c>
       <c r="H32" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -25535,13 +25516,13 @@
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>860</v>
-      </c>
-      <c r="F33" s="44" t="s">
-        <v>854</v>
+        <v>853</v>
+      </c>
+      <c r="F33" s="43" t="s">
+        <v>847</v>
       </c>
       <c r="H33" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -25558,13 +25539,13 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>864</v>
-      </c>
-      <c r="F34" s="44" t="s">
-        <v>852</v>
+        <v>857</v>
+      </c>
+      <c r="F34" s="43" t="s">
+        <v>845</v>
       </c>
       <c r="H34" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -25581,13 +25562,13 @@
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>851</v>
-      </c>
-      <c r="F35" s="44" t="s">
-        <v>822</v>
+        <v>844</v>
+      </c>
+      <c r="F35" s="43" t="s">
+        <v>815</v>
       </c>
       <c r="H35" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -25604,13 +25585,13 @@
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>878</v>
-      </c>
-      <c r="F36" s="44" t="s">
-        <v>874</v>
+        <v>871</v>
+      </c>
+      <c r="F36" s="43" t="s">
+        <v>867</v>
       </c>
       <c r="H36" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -25627,13 +25608,13 @@
         <v>4</v>
       </c>
       <c r="E37" t="s">
-        <v>879</v>
-      </c>
-      <c r="F37" s="44" t="s">
-        <v>857</v>
+        <v>872</v>
+      </c>
+      <c r="F37" s="43" t="s">
+        <v>850</v>
       </c>
       <c r="H37" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -25650,13 +25631,13 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>871</v>
-      </c>
-      <c r="F38" s="44" t="s">
-        <v>854</v>
+        <v>864</v>
+      </c>
+      <c r="F38" s="43" t="s">
+        <v>847</v>
       </c>
       <c r="H38" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -25673,13 +25654,13 @@
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>881</v>
-      </c>
-      <c r="F39" s="44" t="s">
-        <v>822</v>
+        <v>874</v>
+      </c>
+      <c r="F39" s="43" t="s">
+        <v>815</v>
       </c>
       <c r="H39" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -25696,13 +25677,13 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>869</v>
-      </c>
-      <c r="F40" s="44" t="s">
-        <v>883</v>
+        <v>862</v>
+      </c>
+      <c r="F40" s="43" t="s">
+        <v>876</v>
       </c>
       <c r="H40" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -25719,13 +25700,13 @@
         <v>4</v>
       </c>
       <c r="E41" t="s">
-        <v>871</v>
-      </c>
-      <c r="F41" s="44" t="s">
-        <v>874</v>
+        <v>864</v>
+      </c>
+      <c r="F41" s="43" t="s">
+        <v>867</v>
       </c>
       <c r="H41" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -25742,13 +25723,13 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>871</v>
-      </c>
-      <c r="F42" s="44" t="s">
-        <v>852</v>
+        <v>864</v>
+      </c>
+      <c r="F42" s="43" t="s">
+        <v>845</v>
       </c>
       <c r="H42" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -25765,13 +25746,13 @@
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>886</v>
-      </c>
-      <c r="F43" s="44" t="s">
-        <v>876</v>
+        <v>879</v>
+      </c>
+      <c r="F43" s="43" t="s">
+        <v>869</v>
       </c>
       <c r="H43" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -25788,13 +25769,13 @@
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>871</v>
-      </c>
-      <c r="F44" s="44" t="s">
-        <v>863</v>
+        <v>864</v>
+      </c>
+      <c r="F44" s="43" t="s">
+        <v>856</v>
       </c>
       <c r="H44" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -25811,13 +25792,13 @@
         <v>4</v>
       </c>
       <c r="E45" t="s">
-        <v>870</v>
-      </c>
-      <c r="F45" s="44" t="s">
-        <v>852</v>
+        <v>863</v>
+      </c>
+      <c r="F45" s="43" t="s">
+        <v>845</v>
       </c>
       <c r="H45" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -25834,13 +25815,13 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>856</v>
-      </c>
-      <c r="F46" s="44" t="s">
-        <v>822</v>
+        <v>849</v>
+      </c>
+      <c r="F46" s="43" t="s">
+        <v>815</v>
       </c>
       <c r="H46" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -25857,13 +25838,13 @@
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>856</v>
-      </c>
-      <c r="F47" s="44" t="s">
-        <v>854</v>
+        <v>849</v>
+      </c>
+      <c r="F47" s="43" t="s">
+        <v>847</v>
       </c>
       <c r="H47" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -25880,13 +25861,13 @@
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>879</v>
-      </c>
-      <c r="F48" s="44" t="s">
-        <v>854</v>
+        <v>872</v>
+      </c>
+      <c r="F48" s="43" t="s">
+        <v>847</v>
       </c>
       <c r="H48" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -25903,13 +25884,13 @@
         <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>849</v>
-      </c>
-      <c r="F49" s="44" t="s">
-        <v>859</v>
+        <v>842</v>
+      </c>
+      <c r="F49" s="43" t="s">
+        <v>852</v>
       </c>
       <c r="H49" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -25926,13 +25907,13 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>853</v>
-      </c>
-      <c r="F50" s="44" t="s">
-        <v>843</v>
+        <v>846</v>
+      </c>
+      <c r="F50" s="43" t="s">
+        <v>836</v>
       </c>
       <c r="H50" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -25949,13 +25930,13 @@
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>837</v>
-      </c>
-      <c r="F51" s="44" t="s">
-        <v>854</v>
+        <v>830</v>
+      </c>
+      <c r="F51" s="43" t="s">
+        <v>847</v>
       </c>
       <c r="H51" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -25972,13 +25953,13 @@
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>851</v>
-      </c>
-      <c r="F52" s="44" t="s">
-        <v>847</v>
+        <v>844</v>
+      </c>
+      <c r="F52" s="43" t="s">
+        <v>840</v>
       </c>
       <c r="H52" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -25995,13 +25976,13 @@
         <v>4</v>
       </c>
       <c r="E53" t="s">
-        <v>846</v>
-      </c>
-      <c r="F53" s="44" t="s">
-        <v>859</v>
+        <v>839</v>
+      </c>
+      <c r="F53" s="43" t="s">
+        <v>852</v>
       </c>
       <c r="H53" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -26018,13 +25999,13 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>873</v>
-      </c>
-      <c r="F54" s="44" t="s">
-        <v>874</v>
+        <v>866</v>
+      </c>
+      <c r="F54" s="43" t="s">
+        <v>867</v>
       </c>
       <c r="H54" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -26041,13 +26022,13 @@
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>873</v>
-      </c>
-      <c r="F55" s="44" t="s">
-        <v>854</v>
+        <v>866</v>
+      </c>
+      <c r="F55" s="43" t="s">
+        <v>847</v>
       </c>
       <c r="H55" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -26064,13 +26045,13 @@
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>871</v>
-      </c>
-      <c r="F56" s="44" t="s">
-        <v>823</v>
+        <v>864</v>
+      </c>
+      <c r="F56" s="43" t="s">
+        <v>816</v>
       </c>
       <c r="H56" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -26087,13 +26068,13 @@
         <v>4</v>
       </c>
       <c r="E57" t="s">
-        <v>871</v>
-      </c>
-      <c r="F57" s="44" t="s">
-        <v>876</v>
+        <v>864</v>
+      </c>
+      <c r="F57" s="43" t="s">
+        <v>869</v>
       </c>
       <c r="H57" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -26110,13 +26091,13 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>871</v>
-      </c>
-      <c r="F58" s="44" t="s">
-        <v>822</v>
+        <v>864</v>
+      </c>
+      <c r="F58" s="43" t="s">
+        <v>815</v>
       </c>
       <c r="H58" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -26133,13 +26114,13 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>871</v>
-      </c>
-      <c r="F59" s="44" t="s">
-        <v>822</v>
+        <v>864</v>
+      </c>
+      <c r="F59" s="43" t="s">
+        <v>815</v>
       </c>
       <c r="H59" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -26156,13 +26137,13 @@
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>887</v>
-      </c>
-      <c r="F60" s="44" t="s">
-        <v>822</v>
+        <v>880</v>
+      </c>
+      <c r="F60" s="43" t="s">
+        <v>815</v>
       </c>
       <c r="H60" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -26179,10 +26160,10 @@
         <v>4</v>
       </c>
       <c r="E61" t="s">
-        <v>870</v>
-      </c>
-      <c r="F61" s="44" t="s">
-        <v>854</v>
+        <v>863</v>
+      </c>
+      <c r="F61" s="43" t="s">
+        <v>847</v>
       </c>
       <c r="H61" t="s">
         <v>433</v>
@@ -26202,13 +26183,13 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>856</v>
-      </c>
-      <c r="F62" s="44" t="s">
-        <v>888</v>
+        <v>849</v>
+      </c>
+      <c r="F62" s="43" t="s">
+        <v>881</v>
       </c>
       <c r="H62" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -26225,13 +26206,13 @@
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>853</v>
-      </c>
-      <c r="F63" s="44" t="s">
-        <v>854</v>
+        <v>846</v>
+      </c>
+      <c r="F63" s="43" t="s">
+        <v>847</v>
       </c>
       <c r="H63" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -26248,13 +26229,13 @@
         <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>890</v>
-      </c>
-      <c r="F64" s="44" t="s">
-        <v>891</v>
+        <v>883</v>
+      </c>
+      <c r="F64" s="43" t="s">
+        <v>884</v>
       </c>
       <c r="H64" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -26271,13 +26252,13 @@
         <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>890</v>
-      </c>
-      <c r="F65" s="44" t="s">
-        <v>862</v>
+        <v>883</v>
+      </c>
+      <c r="F65" s="43" t="s">
+        <v>855</v>
       </c>
       <c r="H65" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
     </row>
   </sheetData>
@@ -26314,25 +26295,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="H1" s="13" t="s">
         <v>219</v>
@@ -26343,19 +26324,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="C2" t="s">
-        <v>901</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>902</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>904</v>
+        <v>894</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>895</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="H2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -26363,19 +26344,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="C3" t="s">
-        <v>906</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>904</v>
+        <v>899</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="H3" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -26383,19 +26364,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="C4" t="s">
-        <v>909</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>904</v>
+        <v>902</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="H4" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -26403,19 +26384,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="C5" t="s">
-        <v>911</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="E5" s="45" t="s">
         <v>904</v>
       </c>
+      <c r="D5" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>897</v>
+      </c>
       <c r="H5" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -26423,19 +26404,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="C6" t="s">
-        <v>913</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>904</v>
+        <v>906</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="H6" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -26443,19 +26424,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="C7" t="s">
-        <v>915</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="E7" s="45" t="s">
-        <v>904</v>
+        <v>908</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="H7" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -26463,19 +26444,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="C8" t="s">
-        <v>917</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>902</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>904</v>
+        <v>910</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>895</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="H8" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -26483,19 +26464,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="C9" t="s">
-        <v>919</v>
-      </c>
-      <c r="D9" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>904</v>
+        <v>912</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="H9" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -26503,19 +26484,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="C10" t="s">
-        <v>921</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>904</v>
+        <v>914</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="H10" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -26523,19 +26504,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="C11" t="s">
-        <v>923</v>
-      </c>
-      <c r="D11" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="E11" s="45" t="s">
-        <v>904</v>
+        <v>916</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="H11" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -26543,19 +26524,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="C12" t="s">
-        <v>925</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>902</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>904</v>
+        <v>918</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>895</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="H12" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -26563,19 +26544,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="C13" t="s">
-        <v>927</v>
-      </c>
-      <c r="D13" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="E13" s="45" t="s">
-        <v>904</v>
+        <v>920</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="H13" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -26583,19 +26564,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="C14" t="s">
-        <v>929</v>
-      </c>
-      <c r="D14" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="E14" s="45" t="s">
-        <v>904</v>
+        <v>922</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="H14" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -26603,19 +26584,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="C15" t="s">
-        <v>931</v>
-      </c>
-      <c r="D15" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="E15" s="45" t="s">
-        <v>904</v>
+        <v>924</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="H15" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -26623,16 +26604,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="C16" t="s">
-        <v>933</v>
-      </c>
-      <c r="D16" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="E16" s="45" t="s">
-        <v>904</v>
+        <v>926</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="H16" t="s">
         <v>433</v>
@@ -26643,19 +26624,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="C17" t="s">
-        <v>935</v>
-      </c>
-      <c r="D17" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>904</v>
+        <v>928</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="H17" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -26663,19 +26644,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="C18" t="s">
-        <v>937</v>
-      </c>
-      <c r="D18" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>904</v>
+        <v>930</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="H18" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -26683,19 +26664,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="C19" t="s">
-        <v>939</v>
-      </c>
-      <c r="D19" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>904</v>
+        <v>932</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="H19" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -26703,19 +26684,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="C20" t="s">
-        <v>941</v>
-      </c>
-      <c r="D20" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="E20" s="45" t="s">
-        <v>904</v>
+        <v>934</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="H20" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -26723,19 +26704,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="C21" t="s">
-        <v>943</v>
-      </c>
-      <c r="D21" s="45" t="s">
-        <v>902</v>
-      </c>
-      <c r="E21" s="45" t="s">
-        <v>904</v>
+        <v>936</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>895</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="H21" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -26743,19 +26724,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="C22" t="s">
-        <v>945</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="E22" s="45" t="s">
-        <v>904</v>
+        <v>938</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="H22" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -26763,19 +26744,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="C23" t="s">
-        <v>947</v>
-      </c>
-      <c r="D23" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="E23" s="45" t="s">
-        <v>904</v>
+        <v>940</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="H23" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -26783,19 +26764,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="C24" t="s">
-        <v>949</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="E24" s="45" t="s">
-        <v>904</v>
+        <v>942</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="H24" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -26803,19 +26784,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="C25" t="s">
-        <v>951</v>
-      </c>
-      <c r="D25" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="E25" s="45" t="s">
-        <v>903</v>
+        <v>944</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>896</v>
       </c>
       <c r="H25" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -26823,19 +26804,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="C26" t="s">
-        <v>953</v>
-      </c>
-      <c r="D26" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="E26" s="45" t="s">
-        <v>904</v>
+        <v>946</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="E26" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="H26" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -26843,19 +26824,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="C27" t="s">
-        <v>955</v>
-      </c>
-      <c r="D27" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="E27" s="45" t="s">
-        <v>904</v>
+        <v>948</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="E27" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="H27" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -26863,19 +26844,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="C28" t="s">
-        <v>957</v>
-      </c>
-      <c r="D28" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="E28" s="45" t="s">
-        <v>904</v>
+        <v>950</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="H28" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
   </sheetData>
@@ -26944,24 +26925,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="B1" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="C1" t="s">
-        <v>960</v>
+        <v>1231</v>
       </c>
       <c r="D1" t="s">
-        <v>1208</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -26975,7 +26960,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -26989,7 +26974,7 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -27003,7 +26988,7 @@
         <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -27017,7 +27002,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -27031,7 +27016,7 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -27045,7 +27030,7 @@
         <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -27059,7 +27044,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -27073,7 +27058,7 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -27087,7 +27072,7 @@
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -27101,7 +27086,7 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -27115,7 +27100,7 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -27129,7 +27114,7 @@
         <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -27143,7 +27128,7 @@
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -27157,7 +27142,7 @@
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -27171,7 +27156,7 @@
         <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -27185,7 +27170,7 @@
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -27199,7 +27184,7 @@
         <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -27213,7 +27198,7 @@
         <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -27227,7 +27212,7 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -27241,7 +27226,7 @@
         <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -27255,7 +27240,7 @@
         <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -27269,7 +27254,7 @@
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -27283,7 +27268,7 @@
         <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -27297,7 +27282,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -27311,7 +27296,7 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -27325,7 +27310,7 @@
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -27339,7 +27324,7 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -27353,7 +27338,7 @@
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -27367,7 +27352,7 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -27381,7 +27366,7 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -27395,7 +27380,7 @@
         <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -27409,7 +27394,7 @@
         <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -27423,7 +27408,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -27437,7 +27422,7 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -27451,7 +27436,7 @@
         <v>28</v>
       </c>
       <c r="D36" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -27465,7 +27450,7 @@
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -27479,7 +27464,7 @@
         <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -27493,7 +27478,7 @@
         <v>29</v>
       </c>
       <c r="D39" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -27507,7 +27492,7 @@
         <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -27521,7 +27506,7 @@
         <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -27535,7 +27520,7 @@
         <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -27549,7 +27534,7 @@
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -27563,7 +27548,7 @@
         <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -27577,7 +27562,7 @@
         <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -27591,7 +27576,7 @@
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -27605,7 +27590,7 @@
         <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -27619,7 +27604,7 @@
         <v>32</v>
       </c>
       <c r="D48" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -27633,7 +27618,7 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
     </row>
   </sheetData>
@@ -27668,34 +27653,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>461</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="H1" s="13" t="s">
         <v>219</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -27706,28 +27691,28 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="D2" t="s">
+        <v>893</v>
+      </c>
+      <c r="E2" s="44" t="s">
         <v>900</v>
       </c>
-      <c r="E2" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="F2" s="45" t="s">
-        <v>904</v>
+      <c r="F2" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="G2" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="H2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="J2" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -27738,28 +27723,28 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="D3" t="s">
-        <v>906</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="F3" s="45" t="s">
-        <v>904</v>
+        <v>899</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="G3" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="H3" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I3" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="J3" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -27770,28 +27755,28 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="D4" t="s">
-        <v>909</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>904</v>
+        <v>902</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="G4" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="H4" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I4" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="J4" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -27802,28 +27787,28 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="D5" t="s">
-        <v>911</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="F5" s="45" t="s">
         <v>904</v>
       </c>
+      <c r="E5" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>897</v>
+      </c>
       <c r="G5" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="H5" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I5" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="J5" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -27834,28 +27819,28 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="D6" t="s">
-        <v>913</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="F6" s="45" t="s">
-        <v>904</v>
+        <v>906</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="G6" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="H6" t="s">
         <v>433</v>
       </c>
       <c r="I6" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="J6" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -27866,28 +27851,28 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="D7" t="s">
-        <v>915</v>
-      </c>
-      <c r="E7" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="F7" s="45" t="s">
-        <v>904</v>
+        <v>908</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="G7" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="H7" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I7" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="J7" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -27898,28 +27883,28 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="D8" t="s">
-        <v>917</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="F8" s="45" t="s">
-        <v>904</v>
+        <v>910</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="G8" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="H8" t="s">
         <v>433</v>
       </c>
       <c r="I8" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="J8" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -27930,28 +27915,28 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="D9" t="s">
-        <v>919</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>904</v>
+        <v>912</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="G9" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="H9" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I9" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="J9" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -27962,28 +27947,28 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="D10" t="s">
-        <v>921</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="F10" s="45" t="s">
-        <v>903</v>
+        <v>914</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>896</v>
       </c>
       <c r="G10" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="H10" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I10" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="J10" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -27994,28 +27979,28 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="D11" t="s">
-        <v>923</v>
-      </c>
-      <c r="E11" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="F11" s="45" t="s">
-        <v>904</v>
+        <v>916</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="G11" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="H11" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I11" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="J11" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -28026,28 +28011,28 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="D12" t="s">
-        <v>925</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="F12" s="45" t="s">
-        <v>904</v>
+        <v>918</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="G12" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="H12" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I12" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="J12" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -28058,28 +28043,28 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="D13" t="s">
-        <v>927</v>
-      </c>
-      <c r="E13" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="F13" s="45" t="s">
-        <v>904</v>
+        <v>920</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="G13" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="H13" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I13" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="J13" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -28090,28 +28075,28 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="D14" t="s">
-        <v>929</v>
-      </c>
-      <c r="E14" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="F14" s="45" t="s">
-        <v>904</v>
+        <v>922</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="G14" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="H14" t="s">
         <v>433</v>
       </c>
       <c r="I14" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="J14" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -28122,28 +28107,28 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="D15" t="s">
-        <v>931</v>
-      </c>
-      <c r="E15" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="F15" s="45" t="s">
-        <v>904</v>
+        <v>924</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="G15" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="H15" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I15" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="J15" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -28154,28 +28139,28 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="D16" t="s">
-        <v>933</v>
-      </c>
-      <c r="E16" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="F16" s="45" t="s">
-        <v>904</v>
+        <v>926</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="G16" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="H16" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I16" t="s">
         <v>433</v>
       </c>
       <c r="J16" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -28186,28 +28171,28 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="D17" t="s">
-        <v>935</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="F17" s="45" t="s">
-        <v>904</v>
+        <v>928</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="G17" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="H17" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I17" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="J17" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -28218,28 +28203,28 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="D18" t="s">
-        <v>937</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>902</v>
-      </c>
-      <c r="F18" s="45" t="s">
-        <v>904</v>
+        <v>930</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>895</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="G18" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="H18" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I18" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="J18" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -28250,28 +28235,28 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="D19" t="s">
-        <v>939</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="F19" s="45" t="s">
-        <v>904</v>
+        <v>932</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="G19" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="H19" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I19" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="J19" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -28282,28 +28267,28 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="D20" t="s">
-        <v>941</v>
-      </c>
-      <c r="E20" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="F20" s="45" t="s">
-        <v>904</v>
+        <v>934</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="F20" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="G20" t="s">
         <v>432</v>
       </c>
       <c r="H20" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I20" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="J20" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -28314,28 +28299,28 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="D21" t="s">
-        <v>943</v>
-      </c>
-      <c r="E21" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="F21" s="45" t="s">
-        <v>904</v>
+        <v>936</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="F21" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="G21" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="H21" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I21" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="J21" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -28346,28 +28331,28 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="D22" t="s">
-        <v>945</v>
-      </c>
-      <c r="E22" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="F22" s="45" t="s">
-        <v>904</v>
+        <v>938</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="G22" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="H22" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I22" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="J22" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -28378,28 +28363,28 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="D23" t="s">
-        <v>947</v>
-      </c>
-      <c r="E23" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="F23" s="45" t="s">
-        <v>904</v>
+        <v>940</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="F23" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="G23" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="H23" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I23" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="J23" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -28410,28 +28395,28 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="D24" t="s">
-        <v>949</v>
-      </c>
-      <c r="E24" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="F24" s="45" t="s">
-        <v>904</v>
+        <v>942</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="F24" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="G24" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="H24" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I24" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="J24" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -28442,28 +28427,28 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="D25" t="s">
-        <v>951</v>
-      </c>
-      <c r="E25" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="F25" s="45" t="s">
-        <v>904</v>
+        <v>944</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="F25" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="G25" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="H25" t="s">
         <v>433</v>
       </c>
       <c r="I25" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="J25" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -28474,28 +28459,28 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="D26" t="s">
-        <v>953</v>
-      </c>
-      <c r="E26" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="F26" s="45" t="s">
-        <v>904</v>
+        <v>946</v>
+      </c>
+      <c r="E26" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="F26" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="G26" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="H26" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I26" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="J26" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -28506,28 +28491,28 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="D27" t="s">
-        <v>955</v>
-      </c>
-      <c r="E27" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="F27" s="45" t="s">
-        <v>904</v>
+        <v>948</v>
+      </c>
+      <c r="E27" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="F27" s="44" t="s">
+        <v>897</v>
       </c>
       <c r="G27" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="H27" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I27" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="J27" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -28538,28 +28523,28 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="D28" t="s">
+        <v>950</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="F28" s="44" t="s">
+        <v>897</v>
+      </c>
+      <c r="G28" t="s">
         <v>957</v>
       </c>
-      <c r="E28" s="45" t="s">
-        <v>907</v>
-      </c>
-      <c r="F28" s="45" t="s">
-        <v>904</v>
-      </c>
-      <c r="G28" t="s">
-        <v>965</v>
-      </c>
       <c r="H28" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I28" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="J28" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
     </row>
   </sheetData>

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9900" yWindow="1620" windowWidth="17664" windowHeight="13680" tabRatio="919" activeTab="11"/>
+    <workbookView xWindow="9900" yWindow="1620" windowWidth="17664" windowHeight="13680" tabRatio="919" firstSheet="22" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="department" sheetId="5" r:id="rId1"/>
@@ -27,9 +27,9 @@
     <sheet name="Sunyoung_document" sheetId="30" r:id="rId13"/>
     <sheet name="Sunyoung_bizReport" sheetId="31" r:id="rId14"/>
     <sheet name="Sunyoung_note" sheetId="32" r:id="rId15"/>
-    <sheet name="Sunyoung_reservation" sheetId="42" r:id="rId16"/>
+    <sheet name="Sunyoung_re_category" sheetId="44" r:id="rId16"/>
     <sheet name="Sunyoung_resources" sheetId="43" r:id="rId17"/>
-    <sheet name="Sunyoung_re_category" sheetId="44" r:id="rId18"/>
+    <sheet name="Sunyoung_reservation" sheetId="42" r:id="rId18"/>
     <sheet name="SK_board" sheetId="16" r:id="rId19"/>
     <sheet name="SK_market" sheetId="17" r:id="rId20"/>
     <sheet name="SK_reply" sheetId="18" r:id="rId21"/>
@@ -37,26 +37,26 @@
     <sheet name="JaeWook_COMPANY" sheetId="20" r:id="rId23"/>
     <sheet name="JaeWook_ATTENDANCE" sheetId="21" r:id="rId24"/>
     <sheet name="JaeWook_ATT_BOARD" sheetId="22" r:id="rId25"/>
-    <sheet name="JaeWook_LEAVE" sheetId="23" r:id="rId26"/>
-    <sheet name="appr_form" sheetId="45" r:id="rId27"/>
-    <sheet name="approval" sheetId="39" r:id="rId28"/>
-    <sheet name="appr_accept" sheetId="40" r:id="rId29"/>
+    <sheet name="appr_form" sheetId="45" r:id="rId26"/>
+    <sheet name="approval" sheetId="39" r:id="rId27"/>
+    <sheet name="appr_accept" sheetId="40" r:id="rId28"/>
+    <sheet name="JaeWook_LEAVE" sheetId="23" r:id="rId29"/>
     <sheet name="REFERENCE" sheetId="41" r:id="rId30"/>
     <sheet name="mail_sender" sheetId="36" r:id="rId31"/>
     <sheet name="mail_receiver" sheetId="37" r:id="rId32"/>
     <sheet name="ma_attach" sheetId="38" r:id="rId33"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="28" hidden="1">appr_accept!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="27" hidden="1">approval!$A$1:$G$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="27" hidden="1">appr_accept!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="26" hidden="1">approval!$A$1:$G$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">JaeWook_ATT_BOARD!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">JaeWook_ATTENDANCE!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">JaeWook_LEAVE!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="28" hidden="1">JaeWook_LEAVE!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="31" hidden="1">mail_receiver!$A$1:$L$226</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="30" hidden="1">mail_sender!$A$1:$I$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'member(sample)'!$A$1:$S$491</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="29" hidden="1">REFERENCE!$A$1:$D$1</definedName>
-    <definedName name="Apart" localSheetId="27">#REF!</definedName>
+    <definedName name="Apart" localSheetId="26">#REF!</definedName>
     <definedName name="Apart" localSheetId="32">#REF!</definedName>
     <definedName name="Apart" localSheetId="31">#REF!</definedName>
     <definedName name="Apart" localSheetId="30">#REF!</definedName>
@@ -7942,7 +7942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -10075,341 +10075,48 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="14.59765625" style="30" customWidth="1"/>
-    <col min="2" max="3" width="18.59765625" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39" style="30" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" style="47" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.796875" style="47" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.59765625" style="47" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.296875" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.69921875" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" s="43" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="42" t="s">
-        <v>1322</v>
+        <v>1355</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>1324</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>1325</v>
-      </c>
-      <c r="E1" s="69" t="s">
-        <v>1326</v>
-      </c>
-      <c r="F1" s="69" t="s">
-        <v>1327</v>
-      </c>
-      <c r="G1" s="69" t="s">
-        <v>1328</v>
-      </c>
-      <c r="H1" s="42" t="s">
-        <v>1329</v>
-      </c>
-      <c r="I1" s="42" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="65">
         <v>1</v>
       </c>
-      <c r="B2" s="65">
-        <v>1</v>
-      </c>
-      <c r="C2" s="65">
-        <v>1</v>
-      </c>
-      <c r="D2" s="65" t="s">
-        <v>1330</v>
-      </c>
-      <c r="E2" s="70" t="s">
-        <v>836</v>
-      </c>
-      <c r="F2" s="70" t="s">
-        <v>1331</v>
-      </c>
-      <c r="G2" s="70" t="s">
-        <v>1332</v>
-      </c>
-      <c r="H2" s="68">
-        <v>44409</v>
-      </c>
-      <c r="I2" s="65" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B2" s="65" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="65">
         <v>2</v>
       </c>
-      <c r="B3" s="65">
-        <v>2</v>
-      </c>
-      <c r="C3" s="65">
-        <v>2</v>
-      </c>
-      <c r="D3" s="65" t="s">
-        <v>1333</v>
-      </c>
-      <c r="E3" s="70" t="s">
-        <v>836</v>
-      </c>
-      <c r="F3" s="70" t="s">
-        <v>1334</v>
-      </c>
-      <c r="G3" s="70" t="s">
-        <v>1335</v>
-      </c>
-      <c r="H3" s="68">
-        <v>44410</v>
-      </c>
-      <c r="I3" s="65" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B3" s="65" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="65">
         <v>3</v>
       </c>
-      <c r="B4" s="65">
-        <v>3</v>
-      </c>
-      <c r="C4" s="65">
-        <v>3</v>
-      </c>
-      <c r="D4" s="65" t="s">
-        <v>1336</v>
-      </c>
-      <c r="E4" s="70" t="s">
-        <v>836</v>
-      </c>
-      <c r="F4" s="70" t="s">
-        <v>1337</v>
-      </c>
-      <c r="G4" s="70" t="s">
-        <v>1338</v>
-      </c>
-      <c r="H4" s="68">
-        <v>44411</v>
-      </c>
-      <c r="I4" s="65" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="65">
-        <v>4</v>
-      </c>
-      <c r="B5" s="65">
-        <v>1</v>
-      </c>
-      <c r="C5" s="65">
-        <v>4</v>
-      </c>
-      <c r="D5" s="65" t="s">
-        <v>1339</v>
-      </c>
-      <c r="E5" s="70" t="s">
-        <v>836</v>
-      </c>
-      <c r="F5" s="70" t="s">
-        <v>1335</v>
-      </c>
-      <c r="G5" s="70" t="s">
-        <v>1340</v>
-      </c>
-      <c r="H5" s="68">
-        <v>44412</v>
-      </c>
-      <c r="I5" s="65" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="65">
-        <v>5</v>
-      </c>
-      <c r="B6" s="65">
-        <v>2</v>
-      </c>
-      <c r="C6" s="65">
-        <v>5</v>
-      </c>
-      <c r="D6" s="65" t="s">
-        <v>1341</v>
-      </c>
-      <c r="E6" s="70" t="s">
-        <v>836</v>
-      </c>
-      <c r="F6" s="70" t="s">
-        <v>1335</v>
-      </c>
-      <c r="G6" s="70" t="s">
-        <v>1342</v>
-      </c>
-      <c r="H6" s="68">
-        <v>44413</v>
-      </c>
-      <c r="I6" s="65" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="65">
-        <v>6</v>
-      </c>
-      <c r="B7" s="65">
-        <v>1</v>
-      </c>
-      <c r="C7" s="65">
-        <v>6</v>
-      </c>
-      <c r="D7" s="65" t="s">
-        <v>1339</v>
-      </c>
-      <c r="E7" s="70" t="s">
-        <v>818</v>
-      </c>
-      <c r="F7" s="70" t="s">
-        <v>1337</v>
-      </c>
-      <c r="G7" s="70" t="s">
-        <v>1338</v>
-      </c>
-      <c r="H7" s="68">
-        <v>44414</v>
-      </c>
-      <c r="I7" s="65" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="65">
-        <v>7</v>
-      </c>
-      <c r="B8" s="65">
-        <v>2</v>
-      </c>
-      <c r="C8" s="65">
-        <v>7</v>
-      </c>
-      <c r="D8" s="65" t="s">
-        <v>1341</v>
-      </c>
-      <c r="E8" s="70" t="s">
-        <v>818</v>
-      </c>
-      <c r="F8" s="70" t="s">
-        <v>1334</v>
-      </c>
-      <c r="G8" s="70" t="s">
-        <v>1335</v>
-      </c>
-      <c r="H8" s="68">
-        <v>44415</v>
-      </c>
-      <c r="I8" s="65" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="65">
-        <v>8</v>
-      </c>
-      <c r="B9" s="65">
-        <v>1</v>
-      </c>
-      <c r="C9" s="65">
-        <v>8</v>
-      </c>
-      <c r="D9" s="65" t="s">
-        <v>1343</v>
-      </c>
-      <c r="E9" s="70" t="s">
-        <v>818</v>
-      </c>
-      <c r="F9" s="70" t="s">
-        <v>1331</v>
-      </c>
-      <c r="G9" s="70" t="s">
-        <v>1332</v>
-      </c>
-      <c r="H9" s="68">
-        <v>44416</v>
-      </c>
-      <c r="I9" s="65" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="65">
-        <v>9</v>
-      </c>
-      <c r="B10" s="65">
-        <v>2</v>
-      </c>
-      <c r="C10" s="65">
-        <v>9</v>
-      </c>
-      <c r="D10" s="65" t="s">
-        <v>1344</v>
-      </c>
-      <c r="E10" s="70" t="s">
-        <v>818</v>
-      </c>
-      <c r="F10" s="70" t="s">
-        <v>1335</v>
-      </c>
-      <c r="G10" s="70" t="s">
-        <v>1340</v>
-      </c>
-      <c r="H10" s="68">
-        <v>44417</v>
-      </c>
-      <c r="I10" s="65" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="65">
-        <v>10</v>
-      </c>
-      <c r="B11" s="65">
-        <v>3</v>
-      </c>
-      <c r="C11" s="65">
-        <v>10</v>
-      </c>
-      <c r="D11" s="65" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E11" s="70" t="s">
-        <v>818</v>
-      </c>
-      <c r="F11" s="70" t="s">
-        <v>1335</v>
-      </c>
-      <c r="G11" s="70" t="s">
-        <v>1342</v>
-      </c>
-      <c r="H11" s="68">
-        <v>44418</v>
-      </c>
-      <c r="I11" s="65" t="s">
-        <v>356</v>
+      <c r="B4" s="65" t="s">
+        <v>1357</v>
       </c>
     </row>
   </sheetData>
@@ -10553,48 +10260,341 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="14.59765625" style="30" customWidth="1"/>
-    <col min="2" max="2" width="19" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.59765625" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39" style="30" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" style="47" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.796875" style="47" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.59765625" style="47" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.296875" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.69921875" style="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="43" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="42" t="s">
-        <v>1355</v>
+        <v>1322</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+        <v>1323</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F1" s="69" t="s">
+        <v>1327</v>
+      </c>
+      <c r="G1" s="69" t="s">
+        <v>1328</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>1329</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="65">
         <v>1</v>
       </c>
-      <c r="B2" s="65" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B2" s="65">
+        <v>1</v>
+      </c>
+      <c r="C2" s="65">
+        <v>1</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E2" s="70" t="s">
+        <v>836</v>
+      </c>
+      <c r="F2" s="70" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G2" s="70" t="s">
+        <v>1332</v>
+      </c>
+      <c r="H2" s="68">
+        <v>44409</v>
+      </c>
+      <c r="I2" s="65" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="65">
         <v>2</v>
       </c>
-      <c r="B3" s="65" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B3" s="65">
+        <v>2</v>
+      </c>
+      <c r="C3" s="65">
+        <v>2</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E3" s="70" t="s">
+        <v>836</v>
+      </c>
+      <c r="F3" s="70" t="s">
+        <v>1334</v>
+      </c>
+      <c r="G3" s="70" t="s">
+        <v>1335</v>
+      </c>
+      <c r="H3" s="68">
+        <v>44410</v>
+      </c>
+      <c r="I3" s="65" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="65">
         <v>3</v>
       </c>
-      <c r="B4" s="65" t="s">
-        <v>1357</v>
+      <c r="B4" s="65">
+        <v>3</v>
+      </c>
+      <c r="C4" s="65">
+        <v>3</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>836</v>
+      </c>
+      <c r="F4" s="70" t="s">
+        <v>1337</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H4" s="68">
+        <v>44411</v>
+      </c>
+      <c r="I4" s="65" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="65">
+        <v>4</v>
+      </c>
+      <c r="B5" s="65">
+        <v>1</v>
+      </c>
+      <c r="C5" s="65">
+        <v>4</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E5" s="70" t="s">
+        <v>836</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>1335</v>
+      </c>
+      <c r="G5" s="70" t="s">
+        <v>1340</v>
+      </c>
+      <c r="H5" s="68">
+        <v>44412</v>
+      </c>
+      <c r="I5" s="65" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="65">
+        <v>5</v>
+      </c>
+      <c r="B6" s="65">
+        <v>2</v>
+      </c>
+      <c r="C6" s="65">
+        <v>5</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E6" s="70" t="s">
+        <v>836</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>1335</v>
+      </c>
+      <c r="G6" s="70" t="s">
+        <v>1342</v>
+      </c>
+      <c r="H6" s="68">
+        <v>44413</v>
+      </c>
+      <c r="I6" s="65" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="65">
+        <v>6</v>
+      </c>
+      <c r="B7" s="65">
+        <v>1</v>
+      </c>
+      <c r="C7" s="65">
+        <v>6</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E7" s="70" t="s">
+        <v>818</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>1337</v>
+      </c>
+      <c r="G7" s="70" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H7" s="68">
+        <v>44414</v>
+      </c>
+      <c r="I7" s="65" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="65">
+        <v>7</v>
+      </c>
+      <c r="B8" s="65">
+        <v>2</v>
+      </c>
+      <c r="C8" s="65">
+        <v>7</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E8" s="70" t="s">
+        <v>818</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>1334</v>
+      </c>
+      <c r="G8" s="70" t="s">
+        <v>1335</v>
+      </c>
+      <c r="H8" s="68">
+        <v>44415</v>
+      </c>
+      <c r="I8" s="65" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="65">
+        <v>8</v>
+      </c>
+      <c r="B9" s="65">
+        <v>1</v>
+      </c>
+      <c r="C9" s="65">
+        <v>8</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E9" s="70" t="s">
+        <v>818</v>
+      </c>
+      <c r="F9" s="70" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G9" s="70" t="s">
+        <v>1332</v>
+      </c>
+      <c r="H9" s="68">
+        <v>44416</v>
+      </c>
+      <c r="I9" s="65" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="65">
+        <v>9</v>
+      </c>
+      <c r="B10" s="65">
+        <v>2</v>
+      </c>
+      <c r="C10" s="65">
+        <v>9</v>
+      </c>
+      <c r="D10" s="65" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E10" s="70" t="s">
+        <v>818</v>
+      </c>
+      <c r="F10" s="70" t="s">
+        <v>1335</v>
+      </c>
+      <c r="G10" s="70" t="s">
+        <v>1340</v>
+      </c>
+      <c r="H10" s="68">
+        <v>44417</v>
+      </c>
+      <c r="I10" s="65" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="65">
+        <v>10</v>
+      </c>
+      <c r="B11" s="65">
+        <v>3</v>
+      </c>
+      <c r="C11" s="65">
+        <v>10</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E11" s="70" t="s">
+        <v>818</v>
+      </c>
+      <c r="F11" s="70" t="s">
+        <v>1335</v>
+      </c>
+      <c r="G11" s="70" t="s">
+        <v>1342</v>
+      </c>
+      <c r="H11" s="68">
+        <v>44418</v>
+      </c>
+      <c r="I11" s="65" t="s">
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -28293,267 +28293,6 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="14.09765625" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.09765625" customWidth="1"/>
-    <col min="6" max="6" width="13.296875" customWidth="1"/>
-    <col min="7" max="7" width="15.796875" customWidth="1"/>
-    <col min="8" max="8" width="18.59765625" customWidth="1"/>
-    <col min="9" max="9" width="14.09765625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="56" t="s">
-        <v>711</v>
-      </c>
-      <c r="B1" s="56" t="s">
-        <v>383</v>
-      </c>
-      <c r="C1" s="56" t="s">
-        <v>1237</v>
-      </c>
-      <c r="D1" s="56" t="s">
-        <v>404</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>1238</v>
-      </c>
-      <c r="F1" s="56" t="s">
-        <v>1239</v>
-      </c>
-      <c r="G1" s="56" t="s">
-        <v>1240</v>
-      </c>
-      <c r="H1" s="56" t="s">
-        <v>1241</v>
-      </c>
-      <c r="I1" s="56" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="54">
-        <v>1</v>
-      </c>
-      <c r="B2" s="54">
-        <v>2</v>
-      </c>
-      <c r="C2" s="57">
-        <v>44242</v>
-      </c>
-      <c r="D2" s="57">
-        <v>44249</v>
-      </c>
-      <c r="E2" s="56">
-        <v>6</v>
-      </c>
-      <c r="F2" s="56" t="s">
-        <v>1243</v>
-      </c>
-      <c r="G2" s="56" t="s">
-        <v>1244</v>
-      </c>
-      <c r="H2" s="57">
-        <v>44232</v>
-      </c>
-      <c r="I2" s="58" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="54">
-        <v>2</v>
-      </c>
-      <c r="B3" s="54">
-        <v>3</v>
-      </c>
-      <c r="C3" s="57">
-        <v>44299</v>
-      </c>
-      <c r="D3" s="57">
-        <v>44301</v>
-      </c>
-      <c r="E3" s="56">
-        <v>3</v>
-      </c>
-      <c r="F3" s="56" t="s">
-        <v>1243</v>
-      </c>
-      <c r="G3" s="56" t="s">
-        <v>1246</v>
-      </c>
-      <c r="H3" s="57">
-        <v>44296</v>
-      </c>
-      <c r="I3" s="58" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="54">
-        <v>3</v>
-      </c>
-      <c r="B4" s="54">
-        <v>4</v>
-      </c>
-      <c r="C4" s="57">
-        <v>44361</v>
-      </c>
-      <c r="D4" s="57">
-        <v>44365</v>
-      </c>
-      <c r="E4" s="56">
-        <v>5</v>
-      </c>
-      <c r="F4" s="56" t="s">
-        <v>1243</v>
-      </c>
-      <c r="G4" s="56" t="s">
-        <v>1247</v>
-      </c>
-      <c r="H4" s="57">
-        <v>44348</v>
-      </c>
-      <c r="I4" s="58" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="54">
-        <v>4</v>
-      </c>
-      <c r="B5" s="54">
-        <v>5</v>
-      </c>
-      <c r="C5" s="57">
-        <v>44369</v>
-      </c>
-      <c r="D5" s="57">
-        <v>44370</v>
-      </c>
-      <c r="E5" s="56">
-        <v>2</v>
-      </c>
-      <c r="F5" s="56" t="s">
-        <v>1243</v>
-      </c>
-      <c r="G5" s="56" t="s">
-        <v>1248</v>
-      </c>
-      <c r="H5" s="57">
-        <v>44368</v>
-      </c>
-      <c r="I5" s="58" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="59">
-        <v>17</v>
-      </c>
-      <c r="B6" s="59">
-        <v>1</v>
-      </c>
-      <c r="C6" s="60">
-        <v>44383</v>
-      </c>
-      <c r="D6" s="60">
-        <v>44385</v>
-      </c>
-      <c r="E6" s="58">
-        <v>3</v>
-      </c>
-      <c r="F6" s="58" t="s">
-        <v>1249</v>
-      </c>
-      <c r="G6" s="58" t="s">
-        <v>1250</v>
-      </c>
-      <c r="H6" s="61">
-        <v>44385</v>
-      </c>
-      <c r="I6" s="58" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="59">
-        <v>25</v>
-      </c>
-      <c r="B7" s="59">
-        <v>1</v>
-      </c>
-      <c r="C7" s="60">
-        <v>44393</v>
-      </c>
-      <c r="D7" s="60">
-        <v>44393</v>
-      </c>
-      <c r="E7" s="58">
-        <v>1</v>
-      </c>
-      <c r="F7" s="58" t="s">
-        <v>1252</v>
-      </c>
-      <c r="G7" s="58" t="s">
-        <v>1253</v>
-      </c>
-      <c r="H7" s="61">
-        <v>44391</v>
-      </c>
-      <c r="I7" s="58" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="59">
-        <v>27</v>
-      </c>
-      <c r="B8" s="59">
-        <v>1</v>
-      </c>
-      <c r="C8" s="60">
-        <v>44405</v>
-      </c>
-      <c r="D8" s="60">
-        <v>44407</v>
-      </c>
-      <c r="E8" s="58">
-        <v>2</v>
-      </c>
-      <c r="F8" s="58" t="s">
-        <v>1249</v>
-      </c>
-      <c r="G8" s="58" t="s">
-        <v>1250</v>
-      </c>
-      <c r="H8" s="61">
-        <v>44405</v>
-      </c>
-      <c r="I8" s="58" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:I1"/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28861,7 +28600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -29149,12 +28888,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -29707,6 +29446,267 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="14.09765625" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.09765625" customWidth="1"/>
+    <col min="6" max="6" width="13.296875" customWidth="1"/>
+    <col min="7" max="7" width="15.796875" customWidth="1"/>
+    <col min="8" max="8" width="18.59765625" customWidth="1"/>
+    <col min="9" max="9" width="14.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="56" t="s">
+        <v>711</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>383</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>404</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>1241</v>
+      </c>
+      <c r="I1" s="56" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="54">
+        <v>1</v>
+      </c>
+      <c r="B2" s="54">
+        <v>2</v>
+      </c>
+      <c r="C2" s="57">
+        <v>44242</v>
+      </c>
+      <c r="D2" s="57">
+        <v>44249</v>
+      </c>
+      <c r="E2" s="56">
+        <v>6</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>1244</v>
+      </c>
+      <c r="H2" s="57">
+        <v>44232</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="54">
+        <v>2</v>
+      </c>
+      <c r="B3" s="54">
+        <v>3</v>
+      </c>
+      <c r="C3" s="57">
+        <v>44299</v>
+      </c>
+      <c r="D3" s="57">
+        <v>44301</v>
+      </c>
+      <c r="E3" s="56">
+        <v>3</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>1246</v>
+      </c>
+      <c r="H3" s="57">
+        <v>44296</v>
+      </c>
+      <c r="I3" s="58" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="54">
+        <v>3</v>
+      </c>
+      <c r="B4" s="54">
+        <v>4</v>
+      </c>
+      <c r="C4" s="57">
+        <v>44361</v>
+      </c>
+      <c r="D4" s="57">
+        <v>44365</v>
+      </c>
+      <c r="E4" s="56">
+        <v>5</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="G4" s="56" t="s">
+        <v>1247</v>
+      </c>
+      <c r="H4" s="57">
+        <v>44348</v>
+      </c>
+      <c r="I4" s="58" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="54">
+        <v>4</v>
+      </c>
+      <c r="B5" s="54">
+        <v>5</v>
+      </c>
+      <c r="C5" s="57">
+        <v>44369</v>
+      </c>
+      <c r="D5" s="57">
+        <v>44370</v>
+      </c>
+      <c r="E5" s="56">
+        <v>2</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="G5" s="56" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H5" s="57">
+        <v>44368</v>
+      </c>
+      <c r="I5" s="58" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="59">
+        <v>17</v>
+      </c>
+      <c r="B6" s="59">
+        <v>1</v>
+      </c>
+      <c r="C6" s="60">
+        <v>44383</v>
+      </c>
+      <c r="D6" s="60">
+        <v>44385</v>
+      </c>
+      <c r="E6" s="58">
+        <v>3</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>1249</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H6" s="61">
+        <v>44385</v>
+      </c>
+      <c r="I6" s="58" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="59">
+        <v>25</v>
+      </c>
+      <c r="B7" s="59">
+        <v>1</v>
+      </c>
+      <c r="C7" s="60">
+        <v>44393</v>
+      </c>
+      <c r="D7" s="60">
+        <v>44393</v>
+      </c>
+      <c r="E7" s="58">
+        <v>1</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>1252</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>1253</v>
+      </c>
+      <c r="H7" s="61">
+        <v>44391</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="59">
+        <v>27</v>
+      </c>
+      <c r="B8" s="59">
+        <v>1</v>
+      </c>
+      <c r="C8" s="60">
+        <v>44405</v>
+      </c>
+      <c r="D8" s="60">
+        <v>44407</v>
+      </c>
+      <c r="E8" s="58">
+        <v>2</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>1249</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H8" s="61">
+        <v>44405</v>
+      </c>
+      <c r="I8" s="58" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9900" yWindow="1620" windowWidth="17660" windowHeight="13680" tabRatio="919" firstSheet="22" activeTab="31"/>
+    <workbookView xWindow="9900" yWindow="1620" windowWidth="17660" windowHeight="13680" tabRatio="919" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="department" sheetId="5" r:id="rId1"/>
@@ -12346,8 +12346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA492"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -12501,7 +12501,7 @@
         <v>1178</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>857</v>
@@ -12778,10 +12778,10 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="4" t="s">
-        <v>1189</v>
+        <v>1182</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>913</v>
@@ -30942,7 +30942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L234"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
